--- a/output/Crypto Prices.xlsx
+++ b/output/Crypto Prices.xlsx
@@ -430,3705 +430,3705 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44691.91666666666</v>
+        <v>44698</v>
       </c>
       <c r="B2">
-        <v>30987.42</v>
+        <v>29987.25</v>
       </c>
       <c r="C2">
-        <v>31144.56</v>
+        <v>30063.32</v>
       </c>
       <c r="D2">
-        <v>30239.1</v>
+        <v>29788.93</v>
       </c>
       <c r="E2">
-        <v>30239.1</v>
+        <v>29832.45</v>
       </c>
       <c r="F2">
-        <v>299.21453228</v>
+        <v>62.66580106</v>
       </c>
       <c r="G2">
-        <v>9168071.725866903</v>
+        <v>1876189.645652471</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44691.95833333334</v>
+        <v>44698.04166666666</v>
       </c>
       <c r="B3">
-        <v>30231.85</v>
+        <v>29847.53</v>
       </c>
       <c r="C3">
-        <v>30942.29</v>
+        <v>30191.04</v>
       </c>
       <c r="D3">
-        <v>30167.96</v>
+        <v>29774.63</v>
       </c>
       <c r="E3">
-        <v>30760.53</v>
+        <v>30100.09</v>
       </c>
       <c r="F3">
-        <v>261.35093449</v>
+        <v>65.7631111</v>
       </c>
       <c r="G3">
-        <v>8001412.199618952</v>
+        <v>1972211.716971415</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44692</v>
+        <v>44698.08333333334</v>
       </c>
       <c r="B4">
-        <v>30781.83</v>
+        <v>30126.96</v>
       </c>
       <c r="C4">
-        <v>31249.83</v>
+        <v>30134.88</v>
       </c>
       <c r="D4">
-        <v>30713.44</v>
+        <v>29750</v>
       </c>
       <c r="E4">
-        <v>30999.97</v>
+        <v>29958.52</v>
       </c>
       <c r="F4">
-        <v>164.33283073</v>
+        <v>53.61378733</v>
       </c>
       <c r="G4">
-        <v>5103012.710447746</v>
+        <v>1602105.02864144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44692.04166666666</v>
+        <v>44698.125</v>
       </c>
       <c r="B5">
-        <v>31002.27</v>
+        <v>29958.52</v>
       </c>
       <c r="C5">
-        <v>31336.63</v>
+        <v>30104.73</v>
       </c>
       <c r="D5">
-        <v>30806.78</v>
+        <v>29863.03</v>
       </c>
       <c r="E5">
-        <v>31046.85</v>
+        <v>30017.91</v>
       </c>
       <c r="F5">
-        <v>73.91053977999999</v>
+        <v>36.82850827</v>
       </c>
       <c r="G5">
-        <v>2297886.402078149</v>
+        <v>1103341.466947442</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44692.08333333334</v>
+        <v>44698.16666666666</v>
       </c>
       <c r="B6">
-        <v>31038.33</v>
+        <v>30008.64</v>
       </c>
       <c r="C6">
-        <v>31080.5</v>
+        <v>30465.06</v>
       </c>
       <c r="D6">
-        <v>30692.4</v>
+        <v>29974.5</v>
       </c>
       <c r="E6">
-        <v>30775.26</v>
+        <v>30335.63</v>
       </c>
       <c r="F6">
-        <v>73.90245141</v>
+        <v>106.57387355</v>
       </c>
       <c r="G6">
-        <v>2276993.021691091</v>
+        <v>3223209.24693839</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44692.125</v>
+        <v>44698.20833333334</v>
       </c>
       <c r="B7">
-        <v>30754.32</v>
+        <v>30351.57</v>
       </c>
       <c r="C7">
-        <v>31509.63</v>
+        <v>30381.37</v>
       </c>
       <c r="D7">
-        <v>30619.89</v>
+        <v>30216.13</v>
       </c>
       <c r="E7">
-        <v>31439.12</v>
+        <v>30345.65</v>
       </c>
       <c r="F7">
-        <v>188.50098633</v>
+        <v>47.19696506</v>
       </c>
       <c r="G7">
-        <v>5882331.418335447</v>
+        <v>1429418.244303761</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44692.16666666666</v>
+        <v>44698.25</v>
       </c>
       <c r="B8">
-        <v>31465.24</v>
+        <v>30348.38</v>
       </c>
       <c r="C8">
-        <v>31657.41</v>
+        <v>30479.96</v>
       </c>
       <c r="D8">
-        <v>31152.18</v>
+        <v>30250.81</v>
       </c>
       <c r="E8">
-        <v>31209.21</v>
+        <v>30430.84</v>
       </c>
       <c r="F8">
-        <v>90.74539994</v>
+        <v>54.766922</v>
       </c>
       <c r="G8">
-        <v>2850245.18387707</v>
+        <v>1663257.372716628</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44692.20833333334</v>
+        <v>44698.29166666666</v>
       </c>
       <c r="B9">
-        <v>31198.1</v>
+        <v>30408.87</v>
       </c>
       <c r="C9">
-        <v>31397.28</v>
+        <v>30505.14</v>
       </c>
       <c r="D9">
-        <v>31057.42</v>
+        <v>30318.32</v>
       </c>
       <c r="E9">
-        <v>31220.98</v>
+        <v>30486.65</v>
       </c>
       <c r="F9">
-        <v>70.02071411999999</v>
+        <v>54.41545541</v>
       </c>
       <c r="G9">
-        <v>2184575.323159047</v>
+        <v>1653999.072057728</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44692.25</v>
+        <v>44698.33333333334</v>
       </c>
       <c r="B10">
-        <v>31171.62</v>
+        <v>30500.42</v>
       </c>
       <c r="C10">
-        <v>31882.35</v>
+        <v>30530.78</v>
       </c>
       <c r="D10">
-        <v>31086.64</v>
+        <v>30312.26</v>
       </c>
       <c r="E10">
-        <v>31416.91</v>
+        <v>30383.67</v>
       </c>
       <c r="F10">
-        <v>225.85904934</v>
+        <v>50.34787108</v>
       </c>
       <c r="G10">
-        <v>7129264.904464995</v>
+        <v>1531950.099538006</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44692.29166666666</v>
+        <v>44698.375</v>
       </c>
       <c r="B11">
-        <v>31430.15</v>
+        <v>30381.57</v>
       </c>
       <c r="C11">
-        <v>31500</v>
+        <v>30753.96</v>
       </c>
       <c r="D11">
-        <v>30360.08</v>
+        <v>30340.62</v>
       </c>
       <c r="E11">
-        <v>30493.57</v>
+        <v>30554.7</v>
       </c>
       <c r="F11">
-        <v>296.45504505</v>
+        <v>68.9877484</v>
       </c>
       <c r="G11">
-        <v>9168352.361722875</v>
+        <v>2108814.553398245</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44692.33333333334</v>
+        <v>44698.41666666666</v>
       </c>
       <c r="B12">
-        <v>30500</v>
+        <v>30547.68</v>
       </c>
       <c r="C12">
-        <v>30801</v>
+        <v>30690.94</v>
       </c>
       <c r="D12">
-        <v>30219.85</v>
+        <v>30530.98</v>
       </c>
       <c r="E12">
-        <v>30611.48</v>
+        <v>30609.78</v>
       </c>
       <c r="F12">
-        <v>179.31305674</v>
+        <v>47.00876739</v>
       </c>
       <c r="G12">
-        <v>5454052.994131951</v>
+        <v>1438246.289092494</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44692.375</v>
+        <v>44698.45833333334</v>
       </c>
       <c r="B13">
-        <v>30611.48</v>
+        <v>30614.16</v>
       </c>
       <c r="C13">
-        <v>30648.46</v>
+        <v>30618.91</v>
       </c>
       <c r="D13">
-        <v>30450</v>
+        <v>30422.36</v>
       </c>
       <c r="E13">
-        <v>30474.33</v>
+        <v>30422.59</v>
       </c>
       <c r="F13">
-        <v>43.82952685</v>
+        <v>48.10089235</v>
       </c>
       <c r="G13">
-        <v>1340449.513434573</v>
+        <v>1468473.148710669</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44692.41666666666</v>
+        <v>44698.5</v>
       </c>
       <c r="B14">
-        <v>30936.93</v>
+        <v>30425.4</v>
       </c>
       <c r="C14">
-        <v>31775</v>
+        <v>30490.44</v>
       </c>
       <c r="D14">
-        <v>30936.93</v>
+        <v>30245</v>
       </c>
       <c r="E14">
-        <v>31729.16</v>
+        <v>30291</v>
       </c>
       <c r="F14">
-        <v>396.11022916</v>
+        <v>72.85167441</v>
       </c>
       <c r="G14">
-        <v>12407141.41026703</v>
+        <v>2210054.070338279</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44692.45833333334</v>
+        <v>44698.54166666666</v>
       </c>
       <c r="B15">
-        <v>31749.59</v>
+        <v>30286</v>
       </c>
       <c r="C15">
-        <v>32148.15</v>
+        <v>30618.83</v>
       </c>
       <c r="D15">
-        <v>31582.38</v>
+        <v>30266.49</v>
       </c>
       <c r="E15">
-        <v>31847.75</v>
+        <v>30546.27</v>
       </c>
       <c r="F15">
-        <v>250.22838546</v>
+        <v>129.57424794</v>
       </c>
       <c r="G15">
-        <v>7983013.497714055</v>
+        <v>3949760.05025994</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44692.5</v>
+        <v>44698.58333333334</v>
       </c>
       <c r="B16">
-        <v>31847.75</v>
+        <v>30538.65</v>
       </c>
       <c r="C16">
-        <v>31897.66</v>
+        <v>30716.69</v>
       </c>
       <c r="D16">
-        <v>31468.07</v>
+        <v>30348.19</v>
       </c>
       <c r="E16">
-        <v>31536.46</v>
+        <v>30496.02</v>
       </c>
       <c r="F16">
-        <v>177.75661289</v>
+        <v>206.06842487</v>
       </c>
       <c r="G16">
-        <v>5619281.579164908</v>
+        <v>6278468.035066066</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44692.54166666666</v>
+        <v>44698.625</v>
       </c>
       <c r="B17">
-        <v>31518.93</v>
+        <v>30494.16</v>
       </c>
       <c r="C17">
-        <v>31760.1</v>
+        <v>30536.29</v>
       </c>
       <c r="D17">
-        <v>29011.1</v>
+        <v>29917.89</v>
       </c>
       <c r="E17">
-        <v>29239.62</v>
+        <v>30038.87</v>
       </c>
       <c r="F17">
-        <v>1589.72224577</v>
+        <v>263.06375266</v>
       </c>
       <c r="G17">
-        <v>47678042.89146595</v>
+        <v>7914276.710817009</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44692.58333333334</v>
+        <v>44698.66666666666</v>
       </c>
       <c r="B18">
-        <v>29267.58</v>
+        <v>30020.74</v>
       </c>
       <c r="C18">
-        <v>31775.7</v>
+        <v>30200.7</v>
       </c>
       <c r="D18">
-        <v>29069.78</v>
+        <v>29939.1</v>
       </c>
       <c r="E18">
-        <v>31178.58</v>
+        <v>30111.5</v>
       </c>
       <c r="F18">
-        <v>1736.74433731</v>
+        <v>87.85817891000001</v>
       </c>
       <c r="G18">
-        <v>52346911.91829999</v>
+        <v>2638975.49542513</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44692.625</v>
+        <v>44698.70833333334</v>
       </c>
       <c r="B19">
-        <v>31186.85</v>
+        <v>30125.78</v>
       </c>
       <c r="C19">
-        <v>31966.63</v>
+        <v>30204.18</v>
       </c>
       <c r="D19">
-        <v>30692.4</v>
+        <v>29850</v>
       </c>
       <c r="E19">
-        <v>31756.36</v>
+        <v>30112.63</v>
       </c>
       <c r="F19">
-        <v>655.30572896</v>
+        <v>59.54254008</v>
       </c>
       <c r="G19">
-        <v>20528827.30122567</v>
+        <v>1785410.210496886</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44692.66666666666</v>
+        <v>44698.75</v>
       </c>
       <c r="B20">
-        <v>31760.17</v>
+        <v>30110.93</v>
       </c>
       <c r="C20">
-        <v>31794.48</v>
+        <v>30235.47</v>
       </c>
       <c r="D20">
-        <v>30764.42</v>
+        <v>30055.18</v>
       </c>
       <c r="E20">
-        <v>30941.71</v>
+        <v>30055.18</v>
       </c>
       <c r="F20">
-        <v>316.50066642</v>
+        <v>99.5958127</v>
       </c>
       <c r="G20">
-        <v>9892026.028520199</v>
+        <v>3004825.726425383</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44692.70833333334</v>
+        <v>44698.79166666666</v>
       </c>
       <c r="B21">
-        <v>30951.09</v>
+        <v>30076.65</v>
       </c>
       <c r="C21">
-        <v>31086.4</v>
+        <v>30205.05</v>
       </c>
       <c r="D21">
-        <v>30167.57</v>
+        <v>29400</v>
       </c>
       <c r="E21">
-        <v>30294.86</v>
+        <v>29830.36</v>
       </c>
       <c r="F21">
-        <v>264.62534494</v>
+        <v>176.11724986</v>
       </c>
       <c r="G21">
-        <v>8078284.221699608</v>
+        <v>5226970.276423046</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44692.75</v>
+        <v>44698.83333333334</v>
       </c>
       <c r="B22">
-        <v>30297.77</v>
+        <v>29805.41</v>
       </c>
       <c r="C22">
-        <v>30322.97</v>
+        <v>30276.61</v>
       </c>
       <c r="D22">
-        <v>29350</v>
+        <v>29783.66</v>
       </c>
       <c r="E22">
-        <v>29900.52</v>
+        <v>30074.73</v>
       </c>
       <c r="F22">
-        <v>848.1555562</v>
+        <v>148.29744551</v>
       </c>
       <c r="G22">
-        <v>25311346.6883703</v>
+        <v>4462498.545633307</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44692.79166666666</v>
+        <v>44698.875</v>
       </c>
       <c r="B23">
-        <v>29842.29</v>
+        <v>30072.62</v>
       </c>
       <c r="C23">
-        <v>30193.86</v>
+        <v>30182.74</v>
       </c>
       <c r="D23">
-        <v>29700</v>
+        <v>30007.64</v>
       </c>
       <c r="E23">
-        <v>29867.56</v>
+        <v>30086.39</v>
       </c>
       <c r="F23">
-        <v>262.53961573</v>
+        <v>40.80538532</v>
       </c>
       <c r="G23">
-        <v>7864234.252524068</v>
+        <v>1228696.888268706</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44692.83333333334</v>
+        <v>44698.91666666666</v>
       </c>
       <c r="B24">
-        <v>29839.07</v>
+        <v>30060.04</v>
       </c>
       <c r="C24">
-        <v>29979.54</v>
+        <v>30610</v>
       </c>
       <c r="D24">
-        <v>29113</v>
+        <v>30060.04</v>
       </c>
       <c r="E24">
-        <v>29314.51</v>
+        <v>30532.13</v>
       </c>
       <c r="F24">
-        <v>772.50618442</v>
+        <v>106.40671734</v>
       </c>
       <c r="G24">
-        <v>22730531.27491944</v>
+        <v>3235958.405678937</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44692.875</v>
+        <v>44698.95833333334</v>
       </c>
       <c r="B25">
-        <v>29323.69</v>
+        <v>30532.16</v>
       </c>
       <c r="C25">
-        <v>29568.13</v>
+        <v>30570.9</v>
       </c>
       <c r="D25">
-        <v>28228.01</v>
+        <v>30206.33</v>
       </c>
       <c r="E25">
-        <v>28418.25</v>
+        <v>30324.98</v>
       </c>
       <c r="F25">
-        <v>817.96532796</v>
+        <v>55.44638686</v>
       </c>
       <c r="G25">
-        <v>23591283.00153584</v>
+        <v>1685609.904381464</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44692.91666666666</v>
+        <v>44699</v>
       </c>
       <c r="B26">
-        <v>28421.16</v>
+        <v>30334.49</v>
       </c>
       <c r="C26">
-        <v>29211.69</v>
+        <v>30551.95</v>
       </c>
       <c r="D26">
-        <v>27757.77</v>
+        <v>30334.49</v>
       </c>
       <c r="E26">
-        <v>29025.49</v>
+        <v>30425.36</v>
       </c>
       <c r="F26">
-        <v>1187.74988252</v>
+        <v>64.69394487</v>
       </c>
       <c r="G26">
-        <v>33836505.56731436</v>
+        <v>1969847.737326567</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44692.95833333334</v>
+        <v>44699.04166666666</v>
       </c>
       <c r="B27">
-        <v>28999.15</v>
+        <v>30423.9</v>
       </c>
       <c r="C27">
-        <v>29233.19</v>
+        <v>30670</v>
       </c>
       <c r="D27">
-        <v>28428.94</v>
+        <v>30390.51</v>
       </c>
       <c r="E27">
-        <v>28760.62</v>
+        <v>30469.24</v>
       </c>
       <c r="F27">
-        <v>450.28276382</v>
+        <v>53.80417277</v>
       </c>
       <c r="G27">
-        <v>12967601.17336631</v>
+        <v>1643732.802432754</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44693</v>
+        <v>44699.08333333334</v>
       </c>
       <c r="B28">
-        <v>28756.37</v>
+        <v>30469.24</v>
       </c>
       <c r="C28">
-        <v>29000</v>
+        <v>30488.34</v>
       </c>
       <c r="D28">
-        <v>28522.67</v>
+        <v>30029.38</v>
       </c>
       <c r="E28">
-        <v>29000</v>
+        <v>30094.06</v>
       </c>
       <c r="F28">
-        <v>212.11918477</v>
+        <v>115.8467797</v>
       </c>
       <c r="G28">
-        <v>6105992.420620688</v>
+        <v>3507050.825540636</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44693.04166666666</v>
+        <v>44699.125</v>
       </c>
       <c r="B29">
-        <v>28999.99</v>
+        <v>30093.96</v>
       </c>
       <c r="C29">
-        <v>30090.7</v>
+        <v>30204.39</v>
       </c>
       <c r="D29">
-        <v>28850</v>
+        <v>30055.39</v>
       </c>
       <c r="E29">
-        <v>29724.46</v>
+        <v>30181.81</v>
       </c>
       <c r="F29">
-        <v>522.49428043</v>
+        <v>30.06830343</v>
       </c>
       <c r="G29">
-        <v>15433981.07324198</v>
+        <v>906205.188990643</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44693.08333333334</v>
+        <v>44699.16666666666</v>
       </c>
       <c r="B30">
-        <v>29696.14</v>
+        <v>30180</v>
       </c>
       <c r="C30">
-        <v>29933.55</v>
+        <v>30193.08</v>
       </c>
       <c r="D30">
-        <v>29019.8</v>
+        <v>29714.36</v>
       </c>
       <c r="E30">
-        <v>29107.25</v>
+        <v>29820.46</v>
       </c>
       <c r="F30">
-        <v>407.47735843</v>
+        <v>109.59219217</v>
       </c>
       <c r="G30">
-        <v>12008794.54630494</v>
+        <v>3272487.996402861</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44693.125</v>
+        <v>44699.20833333334</v>
       </c>
       <c r="B31">
-        <v>29104.48</v>
+        <v>29770.79</v>
       </c>
       <c r="C31">
-        <v>29338.29</v>
+        <v>29890.47</v>
       </c>
       <c r="D31">
-        <v>28574.06</v>
+        <v>29718.82</v>
       </c>
       <c r="E31">
-        <v>28695.67</v>
+        <v>29810.24</v>
       </c>
       <c r="F31">
-        <v>297.0026925</v>
+        <v>40.31499046</v>
       </c>
       <c r="G31">
-        <v>8575511.776454918</v>
+        <v>1201665.746975677</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44693.16666666666</v>
+        <v>44699.25</v>
       </c>
       <c r="B32">
-        <v>28681.09</v>
+        <v>29790.41</v>
       </c>
       <c r="C32">
-        <v>28835.83</v>
+        <v>30012.6</v>
       </c>
       <c r="D32">
-        <v>28220.18</v>
+        <v>29762.79</v>
       </c>
       <c r="E32">
-        <v>28271.21</v>
+        <v>30012.6</v>
       </c>
       <c r="F32">
-        <v>261.06967028</v>
+        <v>69.23242987</v>
       </c>
       <c r="G32">
-        <v>7435664.331082519</v>
+        <v>2071919.500933779</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44693.20833333334</v>
+        <v>44699.29166666666</v>
       </c>
       <c r="B33">
-        <v>28259.69</v>
+        <v>30005.07</v>
       </c>
       <c r="C33">
-        <v>28305.9</v>
+        <v>30056.29</v>
       </c>
       <c r="D33">
-        <v>26970</v>
+        <v>29706.83</v>
       </c>
       <c r="E33">
-        <v>27667.74</v>
+        <v>29718.26</v>
       </c>
       <c r="F33">
-        <v>1295.72420441</v>
+        <v>55.98963459</v>
       </c>
       <c r="G33">
-        <v>35775530.41047621</v>
+        <v>1674548.641354153</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44693.25</v>
+        <v>44699.33333333334</v>
       </c>
       <c r="B34">
-        <v>27640</v>
+        <v>29718.26</v>
       </c>
       <c r="C34">
-        <v>27730.18</v>
+        <v>29888.51</v>
       </c>
       <c r="D34">
-        <v>26570</v>
+        <v>29664.08</v>
       </c>
       <c r="E34">
-        <v>26797.06</v>
+        <v>29884.02</v>
       </c>
       <c r="F34">
-        <v>1678.51764461</v>
+        <v>90.63760256</v>
       </c>
       <c r="G34">
-        <v>45430166.41232336</v>
+        <v>2699604.257637416</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44693.29166666666</v>
+        <v>44699.375</v>
       </c>
       <c r="B35">
-        <v>26814.72</v>
+        <v>29889.28</v>
       </c>
       <c r="C35">
-        <v>27487.77</v>
+        <v>29917.9</v>
       </c>
       <c r="D35">
-        <v>26267.93</v>
+        <v>29715.98</v>
       </c>
       <c r="E35">
-        <v>26283.55</v>
+        <v>29838.79</v>
       </c>
       <c r="F35">
-        <v>959.92777793</v>
+        <v>59.08762476</v>
       </c>
       <c r="G35">
-        <v>25734305.91392118</v>
+        <v>1762080.610206882</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44693.33333333334</v>
+        <v>44699.41666666666</v>
       </c>
       <c r="B36">
-        <v>26283.55</v>
+        <v>29854.83</v>
       </c>
       <c r="C36">
-        <v>28226.46</v>
+        <v>29989.07</v>
       </c>
       <c r="D36">
-        <v>25401.05</v>
+        <v>29731.98</v>
       </c>
       <c r="E36">
-        <v>27717.07</v>
+        <v>29911.87</v>
       </c>
       <c r="F36">
-        <v>2039.97398328</v>
+        <v>52.5636209</v>
       </c>
       <c r="G36">
-        <v>54586884.02171446</v>
+        <v>1569324.811607093</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44693.375</v>
+        <v>44699.45833333334</v>
       </c>
       <c r="B37">
-        <v>27763.58</v>
+        <v>29924.64</v>
       </c>
       <c r="C37">
-        <v>28000</v>
+        <v>30014.95</v>
       </c>
       <c r="D37">
-        <v>27081.81</v>
+        <v>29868.43</v>
       </c>
       <c r="E37">
-        <v>27607.36</v>
+        <v>29932.54</v>
       </c>
       <c r="F37">
-        <v>1138.2348244</v>
+        <v>53.15779687</v>
       </c>
       <c r="G37">
-        <v>31380266.47905179</v>
+        <v>1592392.430163858</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44693.41666666666</v>
+        <v>44699.5</v>
       </c>
       <c r="B38">
-        <v>27612.56</v>
+        <v>29928.34</v>
       </c>
       <c r="C38">
-        <v>27993.73</v>
+        <v>29946.33</v>
       </c>
       <c r="D38">
-        <v>27398.18</v>
+        <v>29723.88</v>
       </c>
       <c r="E38">
-        <v>27548.78</v>
+        <v>29803.52</v>
       </c>
       <c r="F38">
-        <v>568.16809439</v>
+        <v>26.81199743</v>
       </c>
       <c r="G38">
-        <v>15731942.73839428</v>
+        <v>799111.6824584564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44693.45833333334</v>
+        <v>44699.54166666666</v>
       </c>
       <c r="B39">
-        <v>27567.95</v>
+        <v>29806.12</v>
       </c>
       <c r="C39">
-        <v>28452.25</v>
+        <v>29879.93</v>
       </c>
       <c r="D39">
-        <v>27277.5</v>
+        <v>29488.76</v>
       </c>
       <c r="E39">
-        <v>28216.95</v>
+        <v>29504.78</v>
       </c>
       <c r="F39">
-        <v>800.7930393</v>
+        <v>86.44766588</v>
       </c>
       <c r="G39">
-        <v>22361186.36546335</v>
+        <v>2559238.021306596</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44693.5</v>
+        <v>44699.58333333334</v>
       </c>
       <c r="B40">
-        <v>28144.46</v>
+        <v>29506.02</v>
       </c>
       <c r="C40">
-        <v>28882</v>
+        <v>29653.08</v>
       </c>
       <c r="D40">
-        <v>28047.52</v>
+        <v>29235.14</v>
       </c>
       <c r="E40">
-        <v>28250.97</v>
+        <v>29313.26</v>
       </c>
       <c r="F40">
-        <v>781.99265266</v>
+        <v>243.68307802</v>
       </c>
       <c r="G40">
-        <v>22180194.00017418</v>
+        <v>7173037.669940518</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44693.54166666666</v>
+        <v>44699.625</v>
       </c>
       <c r="B41">
-        <v>28234.26</v>
+        <v>29286.28</v>
       </c>
       <c r="C41">
-        <v>28512.41</v>
+        <v>29459.03</v>
       </c>
       <c r="D41">
-        <v>27725.77</v>
+        <v>29030</v>
       </c>
       <c r="E41">
-        <v>28307.74</v>
+        <v>29212.25</v>
       </c>
       <c r="F41">
-        <v>666.18193519</v>
+        <v>177.94537291</v>
       </c>
       <c r="G41">
-        <v>18702762.01146543</v>
+        <v>5201463.663190827</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44693.58333333334</v>
+        <v>44699.66666666666</v>
       </c>
       <c r="B42">
-        <v>28332.9</v>
+        <v>29196.81</v>
       </c>
       <c r="C42">
-        <v>28703.44</v>
+        <v>29199.57</v>
       </c>
       <c r="D42">
-        <v>27725.49</v>
+        <v>28839.29</v>
       </c>
       <c r="E42">
-        <v>27990.37</v>
+        <v>28949.1</v>
       </c>
       <c r="F42">
-        <v>964.6190278399999</v>
+        <v>240.68894207</v>
       </c>
       <c r="G42">
-        <v>27184322.457174</v>
+        <v>6977817.834325539</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44693.625</v>
+        <v>44699.70833333334</v>
       </c>
       <c r="B43">
-        <v>27992.5</v>
+        <v>28935.83</v>
       </c>
       <c r="C43">
-        <v>29511.15</v>
+        <v>29201.44</v>
       </c>
       <c r="D43">
-        <v>27782.91</v>
+        <v>28694.31</v>
       </c>
       <c r="E43">
-        <v>29389.52</v>
+        <v>29187.7</v>
       </c>
       <c r="F43">
-        <v>847.24768914</v>
+        <v>173.12046031</v>
       </c>
       <c r="G43">
-        <v>24262526.89385325</v>
+        <v>5004261.207482502</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44693.66666666666</v>
+        <v>44699.75</v>
       </c>
       <c r="B44">
-        <v>29405</v>
+        <v>29147.83</v>
       </c>
       <c r="C44">
-        <v>29702.96</v>
+        <v>29163.15</v>
       </c>
       <c r="D44">
-        <v>28871.91</v>
+        <v>28883.4</v>
       </c>
       <c r="E44">
-        <v>28891.8</v>
+        <v>28942.36</v>
       </c>
       <c r="F44">
-        <v>492.30045675</v>
+        <v>26.52315227</v>
       </c>
       <c r="G44">
-        <v>14400981.56231929</v>
+        <v>770340.8932388542</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44693.70833333334</v>
+        <v>44699.79166666666</v>
       </c>
       <c r="B45">
-        <v>28885.62</v>
+        <v>28933.68</v>
       </c>
       <c r="C45">
-        <v>29810.38</v>
+        <v>29232.99</v>
       </c>
       <c r="D45">
-        <v>28786.77</v>
+        <v>28839.29</v>
       </c>
       <c r="E45">
-        <v>29595.52</v>
+        <v>29189.17</v>
       </c>
       <c r="F45">
-        <v>566.8420644300001</v>
+        <v>43.61905893</v>
       </c>
       <c r="G45">
-        <v>16691610.28246556</v>
+        <v>1268787.447722283</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44693.75</v>
+        <v>44699.83333333334</v>
       </c>
       <c r="B46">
-        <v>29607.96</v>
+        <v>29200</v>
       </c>
       <c r="C46">
-        <v>29654.68</v>
+        <v>29493.72</v>
       </c>
       <c r="D46">
-        <v>28463.46</v>
+        <v>29138.43</v>
       </c>
       <c r="E46">
-        <v>28568.25</v>
+        <v>29219.79</v>
       </c>
       <c r="F46">
-        <v>687.15896159</v>
+        <v>172.57337791</v>
       </c>
       <c r="G46">
-        <v>19966988.445788</v>
+        <v>5060531.262040064</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44693.79166666666</v>
+        <v>44699.875</v>
       </c>
       <c r="B47">
-        <v>28552.41</v>
+        <v>29237.5</v>
       </c>
       <c r="C47">
-        <v>28728.17</v>
+        <v>29257.74</v>
       </c>
       <c r="D47">
-        <v>28070.87</v>
+        <v>28932.36</v>
       </c>
       <c r="E47">
-        <v>28277.82</v>
+        <v>29212.69</v>
       </c>
       <c r="F47">
-        <v>241.26875723</v>
+        <v>114.87694925</v>
       </c>
       <c r="G47">
-        <v>6834029.424986624</v>
+        <v>3338140.404786077</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44693.83333333334</v>
+        <v>44699.91666666666</v>
       </c>
       <c r="B48">
-        <v>28241.31</v>
+        <v>29212.69</v>
       </c>
       <c r="C48">
-        <v>28787.31</v>
+        <v>29303.23</v>
       </c>
       <c r="D48">
-        <v>28195.73</v>
+        <v>29056.78</v>
       </c>
       <c r="E48">
-        <v>28558.82</v>
+        <v>29168.2</v>
       </c>
       <c r="F48">
-        <v>182.51562198</v>
+        <v>46.07778716</v>
       </c>
       <c r="G48">
-        <v>5214822.305912273</v>
+        <v>1346347.470917927</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44693.875</v>
+        <v>44699.95833333334</v>
       </c>
       <c r="B49">
-        <v>28570.62</v>
+        <v>29170.19</v>
       </c>
       <c r="C49">
-        <v>28884</v>
+        <v>29356.87</v>
       </c>
       <c r="D49">
-        <v>28435.24</v>
+        <v>28876.7</v>
       </c>
       <c r="E49">
-        <v>28548.88</v>
+        <v>28958.4</v>
       </c>
       <c r="F49">
-        <v>594.68551617</v>
+        <v>112.55544949</v>
       </c>
       <c r="G49">
-        <v>17041315.13999756</v>
+        <v>3276650.737832075</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44693.91666666666</v>
+        <v>44700</v>
       </c>
       <c r="B50">
-        <v>28548.87</v>
+        <v>28950.96</v>
       </c>
       <c r="C50">
-        <v>28550.12</v>
+        <v>29058.32</v>
       </c>
       <c r="D50">
-        <v>27946.74</v>
+        <v>28615.23</v>
       </c>
       <c r="E50">
-        <v>28366.27</v>
+        <v>28681.26</v>
       </c>
       <c r="F50">
-        <v>323.01995189</v>
+        <v>122.93701023</v>
       </c>
       <c r="G50">
-        <v>9123004.92779107</v>
+        <v>3538897.830041653</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44693.95833333334</v>
+        <v>44700.04166666666</v>
       </c>
       <c r="B51">
-        <v>28372.05</v>
+        <v>28681.15</v>
       </c>
       <c r="C51">
-        <v>28805.3</v>
+        <v>29010.17</v>
       </c>
       <c r="D51">
-        <v>28275.7</v>
+        <v>28670.62</v>
       </c>
       <c r="E51">
-        <v>28753.05</v>
+        <v>28889.48</v>
       </c>
       <c r="F51">
-        <v>106.68887074</v>
+        <v>54.31519631</v>
       </c>
       <c r="G51">
-        <v>3051693.935869076</v>
+        <v>1566560.245681236</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44694</v>
+        <v>44700.08333333334</v>
       </c>
       <c r="B52">
-        <v>28772.5</v>
+        <v>28873.85</v>
       </c>
       <c r="C52">
-        <v>29212.68</v>
+        <v>29015.09</v>
       </c>
       <c r="D52">
-        <v>28759.35</v>
+        <v>28697.64</v>
       </c>
       <c r="E52">
-        <v>28896.19</v>
+        <v>28722.06</v>
       </c>
       <c r="F52">
-        <v>154.90552343</v>
+        <v>23.04641112</v>
       </c>
       <c r="G52">
-        <v>4492383.467670497</v>
+        <v>665780.6552354414</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44694.04166666666</v>
+        <v>44700.125</v>
       </c>
       <c r="B53">
-        <v>28932.69</v>
+        <v>28751.98</v>
       </c>
       <c r="C53">
-        <v>29519.08</v>
+        <v>29289.17</v>
       </c>
       <c r="D53">
-        <v>28686.37</v>
+        <v>28656.46</v>
       </c>
       <c r="E53">
-        <v>29492.09</v>
+        <v>29138.34</v>
       </c>
       <c r="F53">
-        <v>195.67186024</v>
+        <v>165.07819621</v>
       </c>
       <c r="G53">
-        <v>5705359.689635716</v>
+        <v>4801433.550380204</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44694.08333333334</v>
+        <v>44700.16666666666</v>
       </c>
       <c r="B54">
-        <v>29466.18</v>
+        <v>29117.9</v>
       </c>
       <c r="C54">
-        <v>29665.17</v>
+        <v>29291.71</v>
       </c>
       <c r="D54">
-        <v>29164.45</v>
+        <v>29043.4</v>
       </c>
       <c r="E54">
-        <v>29429.19</v>
+        <v>29166.54</v>
       </c>
       <c r="F54">
-        <v>158.83870218</v>
+        <v>48.13829711</v>
       </c>
       <c r="G54">
-        <v>4681146.562853103</v>
+        <v>1404834.106319124</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44694.125</v>
+        <v>44700.20833333334</v>
       </c>
       <c r="B55">
-        <v>29436.1</v>
+        <v>29170</v>
       </c>
       <c r="C55">
-        <v>30101.53</v>
+        <v>29252.72</v>
       </c>
       <c r="D55">
-        <v>29342.13</v>
+        <v>29046.49</v>
       </c>
       <c r="E55">
-        <v>30032.62</v>
+        <v>29062.16</v>
       </c>
       <c r="F55">
-        <v>252.85126599</v>
+        <v>25.44678202</v>
       </c>
       <c r="G55">
-        <v>7553114.131620173</v>
+        <v>741342.2699815284</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44694.16666666666</v>
+        <v>44700.25</v>
       </c>
       <c r="B56">
-        <v>30090.56</v>
+        <v>29072.38</v>
       </c>
       <c r="C56">
-        <v>30688.88</v>
+        <v>29156.76</v>
       </c>
       <c r="D56">
-        <v>29915.92</v>
+        <v>28993.1</v>
       </c>
       <c r="E56">
-        <v>30472.64</v>
+        <v>29037.05</v>
       </c>
       <c r="F56">
-        <v>373.98479368</v>
+        <v>28.58727871</v>
       </c>
       <c r="G56">
-        <v>11388106.42456417</v>
+        <v>830381.1830744867</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44694.20833333334</v>
+        <v>44700.29166666666</v>
       </c>
       <c r="B57">
-        <v>30517.2</v>
+        <v>29037.12</v>
       </c>
       <c r="C57">
-        <v>30517.2</v>
+        <v>29407.87</v>
       </c>
       <c r="D57">
-        <v>30185.31</v>
+        <v>29037.12</v>
       </c>
       <c r="E57">
-        <v>30389.61</v>
+        <v>29295.22</v>
       </c>
       <c r="F57">
-        <v>132.11338674</v>
+        <v>70.99954373</v>
       </c>
       <c r="G57">
-        <v>4010190.023097002</v>
+        <v>2074436.715320616</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44694.25</v>
+        <v>44700.33333333334</v>
       </c>
       <c r="B58">
-        <v>30389.61</v>
+        <v>29315.12</v>
       </c>
       <c r="C58">
-        <v>30960.64</v>
+        <v>29315.33</v>
       </c>
       <c r="D58">
-        <v>30342.39</v>
+        <v>29064.92</v>
       </c>
       <c r="E58">
-        <v>30445.88</v>
+        <v>29174.83</v>
       </c>
       <c r="F58">
-        <v>364.65739222</v>
+        <v>29.0325163</v>
       </c>
       <c r="G58">
-        <v>11201261.21020655</v>
+        <v>847349.4185222406</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44694.29166666666</v>
+        <v>44700.375</v>
       </c>
       <c r="B59">
-        <v>30447.38</v>
+        <v>29174.83</v>
       </c>
       <c r="C59">
-        <v>30615.12</v>
+        <v>29235.44</v>
       </c>
       <c r="D59">
-        <v>30259.72</v>
+        <v>28943.29</v>
       </c>
       <c r="E59">
-        <v>30305</v>
+        <v>28944.92</v>
       </c>
       <c r="F59">
-        <v>259.54206986</v>
+        <v>95.65638774999999</v>
       </c>
       <c r="G59">
-        <v>7895804.957126281</v>
+        <v>2783454.132382166</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44694.33333333334</v>
+        <v>44700.41666666666</v>
       </c>
       <c r="B60">
-        <v>30306.75</v>
+        <v>28933.76</v>
       </c>
       <c r="C60">
-        <v>30423.27</v>
+        <v>29014.52</v>
       </c>
       <c r="D60">
-        <v>30063.2</v>
+        <v>28820</v>
       </c>
       <c r="E60">
-        <v>30110.13</v>
+        <v>28983.56</v>
       </c>
       <c r="F60">
-        <v>350.8343062</v>
+        <v>115.6911723</v>
       </c>
       <c r="G60">
-        <v>10608429.64790574</v>
+        <v>3342315.388340469</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44694.375</v>
+        <v>44700.45833333334</v>
       </c>
       <c r="B61">
-        <v>30103.2</v>
+        <v>28975.06</v>
       </c>
       <c r="C61">
-        <v>30384.48</v>
+        <v>29227.3</v>
       </c>
       <c r="D61">
-        <v>30103.2</v>
+        <v>28908.82</v>
       </c>
       <c r="E61">
-        <v>30262.94</v>
+        <v>29184</v>
       </c>
       <c r="F61">
-        <v>242.60855703</v>
+        <v>60.65309126</v>
       </c>
       <c r="G61">
-        <v>7334535.729293364</v>
+        <v>1766352.466463835</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44694.41666666666</v>
+        <v>44700.5</v>
       </c>
       <c r="B62">
-        <v>30262.94</v>
+        <v>29159.9</v>
       </c>
       <c r="C62">
-        <v>30688.71</v>
+        <v>29510.81</v>
       </c>
       <c r="D62">
-        <v>30262.45</v>
+        <v>29033.3</v>
       </c>
       <c r="E62">
-        <v>30414.78</v>
+        <v>29472.59</v>
       </c>
       <c r="F62">
-        <v>174.30837581</v>
+        <v>138.02646767</v>
       </c>
       <c r="G62">
-        <v>5314165.468694379</v>
+        <v>4039539.665823502</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44694.45833333334</v>
+        <v>44700.54166666666</v>
       </c>
       <c r="B63">
-        <v>30384.42</v>
+        <v>29472.54</v>
       </c>
       <c r="C63">
-        <v>30516.13</v>
+        <v>29601</v>
       </c>
       <c r="D63">
-        <v>30137.67</v>
+        <v>29354.8</v>
       </c>
       <c r="E63">
-        <v>30442.96</v>
+        <v>29487.4</v>
       </c>
       <c r="F63">
-        <v>136.63017159</v>
+        <v>107.82594676</v>
       </c>
       <c r="G63">
-        <v>4136549.926871708</v>
+        <v>3179560.815679207</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44694.5</v>
+        <v>44700.58333333334</v>
       </c>
       <c r="B64">
-        <v>30451.53</v>
+        <v>29469.03</v>
       </c>
       <c r="C64">
-        <v>30713.71</v>
+        <v>29738.93</v>
       </c>
       <c r="D64">
-        <v>30213.23</v>
+        <v>29320.82</v>
       </c>
       <c r="E64">
-        <v>30621.73</v>
+        <v>29479.44</v>
       </c>
       <c r="F64">
-        <v>206.0450238</v>
+        <v>148.28823029</v>
       </c>
       <c r="G64">
-        <v>6275810.664979736</v>
+        <v>4388358.842495339</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44694.54166666666</v>
+        <v>44700.625</v>
       </c>
       <c r="B65">
-        <v>30621.73</v>
+        <v>29515.32</v>
       </c>
       <c r="C65">
-        <v>30796.84</v>
+        <v>29865</v>
       </c>
       <c r="D65">
-        <v>30406.97</v>
+        <v>29515.32</v>
       </c>
       <c r="E65">
-        <v>30682.48</v>
+        <v>29837.62</v>
       </c>
       <c r="F65">
-        <v>227.00134478</v>
+        <v>98.75130436000001</v>
       </c>
       <c r="G65">
-        <v>6943164.253213401</v>
+        <v>2937079.177711905</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44694.58333333334</v>
+        <v>44700.66666666666</v>
       </c>
       <c r="B66">
-        <v>30688.48</v>
+        <v>29857.86</v>
       </c>
       <c r="C66">
-        <v>30839.37</v>
+        <v>30505.14</v>
       </c>
       <c r="D66">
-        <v>30315.43</v>
+        <v>29773.34</v>
       </c>
       <c r="E66">
-        <v>30749.09</v>
+        <v>30340.93</v>
       </c>
       <c r="F66">
-        <v>276.57849933</v>
+        <v>488.24867881</v>
       </c>
       <c r="G66">
-        <v>8468101.189015124</v>
+        <v>14749691.17567847</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44694.625</v>
+        <v>44700.70833333334</v>
       </c>
       <c r="B67">
-        <v>30736.69</v>
+        <v>30365.13</v>
       </c>
       <c r="C67">
-        <v>30974.6</v>
+        <v>30446.52</v>
       </c>
       <c r="D67">
-        <v>30599.5</v>
+        <v>30066.16</v>
       </c>
       <c r="E67">
-        <v>30680.88</v>
+        <v>30105.68</v>
       </c>
       <c r="F67">
-        <v>270.39454044</v>
+        <v>345.10876854</v>
       </c>
       <c r="G67">
-        <v>8333348.28649375</v>
+        <v>10441953.3988747</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44694.66666666666</v>
+        <v>44700.75</v>
       </c>
       <c r="B68">
-        <v>30668.5</v>
+        <v>30124.78</v>
       </c>
       <c r="C68">
-        <v>30696.2</v>
+        <v>30241.95</v>
       </c>
       <c r="D68">
-        <v>30200</v>
+        <v>29932.25</v>
       </c>
       <c r="E68">
-        <v>30303.68</v>
+        <v>30177.2</v>
       </c>
       <c r="F68">
-        <v>255.93920464</v>
+        <v>144.68208394</v>
       </c>
       <c r="G68">
-        <v>7785012.661128769</v>
+        <v>4347629.42167862</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44694.70833333334</v>
+        <v>44700.79166666666</v>
       </c>
       <c r="B69">
-        <v>30309.31</v>
+        <v>30171.87</v>
       </c>
       <c r="C69">
-        <v>30486.26</v>
+        <v>30322.67</v>
       </c>
       <c r="D69">
-        <v>29710.39</v>
+        <v>30119</v>
       </c>
       <c r="E69">
-        <v>29912.34</v>
+        <v>30199.24</v>
       </c>
       <c r="F69">
-        <v>491.13702034</v>
+        <v>43.15372541</v>
       </c>
       <c r="G69">
-        <v>14734005.04562356</v>
+        <v>1304553.889505249</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44694.75</v>
+        <v>44700.83333333334</v>
       </c>
       <c r="B70">
-        <v>29897.76</v>
+        <v>30179.8</v>
       </c>
       <c r="C70">
-        <v>30236.85</v>
+        <v>30277.41</v>
       </c>
       <c r="D70">
-        <v>29538.66</v>
+        <v>29925.07</v>
       </c>
       <c r="E70">
-        <v>29578.08</v>
+        <v>29925.07</v>
       </c>
       <c r="F70">
-        <v>461.02485181</v>
+        <v>51.78559243</v>
       </c>
       <c r="G70">
-        <v>13786269.96171942</v>
+        <v>1555625.426797563</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44694.79166666666</v>
+        <v>44700.875</v>
       </c>
       <c r="B71">
-        <v>29557.92</v>
+        <v>29925.07</v>
       </c>
       <c r="C71">
-        <v>30188.35</v>
+        <v>30215.73</v>
       </c>
       <c r="D71">
-        <v>29342</v>
+        <v>29912.03</v>
       </c>
       <c r="E71">
-        <v>30086.15</v>
+        <v>30203.05</v>
       </c>
       <c r="F71">
-        <v>368.31574195</v>
+        <v>78.97104062</v>
       </c>
       <c r="G71">
-        <v>10930266.18783467</v>
+        <v>2372663.292386356</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44694.83333333334</v>
+        <v>44700.91666666666</v>
       </c>
       <c r="B72">
-        <v>30092.94</v>
+        <v>30226.36</v>
       </c>
       <c r="C72">
-        <v>30163</v>
+        <v>30457.6</v>
       </c>
       <c r="D72">
-        <v>29919.03</v>
+        <v>30179.3</v>
       </c>
       <c r="E72">
-        <v>30027.62</v>
+        <v>30226.65</v>
       </c>
       <c r="F72">
-        <v>73.09954894000001</v>
+        <v>68.98616440000001</v>
       </c>
       <c r="G72">
-        <v>2194293.753739811</v>
+        <v>2089572.170384209</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44694.875</v>
+        <v>44700.95833333334</v>
       </c>
       <c r="B73">
-        <v>30039.9</v>
+        <v>30248.82</v>
       </c>
       <c r="C73">
-        <v>30075.42</v>
+        <v>30248.82</v>
       </c>
       <c r="D73">
-        <v>29741.47</v>
+        <v>30083.65</v>
       </c>
       <c r="E73">
-        <v>29747.79</v>
+        <v>30148.18</v>
       </c>
       <c r="F73">
-        <v>196.9276718</v>
+        <v>27.55810813</v>
       </c>
       <c r="G73">
-        <v>5886486.203039641</v>
+        <v>830845.507065825</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44694.91666666666</v>
+        <v>44701</v>
       </c>
       <c r="B74">
-        <v>29751.79</v>
+        <v>30172.5</v>
       </c>
       <c r="C74">
-        <v>30029.38</v>
+        <v>30383.07</v>
       </c>
       <c r="D74">
-        <v>29667.64</v>
+        <v>30139.24</v>
       </c>
       <c r="E74">
-        <v>30000.35</v>
+        <v>30290.33</v>
       </c>
       <c r="F74">
-        <v>81.25102253</v>
+        <v>58.74386108</v>
       </c>
       <c r="G74">
-        <v>2424236.291028788</v>
+        <v>1777253.490442086</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44694.95833333334</v>
+        <v>44701.04166666666</v>
       </c>
       <c r="B75">
-        <v>29984.69</v>
+        <v>30271.22</v>
       </c>
       <c r="C75">
-        <v>30076.26</v>
+        <v>30321.95</v>
       </c>
       <c r="D75">
-        <v>29746.4</v>
+        <v>30106.53</v>
       </c>
       <c r="E75">
-        <v>29763.22</v>
+        <v>30241.1</v>
       </c>
       <c r="F75">
-        <v>100.61161344</v>
+        <v>23.46111883</v>
       </c>
       <c r="G75">
-        <v>3010181.690548219</v>
+        <v>709222.9150940494</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44695</v>
+        <v>44701.08333333334</v>
       </c>
       <c r="B76">
-        <v>29755.71</v>
+        <v>30225.47</v>
       </c>
       <c r="C76">
-        <v>29796.75</v>
+        <v>30725.56</v>
       </c>
       <c r="D76">
-        <v>29152.25</v>
+        <v>30106.25</v>
       </c>
       <c r="E76">
-        <v>29238.81</v>
+        <v>30449.48</v>
       </c>
       <c r="F76">
-        <v>359.90667388</v>
+        <v>164.67661508</v>
       </c>
       <c r="G76">
-        <v>10578082.37331659</v>
+        <v>5023411.139268897</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44695.04166666666</v>
+        <v>44701.125</v>
       </c>
       <c r="B77">
-        <v>29239.41</v>
+        <v>30462.28</v>
       </c>
       <c r="C77">
-        <v>29557.49</v>
+        <v>30483.72</v>
       </c>
       <c r="D77">
-        <v>29168.05</v>
+        <v>30201</v>
       </c>
       <c r="E77">
-        <v>29456.18</v>
+        <v>30302.37</v>
       </c>
       <c r="F77">
-        <v>133.66238078</v>
+        <v>31.84853488</v>
       </c>
       <c r="G77">
-        <v>3927992.307866137</v>
+        <v>964251.675144181</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44695.08333333334</v>
+        <v>44701.16666666666</v>
       </c>
       <c r="B78">
-        <v>29433.25</v>
+        <v>30297.45</v>
       </c>
       <c r="C78">
-        <v>29746.06</v>
+        <v>30317.73</v>
       </c>
       <c r="D78">
-        <v>29311.61</v>
+        <v>30106.82</v>
       </c>
       <c r="E78">
-        <v>29652.4</v>
+        <v>30147.74</v>
       </c>
       <c r="F78">
-        <v>221.10662815</v>
+        <v>46.04654229</v>
       </c>
       <c r="G78">
-        <v>6542989.665429739</v>
+        <v>1388798.326189712</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44695.125</v>
+        <v>44701.20833333334</v>
       </c>
       <c r="B79">
-        <v>29652.4</v>
+        <v>30133.58</v>
       </c>
       <c r="C79">
-        <v>29696.2</v>
+        <v>30205.22</v>
       </c>
       <c r="D79">
-        <v>29457.64</v>
+        <v>29979.13</v>
       </c>
       <c r="E79">
-        <v>29474.28</v>
+        <v>30083.2</v>
       </c>
       <c r="F79">
-        <v>101.91577202</v>
+        <v>64.96368591</v>
       </c>
       <c r="G79">
-        <v>3017300.930190322</v>
+        <v>1954714.832854431</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44695.16666666666</v>
+        <v>44701.25</v>
       </c>
       <c r="B80">
-        <v>29467.06</v>
+        <v>30061.8</v>
       </c>
       <c r="C80">
-        <v>29626.88</v>
+        <v>30166.65</v>
       </c>
       <c r="D80">
-        <v>29420.85</v>
+        <v>29997.67</v>
       </c>
       <c r="E80">
-        <v>29525.27</v>
+        <v>30143.91</v>
       </c>
       <c r="F80">
-        <v>62.54798042</v>
+        <v>20.60104015</v>
       </c>
       <c r="G80">
-        <v>1845025.092779671</v>
+        <v>619466.0384754936</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44695.20833333334</v>
+        <v>44701.29166666666</v>
       </c>
       <c r="B81">
-        <v>29510.96</v>
+        <v>30151.4</v>
       </c>
       <c r="C81">
-        <v>29538.07</v>
+        <v>30155.56</v>
       </c>
       <c r="D81">
-        <v>29166.42</v>
+        <v>29834.82</v>
       </c>
       <c r="E81">
-        <v>29308.85</v>
+        <v>29962.37</v>
       </c>
       <c r="F81">
-        <v>114.27533003</v>
+        <v>159.07208023</v>
       </c>
       <c r="G81">
-        <v>3347116.434607934</v>
+        <v>4763730.848959984</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44695.25</v>
+        <v>44701.33333333334</v>
       </c>
       <c r="B82">
-        <v>29312.99</v>
+        <v>29985.65</v>
       </c>
       <c r="C82">
-        <v>29461.95</v>
+        <v>30330.74</v>
       </c>
       <c r="D82">
-        <v>29220.19</v>
+        <v>29943.62</v>
       </c>
       <c r="E82">
-        <v>29402.63</v>
+        <v>30249.66</v>
       </c>
       <c r="F82">
-        <v>59.05068088</v>
+        <v>68.39393599</v>
       </c>
       <c r="G82">
-        <v>1732942.569775057</v>
+        <v>2063637.995511731</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44695.29166666666</v>
+        <v>44701.375</v>
       </c>
       <c r="B83">
-        <v>29402.63</v>
+        <v>30244.14</v>
       </c>
       <c r="C83">
-        <v>29550</v>
+        <v>30366.37</v>
       </c>
       <c r="D83">
-        <v>29320.78</v>
+        <v>30125.52</v>
       </c>
       <c r="E83">
-        <v>29454.39</v>
+        <v>30164.43</v>
       </c>
       <c r="F83">
-        <v>68.71683697</v>
+        <v>57.00635677</v>
       </c>
       <c r="G83">
-        <v>2024015.198395732</v>
+        <v>1725008.787070058</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44695.33333333334</v>
+        <v>44701.41666666666</v>
       </c>
       <c r="B84">
-        <v>29462.25</v>
+        <v>30153.5</v>
       </c>
       <c r="C84">
-        <v>29527.09</v>
+        <v>30366.36</v>
       </c>
       <c r="D84">
-        <v>29357.16</v>
+        <v>30094.37</v>
       </c>
       <c r="E84">
-        <v>29360.81</v>
+        <v>30283.94</v>
       </c>
       <c r="F84">
-        <v>59.79442594</v>
+        <v>35.72902033</v>
       </c>
       <c r="G84">
-        <v>1760842.807506531</v>
+        <v>1079336.338097328</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44695.375</v>
+        <v>44701.45833333334</v>
       </c>
       <c r="B85">
-        <v>29380.35</v>
+        <v>30285.94</v>
       </c>
       <c r="C85">
-        <v>29542.38</v>
+        <v>30402.82</v>
       </c>
       <c r="D85">
-        <v>29306.81</v>
+        <v>30234.69</v>
       </c>
       <c r="E85">
-        <v>29485.82</v>
+        <v>30392.16</v>
       </c>
       <c r="F85">
-        <v>64.44061886</v>
+        <v>46.72874749</v>
       </c>
       <c r="G85">
-        <v>1894992.13008795</v>
+        <v>1416502.831394588</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44695.41666666666</v>
+        <v>44701.5</v>
       </c>
       <c r="B86">
-        <v>29485.76</v>
+        <v>30384.14</v>
       </c>
       <c r="C86">
-        <v>29520.08</v>
+        <v>30509.15</v>
       </c>
       <c r="D86">
-        <v>29310.5</v>
+        <v>30236.13</v>
       </c>
       <c r="E86">
-        <v>29411.35</v>
+        <v>30395.87</v>
       </c>
       <c r="F86">
-        <v>117.216845</v>
+        <v>80.97247308</v>
       </c>
       <c r="G86">
-        <v>3445843.358222153</v>
+        <v>2462317.607128923</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44695.45833333334</v>
+        <v>44701.54166666666</v>
       </c>
       <c r="B87">
-        <v>29423.4</v>
+        <v>30377.87</v>
       </c>
       <c r="C87">
-        <v>29430.65</v>
+        <v>30418.47</v>
       </c>
       <c r="D87">
-        <v>29195.05</v>
+        <v>30044.41</v>
       </c>
       <c r="E87">
-        <v>29243.85</v>
+        <v>30223.05</v>
       </c>
       <c r="F87">
-        <v>116.52942188</v>
+        <v>128.52996482</v>
       </c>
       <c r="G87">
-        <v>3416058.61618633</v>
+        <v>3877678.66436163</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44695.5</v>
+        <v>44701.58333333334</v>
       </c>
       <c r="B88">
-        <v>29255.22</v>
+        <v>30229.59</v>
       </c>
       <c r="C88">
-        <v>29295.62</v>
+        <v>30388.63</v>
       </c>
       <c r="D88">
-        <v>28756.02</v>
+        <v>30072.65</v>
       </c>
       <c r="E88">
-        <v>29010.87</v>
+        <v>30340.11</v>
       </c>
       <c r="F88">
-        <v>234.67727581</v>
+        <v>36.64432377</v>
       </c>
       <c r="G88">
-        <v>6805706.092909767</v>
+        <v>1108279.76651037</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44695.54166666666</v>
+        <v>44701.625</v>
       </c>
       <c r="B89">
-        <v>29010.9</v>
+        <v>30338.4</v>
       </c>
       <c r="C89">
-        <v>29184.42</v>
+        <v>30338.4</v>
       </c>
       <c r="D89">
-        <v>28886.55</v>
+        <v>29369.93</v>
       </c>
       <c r="E89">
-        <v>29021.73</v>
+        <v>29437.44</v>
       </c>
       <c r="F89">
-        <v>68.82154074</v>
+        <v>270.07371795</v>
       </c>
       <c r="G89">
-        <v>1996872.566113683</v>
+        <v>8025181.579743561</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44695.58333333334</v>
+        <v>44701.66666666666</v>
       </c>
       <c r="B90">
-        <v>29028.22</v>
+        <v>29412.89</v>
       </c>
       <c r="C90">
-        <v>29085.42</v>
+        <v>29447.45</v>
       </c>
       <c r="D90">
-        <v>28728.77</v>
+        <v>29032.06</v>
       </c>
       <c r="E90">
-        <v>28788.69</v>
+        <v>29088.01</v>
       </c>
       <c r="F90">
-        <v>135.43948172</v>
+        <v>274.66198548</v>
       </c>
       <c r="G90">
-        <v>3901651.448471047</v>
+        <v>8029343.955954192</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44695.625</v>
+        <v>44701.70833333334</v>
       </c>
       <c r="B91">
-        <v>28786.94</v>
+        <v>29104.81</v>
       </c>
       <c r="C91">
-        <v>28934</v>
+        <v>29110.94</v>
       </c>
       <c r="D91">
-        <v>28620.49</v>
+        <v>28690.13</v>
       </c>
       <c r="E91">
-        <v>28881.87</v>
+        <v>28872.97</v>
       </c>
       <c r="F91">
-        <v>81.12383099</v>
+        <v>349.87659965</v>
       </c>
       <c r="G91">
-        <v>2331497.989784181</v>
+        <v>10108902.25231962</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44695.66666666666</v>
+        <v>44701.75</v>
       </c>
       <c r="B92">
-        <v>28897.8</v>
+        <v>28860.61</v>
       </c>
       <c r="C92">
-        <v>29026.76</v>
+        <v>28992.74</v>
       </c>
       <c r="D92">
-        <v>28717.2</v>
+        <v>28703.18</v>
       </c>
       <c r="E92">
-        <v>28771.09</v>
+        <v>28926.1</v>
       </c>
       <c r="F92">
-        <v>118.91715167</v>
+        <v>114.31988717</v>
       </c>
       <c r="G92">
-        <v>3432183.683904106</v>
+        <v>3297556.26745334</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44695.70833333334</v>
+        <v>44701.79166666666</v>
       </c>
       <c r="B93">
-        <v>28771.32</v>
+        <v>28926.1</v>
       </c>
       <c r="C93">
-        <v>29622.57</v>
+        <v>29054.81</v>
       </c>
       <c r="D93">
-        <v>28561.23</v>
+        <v>28789.02</v>
       </c>
       <c r="E93">
-        <v>29287.49</v>
+        <v>28972.61</v>
       </c>
       <c r="F93">
-        <v>305.19871584</v>
+        <v>41.37581501</v>
       </c>
       <c r="G93">
-        <v>8911478.776031053</v>
+        <v>1194725.203364217</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44695.75</v>
+        <v>44701.83333333334</v>
       </c>
       <c r="B94">
-        <v>29279.06</v>
+        <v>28972.08</v>
       </c>
       <c r="C94">
-        <v>29573.88</v>
+        <v>29317.3</v>
       </c>
       <c r="D94">
-        <v>29204.94</v>
+        <v>28910.88</v>
       </c>
       <c r="E94">
-        <v>29556.56</v>
+        <v>29253.88</v>
       </c>
       <c r="F94">
-        <v>88.01043559999999</v>
+        <v>185.58378358</v>
       </c>
       <c r="G94">
-        <v>2586851.004337144</v>
+        <v>5399466.58149706</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44695.79166666666</v>
+        <v>44701.875</v>
       </c>
       <c r="B95">
-        <v>29575.23</v>
+        <v>29265.95</v>
       </c>
       <c r="C95">
-        <v>29873.47</v>
+        <v>29320.82</v>
       </c>
       <c r="D95">
-        <v>29430.65</v>
+        <v>29090.06</v>
       </c>
       <c r="E95">
-        <v>29490.54</v>
+        <v>29101.85</v>
       </c>
       <c r="F95">
-        <v>209.3087055</v>
+        <v>44.14783968</v>
       </c>
       <c r="G95">
-        <v>6207317.188604632</v>
+        <v>1289569.798099862</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44695.83333333334</v>
+        <v>44701.91666666666</v>
       </c>
       <c r="B96">
-        <v>29497.64</v>
+        <v>29100</v>
       </c>
       <c r="C96">
-        <v>29597.2</v>
+        <v>29274.98</v>
       </c>
       <c r="D96">
-        <v>29253.39</v>
+        <v>29100</v>
       </c>
       <c r="E96">
-        <v>29298.37</v>
+        <v>29146.19</v>
       </c>
       <c r="F96">
-        <v>78.81004597</v>
+        <v>19.0776909</v>
       </c>
       <c r="G96">
-        <v>2315737.441844485</v>
+        <v>557174.0920489474</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44695.875</v>
+        <v>44701.95833333334</v>
       </c>
       <c r="B97">
-        <v>29311.63</v>
+        <v>29156.73</v>
       </c>
       <c r="C97">
-        <v>29620.09</v>
+        <v>29283.42</v>
       </c>
       <c r="D97">
-        <v>29277.48</v>
+        <v>29102.67</v>
       </c>
       <c r="E97">
-        <v>29351.18</v>
+        <v>29131.43</v>
       </c>
       <c r="F97">
-        <v>52.39558077</v>
+        <v>34.04238618</v>
       </c>
       <c r="G97">
-        <v>1540100.355607482</v>
+        <v>993357.6098202703</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44695.91666666666</v>
+        <v>44702</v>
       </c>
       <c r="B98">
-        <v>29354.7</v>
+        <v>29120.18</v>
       </c>
       <c r="C98">
-        <v>29831.14</v>
+        <v>29352.32</v>
       </c>
       <c r="D98">
-        <v>29331.57</v>
+        <v>29120.18</v>
       </c>
       <c r="E98">
-        <v>29673.78</v>
+        <v>29176.7</v>
       </c>
       <c r="F98">
-        <v>97.27820138</v>
+        <v>39.33904522</v>
       </c>
       <c r="G98">
-        <v>2883194.148562269</v>
+        <v>1151590.397269053</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44695.95833333334</v>
+        <v>44702.04166666666</v>
       </c>
       <c r="B99">
-        <v>29673.78</v>
+        <v>29176.7</v>
       </c>
       <c r="C99">
-        <v>30281.49</v>
+        <v>29321.17</v>
       </c>
       <c r="D99">
-        <v>29541.65</v>
+        <v>29126.48</v>
       </c>
       <c r="E99">
-        <v>30175.49</v>
+        <v>29253.97</v>
       </c>
       <c r="F99">
-        <v>215.04765824</v>
+        <v>28.22802043</v>
       </c>
       <c r="G99">
-        <v>6448275.869584565</v>
+        <v>825910.7319902146</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44696</v>
+        <v>44702.08333333334</v>
       </c>
       <c r="B100">
-        <v>30184.71</v>
+        <v>29254.02</v>
       </c>
       <c r="C100">
-        <v>30242.99</v>
+        <v>29271.52</v>
       </c>
       <c r="D100">
-        <v>29860.5</v>
+        <v>28914.7</v>
       </c>
       <c r="E100">
-        <v>30033.96</v>
+        <v>29122.5</v>
       </c>
       <c r="F100">
-        <v>106.70661787</v>
+        <v>28.94206503</v>
       </c>
       <c r="G100">
-        <v>3205336.624503716</v>
+        <v>840593.0182129823</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44696.04166666666</v>
+        <v>44702.125</v>
       </c>
       <c r="B101">
-        <v>30041.16</v>
+        <v>29122.51</v>
       </c>
       <c r="C101">
-        <v>30224.59</v>
+        <v>29230.93</v>
       </c>
       <c r="D101">
-        <v>29890.34</v>
+        <v>29047.09</v>
       </c>
       <c r="E101">
-        <v>29918.18</v>
+        <v>29201.31</v>
       </c>
       <c r="F101">
-        <v>41.09572262</v>
+        <v>13.11245303</v>
       </c>
       <c r="G101">
-        <v>1235145.126396849</v>
+        <v>381842.3904857524</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44696.08333333334</v>
+        <v>44702.16666666666</v>
       </c>
       <c r="B102">
-        <v>29918.18</v>
+        <v>29201.31</v>
       </c>
       <c r="C102">
-        <v>29955.85</v>
+        <v>29266.21</v>
       </c>
       <c r="D102">
-        <v>29788.94</v>
+        <v>29093.04</v>
       </c>
       <c r="E102">
-        <v>29892.59</v>
+        <v>29235.66</v>
       </c>
       <c r="F102">
-        <v>36.63511293</v>
+        <v>13.26521586</v>
       </c>
       <c r="G102">
-        <v>1093662.295906715</v>
+        <v>386703.7568436914</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44696.125</v>
+        <v>44702.20833333334</v>
       </c>
       <c r="B103">
-        <v>29879.17</v>
+        <v>29235.66</v>
       </c>
       <c r="C103">
-        <v>30005</v>
+        <v>29248.53</v>
       </c>
       <c r="D103">
-        <v>29705.88</v>
+        <v>29166.83</v>
       </c>
       <c r="E103">
-        <v>29819.57</v>
+        <v>29226.44</v>
       </c>
       <c r="F103">
-        <v>51.44861505</v>
+        <v>10.78365048</v>
       </c>
       <c r="G103">
-        <v>1532027.527932979</v>
+        <v>315059.4317580097</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44696.16666666666</v>
+        <v>44702.25</v>
       </c>
       <c r="B104">
-        <v>29831.12</v>
+        <v>29226.44</v>
       </c>
       <c r="C104">
-        <v>29862.92</v>
+        <v>29291.94</v>
       </c>
       <c r="D104">
-        <v>29514.96</v>
+        <v>29196.38</v>
       </c>
       <c r="E104">
-        <v>29696.72</v>
+        <v>29250.48</v>
       </c>
       <c r="F104">
-        <v>82.76960051</v>
+        <v>14.97442705</v>
       </c>
       <c r="G104">
-        <v>2453659.858978593</v>
+        <v>437953.2019024055</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44696.20833333334</v>
+        <v>44702.29166666666</v>
       </c>
       <c r="B105">
-        <v>29702.36</v>
+        <v>29250.52</v>
       </c>
       <c r="C105">
-        <v>29758.75</v>
+        <v>29334.89</v>
       </c>
       <c r="D105">
-        <v>29440.71</v>
+        <v>29198.12</v>
       </c>
       <c r="E105">
-        <v>29573.4</v>
+        <v>29330.03</v>
       </c>
       <c r="F105">
-        <v>59.31944709</v>
+        <v>20.37544524</v>
       </c>
       <c r="G105">
-        <v>1756461.246930625</v>
+        <v>596798.8964617894</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44696.25</v>
+        <v>44702.33333333334</v>
       </c>
       <c r="B106">
-        <v>29577.5</v>
+        <v>29338.41</v>
       </c>
       <c r="C106">
-        <v>29795.78</v>
+        <v>29539.55</v>
       </c>
       <c r="D106">
-        <v>29464.18</v>
+        <v>29283.57</v>
       </c>
       <c r="E106">
-        <v>29749.52</v>
+        <v>29387.96</v>
       </c>
       <c r="F106">
-        <v>44.76914543</v>
+        <v>60.33322605</v>
       </c>
       <c r="G106">
-        <v>1326518.752310064</v>
+        <v>1776605.809564431</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44696.29166666666</v>
+        <v>44702.375</v>
       </c>
       <c r="B107">
-        <v>29759.02</v>
+        <v>29380.86</v>
       </c>
       <c r="C107">
-        <v>29937.9</v>
+        <v>29454.12</v>
       </c>
       <c r="D107">
-        <v>29674.79</v>
+        <v>29317.89</v>
       </c>
       <c r="E107">
-        <v>29915.16</v>
+        <v>29331.13</v>
       </c>
       <c r="F107">
-        <v>77.72417403999999</v>
+        <v>18.39731836</v>
       </c>
       <c r="G107">
-        <v>2318069.960007587</v>
+        <v>540494.8853135196</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44696.33333333334</v>
+        <v>44702.41666666666</v>
       </c>
       <c r="B108">
-        <v>29956.03</v>
+        <v>29334.55</v>
       </c>
       <c r="C108">
-        <v>30001</v>
+        <v>29342</v>
       </c>
       <c r="D108">
-        <v>29745.57</v>
+        <v>29204.37</v>
       </c>
       <c r="E108">
-        <v>29790.86</v>
+        <v>29304.13</v>
       </c>
       <c r="F108">
-        <v>63.04972511</v>
+        <v>17.99707514</v>
       </c>
       <c r="G108">
-        <v>1885128.71096344</v>
+        <v>526860.682186564</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44696.375</v>
+        <v>44702.45833333334</v>
       </c>
       <c r="B109">
-        <v>29771.71</v>
+        <v>29310</v>
       </c>
       <c r="C109">
-        <v>29817.48</v>
+        <v>29391.1</v>
       </c>
       <c r="D109">
-        <v>29510.05</v>
+        <v>29176.9</v>
       </c>
       <c r="E109">
-        <v>29533.59</v>
+        <v>29266.04</v>
       </c>
       <c r="F109">
-        <v>64.41550436</v>
+        <v>26.90688179</v>
       </c>
       <c r="G109">
-        <v>1907997.538100891</v>
+        <v>787784.0240496052</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44696.41666666666</v>
+        <v>44702.5</v>
       </c>
       <c r="B110">
-        <v>29564.4</v>
+        <v>29266.12</v>
       </c>
       <c r="C110">
-        <v>29744.31</v>
+        <v>29272.92</v>
       </c>
       <c r="D110">
-        <v>29514.73</v>
+        <v>29109.86</v>
       </c>
       <c r="E110">
-        <v>29714.6</v>
+        <v>29246.48</v>
       </c>
       <c r="F110">
-        <v>54.4148171</v>
+        <v>32.10643095</v>
       </c>
       <c r="G110">
-        <v>1610950.49186263</v>
+        <v>936836.3157575076</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44696.45833333334</v>
+        <v>44702.54166666666</v>
       </c>
       <c r="B111">
-        <v>29721.6</v>
+        <v>29237.93</v>
       </c>
       <c r="C111">
-        <v>29914.3</v>
+        <v>29305.03</v>
       </c>
       <c r="D111">
-        <v>29518.5</v>
+        <v>29158.19</v>
       </c>
       <c r="E111">
-        <v>29906.34</v>
+        <v>29258.52</v>
       </c>
       <c r="F111">
-        <v>56.69156718</v>
+        <v>15.29977866</v>
       </c>
       <c r="G111">
-        <v>1685126.569791935</v>
+        <v>447720.4983966953</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44696.5</v>
+        <v>44702.58333333334</v>
       </c>
       <c r="B112">
-        <v>29914.3</v>
+        <v>29234.79</v>
       </c>
       <c r="C112">
-        <v>30264.51</v>
+        <v>29339.33</v>
       </c>
       <c r="D112">
-        <v>29756.07</v>
+        <v>29199.77</v>
       </c>
       <c r="E112">
-        <v>30206.73</v>
+        <v>29279.73</v>
       </c>
       <c r="F112">
-        <v>300.19550261</v>
+        <v>16.0767296</v>
       </c>
       <c r="G112">
-        <v>9027987.183696065</v>
+        <v>470649.2696390954</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>44696.54166666666</v>
+        <v>44702.625</v>
       </c>
       <c r="B113">
-        <v>30208.61</v>
+        <v>29271.44</v>
       </c>
       <c r="C113">
-        <v>30508.8</v>
+        <v>29439.73</v>
       </c>
       <c r="D113">
-        <v>30137.67</v>
+        <v>29228.06</v>
       </c>
       <c r="E113">
-        <v>30262.09</v>
+        <v>29348.17</v>
       </c>
       <c r="F113">
-        <v>156.02428359</v>
+        <v>12.51292505</v>
       </c>
       <c r="G113">
-        <v>4735523.27370399</v>
+        <v>366835.4586536493</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>44696.58333333334</v>
+        <v>44702.66666666666</v>
       </c>
       <c r="B114">
-        <v>30251.29</v>
+        <v>29372.94</v>
       </c>
       <c r="C114">
-        <v>30340.24</v>
+        <v>29607.39</v>
       </c>
       <c r="D114">
-        <v>30044.32</v>
+        <v>29245.08</v>
       </c>
       <c r="E114">
-        <v>30158</v>
+        <v>29521.85</v>
       </c>
       <c r="F114">
-        <v>54.83641376</v>
+        <v>64.76105330999999</v>
       </c>
       <c r="G114">
-        <v>1654582.867398439</v>
+        <v>1907330.641402198</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>44696.625</v>
+        <v>44702.70833333334</v>
       </c>
       <c r="B115">
-        <v>30136.89</v>
+        <v>29508.43</v>
       </c>
       <c r="C115">
-        <v>30164.19</v>
+        <v>29621.01</v>
       </c>
       <c r="D115">
-        <v>29737.27</v>
+        <v>29465.75</v>
       </c>
       <c r="E115">
-        <v>29955.27</v>
+        <v>29527.67</v>
       </c>
       <c r="F115">
-        <v>114.98739726</v>
+        <v>15.07986719</v>
       </c>
       <c r="G115">
-        <v>3437176.003562579</v>
+        <v>445363.4006321675</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>44696.66666666666</v>
+        <v>44702.75</v>
       </c>
       <c r="B116">
-        <v>29953.38</v>
+        <v>29533.37</v>
       </c>
       <c r="C116">
-        <v>30148.53</v>
+        <v>29554.03</v>
       </c>
       <c r="D116">
-        <v>29824.31</v>
+        <v>29354.44</v>
       </c>
       <c r="E116">
-        <v>30011.26</v>
+        <v>29379.64</v>
       </c>
       <c r="F116">
-        <v>46.87174256</v>
+        <v>16.56994252</v>
       </c>
       <c r="G116">
-        <v>1406475.094943837</v>
+        <v>487366.8557628802</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>44696.70833333334</v>
+        <v>44702.79166666666</v>
       </c>
       <c r="B117">
-        <v>29995.5</v>
+        <v>29392.74</v>
       </c>
       <c r="C117">
-        <v>30241.62</v>
+        <v>29455.56</v>
       </c>
       <c r="D117">
-        <v>29929.67</v>
+        <v>29364.73</v>
       </c>
       <c r="E117">
-        <v>30175.66</v>
+        <v>29453.76</v>
       </c>
       <c r="F117">
-        <v>41.60013581</v>
+        <v>5.19117829</v>
       </c>
       <c r="G117">
-        <v>1252661.776821377</v>
+        <v>152722.9194999387</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>44696.75</v>
+        <v>44702.83333333334</v>
       </c>
       <c r="B118">
-        <v>30188.11</v>
+        <v>29450.76</v>
       </c>
       <c r="C118">
-        <v>30232.3</v>
+        <v>29543.31</v>
       </c>
       <c r="D118">
-        <v>29927.53</v>
+        <v>29393.95</v>
       </c>
       <c r="E118">
-        <v>29982.51</v>
+        <v>29439.71</v>
       </c>
       <c r="F118">
-        <v>92.5955752</v>
+        <v>14.60478947</v>
       </c>
       <c r="G118">
-        <v>2789285.883691963</v>
+        <v>430525.2050979363</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>44696.79166666666</v>
+        <v>44702.875</v>
       </c>
       <c r="B119">
-        <v>29961.47</v>
+        <v>29441.13</v>
       </c>
       <c r="C119">
-        <v>30352.62</v>
+        <v>29489.26</v>
       </c>
       <c r="D119">
-        <v>29913.56</v>
+        <v>29313.61</v>
       </c>
       <c r="E119">
-        <v>30276.7</v>
+        <v>29387.48</v>
       </c>
       <c r="F119">
-        <v>50.57607085</v>
+        <v>13.08161955</v>
       </c>
       <c r="G119">
-        <v>1527020.893441682</v>
+        <v>384502.2538937555</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>44696.83333333334</v>
+        <v>44702.91666666666</v>
       </c>
       <c r="B120">
-        <v>30276.69</v>
+        <v>29384.56</v>
       </c>
       <c r="C120">
-        <v>30476.56</v>
+        <v>29423.51</v>
       </c>
       <c r="D120">
-        <v>30153.16</v>
+        <v>29311.53</v>
       </c>
       <c r="E120">
-        <v>30430.91</v>
+        <v>29322.83</v>
       </c>
       <c r="F120">
-        <v>55.31112984</v>
+        <v>7.80904602</v>
       </c>
       <c r="G120">
-        <v>1676220.837316288</v>
+        <v>229468.1941082116</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>44696.875</v>
+        <v>44702.95833333334</v>
       </c>
       <c r="B121">
-        <v>30430.93</v>
+        <v>29308.98</v>
       </c>
       <c r="C121">
-        <v>31101</v>
+        <v>29377.54</v>
       </c>
       <c r="D121">
-        <v>30321.08</v>
+        <v>29274.02</v>
       </c>
       <c r="E121">
-        <v>31028.5</v>
+        <v>29368.72</v>
       </c>
       <c r="F121">
-        <v>279.69568488</v>
+        <v>11.49910736</v>
       </c>
       <c r="G121">
-        <v>8617409.234295791</v>
+        <v>337209.2106222639</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>44696.91666666666</v>
+        <v>44703</v>
       </c>
       <c r="B122">
-        <v>31023.55</v>
+        <v>29377.53</v>
       </c>
       <c r="C122">
-        <v>31164.81</v>
+        <v>29489.77</v>
       </c>
       <c r="D122">
-        <v>30822.94</v>
+        <v>29368.76</v>
       </c>
       <c r="E122">
-        <v>31031.75</v>
+        <v>29421.05</v>
       </c>
       <c r="F122">
-        <v>77.69522007</v>
+        <v>12.51913808</v>
       </c>
       <c r="G122">
-        <v>2408674.099950149</v>
+        <v>368386.6291105811</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>44696.95833333334</v>
+        <v>44703.04166666666</v>
       </c>
       <c r="B123">
-        <v>31054.5</v>
+        <v>29400.34</v>
       </c>
       <c r="C123">
-        <v>31411.48</v>
+        <v>29468.86</v>
       </c>
       <c r="D123">
-        <v>31040.22</v>
+        <v>29365.56</v>
       </c>
       <c r="E123">
-        <v>31050.99</v>
+        <v>29442.92</v>
       </c>
       <c r="F123">
-        <v>122.11072982</v>
+        <v>6.46786204</v>
       </c>
       <c r="G123">
-        <v>3814091.447726418</v>
+        <v>190348.6981063444</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>44697</v>
+        <v>44703.08333333334</v>
       </c>
       <c r="B124">
-        <v>31050.65</v>
+        <v>29447.36</v>
       </c>
       <c r="C124">
-        <v>31361.74</v>
+        <v>29507.3</v>
       </c>
       <c r="D124">
-        <v>31007.04</v>
+        <v>29446.79</v>
       </c>
       <c r="E124">
-        <v>31295.03</v>
+        <v>29478.56</v>
       </c>
       <c r="F124">
-        <v>60.23298317</v>
+        <v>6.51034241</v>
       </c>
       <c r="G124">
-        <v>1879037.610767497</v>
+        <v>191901.8029282077</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>44697.04166666666</v>
+        <v>44703.125</v>
       </c>
       <c r="B125">
-        <v>31275.27</v>
+        <v>29470.54</v>
       </c>
       <c r="C125">
-        <v>31275.27</v>
+        <v>29480.03</v>
       </c>
       <c r="D125">
-        <v>31007.32</v>
+        <v>29332.8</v>
       </c>
       <c r="E125">
-        <v>31088.41</v>
+        <v>29361.53</v>
       </c>
       <c r="F125">
-        <v>54.03039907</v>
+        <v>13.18925411</v>
       </c>
       <c r="G125">
-        <v>1679023.306284154</v>
+        <v>387631.6797955056</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>44697.08333333334</v>
+        <v>44703.16666666666</v>
       </c>
       <c r="B126">
-        <v>31065.82</v>
+        <v>29352.17</v>
       </c>
       <c r="C126">
-        <v>31099.99</v>
+        <v>29456.06</v>
       </c>
       <c r="D126">
-        <v>30654.6</v>
+        <v>29300</v>
       </c>
       <c r="E126">
-        <v>30723.48</v>
+        <v>29319.57</v>
       </c>
       <c r="F126">
-        <v>89.46010033</v>
+        <v>24.80801243</v>
       </c>
       <c r="G126">
-        <v>2760324.598186733</v>
+        <v>728669.2928218396</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>44697.125</v>
+        <v>44703.20833333334</v>
       </c>
       <c r="B127">
-        <v>30742.57</v>
+        <v>29319.57</v>
       </c>
       <c r="C127">
-        <v>30742.57</v>
+        <v>29330.23</v>
       </c>
       <c r="D127">
-        <v>30351.79</v>
+        <v>29209.03</v>
       </c>
       <c r="E127">
-        <v>30446.67</v>
+        <v>29253.1</v>
       </c>
       <c r="F127">
-        <v>133.44152841</v>
+        <v>28.78509249</v>
       </c>
       <c r="G127">
-        <v>4070336.454093726</v>
+        <v>842474.289824659</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>44697.16666666666</v>
+        <v>44703.25</v>
       </c>
       <c r="B128">
-        <v>30461.07</v>
+        <v>29260.61</v>
       </c>
       <c r="C128">
-        <v>30480.05</v>
+        <v>29381.04</v>
       </c>
       <c r="D128">
-        <v>30195.64</v>
+        <v>29260.1</v>
       </c>
       <c r="E128">
-        <v>30277.99</v>
+        <v>29338.03</v>
       </c>
       <c r="F128">
-        <v>56.86784171</v>
+        <v>14.95332826</v>
       </c>
       <c r="G128">
-        <v>1723754.565035693</v>
+        <v>438709.8765705662</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>44697.20833333334</v>
+        <v>44703.29166666666</v>
       </c>
       <c r="B129">
-        <v>30284.21</v>
+        <v>29339.73</v>
       </c>
       <c r="C129">
-        <v>30409.27</v>
+        <v>29378.68</v>
       </c>
       <c r="D129">
-        <v>30105.47</v>
+        <v>29315.42</v>
       </c>
       <c r="E129">
-        <v>30323.71</v>
+        <v>29375.5</v>
       </c>
       <c r="F129">
-        <v>97.07830255</v>
+        <v>13.66094947</v>
       </c>
       <c r="G129">
-        <v>2938586.739828402</v>
+        <v>400954.5533438026</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>44697.25</v>
+        <v>44703.33333333334</v>
       </c>
       <c r="B130">
-        <v>30311.42</v>
+        <v>29376.99</v>
       </c>
       <c r="C130">
-        <v>30430.68</v>
+        <v>29419.99</v>
       </c>
       <c r="D130">
-        <v>30227.59</v>
+        <v>29321.76</v>
       </c>
       <c r="E130">
-        <v>30251.78</v>
+        <v>29409.25</v>
       </c>
       <c r="F130">
-        <v>55.00386707</v>
+        <v>15.77610204</v>
       </c>
       <c r="G130">
-        <v>1669425.170748216</v>
+        <v>463366.7269011666</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>44697.29166666666</v>
+        <v>44703.375</v>
       </c>
       <c r="B131">
-        <v>30235.22</v>
+        <v>29399.32</v>
       </c>
       <c r="C131">
-        <v>30235.22</v>
+        <v>29557.49</v>
       </c>
       <c r="D131">
-        <v>29347.12</v>
+        <v>29393.06</v>
       </c>
       <c r="E131">
-        <v>29534.24</v>
+        <v>29526.67</v>
       </c>
       <c r="F131">
-        <v>354.21984382</v>
+        <v>43.74179501</v>
       </c>
       <c r="G131">
-        <v>10514108.33194936</v>
+        <v>1290110.678418876</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>44697.33333333334</v>
+        <v>44703.41666666666</v>
       </c>
       <c r="B132">
-        <v>29535.05</v>
+        <v>29535.27</v>
       </c>
       <c r="C132">
-        <v>29689.01</v>
+        <v>30152.14</v>
       </c>
       <c r="D132">
-        <v>29285.65</v>
+        <v>29495.54</v>
       </c>
       <c r="E132">
-        <v>29572.44</v>
+        <v>30120.8</v>
       </c>
       <c r="F132">
-        <v>114.27503423</v>
+        <v>244.42196012</v>
       </c>
       <c r="G132">
-        <v>3367415.549408786</v>
+        <v>7300035.106888049</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>44697.375</v>
+        <v>44703.45833333334</v>
       </c>
       <c r="B133">
-        <v>29562.24</v>
+        <v>30124.5</v>
       </c>
       <c r="C133">
-        <v>29853.34</v>
+        <v>30275.41</v>
       </c>
       <c r="D133">
-        <v>29562.24</v>
+        <v>30046.31</v>
       </c>
       <c r="E133">
-        <v>29760</v>
+        <v>30160.53</v>
       </c>
       <c r="F133">
-        <v>117.15063446</v>
+        <v>111.47820727</v>
       </c>
       <c r="G133">
-        <v>3484667.310659428</v>
+        <v>3363365.52451481</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>44697.41666666666</v>
+        <v>44703.5</v>
       </c>
       <c r="B134">
-        <v>29760</v>
+        <v>30142.51</v>
       </c>
       <c r="C134">
-        <v>29760</v>
+        <v>30210.08</v>
       </c>
       <c r="D134">
-        <v>29446</v>
+        <v>29814.28</v>
       </c>
       <c r="E134">
-        <v>29589.13</v>
+        <v>29854.18</v>
       </c>
       <c r="F134">
-        <v>73.88709699</v>
+        <v>254.5113595</v>
       </c>
       <c r="G134">
-        <v>2186825.979080557</v>
+        <v>7635171.091095019</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>44697.45833333334</v>
+        <v>44703.54166666666</v>
       </c>
       <c r="B135">
-        <v>29565.77</v>
+        <v>29880.2</v>
       </c>
       <c r="C135">
-        <v>30163</v>
+        <v>30185.44</v>
       </c>
       <c r="D135">
-        <v>29412.43</v>
+        <v>29879.85</v>
       </c>
       <c r="E135">
-        <v>30153.38</v>
+        <v>30123.79</v>
       </c>
       <c r="F135">
-        <v>158.55099223</v>
+        <v>47.61004173</v>
       </c>
       <c r="G135">
-        <v>4744237.376013213</v>
+        <v>1430471.290847914</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>44697.5</v>
+        <v>44703.58333333334</v>
       </c>
       <c r="B136">
-        <v>30142.65</v>
+        <v>30126.08</v>
       </c>
       <c r="C136">
-        <v>30143.45</v>
+        <v>30126.53</v>
       </c>
       <c r="D136">
-        <v>29896.13</v>
+        <v>29923.48</v>
       </c>
       <c r="E136">
-        <v>29906.58</v>
+        <v>30019.41</v>
       </c>
       <c r="F136">
-        <v>80.06945939000001</v>
+        <v>12.17771649</v>
       </c>
       <c r="G136">
-        <v>2401551.645819454</v>
+        <v>365607.432699659</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>44697.54166666666</v>
+        <v>44703.625</v>
       </c>
       <c r="B137">
-        <v>29925.62</v>
+        <v>30031.72</v>
       </c>
       <c r="C137">
-        <v>30227.02</v>
+        <v>30111</v>
       </c>
       <c r="D137">
-        <v>29558.4</v>
+        <v>29886.65</v>
       </c>
       <c r="E137">
-        <v>29873.49</v>
+        <v>29932.75</v>
       </c>
       <c r="F137">
-        <v>241.3775389</v>
+        <v>33.07640954</v>
       </c>
       <c r="G137">
-        <v>7216917.384063332</v>
+        <v>991609.4120124429</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>44697.58333333334</v>
+        <v>44703.66666666666</v>
       </c>
       <c r="B138">
-        <v>29830.9</v>
+        <v>29919.13</v>
       </c>
       <c r="C138">
-        <v>30050.61</v>
+        <v>29946.97</v>
       </c>
       <c r="D138">
-        <v>29412.43</v>
+        <v>29642.73</v>
       </c>
       <c r="E138">
-        <v>29490.87</v>
+        <v>29817.94</v>
       </c>
       <c r="F138">
-        <v>239.72722659</v>
+        <v>106.6930581</v>
       </c>
       <c r="G138">
-        <v>7120837.53849914</v>
+        <v>3173467.514472336</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>44697.625</v>
+        <v>44703.70833333334</v>
       </c>
       <c r="B139">
-        <v>29490.74</v>
+        <v>29805</v>
       </c>
       <c r="C139">
-        <v>29803.23</v>
+        <v>29932.48</v>
       </c>
       <c r="D139">
-        <v>29437.15</v>
+        <v>29723.09</v>
       </c>
       <c r="E139">
-        <v>29459.26</v>
+        <v>29909.95</v>
       </c>
       <c r="F139">
-        <v>155.94085166</v>
+        <v>13.93841686</v>
       </c>
       <c r="G139">
-        <v>4611807.16147521</v>
+        <v>415806.5647384176</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>44697.66666666666</v>
+        <v>44703.75</v>
       </c>
       <c r="B140">
-        <v>29449.57</v>
+        <v>29903.86</v>
       </c>
       <c r="C140">
-        <v>29692.57</v>
+        <v>30144.91</v>
       </c>
       <c r="D140">
-        <v>29289.17</v>
+        <v>29858.04</v>
       </c>
       <c r="E140">
-        <v>29620.45</v>
+        <v>29905.16</v>
       </c>
       <c r="F140">
-        <v>140.49357413</v>
+        <v>93.95444329</v>
       </c>
       <c r="G140">
-        <v>4146685.692630442</v>
+        <v>2819753.840173764</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>44697.70833333334</v>
+        <v>44703.79166666666</v>
       </c>
       <c r="B141">
-        <v>29616.29</v>
+        <v>29892.87</v>
       </c>
       <c r="C141">
-        <v>29712.35</v>
+        <v>30012.68</v>
       </c>
       <c r="D141">
-        <v>29060</v>
+        <v>29816.09</v>
       </c>
       <c r="E141">
-        <v>29286.61</v>
+        <v>30005.58</v>
       </c>
       <c r="F141">
-        <v>252.7752639</v>
+        <v>18.79890139</v>
       </c>
       <c r="G141">
-        <v>7417052.361433935</v>
+        <v>563092.2683964941</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>44697.75</v>
+        <v>44703.83333333334</v>
       </c>
       <c r="B142">
-        <v>29284.38</v>
+        <v>30005.58</v>
       </c>
       <c r="C142">
-        <v>29786.86</v>
+        <v>30050.15</v>
       </c>
       <c r="D142">
-        <v>29238.17</v>
+        <v>29879</v>
       </c>
       <c r="E142">
-        <v>29692.6</v>
+        <v>29902.45</v>
       </c>
       <c r="F142">
-        <v>103.67238226</v>
+        <v>13.75887267</v>
       </c>
       <c r="G142">
-        <v>3067678.572154075</v>
+        <v>412121.7325560024</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>44697.79166666666</v>
+        <v>44703.875</v>
       </c>
       <c r="B143">
-        <v>29684.21</v>
+        <v>29895.87</v>
       </c>
       <c r="C143">
-        <v>29935.84</v>
+        <v>30065.05</v>
       </c>
       <c r="D143">
-        <v>29633.69</v>
+        <v>29878.48</v>
       </c>
       <c r="E143">
-        <v>29891.5</v>
+        <v>29914.02</v>
       </c>
       <c r="F143">
-        <v>116.74931995</v>
+        <v>36.43520227</v>
       </c>
       <c r="G143">
-        <v>3482715.560015284</v>
+        <v>1092646.688448868</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>44697.83333333334</v>
+        <v>44703.91666666666</v>
       </c>
       <c r="B144">
-        <v>29886.29</v>
+        <v>29912.83</v>
       </c>
       <c r="C144">
-        <v>29939.43</v>
+        <v>30054.88</v>
       </c>
       <c r="D144">
-        <v>29522.1</v>
+        <v>29878.74</v>
       </c>
       <c r="E144">
-        <v>29569.7</v>
+        <v>29983.82</v>
       </c>
       <c r="F144">
-        <v>137.68791401</v>
+        <v>17.40335748</v>
       </c>
       <c r="G144">
-        <v>4089031.285928321</v>
+        <v>521629.9324532564</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>44697.875</v>
+        <v>44703.95833333334</v>
       </c>
       <c r="B145">
-        <v>29555.88</v>
+        <v>29997.71</v>
       </c>
       <c r="C145">
-        <v>29910.71</v>
+        <v>30453.94</v>
       </c>
       <c r="D145">
-        <v>29511.35</v>
+        <v>29997.71</v>
       </c>
       <c r="E145">
-        <v>29910.71</v>
+        <v>30256.14</v>
       </c>
       <c r="F145">
-        <v>63.73090577</v>
+        <v>86.4829211</v>
       </c>
       <c r="G145">
-        <v>1892636.66771905</v>
+        <v>2618481.199876099</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>44697.91666666666</v>
+        <v>44704</v>
       </c>
       <c r="B146">
-        <v>29905.96</v>
+        <v>30270.04</v>
       </c>
       <c r="C146">
-        <v>30213.71</v>
+        <v>30457.58</v>
       </c>
       <c r="D146">
-        <v>29889.73</v>
+        <v>30250.03</v>
       </c>
       <c r="E146">
-        <v>30142.78</v>
+        <v>30264.66</v>
       </c>
       <c r="F146">
-        <v>178.85028989</v>
+        <v>60.26057367</v>
       </c>
       <c r="G146">
-        <v>5372375.464423779</v>
+        <v>1829681.020571287</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>44697.95833333334</v>
+        <v>44704.04166666666</v>
       </c>
       <c r="B147">
-        <v>30159.36</v>
+        <v>30264.66</v>
       </c>
       <c r="C147">
-        <v>30184.72</v>
+        <v>30429.73</v>
       </c>
       <c r="D147">
-        <v>29933.07</v>
+        <v>30169.8</v>
       </c>
       <c r="E147">
-        <v>29966.25</v>
+        <v>30269.44</v>
       </c>
       <c r="F147">
-        <v>35.08812171</v>
+        <v>41.66779646</v>
       </c>
       <c r="G147">
-        <v>1055670.511709307</v>
+        <v>1261918.571617745</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>44698</v>
+        <v>44704.08333333334</v>
       </c>
       <c r="B148">
-        <v>29987.25</v>
+        <v>30235.79</v>
       </c>
       <c r="C148">
-        <v>30063.32</v>
+        <v>30241.53</v>
       </c>
       <c r="D148">
-        <v>29788.93</v>
+        <v>30135.89</v>
       </c>
       <c r="E148">
-        <v>29832.45</v>
+        <v>30184.62</v>
       </c>
       <c r="F148">
-        <v>62.66580106</v>
+        <v>17.04894028</v>
       </c>
       <c r="G148">
-        <v>1876189.645652471</v>
+        <v>514563.3635951518</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>44698.04166666666</v>
+        <v>44704.125</v>
       </c>
       <c r="B149">
-        <v>29847.53</v>
+        <v>30164.82</v>
       </c>
       <c r="C149">
-        <v>30191.04</v>
+        <v>30177.44</v>
       </c>
       <c r="D149">
-        <v>29774.63</v>
+        <v>30012.94</v>
       </c>
       <c r="E149">
-        <v>30100.09</v>
+        <v>30104.98</v>
       </c>
       <c r="F149">
-        <v>65.7631111</v>
+        <v>34.30717578</v>
       </c>
       <c r="G149">
-        <v>1972211.716971415</v>
+        <v>1031615.766506551</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>44698.08333333334</v>
+        <v>44704.16666666666</v>
       </c>
       <c r="B150">
-        <v>30126.96</v>
+        <v>30110</v>
       </c>
       <c r="C150">
-        <v>30134.88</v>
+        <v>30181.97</v>
       </c>
       <c r="D150">
-        <v>29750</v>
+        <v>30071.59</v>
       </c>
       <c r="E150">
-        <v>29958.52</v>
+        <v>30149.31</v>
       </c>
       <c r="F150">
-        <v>53.61378733</v>
+        <v>29.35368333</v>
       </c>
       <c r="G150">
-        <v>1602105.02864144</v>
+        <v>884075.3473637179</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>44698.125</v>
+        <v>44704.20833333334</v>
       </c>
       <c r="B151">
-        <v>29958.52</v>
+        <v>30131.32</v>
       </c>
       <c r="C151">
-        <v>30104.73</v>
+        <v>30214.13</v>
       </c>
       <c r="D151">
-        <v>29863.03</v>
+        <v>30090.68</v>
       </c>
       <c r="E151">
-        <v>30017.91</v>
+        <v>30108.06</v>
       </c>
       <c r="F151">
-        <v>36.82850827</v>
+        <v>24.51956934</v>
       </c>
       <c r="G151">
-        <v>1103341.466947442</v>
+        <v>739591.7108312557</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>44698.16666666666</v>
+        <v>44704.25</v>
       </c>
       <c r="B152">
-        <v>30008.64</v>
+        <v>30098.7</v>
       </c>
       <c r="C152">
-        <v>30465.06</v>
+        <v>30294.47</v>
       </c>
       <c r="D152">
-        <v>29974.5</v>
+        <v>30092.93</v>
       </c>
       <c r="E152">
-        <v>30335.63</v>
+        <v>30275.28</v>
       </c>
       <c r="F152">
-        <v>106.57387355</v>
+        <v>13.1877254</v>
       </c>
       <c r="G152">
-        <v>3223209.24693839</v>
+        <v>397757.4674313466</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>44698.20833333334</v>
+        <v>44704.29166666666</v>
       </c>
       <c r="B153">
-        <v>30351.57</v>
+        <v>30283.64</v>
       </c>
       <c r="C153">
-        <v>30381.37</v>
+        <v>30614</v>
       </c>
       <c r="D153">
-        <v>30216.13</v>
+        <v>30269.09</v>
       </c>
       <c r="E153">
-        <v>30345.65</v>
+        <v>30464.98</v>
       </c>
       <c r="F153">
-        <v>47.19696506</v>
+        <v>130.42936605</v>
       </c>
       <c r="G153">
-        <v>1429418.244303761</v>
+        <v>3976083.776520646</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>44698.25</v>
+        <v>44704.33333333334</v>
       </c>
       <c r="B154">
-        <v>30348.38</v>
+        <v>30469.75</v>
       </c>
       <c r="C154">
-        <v>30479.96</v>
+        <v>30628</v>
       </c>
       <c r="D154">
-        <v>30250.81</v>
+        <v>30395.27</v>
       </c>
       <c r="E154">
-        <v>30430.84</v>
+        <v>30425</v>
       </c>
       <c r="F154">
-        <v>54.766922</v>
+        <v>65.34470032</v>
       </c>
       <c r="G154">
-        <v>1663257.372716628</v>
+        <v>1993711.585457716</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>44698.29166666666</v>
+        <v>44704.375</v>
       </c>
       <c r="B155">
-        <v>30408.87</v>
+        <v>30416.26</v>
       </c>
       <c r="C155">
-        <v>30505.14</v>
+        <v>30481.13</v>
       </c>
       <c r="D155">
-        <v>30318.32</v>
+        <v>30255.3</v>
       </c>
       <c r="E155">
-        <v>30486.65</v>
+        <v>30324.6</v>
       </c>
       <c r="F155">
-        <v>54.41545541</v>
+        <v>79.27136743</v>
       </c>
       <c r="G155">
-        <v>1653999.072057728</v>
+        <v>2407086.149779728</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>44698.33333333334</v>
+        <v>44704.41666666666</v>
       </c>
       <c r="B156">
-        <v>30500.42</v>
+        <v>30327.04</v>
       </c>
       <c r="C156">
-        <v>30530.78</v>
+        <v>30474.54</v>
       </c>
       <c r="D156">
-        <v>30312.26</v>
+        <v>30275.6</v>
       </c>
       <c r="E156">
-        <v>30383.67</v>
+        <v>30426.03</v>
       </c>
       <c r="F156">
-        <v>50.34787108</v>
+        <v>27.27479698</v>
       </c>
       <c r="G156">
-        <v>1531950.099538006</v>
+        <v>828486.4607021346</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>44698.375</v>
+        <v>44704.45833333334</v>
       </c>
       <c r="B157">
-        <v>30381.57</v>
+        <v>30417.43</v>
       </c>
       <c r="C157">
-        <v>30753.96</v>
+        <v>30525</v>
       </c>
       <c r="D157">
-        <v>30340.62</v>
+        <v>30382.77</v>
       </c>
       <c r="E157">
-        <v>30554.7</v>
+        <v>30450</v>
       </c>
       <c r="F157">
-        <v>68.9877484</v>
+        <v>39.99874856</v>
       </c>
       <c r="G157">
-        <v>2108814.553398245</v>
+        <v>1218145.091936161</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>44698.41666666666</v>
+        <v>44704.5</v>
       </c>
       <c r="B158">
-        <v>30547.68</v>
+        <v>30456.13</v>
       </c>
       <c r="C158">
-        <v>30690.94</v>
+        <v>30598.42</v>
       </c>
       <c r="D158">
-        <v>30530.98</v>
+        <v>30323.09</v>
       </c>
       <c r="E158">
-        <v>30609.78</v>
+        <v>30365.32</v>
       </c>
       <c r="F158">
-        <v>47.00876739</v>
+        <v>41.8195799</v>
       </c>
       <c r="G158">
-        <v>1438246.289092494</v>
+        <v>1273085.258392787</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>44698.45833333334</v>
+        <v>44704.54166666666</v>
       </c>
       <c r="B159">
-        <v>30614.16</v>
+        <v>30369.52</v>
       </c>
       <c r="C159">
-        <v>30618.91</v>
+        <v>30600</v>
       </c>
       <c r="D159">
-        <v>30422.36</v>
+        <v>30318.12</v>
       </c>
       <c r="E159">
-        <v>30422.59</v>
+        <v>30360.45</v>
       </c>
       <c r="F159">
-        <v>48.10089235</v>
+        <v>50.36566037</v>
       </c>
       <c r="G159">
-        <v>1468473.148710669</v>
+        <v>1532583.303158008</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>44698.5</v>
+        <v>44704.58333333334</v>
       </c>
       <c r="B160">
-        <v>30425.4</v>
+        <v>30355.43</v>
       </c>
       <c r="C160">
-        <v>30490.44</v>
+        <v>30525</v>
       </c>
       <c r="D160">
-        <v>30245</v>
+        <v>30135.66</v>
       </c>
       <c r="E160">
-        <v>30291</v>
+        <v>30300</v>
       </c>
       <c r="F160">
-        <v>72.85167441</v>
+        <v>232.38787267</v>
       </c>
       <c r="G160">
-        <v>2210054.070338279</v>
+        <v>7055982.007091243</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>44698.54166666666</v>
+        <v>44704.625</v>
       </c>
       <c r="B161">
-        <v>30286</v>
+        <v>30289.37</v>
       </c>
       <c r="C161">
-        <v>30618.83</v>
+        <v>30317.17</v>
       </c>
       <c r="D161">
-        <v>30266.49</v>
+        <v>29944.61</v>
       </c>
       <c r="E161">
-        <v>30546.27</v>
+        <v>30229.6</v>
       </c>
       <c r="F161">
-        <v>129.57424794</v>
+        <v>143.75263168</v>
       </c>
       <c r="G161">
-        <v>3949760.05025994</v>
+        <v>4330245.225600583</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>44698.58333333334</v>
+        <v>44704.66666666666</v>
       </c>
       <c r="B162">
-        <v>30538.65</v>
+        <v>30232.6</v>
       </c>
       <c r="C162">
-        <v>30662.95</v>
+        <v>30385.37</v>
       </c>
       <c r="D162">
-        <v>30348.19</v>
+        <v>30202.07</v>
       </c>
       <c r="E162">
-        <v>30645.07</v>
+        <v>30313.69</v>
       </c>
       <c r="F162">
-        <v>187.14215596</v>
+        <v>39.85363271</v>
       </c>
       <c r="G162">
-        <v>5699277.297512994</v>
+        <v>1208168.107062585</v>
       </c>
     </row>
   </sheetData>
@@ -4169,3705 +4169,3705 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44691.91666666666</v>
+        <v>44698</v>
       </c>
       <c r="B2">
-        <v>2327.06</v>
+        <v>2030.99</v>
       </c>
       <c r="C2">
-        <v>2340.18</v>
+        <v>2033.58</v>
       </c>
       <c r="D2">
-        <v>2261.4</v>
+        <v>2015.64</v>
       </c>
       <c r="E2">
-        <v>2263.55</v>
+        <v>2020.84</v>
       </c>
       <c r="F2">
-        <v>899.95388723</v>
+        <v>304.79886491</v>
       </c>
       <c r="G2">
-        <v>2072571.130617831</v>
+        <v>618064.4831303729</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44691.95833333334</v>
+        <v>44698.04166666666</v>
       </c>
       <c r="B3">
-        <v>2264.01</v>
+        <v>2021.27</v>
       </c>
       <c r="C3">
-        <v>2329.29</v>
+        <v>2050.23</v>
       </c>
       <c r="D3">
-        <v>2260</v>
+        <v>2016.88</v>
       </c>
       <c r="E3">
-        <v>2319.61</v>
+        <v>2045.57</v>
       </c>
       <c r="F3">
-        <v>897.34292106</v>
+        <v>910.00828838</v>
       </c>
       <c r="G3">
-        <v>2059580.850885202</v>
+        <v>1855032.675495462</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44692</v>
+        <v>44698.08333333334</v>
       </c>
       <c r="B4">
-        <v>2319.61</v>
+        <v>2047.5</v>
       </c>
       <c r="C4">
-        <v>2365.2</v>
+        <v>2048.18</v>
       </c>
       <c r="D4">
-        <v>2313.32</v>
+        <v>2023.12</v>
       </c>
       <c r="E4">
-        <v>2342.12</v>
+        <v>2036.14</v>
       </c>
       <c r="F4">
-        <v>1656.97571195</v>
+        <v>442.50648837</v>
       </c>
       <c r="G4">
-        <v>3879603.7190997</v>
+        <v>899670.2984593677</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44692.04166666666</v>
+        <v>44698.125</v>
       </c>
       <c r="B5">
-        <v>2340.97</v>
+        <v>2037.44</v>
       </c>
       <c r="C5">
-        <v>2382.74</v>
+        <v>2046.03</v>
       </c>
       <c r="D5">
-        <v>2329.49</v>
+        <v>2029.54</v>
       </c>
       <c r="E5">
-        <v>2355.62</v>
+        <v>2041.95</v>
       </c>
       <c r="F5">
-        <v>559.76848522</v>
+        <v>156.02516409</v>
       </c>
       <c r="G5">
-        <v>1320225.414039998</v>
+        <v>317845.3052194175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44692.08333333334</v>
+        <v>44698.16666666666</v>
       </c>
       <c r="B6">
-        <v>2352.58</v>
+        <v>2044.1</v>
       </c>
       <c r="C6">
-        <v>2358.88</v>
+        <v>2077.76</v>
       </c>
       <c r="D6">
-        <v>2333.5</v>
+        <v>2040.95</v>
       </c>
       <c r="E6">
-        <v>2336.41</v>
+        <v>2071.74</v>
       </c>
       <c r="F6">
-        <v>351.32104725</v>
+        <v>862.5853249100001</v>
       </c>
       <c r="G6">
-        <v>824260.6069887852</v>
+        <v>1777370.822379742</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44692.125</v>
+        <v>44698.20833333334</v>
       </c>
       <c r="B7">
-        <v>2336.55</v>
+        <v>2071.16</v>
       </c>
       <c r="C7">
-        <v>2384.25</v>
+        <v>2081.93</v>
       </c>
       <c r="D7">
-        <v>2321.06</v>
+        <v>2062.31</v>
       </c>
       <c r="E7">
-        <v>2377.82</v>
+        <v>2074.1</v>
       </c>
       <c r="F7">
-        <v>391.03984013</v>
+        <v>617.05896067</v>
       </c>
       <c r="G7">
-        <v>921796.4671085046</v>
+        <v>1279362.533269263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44692.16666666666</v>
+        <v>44698.25</v>
       </c>
       <c r="B8">
-        <v>2375.98</v>
+        <v>2075</v>
       </c>
       <c r="C8">
-        <v>2391.54</v>
+        <v>2080.14</v>
       </c>
       <c r="D8">
-        <v>2355.85</v>
+        <v>2064.97</v>
       </c>
       <c r="E8">
-        <v>2359.88</v>
+        <v>2078.71</v>
       </c>
       <c r="F8">
-        <v>271.48713425</v>
+        <v>297.68678322</v>
       </c>
       <c r="G8">
-        <v>642870.6476537685</v>
+        <v>616464.0545610186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44692.20833333334</v>
+        <v>44698.29166666666</v>
       </c>
       <c r="B9">
-        <v>2359.35</v>
+        <v>2078.31</v>
       </c>
       <c r="C9">
-        <v>2370.86</v>
+        <v>2091.68</v>
       </c>
       <c r="D9">
-        <v>2343.34</v>
+        <v>2070</v>
       </c>
       <c r="E9">
-        <v>2352.99</v>
+        <v>2085.77</v>
       </c>
       <c r="F9">
-        <v>553.74121269</v>
+        <v>261.49374167</v>
       </c>
       <c r="G9">
-        <v>1304743.525246313</v>
+        <v>543514.0863025862</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44692.25</v>
+        <v>44698.33333333334</v>
       </c>
       <c r="B10">
-        <v>2349.63</v>
+        <v>2088.45</v>
       </c>
       <c r="C10">
-        <v>2404.38</v>
+        <v>2089.65</v>
       </c>
       <c r="D10">
-        <v>2346</v>
+        <v>2066.48</v>
       </c>
       <c r="E10">
-        <v>2378.7</v>
+        <v>2068.99</v>
       </c>
       <c r="F10">
-        <v>1219.28363249</v>
+        <v>518.61304767</v>
       </c>
       <c r="G10">
-        <v>2903264.6373594</v>
+        <v>1075716.120582085</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44692.29166666666</v>
+        <v>44698.375</v>
       </c>
       <c r="B11">
-        <v>2380.18</v>
+        <v>2069.73</v>
       </c>
       <c r="C11">
-        <v>2384.42</v>
+        <v>2095.58</v>
       </c>
       <c r="D11">
-        <v>2281.35</v>
+        <v>2066.91</v>
       </c>
       <c r="E11">
-        <v>2287.07</v>
+        <v>2083.51</v>
       </c>
       <c r="F11">
-        <v>1044.43281035</v>
+        <v>1132.89057119</v>
       </c>
       <c r="G11">
-        <v>2442017.521523271</v>
+        <v>2362404.560223727</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44692.33333333334</v>
+        <v>44698.41666666666</v>
       </c>
       <c r="B12">
-        <v>2291.49</v>
+        <v>2082.83</v>
       </c>
       <c r="C12">
-        <v>2332.41</v>
+        <v>2095.84</v>
       </c>
       <c r="D12">
-        <v>2268.32</v>
+        <v>2082.67</v>
       </c>
       <c r="E12">
-        <v>2312.1</v>
+        <v>2087.76</v>
       </c>
       <c r="F12">
-        <v>2204.61013994</v>
+        <v>636.78622478</v>
       </c>
       <c r="G12">
-        <v>5068302.766454753</v>
+        <v>1330078.029508494</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44692.375</v>
+        <v>44698.45833333334</v>
       </c>
       <c r="B13">
-        <v>2312.19</v>
+        <v>2088.09</v>
       </c>
       <c r="C13">
-        <v>2317.74</v>
+        <v>2089.44</v>
       </c>
       <c r="D13">
-        <v>2297.3</v>
+        <v>2078.59</v>
       </c>
       <c r="E13">
-        <v>2298.19</v>
+        <v>2081.62</v>
       </c>
       <c r="F13">
-        <v>189.7739563</v>
+        <v>777.3107537</v>
       </c>
       <c r="G13">
-        <v>438783.9292148829</v>
+        <v>1619213.027175921</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44692.41666666666</v>
+        <v>44698.5</v>
       </c>
       <c r="B14">
-        <v>2343</v>
+        <v>2080.2</v>
       </c>
       <c r="C14">
-        <v>2436.62</v>
+        <v>2089.13</v>
       </c>
       <c r="D14">
-        <v>2340.02</v>
+        <v>2074.66</v>
       </c>
       <c r="E14">
-        <v>2434.93</v>
+        <v>2077.8</v>
       </c>
       <c r="F14">
-        <v>1202.03134506</v>
+        <v>733.7341241</v>
       </c>
       <c r="G14">
-        <v>2891268.848724072</v>
+        <v>1525862.162801715</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44692.45833333334</v>
+        <v>44698.54166666666</v>
       </c>
       <c r="B15">
-        <v>2437.23</v>
+        <v>2077.52</v>
       </c>
       <c r="C15">
-        <v>2450</v>
+        <v>2101.23</v>
       </c>
       <c r="D15">
-        <v>2416.1</v>
+        <v>2075.84</v>
       </c>
       <c r="E15">
-        <v>2433.73</v>
+        <v>2097.32</v>
       </c>
       <c r="F15">
-        <v>1721.01117798</v>
+        <v>605.75849644</v>
       </c>
       <c r="G15">
-        <v>4196646.477198586</v>
+        <v>1267253.092476491</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44692.5</v>
+        <v>44698.58333333334</v>
       </c>
       <c r="B16">
-        <v>2433.77</v>
+        <v>2098.99</v>
       </c>
       <c r="C16">
-        <v>2442.42</v>
+        <v>2120.94</v>
       </c>
       <c r="D16">
-        <v>2395.83</v>
+        <v>2075.93</v>
       </c>
       <c r="E16">
-        <v>2410.48</v>
+        <v>2098.63</v>
       </c>
       <c r="F16">
-        <v>1075.46753743</v>
+        <v>727.40760253</v>
       </c>
       <c r="G16">
-        <v>2600345.530030982</v>
+        <v>1527745.331476057</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44692.54166666666</v>
+        <v>44698.625</v>
       </c>
       <c r="B17">
-        <v>2407.82</v>
+        <v>2094.58</v>
       </c>
       <c r="C17">
-        <v>2427.27</v>
+        <v>2098.51</v>
       </c>
       <c r="D17">
-        <v>2120.35</v>
+        <v>2048.34</v>
       </c>
       <c r="E17">
-        <v>2161.79</v>
+        <v>2053.97</v>
       </c>
       <c r="F17">
-        <v>8214.21758579</v>
+        <v>743.31818199</v>
       </c>
       <c r="G17">
-        <v>18751940.89972718</v>
+        <v>1540327.615060692</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44692.58333333334</v>
+        <v>44698.66666666666</v>
       </c>
       <c r="B18">
-        <v>2171.46</v>
+        <v>2052.05</v>
       </c>
       <c r="C18">
-        <v>2390.66</v>
+        <v>2066.1</v>
       </c>
       <c r="D18">
-        <v>2154.7</v>
+        <v>2043.42</v>
       </c>
       <c r="E18">
-        <v>2334.7</v>
+        <v>2058.89</v>
       </c>
       <c r="F18">
-        <v>6121.67900809</v>
+        <v>338.68306937</v>
       </c>
       <c r="G18">
-        <v>13756869.94400091</v>
+        <v>696112.5787906928</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44692.625</v>
+        <v>44698.70833333334</v>
       </c>
       <c r="B19">
-        <v>2340.76</v>
+        <v>2059.04</v>
       </c>
       <c r="C19">
-        <v>2380.76</v>
+        <v>2060.79</v>
       </c>
       <c r="D19">
-        <v>2294.68</v>
+        <v>2035.21</v>
       </c>
       <c r="E19">
-        <v>2343.84</v>
+        <v>2058.16</v>
       </c>
       <c r="F19">
-        <v>2923.57133059</v>
+        <v>458.99407433</v>
       </c>
       <c r="G19">
-        <v>6847102.247008204</v>
+        <v>938648.8079236661</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44692.66666666666</v>
+        <v>44698.75</v>
       </c>
       <c r="B20">
-        <v>2346.81</v>
+        <v>2056.93</v>
       </c>
       <c r="C20">
-        <v>2346.81</v>
+        <v>2067.39</v>
       </c>
       <c r="D20">
-        <v>2250</v>
+        <v>2053</v>
       </c>
       <c r="E20">
-        <v>2260.3</v>
+        <v>2058.97</v>
       </c>
       <c r="F20">
-        <v>1836.04607754</v>
+        <v>444.13068777</v>
       </c>
       <c r="G20">
-        <v>4223702.036912163</v>
+        <v>915273.244027149</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44692.70833333334</v>
+        <v>44698.79166666666</v>
       </c>
       <c r="B21">
-        <v>2263.91</v>
+        <v>2055.47</v>
       </c>
       <c r="C21">
-        <v>2279.33</v>
+        <v>2066.26</v>
       </c>
       <c r="D21">
-        <v>2200</v>
+        <v>2006</v>
       </c>
       <c r="E21">
-        <v>2205.86</v>
+        <v>2027.43</v>
       </c>
       <c r="F21">
-        <v>2287.02301832</v>
+        <v>1680.16236697</v>
       </c>
       <c r="G21">
-        <v>5082430.642038708</v>
+        <v>3401987.040535405</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44692.75</v>
+        <v>44698.83333333334</v>
       </c>
       <c r="B22">
-        <v>2203.37</v>
+        <v>2024.98</v>
       </c>
       <c r="C22">
-        <v>2218.24</v>
+        <v>2063.59</v>
       </c>
       <c r="D22">
-        <v>2143.72</v>
+        <v>2023.79</v>
       </c>
       <c r="E22">
-        <v>2184.68</v>
+        <v>2042.98</v>
       </c>
       <c r="F22">
-        <v>2247.00730604</v>
+        <v>879.42810532</v>
       </c>
       <c r="G22">
-        <v>4906187.226789281</v>
+        <v>1797109.893831618</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44692.79166666666</v>
+        <v>44698.875</v>
       </c>
       <c r="B23">
-        <v>2180.74</v>
+        <v>2042.92</v>
       </c>
       <c r="C23">
-        <v>2207.89</v>
+        <v>2062.22</v>
       </c>
       <c r="D23">
-        <v>2161.93</v>
+        <v>2039.57</v>
       </c>
       <c r="E23">
-        <v>2172.94</v>
+        <v>2052.24</v>
       </c>
       <c r="F23">
-        <v>2502.99164483</v>
+        <v>437.13483813</v>
       </c>
       <c r="G23">
-        <v>5472447.113852648</v>
+        <v>897503.3866564776</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44692.83333333334</v>
+        <v>44698.91666666666</v>
       </c>
       <c r="B24">
-        <v>2164.79</v>
+        <v>2050.87</v>
       </c>
       <c r="C24">
-        <v>2189.77</v>
+        <v>2089.16</v>
       </c>
       <c r="D24">
-        <v>2091.25</v>
+        <v>2049.07</v>
       </c>
       <c r="E24">
-        <v>2111.94</v>
+        <v>2084.77</v>
       </c>
       <c r="F24">
-        <v>2713.4776188</v>
+        <v>445.6069053</v>
       </c>
       <c r="G24">
-        <v>5784317.238304459</v>
+        <v>926186.2597420334</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44692.875</v>
+        <v>44698.95833333334</v>
       </c>
       <c r="B25">
-        <v>2113.18</v>
+        <v>2090.18</v>
       </c>
       <c r="C25">
-        <v>2147.74</v>
+        <v>2094.43</v>
       </c>
       <c r="D25">
-        <v>2001</v>
+        <v>2070.15</v>
       </c>
       <c r="E25">
-        <v>2034.05</v>
+        <v>2081.06</v>
       </c>
       <c r="F25">
-        <v>3188.87742165</v>
+        <v>603.92391123</v>
       </c>
       <c r="G25">
-        <v>6596602.69888614</v>
+        <v>1258110.465946404</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44692.91666666666</v>
+        <v>44699</v>
       </c>
       <c r="B26">
-        <v>2039.12</v>
+        <v>2084.47</v>
       </c>
       <c r="C26">
-        <v>2099.83</v>
+        <v>2101.27</v>
       </c>
       <c r="D26">
-        <v>1997.73</v>
+        <v>2084.47</v>
       </c>
       <c r="E26">
-        <v>2088.98</v>
+        <v>2089.36</v>
       </c>
       <c r="F26">
-        <v>4759.19616449</v>
+        <v>723.01467546</v>
       </c>
       <c r="G26">
-        <v>9729769.699455833</v>
+        <v>1512357.814333669</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44692.95833333334</v>
+        <v>44699.04166666666</v>
       </c>
       <c r="B27">
-        <v>2088.41</v>
+        <v>2089.57</v>
       </c>
       <c r="C27">
-        <v>2113.99</v>
+        <v>2108.09</v>
       </c>
       <c r="D27">
-        <v>2037.41</v>
+        <v>2086.75</v>
       </c>
       <c r="E27">
-        <v>2075.96</v>
+        <v>2089.88</v>
       </c>
       <c r="F27">
-        <v>1234.5867194</v>
+        <v>589.8024442</v>
       </c>
       <c r="G27">
-        <v>2568073.421767776</v>
+        <v>1237787.636314973</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44693</v>
+        <v>44699.08333333334</v>
       </c>
       <c r="B28">
-        <v>2075.36</v>
+        <v>2091.6</v>
       </c>
       <c r="C28">
-        <v>2096.75</v>
+        <v>2091.6</v>
       </c>
       <c r="D28">
-        <v>2044.29</v>
+        <v>2063.63</v>
       </c>
       <c r="E28">
-        <v>2075.77</v>
+        <v>2066.33</v>
       </c>
       <c r="F28">
-        <v>386.82672468</v>
+        <v>251.07098188</v>
       </c>
       <c r="G28">
-        <v>799602.6250455242</v>
+        <v>520951.0288197837</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44693.04166666666</v>
+        <v>44699.125</v>
       </c>
       <c r="B29">
-        <v>2082.43</v>
+        <v>2064.57</v>
       </c>
       <c r="C29">
-        <v>2182.58</v>
+        <v>2070.58</v>
       </c>
       <c r="D29">
-        <v>2069.94</v>
+        <v>2058.8</v>
       </c>
       <c r="E29">
-        <v>2142.92</v>
+        <v>2070.37</v>
       </c>
       <c r="F29">
-        <v>582.03365591</v>
+        <v>69.88549227</v>
       </c>
       <c r="G29">
-        <v>1238962.749471978</v>
+        <v>144297.5908039759</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44693.08333333334</v>
+        <v>44699.16666666666</v>
       </c>
       <c r="B30">
-        <v>2143.36</v>
+        <v>2071.41</v>
       </c>
       <c r="C30">
-        <v>2156.02</v>
+        <v>2071.41</v>
       </c>
       <c r="D30">
-        <v>2086.85</v>
+        <v>2031.15</v>
       </c>
       <c r="E30">
-        <v>2095.55</v>
+        <v>2037.89</v>
       </c>
       <c r="F30">
-        <v>945.89132861</v>
+        <v>193.64547542</v>
       </c>
       <c r="G30">
-        <v>2008047.613422775</v>
+        <v>396335.2347341629</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44693.125</v>
+        <v>44699.20833333334</v>
       </c>
       <c r="B31">
-        <v>2098.98</v>
+        <v>2033.49</v>
       </c>
       <c r="C31">
-        <v>2116.55</v>
+        <v>2043.6</v>
       </c>
       <c r="D31">
-        <v>2036.72</v>
+        <v>2028.57</v>
       </c>
       <c r="E31">
-        <v>2040.03</v>
+        <v>2028.57</v>
       </c>
       <c r="F31">
-        <v>986.7262347</v>
+        <v>185.22977054</v>
       </c>
       <c r="G31">
-        <v>2037434.35977006</v>
+        <v>377305.0950905905</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44693.16666666666</v>
+        <v>44699.25</v>
       </c>
       <c r="B32">
-        <v>2039.51</v>
+        <v>2031.15</v>
       </c>
       <c r="C32">
-        <v>2054.41</v>
+        <v>2046.7</v>
       </c>
       <c r="D32">
-        <v>1960</v>
+        <v>2029.3</v>
       </c>
       <c r="E32">
-        <v>1960</v>
+        <v>2046.42</v>
       </c>
       <c r="F32">
-        <v>2040.34962428</v>
+        <v>418.19778562</v>
       </c>
       <c r="G32">
-        <v>4065360.661576041</v>
+        <v>852986.283718601</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44693.20833333334</v>
+        <v>44699.29166666666</v>
       </c>
       <c r="B33">
-        <v>1960</v>
+        <v>2045.5</v>
       </c>
       <c r="C33">
-        <v>1971.1</v>
+        <v>2049.84</v>
       </c>
       <c r="D33">
-        <v>1833.86</v>
+        <v>2018.38</v>
       </c>
       <c r="E33">
-        <v>1891.41</v>
+        <v>2018.86</v>
       </c>
       <c r="F33">
-        <v>3278.71155996</v>
+        <v>135.71957039</v>
       </c>
       <c r="G33">
-        <v>6252072.709248594</v>
+        <v>276533.9415392264</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44693.25</v>
+        <v>44699.33333333334</v>
       </c>
       <c r="B34">
-        <v>1890.99</v>
+        <v>2018.97</v>
       </c>
       <c r="C34">
-        <v>1899.47</v>
+        <v>2037.86</v>
       </c>
       <c r="D34">
-        <v>1785</v>
+        <v>2017.15</v>
       </c>
       <c r="E34">
-        <v>1812.63</v>
+        <v>2036.06</v>
       </c>
       <c r="F34">
-        <v>3991.99920041</v>
+        <v>365.52433442</v>
       </c>
       <c r="G34">
-        <v>7321940.863693121</v>
+        <v>741472.4268281684</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44693.29166666666</v>
+        <v>44699.375</v>
       </c>
       <c r="B35">
-        <v>1814.4</v>
+        <v>2035.86</v>
       </c>
       <c r="C35">
-        <v>1895.87</v>
+        <v>2038.86</v>
       </c>
       <c r="D35">
-        <v>1790.3</v>
+        <v>2022.89</v>
       </c>
       <c r="E35">
-        <v>1790.35</v>
+        <v>2031.8</v>
       </c>
       <c r="F35">
-        <v>3233.75094778</v>
+        <v>148.8315281</v>
       </c>
       <c r="G35">
-        <v>5922508.549727347</v>
+        <v>302198.5309912298</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44693.33333333334</v>
+        <v>44699.41666666666</v>
       </c>
       <c r="B36">
-        <v>1789.73</v>
+        <v>2033.81</v>
       </c>
       <c r="C36">
-        <v>1932.27</v>
+        <v>2036.69</v>
       </c>
       <c r="D36">
-        <v>1700</v>
+        <v>2019.82</v>
       </c>
       <c r="E36">
-        <v>1889.17</v>
+        <v>2032.53</v>
       </c>
       <c r="F36">
-        <v>7477.85362827</v>
+        <v>145.31089602</v>
       </c>
       <c r="G36">
-        <v>13465589.64860376</v>
+        <v>295015.7350894478</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44693.375</v>
+        <v>44699.45833333334</v>
       </c>
       <c r="B37">
-        <v>1887.49</v>
+        <v>2033.83</v>
       </c>
       <c r="C37">
-        <v>1917.67</v>
+        <v>2047.31</v>
       </c>
       <c r="D37">
-        <v>1842.3</v>
+        <v>2033.83</v>
       </c>
       <c r="E37">
-        <v>1881.23</v>
+        <v>2038.99</v>
       </c>
       <c r="F37">
-        <v>3145.87380664</v>
+        <v>438.50239626</v>
       </c>
       <c r="G37">
-        <v>5909123.990793117</v>
+        <v>893618.8824572028</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44693.41666666666</v>
+        <v>44699.5</v>
       </c>
       <c r="B38">
-        <v>1880.2</v>
+        <v>2039.42</v>
       </c>
       <c r="C38">
-        <v>1915</v>
+        <v>2040.59</v>
       </c>
       <c r="D38">
-        <v>1863.86</v>
+        <v>2022.3</v>
       </c>
       <c r="E38">
-        <v>1880.66</v>
+        <v>2029.15</v>
       </c>
       <c r="F38">
-        <v>1365.90368202</v>
+        <v>154.94688199</v>
       </c>
       <c r="G38">
-        <v>2579565.046583509</v>
+        <v>314119.5779021858</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44693.45833333334</v>
+        <v>44699.54166666666</v>
       </c>
       <c r="B39">
-        <v>1885.65</v>
+        <v>2029.98</v>
       </c>
       <c r="C39">
-        <v>1962.42</v>
+        <v>2033.02</v>
       </c>
       <c r="D39">
-        <v>1863.53</v>
+        <v>1990</v>
       </c>
       <c r="E39">
-        <v>1948.97</v>
+        <v>1995.05</v>
       </c>
       <c r="F39">
-        <v>945.0974368</v>
+        <v>686.47018412</v>
       </c>
       <c r="G39">
-        <v>1810701.466481159</v>
+        <v>1380087.675636152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44693.5</v>
+        <v>44699.58333333334</v>
       </c>
       <c r="B40">
-        <v>1948.95</v>
+        <v>1994.29</v>
       </c>
       <c r="C40">
-        <v>1992.85</v>
+        <v>2002.15</v>
       </c>
       <c r="D40">
-        <v>1913.17</v>
+        <v>1980</v>
       </c>
       <c r="E40">
-        <v>1937.33</v>
+        <v>1984.06</v>
       </c>
       <c r="F40">
-        <v>1577.55046637</v>
+        <v>1306.2824885</v>
       </c>
       <c r="G40">
-        <v>3080932.836977055</v>
+        <v>2599446.403966006</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44693.54166666666</v>
+        <v>44699.625</v>
       </c>
       <c r="B41">
-        <v>1940.86</v>
+        <v>1985.38</v>
       </c>
       <c r="C41">
-        <v>1968.04</v>
+        <v>1997.16</v>
       </c>
       <c r="D41">
-        <v>1901</v>
+        <v>1963.46</v>
       </c>
       <c r="E41">
-        <v>1946.28</v>
+        <v>1974.28</v>
       </c>
       <c r="F41">
-        <v>1155.68998588</v>
+        <v>1030.73366685</v>
       </c>
       <c r="G41">
-        <v>2235240.735402633</v>
+        <v>2039343.030712796</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44693.58333333334</v>
+        <v>44699.66666666666</v>
       </c>
       <c r="B42">
-        <v>1946.2</v>
+        <v>1973.07</v>
       </c>
       <c r="C42">
-        <v>1959.54</v>
+        <v>1974.56</v>
       </c>
       <c r="D42">
-        <v>1870.9</v>
+        <v>1940.63</v>
       </c>
       <c r="E42">
-        <v>1896.22</v>
+        <v>1950.98</v>
       </c>
       <c r="F42">
-        <v>3452.02945313</v>
+        <v>2867.90837218</v>
       </c>
       <c r="G42">
-        <v>6619895.421287387</v>
+        <v>5613089.736777773</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44693.625</v>
+        <v>44699.70833333334</v>
       </c>
       <c r="B43">
-        <v>1893.99</v>
+        <v>1953.01</v>
       </c>
       <c r="C43">
-        <v>2013.52</v>
+        <v>1976.48</v>
       </c>
       <c r="D43">
-        <v>1883.88</v>
+        <v>1933.95</v>
       </c>
       <c r="E43">
-        <v>2011</v>
+        <v>1974.26</v>
       </c>
       <c r="F43">
-        <v>1700.46095019</v>
+        <v>570.37033159</v>
       </c>
       <c r="G43">
-        <v>3339224.909226988</v>
+        <v>1113220.559359131</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44693.66666666666</v>
+        <v>44699.75</v>
       </c>
       <c r="B44">
-        <v>2015</v>
+        <v>1974.62</v>
       </c>
       <c r="C44">
-        <v>2040.83</v>
+        <v>1974.62</v>
       </c>
       <c r="D44">
-        <v>1957.69</v>
+        <v>1952.86</v>
       </c>
       <c r="E44">
-        <v>1960.31</v>
+        <v>1956.06</v>
       </c>
       <c r="F44">
-        <v>4115.73562551</v>
+        <v>273.98736577</v>
       </c>
       <c r="G44">
-        <v>8223174.520809577</v>
+        <v>537912.7235301737</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44693.70833333334</v>
+        <v>44699.79166666666</v>
       </c>
       <c r="B45">
-        <v>1959.42</v>
+        <v>1955.87</v>
       </c>
       <c r="C45">
-        <v>2028.91</v>
+        <v>1970.95</v>
       </c>
       <c r="D45">
-        <v>1953.94</v>
+        <v>1947.37</v>
       </c>
       <c r="E45">
-        <v>2018.78</v>
+        <v>1967.63</v>
       </c>
       <c r="F45">
-        <v>3450.37873963</v>
+        <v>422.02766852</v>
       </c>
       <c r="G45">
-        <v>6891900.251738918</v>
+        <v>826816.1847343812</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44693.75</v>
+        <v>44699.83333333334</v>
       </c>
       <c r="B46">
-        <v>2017.17</v>
+        <v>1969.8</v>
       </c>
       <c r="C46">
-        <v>2026.41</v>
+        <v>1991.85</v>
       </c>
       <c r="D46">
-        <v>1920.94</v>
+        <v>1967.42</v>
       </c>
       <c r="E46">
-        <v>1927.91</v>
+        <v>1979.09</v>
       </c>
       <c r="F46">
-        <v>4447.61133585</v>
+        <v>620.6002991399999</v>
       </c>
       <c r="G46">
-        <v>8798358.368312841</v>
+        <v>1227458.642782113</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44693.79166666666</v>
+        <v>44699.875</v>
       </c>
       <c r="B47">
-        <v>1932.17</v>
+        <v>1979.05</v>
       </c>
       <c r="C47">
-        <v>1944.99</v>
+        <v>1979.05</v>
       </c>
       <c r="D47">
-        <v>1892.69</v>
+        <v>1943.8</v>
       </c>
       <c r="E47">
-        <v>1903.79</v>
+        <v>1964.94</v>
       </c>
       <c r="F47">
-        <v>951.57152045</v>
+        <v>1288.23639983</v>
       </c>
       <c r="G47">
-        <v>1823978.176842084</v>
+        <v>2524796.450894242</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44693.83333333334</v>
+        <v>44699.91666666666</v>
       </c>
       <c r="B48">
-        <v>1902.06</v>
+        <v>1964.94</v>
       </c>
       <c r="C48">
-        <v>1960.64</v>
+        <v>1972.26</v>
       </c>
       <c r="D48">
-        <v>1900</v>
+        <v>1951.64</v>
       </c>
       <c r="E48">
-        <v>1940.23</v>
+        <v>1961.14</v>
       </c>
       <c r="F48">
-        <v>555.32975141</v>
+        <v>115.53535756</v>
       </c>
       <c r="G48">
-        <v>1071964.977539608</v>
+        <v>226607.5542337506</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44693.875</v>
+        <v>44699.95833333334</v>
       </c>
       <c r="B49">
-        <v>1941.67</v>
+        <v>1961.67</v>
       </c>
       <c r="C49">
-        <v>1951.86</v>
+        <v>1971.02</v>
       </c>
       <c r="D49">
-        <v>1923.08</v>
+        <v>1939.71</v>
       </c>
       <c r="E49">
-        <v>1927.3</v>
+        <v>1945.19</v>
       </c>
       <c r="F49">
-        <v>799.60857648</v>
+        <v>416.75823766</v>
       </c>
       <c r="G49">
-        <v>1548979.469911054</v>
+        <v>815768.4252815979</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44693.91666666666</v>
+        <v>44700</v>
       </c>
       <c r="B50">
-        <v>1923.53</v>
+        <v>1946.07</v>
       </c>
       <c r="C50">
-        <v>1925.65</v>
+        <v>1956.79</v>
       </c>
       <c r="D50">
-        <v>1863.41</v>
+        <v>1906.73</v>
       </c>
       <c r="E50">
-        <v>1909.33</v>
+        <v>1911.22</v>
       </c>
       <c r="F50">
-        <v>1220.60820641</v>
+        <v>465.85025186</v>
       </c>
       <c r="G50">
-        <v>2307673.36031581</v>
+        <v>895615.9816091338</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44693.95833333334</v>
+        <v>44700.04166666666</v>
       </c>
       <c r="B51">
-        <v>1909.95</v>
+        <v>1912.77</v>
       </c>
       <c r="C51">
-        <v>1924.76</v>
+        <v>1943.18</v>
       </c>
       <c r="D51">
-        <v>1893.92</v>
+        <v>1906.38</v>
       </c>
       <c r="E51">
-        <v>1920.91</v>
+        <v>1930.25</v>
       </c>
       <c r="F51">
-        <v>822.56681557</v>
+        <v>341.53595245</v>
       </c>
       <c r="G51">
-        <v>1570917.122769048</v>
+        <v>658320.0422779907</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44694</v>
+        <v>44700.08333333334</v>
       </c>
       <c r="B52">
-        <v>1922.39</v>
+        <v>1928.95</v>
       </c>
       <c r="C52">
-        <v>1974.65</v>
+        <v>1943.01</v>
       </c>
       <c r="D52">
-        <v>1922.39</v>
+        <v>1902</v>
       </c>
       <c r="E52">
-        <v>1950.45</v>
+        <v>1907.31</v>
       </c>
       <c r="F52">
-        <v>244.10844386</v>
+        <v>149.02898378</v>
       </c>
       <c r="G52">
-        <v>475729.1642609834</v>
+        <v>287434.2145737859</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44694.04166666666</v>
+        <v>44700.125</v>
       </c>
       <c r="B53">
-        <v>1950.99</v>
+        <v>1908.54</v>
       </c>
       <c r="C53">
-        <v>2020.2</v>
+        <v>1951.25</v>
       </c>
       <c r="D53">
-        <v>1936.34</v>
+        <v>1901.17</v>
       </c>
       <c r="E53">
-        <v>2011.22</v>
+        <v>1943.1</v>
       </c>
       <c r="F53">
-        <v>685.55897029</v>
+        <v>542.41341929</v>
       </c>
       <c r="G53">
-        <v>1360593.091540518</v>
+        <v>1039836.886926745</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44694.08333333334</v>
+        <v>44700.16666666666</v>
       </c>
       <c r="B54">
-        <v>2005.12</v>
+        <v>1943.1</v>
       </c>
       <c r="C54">
-        <v>2038.62</v>
+        <v>1965.88</v>
       </c>
       <c r="D54">
-        <v>1993.62</v>
+        <v>1940.98</v>
       </c>
       <c r="E54">
-        <v>2012.66</v>
+        <v>1951.9</v>
       </c>
       <c r="F54">
-        <v>793.93571064</v>
+        <v>468.58801894</v>
       </c>
       <c r="G54">
-        <v>1600400.690489777</v>
+        <v>915983.0007038327</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44694.125</v>
+        <v>44700.20833333334</v>
       </c>
       <c r="B55">
-        <v>2009.97</v>
+        <v>1952.72</v>
       </c>
       <c r="C55">
-        <v>2070</v>
+        <v>1965.37</v>
       </c>
       <c r="D55">
-        <v>2005.63</v>
+        <v>1944.89</v>
       </c>
       <c r="E55">
-        <v>2062.21</v>
+        <v>1946.26</v>
       </c>
       <c r="F55">
-        <v>531.03301423</v>
+        <v>156.05321667</v>
       </c>
       <c r="G55">
-        <v>1086490.047781565</v>
+        <v>304979.8343581801</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44694.16666666666</v>
+        <v>44700.25</v>
       </c>
       <c r="B56">
-        <v>2063.32</v>
+        <v>1946.76</v>
       </c>
       <c r="C56">
-        <v>2104.32</v>
+        <v>1954.48</v>
       </c>
       <c r="D56">
-        <v>2052.04</v>
+        <v>1941.91</v>
       </c>
       <c r="E56">
-        <v>2087.26</v>
+        <v>1944.84</v>
       </c>
       <c r="F56">
-        <v>691.25042652</v>
+        <v>297.55332162</v>
       </c>
       <c r="G56">
-        <v>1443014.344342784</v>
+        <v>578804.3222167889</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44694.20833333334</v>
+        <v>44700.29166666666</v>
       </c>
       <c r="B57">
-        <v>2093.45</v>
+        <v>1946.77</v>
       </c>
       <c r="C57">
-        <v>2093.45</v>
+        <v>1970.39</v>
       </c>
       <c r="D57">
-        <v>2064.86</v>
+        <v>1944.8</v>
       </c>
       <c r="E57">
-        <v>2085.16</v>
+        <v>1963.89</v>
       </c>
       <c r="F57">
-        <v>468.9449968</v>
+        <v>219.93802728</v>
       </c>
       <c r="G57">
-        <v>974831.8446563914</v>
+        <v>430838.4905701445</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44694.25</v>
+        <v>44700.33333333334</v>
       </c>
       <c r="B58">
-        <v>2082.79</v>
+        <v>1964.7</v>
       </c>
       <c r="C58">
-        <v>2139.28</v>
+        <v>1966.9</v>
       </c>
       <c r="D58">
-        <v>2076.13</v>
+        <v>1936.41</v>
       </c>
       <c r="E58">
-        <v>2101.23</v>
+        <v>1950.95</v>
       </c>
       <c r="F58">
-        <v>1283.5882192</v>
+        <v>580.0181972300001</v>
       </c>
       <c r="G58">
-        <v>2714326.559581333</v>
+        <v>1131976.079174027</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44694.29166666666</v>
+        <v>44700.375</v>
       </c>
       <c r="B59">
-        <v>2101.81</v>
+        <v>1951.14</v>
       </c>
       <c r="C59">
-        <v>2118.91</v>
+        <v>1955.98</v>
       </c>
       <c r="D59">
-        <v>2084.74</v>
+        <v>1930.25</v>
       </c>
       <c r="E59">
-        <v>2089.5</v>
+        <v>1930.25</v>
       </c>
       <c r="F59">
-        <v>824.15096118</v>
+        <v>512.01431424</v>
       </c>
       <c r="G59">
-        <v>1733147.968720665</v>
+        <v>994581.2116409192</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44694.33333333334</v>
+        <v>44700.41666666666</v>
       </c>
       <c r="B60">
-        <v>2088.19</v>
+        <v>1930.01</v>
       </c>
       <c r="C60">
-        <v>2090.46</v>
+        <v>1937.29</v>
       </c>
       <c r="D60">
-        <v>2042.57</v>
+        <v>1912.26</v>
       </c>
       <c r="E60">
-        <v>2044.31</v>
+        <v>1925.25</v>
       </c>
       <c r="F60">
-        <v>1197.55752238</v>
+        <v>390.04072299</v>
       </c>
       <c r="G60">
-        <v>2477287.660904879</v>
+        <v>751102.5379809455</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44694.375</v>
+        <v>44700.45833333334</v>
       </c>
       <c r="B61">
-        <v>2044.02</v>
+        <v>1926.8</v>
       </c>
       <c r="C61">
-        <v>2073.38</v>
+        <v>1943.05</v>
       </c>
       <c r="D61">
-        <v>2044.02</v>
+        <v>1918.11</v>
       </c>
       <c r="E61">
-        <v>2064.93</v>
+        <v>1938.37</v>
       </c>
       <c r="F61">
-        <v>2517.65031744</v>
+        <v>527.92506757</v>
       </c>
       <c r="G61">
-        <v>5181698.132953738</v>
+        <v>1019192.940745787</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44694.41666666666</v>
+        <v>44700.5</v>
       </c>
       <c r="B62">
-        <v>2065.68</v>
+        <v>1938.21</v>
       </c>
       <c r="C62">
-        <v>2094.1</v>
+        <v>1966.59</v>
       </c>
       <c r="D62">
-        <v>2065</v>
+        <v>1929.04</v>
       </c>
       <c r="E62">
-        <v>2074.4</v>
+        <v>1964.14</v>
       </c>
       <c r="F62">
-        <v>1322.79668564</v>
+        <v>1022.07764357</v>
       </c>
       <c r="G62">
-        <v>2748985.077868782</v>
+        <v>1984291.455225789</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44694.45833333334</v>
+        <v>44700.54166666666</v>
       </c>
       <c r="B63">
-        <v>2073.29</v>
+        <v>1964.64</v>
       </c>
       <c r="C63">
-        <v>2101.71</v>
+        <v>1964.64</v>
       </c>
       <c r="D63">
-        <v>2054.98</v>
+        <v>1948.17</v>
       </c>
       <c r="E63">
-        <v>2094.58</v>
+        <v>1951.02</v>
       </c>
       <c r="F63">
-        <v>523.14455844</v>
+        <v>530.41670973</v>
       </c>
       <c r="G63">
-        <v>1086976.299717859</v>
+        <v>1037226.52355112</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44694.5</v>
+        <v>44700.58333333334</v>
       </c>
       <c r="B64">
-        <v>2095.21</v>
+        <v>1952.42</v>
       </c>
       <c r="C64">
-        <v>2122.29</v>
+        <v>1987.85</v>
       </c>
       <c r="D64">
-        <v>2073.87</v>
+        <v>1941.62</v>
       </c>
       <c r="E64">
-        <v>2110.6</v>
+        <v>1958.33</v>
       </c>
       <c r="F64">
-        <v>834.68377308</v>
+        <v>1431.36821572</v>
       </c>
       <c r="G64">
-        <v>1751469.290314963</v>
+        <v>2815397.477420014</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44694.54166666666</v>
+        <v>44700.625</v>
       </c>
       <c r="B65">
-        <v>2114</v>
+        <v>1958.08</v>
       </c>
       <c r="C65">
-        <v>2131.11</v>
+        <v>1986.31</v>
       </c>
       <c r="D65">
-        <v>2095.91</v>
+        <v>1958.08</v>
       </c>
       <c r="E65">
-        <v>2117.39</v>
+        <v>1977.49</v>
       </c>
       <c r="F65">
-        <v>1391.3099986</v>
+        <v>645.17614912</v>
       </c>
       <c r="G65">
-        <v>2936719.029554865</v>
+        <v>1273126.31335716</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44694.58333333334</v>
+        <v>44700.66666666666</v>
       </c>
       <c r="B66">
-        <v>2116.46</v>
+        <v>1979.05</v>
       </c>
       <c r="C66">
-        <v>2132.33</v>
+        <v>2037.78</v>
       </c>
       <c r="D66">
-        <v>2080.18</v>
+        <v>1972.96</v>
       </c>
       <c r="E66">
-        <v>2124.95</v>
+        <v>2020.94</v>
       </c>
       <c r="F66">
-        <v>1099.53375145</v>
+        <v>1343.63721829</v>
       </c>
       <c r="G66">
-        <v>2317558.43030097</v>
+        <v>2702961.017836087</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44694.625</v>
+        <v>44700.70833333334</v>
       </c>
       <c r="B67">
-        <v>2126.78</v>
+        <v>2022.28</v>
       </c>
       <c r="C67">
-        <v>2145.21</v>
+        <v>2026.27</v>
       </c>
       <c r="D67">
-        <v>2110.36</v>
+        <v>2005.77</v>
       </c>
       <c r="E67">
-        <v>2126.22</v>
+        <v>2009.34</v>
       </c>
       <c r="F67">
-        <v>1079.68001943</v>
+        <v>1272.46339363</v>
       </c>
       <c r="G67">
-        <v>2300420.570608548</v>
+        <v>2565578.531726799</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44694.66666666666</v>
+        <v>44700.75</v>
       </c>
       <c r="B68">
-        <v>2125.86</v>
+        <v>2011.36</v>
       </c>
       <c r="C68">
-        <v>2127.8</v>
+        <v>2016.03</v>
       </c>
       <c r="D68">
-        <v>2080.74</v>
+        <v>1993.34</v>
       </c>
       <c r="E68">
-        <v>2089.54</v>
+        <v>2014.08</v>
       </c>
       <c r="F68">
-        <v>917.68574516</v>
+        <v>566.82859488</v>
       </c>
       <c r="G68">
-        <v>1923947.772717713</v>
+        <v>1136077.113796502</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44694.70833333334</v>
+        <v>44700.79166666666</v>
       </c>
       <c r="B69">
-        <v>2091.25</v>
+        <v>2014.54</v>
       </c>
       <c r="C69">
-        <v>2108.19</v>
+        <v>2017.82</v>
       </c>
       <c r="D69">
-        <v>2052.51</v>
+        <v>2004.27</v>
       </c>
       <c r="E69">
-        <v>2064.84</v>
+        <v>2012.48</v>
       </c>
       <c r="F69">
-        <v>2507.20622299</v>
+        <v>677.87650311</v>
       </c>
       <c r="G69">
-        <v>5199178.18463758</v>
+        <v>1364336.337102883</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44694.75</v>
+        <v>44700.83333333334</v>
       </c>
       <c r="B70">
-        <v>2064.75</v>
+        <v>2013</v>
       </c>
       <c r="C70">
-        <v>2089.81</v>
+        <v>2017.3</v>
       </c>
       <c r="D70">
-        <v>2047.6</v>
+        <v>1988.57</v>
       </c>
       <c r="E70">
-        <v>2051.62</v>
+        <v>1990.62</v>
       </c>
       <c r="F70">
-        <v>1231.85781199</v>
+        <v>538.18490492</v>
       </c>
       <c r="G70">
-        <v>2553176.650134849</v>
+        <v>1075066.365948329</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44694.79166666666</v>
+        <v>44700.875</v>
       </c>
       <c r="B71">
-        <v>2047.34</v>
+        <v>1990.5</v>
       </c>
       <c r="C71">
-        <v>2077</v>
+        <v>2014.18</v>
       </c>
       <c r="D71">
-        <v>2025.32</v>
+        <v>1988.9</v>
       </c>
       <c r="E71">
-        <v>2072.82</v>
+        <v>2012.82</v>
       </c>
       <c r="F71">
-        <v>1397.85308407</v>
+        <v>448.05377998</v>
       </c>
       <c r="G71">
-        <v>2866178.912584929</v>
+        <v>896396.3166874158</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44694.83333333334</v>
+        <v>44700.91666666666</v>
       </c>
       <c r="B72">
-        <v>2072.35</v>
+        <v>2014.07</v>
       </c>
       <c r="C72">
-        <v>2075.32</v>
+        <v>2025.41</v>
       </c>
       <c r="D72">
-        <v>2052.95</v>
+        <v>2010</v>
       </c>
       <c r="E72">
-        <v>2061.69</v>
+        <v>2011.92</v>
       </c>
       <c r="F72">
-        <v>935.68366695</v>
+        <v>222.61253238</v>
       </c>
       <c r="G72">
-        <v>1931649.353733689</v>
+        <v>448642.1179753043</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44694.875</v>
+        <v>44700.95833333334</v>
       </c>
       <c r="B73">
-        <v>2061.67</v>
+        <v>2011.91</v>
       </c>
       <c r="C73">
-        <v>2070.86</v>
+        <v>2012.65</v>
       </c>
       <c r="D73">
-        <v>2041.81</v>
+        <v>1998.14</v>
       </c>
       <c r="E73">
-        <v>2043.02</v>
+        <v>2004.7</v>
       </c>
       <c r="F73">
-        <v>932.87306759</v>
+        <v>258.85898445</v>
       </c>
       <c r="G73">
-        <v>1918811.862619083</v>
+        <v>519577.3893324323</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44694.91666666666</v>
+        <v>44701</v>
       </c>
       <c r="B74">
-        <v>2042.13</v>
+        <v>2008.23</v>
       </c>
       <c r="C74">
-        <v>2075.79</v>
+        <v>2024.4</v>
       </c>
       <c r="D74">
-        <v>2037.5</v>
+        <v>2005.87</v>
       </c>
       <c r="E74">
-        <v>2074.22</v>
+        <v>2017.85</v>
       </c>
       <c r="F74">
-        <v>2514.4883738</v>
+        <v>416.81816038</v>
       </c>
       <c r="G74">
-        <v>5152757.489729948</v>
+        <v>838872.2634212635</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44694.95833333334</v>
+        <v>44701.04166666666</v>
       </c>
       <c r="B75">
-        <v>2071.39</v>
+        <v>2018.14</v>
       </c>
       <c r="C75">
-        <v>2081.17</v>
+        <v>2018.56</v>
       </c>
       <c r="D75">
-        <v>2054.16</v>
+        <v>2004.57</v>
       </c>
       <c r="E75">
-        <v>2055.47</v>
+        <v>2014.4</v>
       </c>
       <c r="F75">
-        <v>621.24469631</v>
+        <v>152.31537164</v>
       </c>
       <c r="G75">
-        <v>1285168.689835093</v>
+        <v>306493.2311401747</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44695</v>
+        <v>44701.08333333334</v>
       </c>
       <c r="B76">
-        <v>2055.55</v>
+        <v>2012.97</v>
       </c>
       <c r="C76">
-        <v>2058.44</v>
+        <v>2050.58</v>
       </c>
       <c r="D76">
-        <v>1998.17</v>
+        <v>2002.36</v>
       </c>
       <c r="E76">
-        <v>2007.45</v>
+        <v>2034.02</v>
       </c>
       <c r="F76">
-        <v>731.95558036</v>
+        <v>464.06862102</v>
       </c>
       <c r="G76">
-        <v>1475288.888345942</v>
+        <v>943996.2613967914</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44695.04166666666</v>
+        <v>44701.125</v>
       </c>
       <c r="B77">
-        <v>2006.65</v>
+        <v>2034.02</v>
       </c>
       <c r="C77">
-        <v>2040.56</v>
+        <v>2035.86</v>
       </c>
       <c r="D77">
-        <v>1998.55</v>
+        <v>2015.21</v>
       </c>
       <c r="E77">
-        <v>2035.63</v>
+        <v>2027.66</v>
       </c>
       <c r="F77">
-        <v>267.74016817</v>
+        <v>372.846523</v>
       </c>
       <c r="G77">
-        <v>541555.46234656</v>
+        <v>753503.122566979</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44695.08333333334</v>
+        <v>44701.16666666666</v>
       </c>
       <c r="B78">
-        <v>2034.38</v>
+        <v>2027.22</v>
       </c>
       <c r="C78">
-        <v>2065.95</v>
+        <v>2030.19</v>
       </c>
       <c r="D78">
-        <v>2022.41</v>
+        <v>2018.43</v>
       </c>
       <c r="E78">
-        <v>2055.96</v>
+        <v>2021.89</v>
       </c>
       <c r="F78">
-        <v>404.07547537</v>
+        <v>88.87748495</v>
       </c>
       <c r="G78">
-        <v>824478.7022687776</v>
+        <v>179716.2371486316</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44695.125</v>
+        <v>44701.20833333334</v>
       </c>
       <c r="B79">
-        <v>2057.5</v>
+        <v>2021.22</v>
       </c>
       <c r="C79">
-        <v>2060.96</v>
+        <v>2032.25</v>
       </c>
       <c r="D79">
-        <v>2039.16</v>
+        <v>2011.23</v>
       </c>
       <c r="E79">
-        <v>2042.51</v>
+        <v>2018.09</v>
       </c>
       <c r="F79">
-        <v>390.18989783</v>
+        <v>273.1778403</v>
       </c>
       <c r="G79">
-        <v>800221.7336428504</v>
+        <v>552498.6373333425</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44695.16666666666</v>
+        <v>44701.25</v>
       </c>
       <c r="B80">
-        <v>2044.15</v>
+        <v>2016.62</v>
       </c>
       <c r="C80">
-        <v>2056.19</v>
+        <v>2026.14</v>
       </c>
       <c r="D80">
-        <v>2036.82</v>
+        <v>2012.66</v>
       </c>
       <c r="E80">
-        <v>2050.81</v>
+        <v>2025.27</v>
       </c>
       <c r="F80">
-        <v>148.47776574</v>
+        <v>85.89465692</v>
       </c>
       <c r="G80">
-        <v>303672.8259033017</v>
+        <v>173293.0020783859</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44695.20833333334</v>
+        <v>44701.29166666666</v>
       </c>
       <c r="B81">
-        <v>2051.2</v>
+        <v>2023.96</v>
       </c>
       <c r="C81">
-        <v>2051.2</v>
+        <v>2026.29</v>
       </c>
       <c r="D81">
-        <v>2012.1</v>
+        <v>2000.07</v>
       </c>
       <c r="E81">
-        <v>2020.19</v>
+        <v>2013.43</v>
       </c>
       <c r="F81">
-        <v>195.83645416</v>
+        <v>250.51397909</v>
       </c>
       <c r="G81">
-        <v>397275.5213780024</v>
+        <v>502746.5922805439</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44695.25</v>
+        <v>44701.33333333334</v>
       </c>
       <c r="B82">
-        <v>2019.84</v>
+        <v>2011.87</v>
       </c>
       <c r="C82">
-        <v>2040.09</v>
+        <v>2031.14</v>
       </c>
       <c r="D82">
-        <v>2012.03</v>
+        <v>2008.39</v>
       </c>
       <c r="E82">
-        <v>2034.26</v>
+        <v>2024.68</v>
       </c>
       <c r="F82">
-        <v>193.34226448</v>
+        <v>360.94234894</v>
       </c>
       <c r="G82">
-        <v>391705.2634289554</v>
+        <v>729487.7517126547</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44695.29166666666</v>
+        <v>44701.375</v>
       </c>
       <c r="B83">
-        <v>2031.25</v>
+        <v>2024.22</v>
       </c>
       <c r="C83">
-        <v>2043.8</v>
+        <v>2035.27</v>
       </c>
       <c r="D83">
-        <v>2024.11</v>
+        <v>2019.67</v>
       </c>
       <c r="E83">
-        <v>2038.6</v>
+        <v>2026.5</v>
       </c>
       <c r="F83">
-        <v>138.54425144</v>
+        <v>297.44144498</v>
       </c>
       <c r="G83">
-        <v>282291.4284633361</v>
+        <v>603466.1995427525</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44695.33333333334</v>
+        <v>44701.41666666666</v>
       </c>
       <c r="B84">
-        <v>2039.09</v>
+        <v>2025.5</v>
       </c>
       <c r="C84">
-        <v>2044.09</v>
+        <v>2042.21</v>
       </c>
       <c r="D84">
-        <v>2025.63</v>
+        <v>2021.27</v>
       </c>
       <c r="E84">
-        <v>2028.9</v>
+        <v>2037.5</v>
       </c>
       <c r="F84">
-        <v>95.82230705000001</v>
+        <v>150.27078152</v>
       </c>
       <c r="G84">
-        <v>195285.9939124241</v>
+        <v>305389.3607508992</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44695.375</v>
+        <v>44701.45833333334</v>
       </c>
       <c r="B85">
-        <v>2029.07</v>
+        <v>2038.85</v>
       </c>
       <c r="C85">
-        <v>2047.5</v>
+        <v>2046.23</v>
       </c>
       <c r="D85">
-        <v>2024.83</v>
+        <v>2034.04</v>
       </c>
       <c r="E85">
-        <v>2039.94</v>
+        <v>2046.23</v>
       </c>
       <c r="F85">
-        <v>209.78571702</v>
+        <v>638.7747263700001</v>
       </c>
       <c r="G85">
-        <v>426789.7098527853</v>
+        <v>1302762.366636501</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44695.41666666666</v>
+        <v>44701.5</v>
       </c>
       <c r="B86">
-        <v>2037.62</v>
+        <v>2046.07</v>
       </c>
       <c r="C86">
-        <v>2050.33</v>
+        <v>2062.65</v>
       </c>
       <c r="D86">
-        <v>2016.17</v>
+        <v>2036.6</v>
       </c>
       <c r="E86">
-        <v>2023.63</v>
+        <v>2052.23</v>
       </c>
       <c r="F86">
-        <v>275.15889532</v>
+        <v>299.61832853</v>
       </c>
       <c r="G86">
-        <v>558524.9873376273</v>
+        <v>614495.3754329581</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44695.45833333334</v>
+        <v>44701.54166666666</v>
       </c>
       <c r="B87">
-        <v>2023.02</v>
+        <v>2052.02</v>
       </c>
       <c r="C87">
-        <v>2029.71</v>
+        <v>2055.61</v>
       </c>
       <c r="D87">
-        <v>2007.67</v>
+        <v>2022.4</v>
       </c>
       <c r="E87">
-        <v>2009.55</v>
+        <v>2035.39</v>
       </c>
       <c r="F87">
-        <v>207.77545878</v>
+        <v>232.83949732</v>
       </c>
       <c r="G87">
-        <v>419555.4415066971</v>
+        <v>474464.2472007642</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44695.5</v>
+        <v>44701.58333333334</v>
       </c>
       <c r="B88">
-        <v>2008.11</v>
+        <v>2037.65</v>
       </c>
       <c r="C88">
-        <v>2013.8</v>
+        <v>2052.16</v>
       </c>
       <c r="D88">
-        <v>1968.36</v>
+        <v>2028.1</v>
       </c>
       <c r="E88">
-        <v>1981.42</v>
+        <v>2043.94</v>
       </c>
       <c r="F88">
-        <v>533.79136653</v>
+        <v>1445.19498049</v>
       </c>
       <c r="G88">
-        <v>1059544.384464082</v>
+        <v>2948554.263461674</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44695.54166666666</v>
+        <v>44701.625</v>
       </c>
       <c r="B89">
-        <v>1980.41</v>
+        <v>2042.68</v>
       </c>
       <c r="C89">
-        <v>1994.68</v>
+        <v>2042.68</v>
       </c>
       <c r="D89">
-        <v>1969.67</v>
+        <v>1979.4</v>
       </c>
       <c r="E89">
-        <v>1978.46</v>
+        <v>1983.82</v>
       </c>
       <c r="F89">
-        <v>357.55824084</v>
+        <v>572.44458299</v>
       </c>
       <c r="G89">
-        <v>708990.1657051563</v>
+        <v>1150218.701122094</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44695.58333333334</v>
+        <v>44701.66666666666</v>
       </c>
       <c r="B90">
-        <v>1980.94</v>
+        <v>1982.35</v>
       </c>
       <c r="C90">
-        <v>1985.91</v>
+        <v>1984.45</v>
       </c>
       <c r="D90">
-        <v>1955</v>
+        <v>1949.82</v>
       </c>
       <c r="E90">
-        <v>1960.11</v>
+        <v>1958.18</v>
       </c>
       <c r="F90">
-        <v>467.59474741</v>
+        <v>895.2704553900001</v>
       </c>
       <c r="G90">
-        <v>918546.6700758744</v>
+        <v>1757731.659691359</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44695.625</v>
+        <v>44701.70833333334</v>
       </c>
       <c r="B91">
-        <v>1958.31</v>
+        <v>1958.85</v>
       </c>
       <c r="C91">
-        <v>1969.82</v>
+        <v>1960.19</v>
       </c>
       <c r="D91">
-        <v>1947.47</v>
+        <v>1921.06</v>
       </c>
       <c r="E91">
-        <v>1969.82</v>
+        <v>1932.47</v>
       </c>
       <c r="F91">
-        <v>443.47374722</v>
+        <v>1030.28383961</v>
       </c>
       <c r="G91">
-        <v>867244.7443984291</v>
+        <v>1993064.058534965</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44695.66666666666</v>
+        <v>44701.75</v>
       </c>
       <c r="B92">
-        <v>1970.13</v>
+        <v>1931.8</v>
       </c>
       <c r="C92">
-        <v>1982.66</v>
+        <v>1941.56</v>
       </c>
       <c r="D92">
-        <v>1957.65</v>
+        <v>1923.19</v>
       </c>
       <c r="E92">
-        <v>1960.67</v>
+        <v>1935.98</v>
       </c>
       <c r="F92">
-        <v>210.03981737</v>
+        <v>495.27146597</v>
       </c>
       <c r="G92">
-        <v>413172.7216296955</v>
+        <v>957543.9221975759</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44695.70833333334</v>
+        <v>44701.79166666666</v>
       </c>
       <c r="B93">
-        <v>1959.22</v>
+        <v>1935.56</v>
       </c>
       <c r="C93">
-        <v>2023.21</v>
+        <v>1944.98</v>
       </c>
       <c r="D93">
-        <v>1954.26</v>
+        <v>1920.93</v>
       </c>
       <c r="E93">
-        <v>2004.73</v>
+        <v>1938.64</v>
       </c>
       <c r="F93">
-        <v>293.94168871</v>
+        <v>597.67040597</v>
       </c>
       <c r="G93">
-        <v>585741.0273556713</v>
+        <v>1153542.741481123</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44695.75</v>
+        <v>44701.83333333334</v>
       </c>
       <c r="B94">
-        <v>2004.74</v>
+        <v>1937.95</v>
       </c>
       <c r="C94">
-        <v>2015.4</v>
+        <v>1969.79</v>
       </c>
       <c r="D94">
-        <v>1997.91</v>
+        <v>1934.51</v>
       </c>
       <c r="E94">
-        <v>2014.38</v>
+        <v>1966.23</v>
       </c>
       <c r="F94">
-        <v>399.02643847</v>
+        <v>826.72257319</v>
       </c>
       <c r="G94">
-        <v>801431.8805502737</v>
+        <v>1611985.177450224</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44695.79166666666</v>
+        <v>44701.875</v>
       </c>
       <c r="B95">
-        <v>2016.61</v>
+        <v>1966.62</v>
       </c>
       <c r="C95">
-        <v>2030.95</v>
+        <v>1973.02</v>
       </c>
       <c r="D95">
-        <v>2008.39</v>
+        <v>1956.15</v>
       </c>
       <c r="E95">
-        <v>2011.93</v>
+        <v>1957.77</v>
       </c>
       <c r="F95">
-        <v>276.18396606</v>
+        <v>282.84804114</v>
       </c>
       <c r="G95">
-        <v>557827.8872440577</v>
+        <v>555398.1539745829</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44695.83333333334</v>
+        <v>44701.91666666666</v>
       </c>
       <c r="B96">
-        <v>2011.83</v>
+        <v>1957.47</v>
       </c>
       <c r="C96">
-        <v>2015.55</v>
+        <v>1970.93</v>
       </c>
       <c r="D96">
-        <v>1984.31</v>
+        <v>1957.4</v>
       </c>
       <c r="E96">
-        <v>1994.79</v>
+        <v>1958.84</v>
       </c>
       <c r="F96">
-        <v>208.47784896</v>
+        <v>231.31939877</v>
       </c>
       <c r="G96">
-        <v>416759.4884397143</v>
+        <v>453954.7555157941</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44695.875</v>
+        <v>44701.95833333334</v>
       </c>
       <c r="B97">
-        <v>1994.84</v>
+        <v>1958.15</v>
       </c>
       <c r="C97">
-        <v>2017.19</v>
+        <v>1968.73</v>
       </c>
       <c r="D97">
-        <v>1991.41</v>
+        <v>1949.95</v>
       </c>
       <c r="E97">
-        <v>1996.13</v>
+        <v>1951.15</v>
       </c>
       <c r="F97">
-        <v>210.29534642</v>
+        <v>253.5790424</v>
       </c>
       <c r="G97">
-        <v>420978.3986003048</v>
+        <v>496118.8809536112</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44695.91666666666</v>
+        <v>44702</v>
       </c>
       <c r="B98">
-        <v>1996.24</v>
+        <v>1952.75</v>
       </c>
       <c r="C98">
-        <v>2044</v>
+        <v>1975.94</v>
       </c>
       <c r="D98">
-        <v>1991.16</v>
+        <v>1951.76</v>
       </c>
       <c r="E98">
-        <v>2026.93</v>
+        <v>1957.09</v>
       </c>
       <c r="F98">
-        <v>392.8649556</v>
+        <v>254.23311698</v>
       </c>
       <c r="G98">
-        <v>793121.90917497</v>
+        <v>499242.5659726636</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44695.95833333334</v>
+        <v>44702.04166666666</v>
       </c>
       <c r="B99">
-        <v>2027.1</v>
+        <v>1956.99</v>
       </c>
       <c r="C99">
-        <v>2059.8</v>
+        <v>1972.33</v>
       </c>
       <c r="D99">
-        <v>2020.2</v>
+        <v>1954.6</v>
       </c>
       <c r="E99">
-        <v>2053.81</v>
+        <v>1962.12</v>
       </c>
       <c r="F99">
-        <v>337.16454761</v>
+        <v>235.30515163</v>
       </c>
       <c r="G99">
-        <v>685631.6258160641</v>
+        <v>462137.5691122691</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44696</v>
+        <v>44702.08333333334</v>
       </c>
       <c r="B100">
-        <v>2056.34</v>
+        <v>1962.12</v>
       </c>
       <c r="C100">
-        <v>2063.62</v>
+        <v>1963.37</v>
       </c>
       <c r="D100">
-        <v>2039.85</v>
+        <v>1935.26</v>
       </c>
       <c r="E100">
-        <v>2054.23</v>
+        <v>1948.7</v>
       </c>
       <c r="F100">
-        <v>148.28728908</v>
+        <v>129.05432449</v>
       </c>
       <c r="G100">
-        <v>304230.1531062849</v>
+        <v>251492.7534458456</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44696.04166666666</v>
+        <v>44702.125</v>
       </c>
       <c r="B101">
-        <v>2053.91</v>
+        <v>1952.33</v>
       </c>
       <c r="C101">
-        <v>2075</v>
+        <v>1960.88</v>
       </c>
       <c r="D101">
-        <v>2044.46</v>
+        <v>1941.91</v>
       </c>
       <c r="E101">
-        <v>2050</v>
+        <v>1956.85</v>
       </c>
       <c r="F101">
-        <v>174.09994262</v>
+        <v>81.16274389</v>
       </c>
       <c r="G101">
-        <v>358789.7605669401</v>
+        <v>158413.0770210586</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44696.08333333334</v>
+        <v>44702.16666666666</v>
       </c>
       <c r="B102">
-        <v>2050</v>
+        <v>1958.02</v>
       </c>
       <c r="C102">
-        <v>2052.34</v>
+        <v>1967.55</v>
       </c>
       <c r="D102">
-        <v>2030.86</v>
+        <v>1948.08</v>
       </c>
       <c r="E102">
-        <v>2036.6</v>
+        <v>1966.45</v>
       </c>
       <c r="F102">
-        <v>72.43390551</v>
+        <v>129.03552998</v>
       </c>
       <c r="G102">
-        <v>147642.5392869909</v>
+        <v>252408.8709611666</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44696.125</v>
+        <v>44702.20833333334</v>
       </c>
       <c r="B103">
-        <v>2037.75</v>
+        <v>1967.8</v>
       </c>
       <c r="C103">
-        <v>2046.06</v>
+        <v>1968.04</v>
       </c>
       <c r="D103">
-        <v>2020.5</v>
+        <v>1959.64</v>
       </c>
       <c r="E103">
-        <v>2028.58</v>
+        <v>1963.43</v>
       </c>
       <c r="F103">
-        <v>136.87172373</v>
+        <v>125.40215272</v>
       </c>
       <c r="G103">
-        <v>277721.9082423306</v>
+        <v>246242.1377553329</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44696.16666666666</v>
+        <v>44702.25</v>
       </c>
       <c r="B104">
-        <v>2029.51</v>
+        <v>1963.43</v>
       </c>
       <c r="C104">
-        <v>2032.4</v>
+        <v>1967.69</v>
       </c>
       <c r="D104">
-        <v>1998.13</v>
+        <v>1960.22</v>
       </c>
       <c r="E104">
-        <v>2011.52</v>
+        <v>1965.56</v>
       </c>
       <c r="F104">
-        <v>199.00514707</v>
+        <v>86.01218587</v>
       </c>
       <c r="G104">
-        <v>400692.6699054862</v>
+        <v>168913.5820877846</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44696.20833333334</v>
+        <v>44702.29166666666</v>
       </c>
       <c r="B105">
-        <v>2012.14</v>
+        <v>1966.37</v>
       </c>
       <c r="C105">
-        <v>2018.95</v>
+        <v>1971.89</v>
       </c>
       <c r="D105">
-        <v>2000.19</v>
+        <v>1960.58</v>
       </c>
       <c r="E105">
-        <v>2012.42</v>
+        <v>1970.14</v>
       </c>
       <c r="F105">
-        <v>120.08386212</v>
+        <v>100.38089291</v>
       </c>
       <c r="G105">
-        <v>241262.4956049559</v>
+        <v>197304.1189843776</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44696.25</v>
+        <v>44702.33333333334</v>
       </c>
       <c r="B106">
-        <v>2013.96</v>
+        <v>1970.14</v>
       </c>
       <c r="C106">
-        <v>2034.14</v>
+        <v>1984.3</v>
       </c>
       <c r="D106">
-        <v>2004.49</v>
+        <v>1962.6</v>
       </c>
       <c r="E106">
-        <v>2031.8</v>
+        <v>1976.61</v>
       </c>
       <c r="F106">
-        <v>91.29620887</v>
+        <v>217.10329021</v>
       </c>
       <c r="G106">
-        <v>184542.3150218455</v>
+        <v>428753.0662494088</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44696.29166666666</v>
+        <v>44702.375</v>
       </c>
       <c r="B107">
-        <v>2031.87</v>
+        <v>1976.43</v>
       </c>
       <c r="C107">
-        <v>2036.85</v>
+        <v>1985.71</v>
       </c>
       <c r="D107">
-        <v>2021.13</v>
+        <v>1974.35</v>
       </c>
       <c r="E107">
-        <v>2035.37</v>
+        <v>1975.16</v>
       </c>
       <c r="F107">
-        <v>94.76127909</v>
+        <v>146.96934754</v>
       </c>
       <c r="G107">
-        <v>192262.1186835149</v>
+        <v>291054.7124358286</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44696.33333333334</v>
+        <v>44702.41666666666</v>
       </c>
       <c r="B108">
-        <v>2035.81</v>
+        <v>1976.25</v>
       </c>
       <c r="C108">
-        <v>2046.19</v>
+        <v>1976.41</v>
       </c>
       <c r="D108">
-        <v>2031.71</v>
+        <v>1965.05</v>
       </c>
       <c r="E108">
-        <v>2034.17</v>
+        <v>1970.59</v>
       </c>
       <c r="F108">
-        <v>272.73032838</v>
+        <v>82.90955243000001</v>
       </c>
       <c r="G108">
-        <v>556556.0881231646</v>
+        <v>163414.1639624661</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44696.375</v>
+        <v>44702.45833333334</v>
       </c>
       <c r="B109">
-        <v>2035.1</v>
+        <v>1972.4</v>
       </c>
       <c r="C109">
-        <v>2037.03</v>
+        <v>1976.89</v>
       </c>
       <c r="D109">
-        <v>2016.8</v>
+        <v>1963.33</v>
       </c>
       <c r="E109">
-        <v>2017.17</v>
+        <v>1968.24</v>
       </c>
       <c r="F109">
-        <v>193.32880514</v>
+        <v>196.4381369</v>
       </c>
       <c r="G109">
-        <v>391624.5951216235</v>
+        <v>386575.5237916286</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44696.41666666666</v>
+        <v>44702.5</v>
       </c>
       <c r="B110">
-        <v>2019.25</v>
+        <v>1968.83</v>
       </c>
       <c r="C110">
-        <v>2038.33</v>
+        <v>1970.39</v>
       </c>
       <c r="D110">
-        <v>2017.49</v>
+        <v>1954.18</v>
       </c>
       <c r="E110">
-        <v>2034.47</v>
+        <v>1967.92</v>
       </c>
       <c r="F110">
-        <v>201.53847996</v>
+        <v>258.96724392</v>
       </c>
       <c r="G110">
-        <v>409086.6164039696</v>
+        <v>508431.8930300507</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44696.45833333334</v>
+        <v>44702.54166666666</v>
       </c>
       <c r="B111">
-        <v>2033.37</v>
+        <v>1967.42</v>
       </c>
       <c r="C111">
-        <v>2051.64</v>
+        <v>1972.58</v>
       </c>
       <c r="D111">
-        <v>2024.37</v>
+        <v>1959.82</v>
       </c>
       <c r="E111">
-        <v>2051.64</v>
+        <v>1967.99</v>
       </c>
       <c r="F111">
-        <v>129.31082303</v>
+        <v>93.6988589</v>
       </c>
       <c r="G111">
-        <v>263800.7785159352</v>
+        <v>184310.8273556512</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44696.5</v>
+        <v>44702.58333333334</v>
       </c>
       <c r="B112">
-        <v>2051.63</v>
+        <v>1968.22</v>
       </c>
       <c r="C112">
-        <v>2081.36</v>
+        <v>1974.75</v>
       </c>
       <c r="D112">
-        <v>2046.58</v>
+        <v>1962.7</v>
       </c>
       <c r="E112">
-        <v>2077.81</v>
+        <v>1967.46</v>
       </c>
       <c r="F112">
-        <v>404.19638801</v>
+        <v>144.60461046</v>
       </c>
       <c r="G112">
-        <v>836459.3339119049</v>
+        <v>284875.2867288069</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>44696.54166666666</v>
+        <v>44702.625</v>
       </c>
       <c r="B113">
-        <v>2079.62</v>
+        <v>1967.12</v>
       </c>
       <c r="C113">
-        <v>2095.89</v>
+        <v>1981.07</v>
       </c>
       <c r="D113">
-        <v>2074.2</v>
+        <v>1956.89</v>
       </c>
       <c r="E113">
-        <v>2081.44</v>
+        <v>1975.47</v>
       </c>
       <c r="F113">
-        <v>572.02023911</v>
+        <v>377.26213555</v>
       </c>
       <c r="G113">
-        <v>1193035.080196565</v>
+        <v>741548.9292563637</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>44696.58333333334</v>
+        <v>44702.66666666666</v>
       </c>
       <c r="B114">
-        <v>2080.19</v>
+        <v>1975.47</v>
       </c>
       <c r="C114">
-        <v>2082.64</v>
+        <v>1981.13</v>
       </c>
       <c r="D114">
-        <v>2064</v>
+        <v>1960.59</v>
       </c>
       <c r="E114">
-        <v>2067.42</v>
+        <v>1978.4</v>
       </c>
       <c r="F114">
-        <v>119.23345747</v>
+        <v>379.68401077</v>
       </c>
       <c r="G114">
-        <v>246942.877910428</v>
+        <v>750107.3234513502</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>44696.625</v>
+        <v>44702.70833333334</v>
       </c>
       <c r="B115">
-        <v>2068.64</v>
+        <v>1978.4</v>
       </c>
       <c r="C115">
-        <v>2069.38</v>
+        <v>1988.23</v>
       </c>
       <c r="D115">
-        <v>2053.44</v>
+        <v>1974.62</v>
       </c>
       <c r="E115">
-        <v>2065.82</v>
+        <v>1979.06</v>
       </c>
       <c r="F115">
-        <v>200.93631537</v>
+        <v>107.75179585</v>
       </c>
       <c r="G115">
-        <v>413974.8006623405</v>
+        <v>213341.6794574321</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>44696.66666666666</v>
+        <v>44702.75</v>
       </c>
       <c r="B116">
-        <v>2067.03</v>
+        <v>1979.31</v>
       </c>
       <c r="C116">
-        <v>2081.41</v>
+        <v>1983.18</v>
       </c>
       <c r="D116">
-        <v>2046.53</v>
+        <v>1970.79</v>
       </c>
       <c r="E116">
-        <v>2056.78</v>
+        <v>1974.09</v>
       </c>
       <c r="F116">
-        <v>249.51557507</v>
+        <v>305.24163912</v>
       </c>
       <c r="G116">
-        <v>515633.4848685033</v>
+        <v>602810.3607721979</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>44696.70833333334</v>
+        <v>44702.79166666666</v>
       </c>
       <c r="B117">
-        <v>2061.25</v>
+        <v>1974.09</v>
       </c>
       <c r="C117">
-        <v>2087.71</v>
+        <v>1982.52</v>
       </c>
       <c r="D117">
-        <v>2055.94</v>
+        <v>1974.09</v>
       </c>
       <c r="E117">
-        <v>2081.29</v>
+        <v>1982.36</v>
       </c>
       <c r="F117">
-        <v>313.40363716</v>
+        <v>72.29641332999999</v>
       </c>
       <c r="G117">
-        <v>650477.7973272643</v>
+        <v>143022.9165599269</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>44696.75</v>
+        <v>44702.83333333334</v>
       </c>
       <c r="B118">
-        <v>2080.63</v>
+        <v>1982.45</v>
       </c>
       <c r="C118">
-        <v>2090.46</v>
+        <v>1987.03</v>
       </c>
       <c r="D118">
-        <v>2065.26</v>
+        <v>1974.21</v>
       </c>
       <c r="E118">
-        <v>2065.87</v>
+        <v>1978.98</v>
       </c>
       <c r="F118">
-        <v>277.30853203</v>
+        <v>111.65015663</v>
       </c>
       <c r="G118">
-        <v>574457.586557119</v>
+        <v>220941.6729015645</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>44696.79166666666</v>
+        <v>44702.875</v>
       </c>
       <c r="B119">
-        <v>2066.79</v>
+        <v>1979.65</v>
       </c>
       <c r="C119">
-        <v>2094.99</v>
+        <v>1982.98</v>
       </c>
       <c r="D119">
-        <v>2064.76</v>
+        <v>1970.57</v>
       </c>
       <c r="E119">
-        <v>2086.58</v>
+        <v>1974.46</v>
       </c>
       <c r="F119">
-        <v>214.13012583</v>
+        <v>51.78331008</v>
       </c>
       <c r="G119">
-        <v>445163.5314661444</v>
+        <v>102292.711205826</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>44696.83333333334</v>
+        <v>44702.91666666666</v>
       </c>
       <c r="B120">
-        <v>2087.25</v>
+        <v>1973.36</v>
       </c>
       <c r="C120">
-        <v>2102.73</v>
+        <v>1976.05</v>
       </c>
       <c r="D120">
-        <v>2077.45</v>
+        <v>1964.85</v>
       </c>
       <c r="E120">
-        <v>2102.73</v>
+        <v>1966.13</v>
       </c>
       <c r="F120">
-        <v>449.97273659</v>
+        <v>143.51495387</v>
       </c>
       <c r="G120">
-        <v>940646.4060173864</v>
+        <v>282962.2714723306</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>44696.875</v>
+        <v>44702.95833333334</v>
       </c>
       <c r="B121">
-        <v>2105.37</v>
+        <v>1964.75</v>
       </c>
       <c r="C121">
-        <v>2133.54</v>
+        <v>1971.82</v>
       </c>
       <c r="D121">
-        <v>2094.27</v>
+        <v>1963.36</v>
       </c>
       <c r="E121">
-        <v>2128.12</v>
+        <v>1971.82</v>
       </c>
       <c r="F121">
-        <v>664.58579338</v>
+        <v>88.81330672999999</v>
       </c>
       <c r="G121">
-        <v>1407798.757171802</v>
+        <v>174788.1946633495</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>44696.91666666666</v>
+        <v>44703</v>
       </c>
       <c r="B122">
-        <v>2130</v>
+        <v>1971.93</v>
       </c>
       <c r="C122">
-        <v>2134.46</v>
+        <v>1978.4</v>
       </c>
       <c r="D122">
-        <v>2116.13</v>
+        <v>1970.55</v>
       </c>
       <c r="E122">
-        <v>2131.39</v>
+        <v>1973.24</v>
       </c>
       <c r="F122">
-        <v>310.73561021</v>
+        <v>130.03985187</v>
       </c>
       <c r="G122">
-        <v>660246.0663463775</v>
+        <v>256688.313364636</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>44696.95833333334</v>
+        <v>44703.04166666666</v>
       </c>
       <c r="B123">
-        <v>2132.22</v>
+        <v>1974.05</v>
       </c>
       <c r="C123">
-        <v>2165.49</v>
+        <v>1978.11</v>
       </c>
       <c r="D123">
-        <v>2129.62</v>
+        <v>1970</v>
       </c>
       <c r="E123">
-        <v>2129.62</v>
+        <v>1975.9</v>
       </c>
       <c r="F123">
-        <v>450.73064898</v>
+        <v>117.51317623</v>
       </c>
       <c r="G123">
-        <v>967693.0363686874</v>
+        <v>231991.7560280049</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>44697</v>
+        <v>44703.08333333334</v>
       </c>
       <c r="B124">
-        <v>2127.95</v>
+        <v>1975.89</v>
       </c>
       <c r="C124">
-        <v>2152.07</v>
+        <v>1981.59</v>
       </c>
       <c r="D124">
-        <v>2125.67</v>
+        <v>1974.61</v>
       </c>
       <c r="E124">
-        <v>2143.09</v>
+        <v>1978.51</v>
       </c>
       <c r="F124">
-        <v>228.91797997</v>
+        <v>234.2454424</v>
       </c>
       <c r="G124">
-        <v>489794.9688622961</v>
+        <v>462960.8720221877</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>44697.04166666666</v>
+        <v>44703.125</v>
       </c>
       <c r="B125">
-        <v>2143.73</v>
+        <v>1977.58</v>
       </c>
       <c r="C125">
-        <v>2143.73</v>
+        <v>1977.87</v>
       </c>
       <c r="D125">
-        <v>2114.97</v>
+        <v>1969.51</v>
       </c>
       <c r="E125">
-        <v>2119.32</v>
+        <v>1973.44</v>
       </c>
       <c r="F125">
-        <v>117.2322478</v>
+        <v>110.10641025</v>
       </c>
       <c r="G125">
-        <v>249203.4944977057</v>
+        <v>217231.2679768536</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>44697.08333333334</v>
+        <v>44703.16666666666</v>
       </c>
       <c r="B126">
-        <v>2119.37</v>
+        <v>1971.58</v>
       </c>
       <c r="C126">
-        <v>2123.22</v>
+        <v>1978.22</v>
       </c>
       <c r="D126">
-        <v>2085.33</v>
+        <v>1970.06</v>
       </c>
       <c r="E126">
-        <v>2090.54</v>
+        <v>1972.62</v>
       </c>
       <c r="F126">
-        <v>370.05096068</v>
+        <v>200.40248393</v>
       </c>
       <c r="G126">
-        <v>776778.4539771118</v>
+        <v>395806.9940190702</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>44697.125</v>
+        <v>44703.20833333334</v>
       </c>
       <c r="B127">
-        <v>2088.32</v>
+        <v>1971.39</v>
       </c>
       <c r="C127">
-        <v>2088.32</v>
+        <v>1973.03</v>
       </c>
       <c r="D127">
-        <v>2073.34</v>
+        <v>1964.29</v>
       </c>
       <c r="E127">
-        <v>2085.63</v>
+        <v>1964.29</v>
       </c>
       <c r="F127">
-        <v>274.85299276</v>
+        <v>132.87200948</v>
       </c>
       <c r="G127">
-        <v>572057.1443531601</v>
+        <v>261428.0785720306</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>44697.16666666666</v>
+        <v>44703.25</v>
       </c>
       <c r="B128">
-        <v>2083.61</v>
+        <v>1964.06</v>
       </c>
       <c r="C128">
-        <v>2084.86</v>
+        <v>1972.85</v>
       </c>
       <c r="D128">
-        <v>2065.31</v>
+        <v>1964.06</v>
       </c>
       <c r="E128">
-        <v>2073.49</v>
+        <v>1969.91</v>
       </c>
       <c r="F128">
-        <v>190.72238721</v>
+        <v>112.95589048</v>
       </c>
       <c r="G128">
-        <v>395096.9140310399</v>
+        <v>222467.1744066133</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>44697.20833333334</v>
+        <v>44703.29166666666</v>
       </c>
       <c r="B129">
-        <v>2072.4</v>
+        <v>1969.91</v>
       </c>
       <c r="C129">
-        <v>2078.88</v>
+        <v>1973.87</v>
       </c>
       <c r="D129">
-        <v>2060.49</v>
+        <v>1969.69</v>
       </c>
       <c r="E129">
-        <v>2070.76</v>
+        <v>1972.88</v>
       </c>
       <c r="F129">
-        <v>252.52675084</v>
+        <v>63.09160492</v>
       </c>
       <c r="G129">
-        <v>522996.7250800957</v>
+        <v>124400.5610006896</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>44697.25</v>
+        <v>44703.33333333334</v>
       </c>
       <c r="B130">
-        <v>2070.64</v>
+        <v>1972.3</v>
       </c>
       <c r="C130">
-        <v>2080.95</v>
+        <v>1975.56</v>
       </c>
       <c r="D130">
-        <v>2062.96</v>
+        <v>1968.24</v>
       </c>
       <c r="E130">
-        <v>2067.79</v>
+        <v>1973.99</v>
       </c>
       <c r="F130">
-        <v>161.08023776</v>
+        <v>115.32587213</v>
       </c>
       <c r="G130">
-        <v>333631.9686641866</v>
+        <v>227374.8429297717</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>44697.29166666666</v>
+        <v>44703.375</v>
       </c>
       <c r="B131">
-        <v>2065.44</v>
+        <v>1973.99</v>
       </c>
       <c r="C131">
-        <v>2065.44</v>
+        <v>1983.3</v>
       </c>
       <c r="D131">
-        <v>2002.43</v>
+        <v>1971.36</v>
       </c>
       <c r="E131">
-        <v>2008.24</v>
+        <v>1982.61</v>
       </c>
       <c r="F131">
-        <v>659.02564094</v>
+        <v>110.36116523</v>
       </c>
       <c r="G131">
-        <v>1336556.722768283</v>
+        <v>218374.1194099364</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>44697.33333333334</v>
+        <v>44703.41666666666</v>
       </c>
       <c r="B132">
-        <v>2002.54</v>
+        <v>1982.36</v>
       </c>
       <c r="C132">
-        <v>2022.58</v>
+        <v>2033.49</v>
       </c>
       <c r="D132">
-        <v>1988.2</v>
+        <v>1982.09</v>
       </c>
       <c r="E132">
-        <v>2009.36</v>
+        <v>2026.72</v>
       </c>
       <c r="F132">
-        <v>1254.55419885</v>
+        <v>466.11981732</v>
       </c>
       <c r="G132">
-        <v>2516193.093666844</v>
+        <v>935247.9546330835</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>44697.375</v>
+        <v>44703.45833333334</v>
       </c>
       <c r="B133">
-        <v>2008</v>
+        <v>2028.03</v>
       </c>
       <c r="C133">
-        <v>2027.6</v>
+        <v>2034.53</v>
       </c>
       <c r="D133">
-        <v>2008</v>
+        <v>2022.83</v>
       </c>
       <c r="E133">
-        <v>2025.29</v>
+        <v>2025.33</v>
       </c>
       <c r="F133">
-        <v>423.47914529</v>
+        <v>242.24036636</v>
       </c>
       <c r="G133">
-        <v>855214.0532655858</v>
+        <v>491206.4519225357</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>44697.41666666666</v>
+        <v>44703.5</v>
       </c>
       <c r="B134">
-        <v>2024.15</v>
+        <v>2026.33</v>
       </c>
       <c r="C134">
-        <v>2024.15</v>
+        <v>2032.25</v>
       </c>
       <c r="D134">
-        <v>1996.43</v>
+        <v>2010.81</v>
       </c>
       <c r="E134">
-        <v>2005.49</v>
+        <v>2015.01</v>
       </c>
       <c r="F134">
-        <v>423.3399664</v>
+        <v>259.0405432</v>
       </c>
       <c r="G134">
-        <v>850454.9025601743</v>
+        <v>523090.9607522863</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>44697.45833333334</v>
+        <v>44703.54166666666</v>
       </c>
       <c r="B135">
-        <v>2004.1</v>
+        <v>2015.27</v>
       </c>
       <c r="C135">
-        <v>2049.47</v>
+        <v>2030</v>
       </c>
       <c r="D135">
-        <v>1978.52</v>
+        <v>2015.27</v>
       </c>
       <c r="E135">
-        <v>2048.35</v>
+        <v>2024.33</v>
       </c>
       <c r="F135">
-        <v>476.79166341</v>
+        <v>233.53106254</v>
       </c>
       <c r="G135">
-        <v>959856.4889378805</v>
+        <v>472428.5645920543</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>44697.5</v>
+        <v>44703.58333333334</v>
       </c>
       <c r="B136">
-        <v>2047.26</v>
+        <v>2023.45</v>
       </c>
       <c r="C136">
-        <v>2047.33</v>
+        <v>2024.24</v>
       </c>
       <c r="D136">
-        <v>2028.61</v>
+        <v>2015.53</v>
       </c>
       <c r="E136">
-        <v>2029.28</v>
+        <v>2020.25</v>
       </c>
       <c r="F136">
-        <v>463.61047605</v>
+        <v>80.36639134000001</v>
       </c>
       <c r="G136">
-        <v>943616.8430878574</v>
+        <v>162328.1668803959</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>44697.54166666666</v>
+        <v>44703.625</v>
       </c>
       <c r="B137">
-        <v>2028.09</v>
+        <v>2018.78</v>
       </c>
       <c r="C137">
-        <v>2057.48</v>
+        <v>2024.92</v>
       </c>
       <c r="D137">
-        <v>2002.6</v>
+        <v>2013.38</v>
       </c>
       <c r="E137">
-        <v>2027.57</v>
+        <v>2015.72</v>
       </c>
       <c r="F137">
-        <v>473.58251478</v>
+        <v>178.34535064</v>
       </c>
       <c r="G137">
-        <v>960640.0722931137</v>
+        <v>360198.4933182234</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>44697.58333333334</v>
+        <v>44703.66666666666</v>
       </c>
       <c r="B138">
-        <v>2028.03</v>
+        <v>2015.72</v>
       </c>
       <c r="C138">
-        <v>2043.72</v>
+        <v>2016.83</v>
       </c>
       <c r="D138">
-        <v>1990.74</v>
+        <v>1988.86</v>
       </c>
       <c r="E138">
-        <v>1990.83</v>
+        <v>2002.83</v>
       </c>
       <c r="F138">
-        <v>755.8503541600001</v>
+        <v>211.36038687</v>
       </c>
       <c r="G138">
-        <v>1522640.606050986</v>
+        <v>422837.6299711582</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>44697.625</v>
+        <v>44703.70833333334</v>
       </c>
       <c r="B139">
-        <v>1989.78</v>
+        <v>2002.52</v>
       </c>
       <c r="C139">
-        <v>2027.35</v>
+        <v>2010.6</v>
       </c>
       <c r="D139">
-        <v>1983.04</v>
+        <v>1990.62</v>
       </c>
       <c r="E139">
-        <v>1996.31</v>
+        <v>2008.05</v>
       </c>
       <c r="F139">
-        <v>603.0862021</v>
+        <v>460.85726062</v>
       </c>
       <c r="G139">
-        <v>1209092.752649287</v>
+        <v>924046.7829873316</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>44697.66666666666</v>
+        <v>44703.75</v>
       </c>
       <c r="B140">
-        <v>1995.69</v>
+        <v>2007.65</v>
       </c>
       <c r="C140">
-        <v>2018.61</v>
+        <v>2020.54</v>
       </c>
       <c r="D140">
-        <v>1990.88</v>
+        <v>2002.39</v>
       </c>
       <c r="E140">
-        <v>2012.79</v>
+        <v>2004.57</v>
       </c>
       <c r="F140">
-        <v>838.66135358</v>
+        <v>1650.18870641</v>
       </c>
       <c r="G140">
-        <v>1684949.254546232</v>
+        <v>3312112.320384369</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>44697.70833333334</v>
+        <v>44703.79166666666</v>
       </c>
       <c r="B141">
-        <v>2010.9</v>
+        <v>2003.64</v>
       </c>
       <c r="C141">
-        <v>2016.79</v>
+        <v>2014.22</v>
       </c>
       <c r="D141">
-        <v>1976.7</v>
+        <v>2000.94</v>
       </c>
       <c r="E141">
-        <v>1990.06</v>
+        <v>2012.23</v>
       </c>
       <c r="F141">
-        <v>2799.19487646</v>
+        <v>1203.4763095</v>
       </c>
       <c r="G141">
-        <v>5592165.757647044</v>
+        <v>2413059.707930889</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>44697.75</v>
+        <v>44703.83333333334</v>
       </c>
       <c r="B142">
-        <v>1988.38</v>
+        <v>2011.62</v>
       </c>
       <c r="C142">
-        <v>2020.82</v>
+        <v>2015.54</v>
       </c>
       <c r="D142">
-        <v>1986.97</v>
+        <v>2003.66</v>
       </c>
       <c r="E142">
-        <v>2020.09</v>
+        <v>2005.57</v>
       </c>
       <c r="F142">
-        <v>2062.72237144</v>
+        <v>92.25980810999999</v>
       </c>
       <c r="G142">
-        <v>4140253.089568283</v>
+        <v>185464.4767806378</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>44697.79166666666</v>
+        <v>44703.875</v>
       </c>
       <c r="B143">
-        <v>2019.43</v>
+        <v>2005.57</v>
       </c>
       <c r="C143">
-        <v>2038.08</v>
+        <v>2015.25</v>
       </c>
       <c r="D143">
-        <v>2017.92</v>
+        <v>2004.72</v>
       </c>
       <c r="E143">
-        <v>2034.75</v>
+        <v>2005.8</v>
       </c>
       <c r="F143">
-        <v>618.40476539</v>
+        <v>110.05111886</v>
       </c>
       <c r="G143">
-        <v>1255080.205707153</v>
+        <v>221304.3819034978</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>44697.83333333334</v>
+        <v>44703.91666666666</v>
       </c>
       <c r="B144">
-        <v>2033</v>
+        <v>2005.81</v>
       </c>
       <c r="C144">
-        <v>2044.06</v>
+        <v>2016.99</v>
       </c>
       <c r="D144">
-        <v>2002.95</v>
+        <v>2003.67</v>
       </c>
       <c r="E144">
-        <v>2006.22</v>
+        <v>2015.76</v>
       </c>
       <c r="F144">
-        <v>1206.61672738</v>
+        <v>117.13253143</v>
       </c>
       <c r="G144">
-        <v>2435320.414976957</v>
+        <v>235424.1745624785</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>44697.875</v>
+        <v>44703.95833333334</v>
       </c>
       <c r="B145">
-        <v>2005.47</v>
+        <v>2015.87</v>
       </c>
       <c r="C145">
-        <v>2033.28</v>
+        <v>2047.38</v>
       </c>
       <c r="D145">
-        <v>2003.33</v>
+        <v>2015.87</v>
       </c>
       <c r="E145">
-        <v>2033.28</v>
+        <v>2033.94</v>
       </c>
       <c r="F145">
-        <v>184.98179764</v>
+        <v>307.3581627</v>
       </c>
       <c r="G145">
-        <v>372953.4960939317</v>
+        <v>625491.2919051154</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>44697.91666666666</v>
+        <v>44704</v>
       </c>
       <c r="B146">
-        <v>2032.4</v>
+        <v>2034.45</v>
       </c>
       <c r="C146">
-        <v>2060.06</v>
+        <v>2053.71</v>
       </c>
       <c r="D146">
-        <v>2029.11</v>
+        <v>2034.45</v>
       </c>
       <c r="E146">
-        <v>2045.42</v>
+        <v>2040.72</v>
       </c>
       <c r="F146">
-        <v>1543.44717522</v>
+        <v>226.38612734</v>
       </c>
       <c r="G146">
-        <v>3155248.140719702</v>
+        <v>463072.9586154526</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>44697.95833333334</v>
+        <v>44704.04166666666</v>
       </c>
       <c r="B147">
-        <v>2046.61</v>
+        <v>2039.93</v>
       </c>
       <c r="C147">
-        <v>2052.46</v>
+        <v>2054.8</v>
       </c>
       <c r="D147">
-        <v>2026.42</v>
+        <v>2035.28</v>
       </c>
       <c r="E147">
-        <v>2031.01</v>
+        <v>2041.09</v>
       </c>
       <c r="F147">
-        <v>789.76967218</v>
+        <v>211.0844308</v>
       </c>
       <c r="G147">
-        <v>1613134.738732192</v>
+        <v>430937.6212129339</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>44698</v>
+        <v>44704.08333333334</v>
       </c>
       <c r="B148">
-        <v>2030.99</v>
+        <v>2040.49</v>
       </c>
       <c r="C148">
-        <v>2033.58</v>
+        <v>2040.49</v>
       </c>
       <c r="D148">
-        <v>2015.64</v>
+        <v>2028.99</v>
       </c>
       <c r="E148">
-        <v>2020.84</v>
+        <v>2032.14</v>
       </c>
       <c r="F148">
-        <v>304.79886491</v>
+        <v>265.88069395</v>
       </c>
       <c r="G148">
-        <v>618064.4831303729</v>
+        <v>540416.1694487606</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>44698.04166666666</v>
+        <v>44704.125</v>
       </c>
       <c r="B149">
-        <v>2021.27</v>
+        <v>2031.21</v>
       </c>
       <c r="C149">
-        <v>2050.23</v>
+        <v>2032.24</v>
       </c>
       <c r="D149">
-        <v>2016.88</v>
+        <v>2017.38</v>
       </c>
       <c r="E149">
-        <v>2045.57</v>
+        <v>2026.65</v>
       </c>
       <c r="F149">
-        <v>910.00828838</v>
+        <v>239.56641057</v>
       </c>
       <c r="G149">
-        <v>1855032.675495462</v>
+        <v>484947.1747201666</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>44698.08333333334</v>
+        <v>44704.16666666666</v>
       </c>
       <c r="B150">
-        <v>2047.5</v>
+        <v>2026.64</v>
       </c>
       <c r="C150">
-        <v>2048.18</v>
+        <v>2032.64</v>
       </c>
       <c r="D150">
-        <v>2023.12</v>
+        <v>2024.82</v>
       </c>
       <c r="E150">
-        <v>2036.14</v>
+        <v>2029.52</v>
       </c>
       <c r="F150">
-        <v>442.50648837</v>
+        <v>90.98976098999999</v>
       </c>
       <c r="G150">
-        <v>899670.2984593677</v>
+        <v>184591.3408272998</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>44698.125</v>
+        <v>44704.20833333334</v>
       </c>
       <c r="B151">
-        <v>2037.44</v>
+        <v>2028.17</v>
       </c>
       <c r="C151">
-        <v>2046.03</v>
+        <v>2035.72</v>
       </c>
       <c r="D151">
-        <v>2029.54</v>
+        <v>2024.78</v>
       </c>
       <c r="E151">
-        <v>2041.95</v>
+        <v>2026.39</v>
       </c>
       <c r="F151">
-        <v>156.02516409</v>
+        <v>289.11603254</v>
       </c>
       <c r="G151">
-        <v>317845.3052194175</v>
+        <v>587393.076552904</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>44698.16666666666</v>
+        <v>44704.25</v>
       </c>
       <c r="B152">
-        <v>2044.1</v>
+        <v>2026.39</v>
       </c>
       <c r="C152">
-        <v>2077.76</v>
+        <v>2042.85</v>
       </c>
       <c r="D152">
-        <v>2040.95</v>
+        <v>2024.53</v>
       </c>
       <c r="E152">
-        <v>2071.74</v>
+        <v>2041.09</v>
       </c>
       <c r="F152">
-        <v>862.5853249100001</v>
+        <v>164.27900908</v>
       </c>
       <c r="G152">
-        <v>1777370.822379742</v>
+        <v>334137.8354793978</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>44698.20833333334</v>
+        <v>44704.29166666666</v>
       </c>
       <c r="B153">
-        <v>2071.16</v>
+        <v>2041.04</v>
       </c>
       <c r="C153">
-        <v>2081.93</v>
+        <v>2059.39</v>
       </c>
       <c r="D153">
-        <v>2062.31</v>
+        <v>2037.52</v>
       </c>
       <c r="E153">
-        <v>2074.1</v>
+        <v>2056.05</v>
       </c>
       <c r="F153">
-        <v>617.05896067</v>
+        <v>673.16480629</v>
       </c>
       <c r="G153">
-        <v>1279362.533269263</v>
+        <v>1377581.932872094</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>44698.25</v>
+        <v>44704.33333333334</v>
       </c>
       <c r="B154">
-        <v>2075</v>
+        <v>2056.1</v>
       </c>
       <c r="C154">
-        <v>2080.14</v>
+        <v>2078.94</v>
       </c>
       <c r="D154">
-        <v>2064.97</v>
+        <v>2047.49</v>
       </c>
       <c r="E154">
-        <v>2078.71</v>
+        <v>2064.98</v>
       </c>
       <c r="F154">
-        <v>297.68678322</v>
+        <v>732.5664458799999</v>
       </c>
       <c r="G154">
-        <v>616464.0545610186</v>
+        <v>1509623.87649903</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>44698.29166666666</v>
+        <v>44704.375</v>
       </c>
       <c r="B155">
-        <v>2078.31</v>
+        <v>2065.39</v>
       </c>
       <c r="C155">
-        <v>2091.68</v>
+        <v>2071.64</v>
       </c>
       <c r="D155">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="E155">
-        <v>2085.77</v>
+        <v>2054.12</v>
       </c>
       <c r="F155">
-        <v>261.49374167</v>
+        <v>375.71708528</v>
       </c>
       <c r="G155">
-        <v>543514.0863025862</v>
+        <v>772974.6799828726</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>44698.33333333334</v>
+        <v>44704.41666666666</v>
       </c>
       <c r="B156">
-        <v>2088.45</v>
+        <v>2054.25</v>
       </c>
       <c r="C156">
-        <v>2089.65</v>
+        <v>2068.99</v>
       </c>
       <c r="D156">
-        <v>2066.48</v>
+        <v>2050.47</v>
       </c>
       <c r="E156">
-        <v>2068.99</v>
+        <v>2065.76</v>
       </c>
       <c r="F156">
-        <v>518.61304767</v>
+        <v>213.31278176</v>
       </c>
       <c r="G156">
-        <v>1075716.120582085</v>
+        <v>439125.033134501</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>44698.375</v>
+        <v>44704.45833333334</v>
       </c>
       <c r="B157">
-        <v>2069.73</v>
+        <v>2066.47</v>
       </c>
       <c r="C157">
-        <v>2095.58</v>
+        <v>2074.22</v>
       </c>
       <c r="D157">
-        <v>2066.91</v>
+        <v>2063.61</v>
       </c>
       <c r="E157">
-        <v>2083.51</v>
+        <v>2071.97</v>
       </c>
       <c r="F157">
-        <v>1132.89057119</v>
+        <v>267.72022753</v>
       </c>
       <c r="G157">
-        <v>2362404.560223727</v>
+        <v>553728.4002776247</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>44698.41666666666</v>
+        <v>44704.5</v>
       </c>
       <c r="B158">
-        <v>2082.83</v>
+        <v>2071.16</v>
       </c>
       <c r="C158">
-        <v>2095.84</v>
+        <v>2083.4</v>
       </c>
       <c r="D158">
-        <v>2082.67</v>
+        <v>2064.48</v>
       </c>
       <c r="E158">
-        <v>2087.76</v>
+        <v>2067.05</v>
       </c>
       <c r="F158">
-        <v>636.78622478</v>
+        <v>272.21856496</v>
       </c>
       <c r="G158">
-        <v>1330078.029508494</v>
+        <v>563793.2250948694</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>44698.45833333334</v>
+        <v>44704.54166666666</v>
       </c>
       <c r="B159">
-        <v>2088.09</v>
+        <v>2067.82</v>
       </c>
       <c r="C159">
-        <v>2089.44</v>
+        <v>2085</v>
       </c>
       <c r="D159">
-        <v>2078.59</v>
+        <v>2061.81</v>
       </c>
       <c r="E159">
-        <v>2081.62</v>
+        <v>2063.71</v>
       </c>
       <c r="F159">
-        <v>777.3107537</v>
+        <v>1698.68797129</v>
       </c>
       <c r="G159">
-        <v>1619213.027175921</v>
+        <v>3532018.333014741</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>44698.5</v>
+        <v>44704.58333333334</v>
       </c>
       <c r="B160">
-        <v>2080.2</v>
+        <v>2064.21</v>
       </c>
       <c r="C160">
-        <v>2089.13</v>
+        <v>2076.39</v>
       </c>
       <c r="D160">
-        <v>2074.66</v>
+        <v>2043.12</v>
       </c>
       <c r="E160">
-        <v>2077.8</v>
+        <v>2055.61</v>
       </c>
       <c r="F160">
-        <v>733.7341241</v>
+        <v>390.17073174</v>
       </c>
       <c r="G160">
-        <v>1525862.162801715</v>
+        <v>805724.5827611514</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>44698.54166666666</v>
+        <v>44704.625</v>
       </c>
       <c r="B161">
-        <v>2077.52</v>
+        <v>2055.38</v>
       </c>
       <c r="C161">
-        <v>2101.23</v>
+        <v>2064.36</v>
       </c>
       <c r="D161">
-        <v>2075.84</v>
+        <v>2035.62</v>
       </c>
       <c r="E161">
-        <v>2097.32</v>
+        <v>2055.76</v>
       </c>
       <c r="F161">
-        <v>605.75849644</v>
+        <v>571.28387962</v>
       </c>
       <c r="G161">
-        <v>1267253.092476491</v>
+        <v>1170307.086414912</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>44698.58333333334</v>
+        <v>44704.66666666666</v>
       </c>
       <c r="B162">
-        <v>2098.99</v>
+        <v>2057.03</v>
       </c>
       <c r="C162">
-        <v>2115.45</v>
+        <v>2066.71</v>
       </c>
       <c r="D162">
-        <v>2075.93</v>
+        <v>2054</v>
       </c>
       <c r="E162">
-        <v>2112.69</v>
+        <v>2064.47</v>
       </c>
       <c r="F162">
-        <v>482.96415067</v>
+        <v>25.51300468</v>
       </c>
       <c r="G162">
-        <v>1011348.617899967</v>
+        <v>52629.9920531376</v>
       </c>
     </row>
   </sheetData>

--- a/output/Crypto Prices.xlsx
+++ b/output/Crypto Prices.xlsx
@@ -430,3705 +430,3705 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44698</v>
+        <v>44702.79166666666</v>
       </c>
       <c r="B2">
-        <v>29987.25</v>
+        <v>29392.74</v>
       </c>
       <c r="C2">
-        <v>30063.32</v>
+        <v>29455.56</v>
       </c>
       <c r="D2">
-        <v>29788.93</v>
+        <v>29364.73</v>
       </c>
       <c r="E2">
-        <v>29832.45</v>
+        <v>29453.76</v>
       </c>
       <c r="F2">
-        <v>62.66580106</v>
+        <v>5.19117829</v>
       </c>
       <c r="G2">
-        <v>1876189.645652471</v>
+        <v>152722.9194999387</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44698.04166666666</v>
+        <v>44702.83333333334</v>
       </c>
       <c r="B3">
-        <v>29847.53</v>
+        <v>29450.76</v>
       </c>
       <c r="C3">
-        <v>30191.04</v>
+        <v>29543.31</v>
       </c>
       <c r="D3">
-        <v>29774.63</v>
+        <v>29393.95</v>
       </c>
       <c r="E3">
-        <v>30100.09</v>
+        <v>29439.71</v>
       </c>
       <c r="F3">
-        <v>65.7631111</v>
+        <v>14.60478947</v>
       </c>
       <c r="G3">
-        <v>1972211.716971415</v>
+        <v>430525.2050979363</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44698.08333333334</v>
+        <v>44702.875</v>
       </c>
       <c r="B4">
-        <v>30126.96</v>
+        <v>29441.13</v>
       </c>
       <c r="C4">
-        <v>30134.88</v>
+        <v>29489.26</v>
       </c>
       <c r="D4">
-        <v>29750</v>
+        <v>29313.61</v>
       </c>
       <c r="E4">
-        <v>29958.52</v>
+        <v>29387.48</v>
       </c>
       <c r="F4">
-        <v>53.61378733</v>
+        <v>13.08161955</v>
       </c>
       <c r="G4">
-        <v>1602105.02864144</v>
+        <v>384502.2538937555</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44698.125</v>
+        <v>44702.91666666666</v>
       </c>
       <c r="B5">
-        <v>29958.52</v>
+        <v>29384.56</v>
       </c>
       <c r="C5">
-        <v>30104.73</v>
+        <v>29423.51</v>
       </c>
       <c r="D5">
-        <v>29863.03</v>
+        <v>29311.53</v>
       </c>
       <c r="E5">
-        <v>30017.91</v>
+        <v>29322.83</v>
       </c>
       <c r="F5">
-        <v>36.82850827</v>
+        <v>7.80904602</v>
       </c>
       <c r="G5">
-        <v>1103341.466947442</v>
+        <v>229468.1941082116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44698.16666666666</v>
+        <v>44702.95833333334</v>
       </c>
       <c r="B6">
-        <v>30008.64</v>
+        <v>29308.98</v>
       </c>
       <c r="C6">
-        <v>30465.06</v>
+        <v>29377.54</v>
       </c>
       <c r="D6">
-        <v>29974.5</v>
+        <v>29274.02</v>
       </c>
       <c r="E6">
-        <v>30335.63</v>
+        <v>29368.72</v>
       </c>
       <c r="F6">
-        <v>106.57387355</v>
+        <v>11.49910736</v>
       </c>
       <c r="G6">
-        <v>3223209.24693839</v>
+        <v>337209.2106222639</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44698.20833333334</v>
+        <v>44703</v>
       </c>
       <c r="B7">
-        <v>30351.57</v>
+        <v>29377.53</v>
       </c>
       <c r="C7">
-        <v>30381.37</v>
+        <v>29489.77</v>
       </c>
       <c r="D7">
-        <v>30216.13</v>
+        <v>29368.76</v>
       </c>
       <c r="E7">
-        <v>30345.65</v>
+        <v>29421.05</v>
       </c>
       <c r="F7">
-        <v>47.19696506</v>
+        <v>12.51913808</v>
       </c>
       <c r="G7">
-        <v>1429418.244303761</v>
+        <v>368386.6291105811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44698.25</v>
+        <v>44703.04166666666</v>
       </c>
       <c r="B8">
-        <v>30348.38</v>
+        <v>29400.34</v>
       </c>
       <c r="C8">
-        <v>30479.96</v>
+        <v>29468.86</v>
       </c>
       <c r="D8">
-        <v>30250.81</v>
+        <v>29365.56</v>
       </c>
       <c r="E8">
-        <v>30430.84</v>
+        <v>29442.92</v>
       </c>
       <c r="F8">
-        <v>54.766922</v>
+        <v>6.46786204</v>
       </c>
       <c r="G8">
-        <v>1663257.372716628</v>
+        <v>190348.6981063444</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44698.29166666666</v>
+        <v>44703.08333333334</v>
       </c>
       <c r="B9">
-        <v>30408.87</v>
+        <v>29447.36</v>
       </c>
       <c r="C9">
-        <v>30505.14</v>
+        <v>29507.3</v>
       </c>
       <c r="D9">
-        <v>30318.32</v>
+        <v>29446.79</v>
       </c>
       <c r="E9">
-        <v>30486.65</v>
+        <v>29478.56</v>
       </c>
       <c r="F9">
-        <v>54.41545541</v>
+        <v>6.51034241</v>
       </c>
       <c r="G9">
-        <v>1653999.072057728</v>
+        <v>191901.8029282077</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44698.33333333334</v>
+        <v>44703.125</v>
       </c>
       <c r="B10">
-        <v>30500.42</v>
+        <v>29470.54</v>
       </c>
       <c r="C10">
-        <v>30530.78</v>
+        <v>29480.03</v>
       </c>
       <c r="D10">
-        <v>30312.26</v>
+        <v>29332.8</v>
       </c>
       <c r="E10">
-        <v>30383.67</v>
+        <v>29361.53</v>
       </c>
       <c r="F10">
-        <v>50.34787108</v>
+        <v>13.18925411</v>
       </c>
       <c r="G10">
-        <v>1531950.099538006</v>
+        <v>387631.6797955056</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44698.375</v>
+        <v>44703.16666666666</v>
       </c>
       <c r="B11">
-        <v>30381.57</v>
+        <v>29352.17</v>
       </c>
       <c r="C11">
-        <v>30753.96</v>
+        <v>29456.06</v>
       </c>
       <c r="D11">
-        <v>30340.62</v>
+        <v>29300</v>
       </c>
       <c r="E11">
-        <v>30554.7</v>
+        <v>29319.57</v>
       </c>
       <c r="F11">
-        <v>68.9877484</v>
+        <v>24.80801243</v>
       </c>
       <c r="G11">
-        <v>2108814.553398245</v>
+        <v>728669.2928218396</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44698.41666666666</v>
+        <v>44703.20833333334</v>
       </c>
       <c r="B12">
-        <v>30547.68</v>
+        <v>29319.57</v>
       </c>
       <c r="C12">
-        <v>30690.94</v>
+        <v>29330.23</v>
       </c>
       <c r="D12">
-        <v>30530.98</v>
+        <v>29209.03</v>
       </c>
       <c r="E12">
-        <v>30609.78</v>
+        <v>29253.1</v>
       </c>
       <c r="F12">
-        <v>47.00876739</v>
+        <v>28.78509249</v>
       </c>
       <c r="G12">
-        <v>1438246.289092494</v>
+        <v>842474.289824659</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44698.45833333334</v>
+        <v>44703.25</v>
       </c>
       <c r="B13">
-        <v>30614.16</v>
+        <v>29260.61</v>
       </c>
       <c r="C13">
-        <v>30618.91</v>
+        <v>29381.04</v>
       </c>
       <c r="D13">
-        <v>30422.36</v>
+        <v>29260.1</v>
       </c>
       <c r="E13">
-        <v>30422.59</v>
+        <v>29338.03</v>
       </c>
       <c r="F13">
-        <v>48.10089235</v>
+        <v>14.95332826</v>
       </c>
       <c r="G13">
-        <v>1468473.148710669</v>
+        <v>438709.8765705662</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44698.5</v>
+        <v>44703.29166666666</v>
       </c>
       <c r="B14">
-        <v>30425.4</v>
+        <v>29339.73</v>
       </c>
       <c r="C14">
-        <v>30490.44</v>
+        <v>29378.68</v>
       </c>
       <c r="D14">
-        <v>30245</v>
+        <v>29315.42</v>
       </c>
       <c r="E14">
-        <v>30291</v>
+        <v>29375.5</v>
       </c>
       <c r="F14">
-        <v>72.85167441</v>
+        <v>13.66094947</v>
       </c>
       <c r="G14">
-        <v>2210054.070338279</v>
+        <v>400954.5533438026</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44698.54166666666</v>
+        <v>44703.33333333334</v>
       </c>
       <c r="B15">
-        <v>30286</v>
+        <v>29376.99</v>
       </c>
       <c r="C15">
-        <v>30618.83</v>
+        <v>29419.99</v>
       </c>
       <c r="D15">
-        <v>30266.49</v>
+        <v>29321.76</v>
       </c>
       <c r="E15">
-        <v>30546.27</v>
+        <v>29409.25</v>
       </c>
       <c r="F15">
-        <v>129.57424794</v>
+        <v>15.77610204</v>
       </c>
       <c r="G15">
-        <v>3949760.05025994</v>
+        <v>463366.7269011666</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44698.58333333334</v>
+        <v>44703.375</v>
       </c>
       <c r="B16">
-        <v>30538.65</v>
+        <v>29399.32</v>
       </c>
       <c r="C16">
-        <v>30716.69</v>
+        <v>29557.49</v>
       </c>
       <c r="D16">
-        <v>30348.19</v>
+        <v>29393.06</v>
       </c>
       <c r="E16">
-        <v>30496.02</v>
+        <v>29526.67</v>
       </c>
       <c r="F16">
-        <v>206.06842487</v>
+        <v>43.74179501</v>
       </c>
       <c r="G16">
-        <v>6278468.035066066</v>
+        <v>1290110.678418876</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44698.625</v>
+        <v>44703.41666666666</v>
       </c>
       <c r="B17">
-        <v>30494.16</v>
+        <v>29535.27</v>
       </c>
       <c r="C17">
-        <v>30536.29</v>
+        <v>30152.14</v>
       </c>
       <c r="D17">
-        <v>29917.89</v>
+        <v>29495.54</v>
       </c>
       <c r="E17">
-        <v>30038.87</v>
+        <v>30120.8</v>
       </c>
       <c r="F17">
-        <v>263.06375266</v>
+        <v>244.42196012</v>
       </c>
       <c r="G17">
-        <v>7914276.710817009</v>
+        <v>7300035.106888049</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44698.66666666666</v>
+        <v>44703.45833333334</v>
       </c>
       <c r="B18">
-        <v>30020.74</v>
+        <v>30124.5</v>
       </c>
       <c r="C18">
-        <v>30200.7</v>
+        <v>30275.41</v>
       </c>
       <c r="D18">
-        <v>29939.1</v>
+        <v>30046.31</v>
       </c>
       <c r="E18">
-        <v>30111.5</v>
+        <v>30160.53</v>
       </c>
       <c r="F18">
-        <v>87.85817891000001</v>
+        <v>111.47820727</v>
       </c>
       <c r="G18">
-        <v>2638975.49542513</v>
+        <v>3363365.52451481</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44698.70833333334</v>
+        <v>44703.5</v>
       </c>
       <c r="B19">
-        <v>30125.78</v>
+        <v>30142.51</v>
       </c>
       <c r="C19">
-        <v>30204.18</v>
+        <v>30210.08</v>
       </c>
       <c r="D19">
-        <v>29850</v>
+        <v>29814.28</v>
       </c>
       <c r="E19">
-        <v>30112.63</v>
+        <v>29854.18</v>
       </c>
       <c r="F19">
-        <v>59.54254008</v>
+        <v>254.5113595</v>
       </c>
       <c r="G19">
-        <v>1785410.210496886</v>
+        <v>7635171.091095019</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44698.75</v>
+        <v>44703.54166666666</v>
       </c>
       <c r="B20">
-        <v>30110.93</v>
+        <v>29880.2</v>
       </c>
       <c r="C20">
-        <v>30235.47</v>
+        <v>30185.44</v>
       </c>
       <c r="D20">
-        <v>30055.18</v>
+        <v>29879.85</v>
       </c>
       <c r="E20">
-        <v>30055.18</v>
+        <v>30123.79</v>
       </c>
       <c r="F20">
-        <v>99.5958127</v>
+        <v>47.61004173</v>
       </c>
       <c r="G20">
-        <v>3004825.726425383</v>
+        <v>1430471.290847914</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44698.79166666666</v>
+        <v>44703.58333333334</v>
       </c>
       <c r="B21">
-        <v>30076.65</v>
+        <v>30126.08</v>
       </c>
       <c r="C21">
-        <v>30205.05</v>
+        <v>30126.53</v>
       </c>
       <c r="D21">
-        <v>29400</v>
+        <v>29923.48</v>
       </c>
       <c r="E21">
-        <v>29830.36</v>
+        <v>30019.41</v>
       </c>
       <c r="F21">
-        <v>176.11724986</v>
+        <v>12.17771649</v>
       </c>
       <c r="G21">
-        <v>5226970.276423046</v>
+        <v>365607.432699659</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44698.83333333334</v>
+        <v>44703.625</v>
       </c>
       <c r="B22">
-        <v>29805.41</v>
+        <v>30031.72</v>
       </c>
       <c r="C22">
-        <v>30276.61</v>
+        <v>30111</v>
       </c>
       <c r="D22">
-        <v>29783.66</v>
+        <v>29886.65</v>
       </c>
       <c r="E22">
-        <v>30074.73</v>
+        <v>29932.75</v>
       </c>
       <c r="F22">
-        <v>148.29744551</v>
+        <v>33.07640954</v>
       </c>
       <c r="G22">
-        <v>4462498.545633307</v>
+        <v>991609.4120124429</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44698.875</v>
+        <v>44703.66666666666</v>
       </c>
       <c r="B23">
-        <v>30072.62</v>
+        <v>29919.13</v>
       </c>
       <c r="C23">
-        <v>30182.74</v>
+        <v>29946.97</v>
       </c>
       <c r="D23">
-        <v>30007.64</v>
+        <v>29642.73</v>
       </c>
       <c r="E23">
-        <v>30086.39</v>
+        <v>29817.94</v>
       </c>
       <c r="F23">
-        <v>40.80538532</v>
+        <v>106.6930581</v>
       </c>
       <c r="G23">
-        <v>1228696.888268706</v>
+        <v>3173467.514472336</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44698.91666666666</v>
+        <v>44703.70833333334</v>
       </c>
       <c r="B24">
-        <v>30060.04</v>
+        <v>29805</v>
       </c>
       <c r="C24">
-        <v>30610</v>
+        <v>29932.48</v>
       </c>
       <c r="D24">
-        <v>30060.04</v>
+        <v>29723.09</v>
       </c>
       <c r="E24">
-        <v>30532.13</v>
+        <v>29909.95</v>
       </c>
       <c r="F24">
-        <v>106.40671734</v>
+        <v>13.93841686</v>
       </c>
       <c r="G24">
-        <v>3235958.405678937</v>
+        <v>415806.5647384176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44698.95833333334</v>
+        <v>44703.75</v>
       </c>
       <c r="B25">
-        <v>30532.16</v>
+        <v>29903.86</v>
       </c>
       <c r="C25">
-        <v>30570.9</v>
+        <v>30144.91</v>
       </c>
       <c r="D25">
-        <v>30206.33</v>
+        <v>29858.04</v>
       </c>
       <c r="E25">
-        <v>30324.98</v>
+        <v>29905.16</v>
       </c>
       <c r="F25">
-        <v>55.44638686</v>
+        <v>93.95444329</v>
       </c>
       <c r="G25">
-        <v>1685609.904381464</v>
+        <v>2819753.840173764</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44699</v>
+        <v>44703.79166666666</v>
       </c>
       <c r="B26">
-        <v>30334.49</v>
+        <v>29892.87</v>
       </c>
       <c r="C26">
-        <v>30551.95</v>
+        <v>30012.68</v>
       </c>
       <c r="D26">
-        <v>30334.49</v>
+        <v>29816.09</v>
       </c>
       <c r="E26">
-        <v>30425.36</v>
+        <v>30005.58</v>
       </c>
       <c r="F26">
-        <v>64.69394487</v>
+        <v>18.79890139</v>
       </c>
       <c r="G26">
-        <v>1969847.737326567</v>
+        <v>563092.2683964941</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44699.04166666666</v>
+        <v>44703.83333333334</v>
       </c>
       <c r="B27">
-        <v>30423.9</v>
+        <v>30005.58</v>
       </c>
       <c r="C27">
-        <v>30670</v>
+        <v>30050.15</v>
       </c>
       <c r="D27">
-        <v>30390.51</v>
+        <v>29879</v>
       </c>
       <c r="E27">
-        <v>30469.24</v>
+        <v>29902.45</v>
       </c>
       <c r="F27">
-        <v>53.80417277</v>
+        <v>13.75887267</v>
       </c>
       <c r="G27">
-        <v>1643732.802432754</v>
+        <v>412121.7325560024</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44699.08333333334</v>
+        <v>44703.875</v>
       </c>
       <c r="B28">
-        <v>30469.24</v>
+        <v>29895.87</v>
       </c>
       <c r="C28">
-        <v>30488.34</v>
+        <v>30065.05</v>
       </c>
       <c r="D28">
-        <v>30029.38</v>
+        <v>29878.48</v>
       </c>
       <c r="E28">
-        <v>30094.06</v>
+        <v>29914.02</v>
       </c>
       <c r="F28">
-        <v>115.8467797</v>
+        <v>36.43520227</v>
       </c>
       <c r="G28">
-        <v>3507050.825540636</v>
+        <v>1092646.688448868</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44699.125</v>
+        <v>44703.91666666666</v>
       </c>
       <c r="B29">
-        <v>30093.96</v>
+        <v>29912.83</v>
       </c>
       <c r="C29">
-        <v>30204.39</v>
+        <v>30054.88</v>
       </c>
       <c r="D29">
-        <v>30055.39</v>
+        <v>29878.74</v>
       </c>
       <c r="E29">
-        <v>30181.81</v>
+        <v>29983.82</v>
       </c>
       <c r="F29">
-        <v>30.06830343</v>
+        <v>17.40335748</v>
       </c>
       <c r="G29">
-        <v>906205.188990643</v>
+        <v>521629.9324532564</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44699.16666666666</v>
+        <v>44703.95833333334</v>
       </c>
       <c r="B30">
-        <v>30180</v>
+        <v>29997.71</v>
       </c>
       <c r="C30">
-        <v>30193.08</v>
+        <v>30453.94</v>
       </c>
       <c r="D30">
-        <v>29714.36</v>
+        <v>29997.71</v>
       </c>
       <c r="E30">
-        <v>29820.46</v>
+        <v>30256.14</v>
       </c>
       <c r="F30">
-        <v>109.59219217</v>
+        <v>86.4829211</v>
       </c>
       <c r="G30">
-        <v>3272487.996402861</v>
+        <v>2618481.199876099</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44699.20833333334</v>
+        <v>44704</v>
       </c>
       <c r="B31">
-        <v>29770.79</v>
+        <v>30270.04</v>
       </c>
       <c r="C31">
-        <v>29890.47</v>
+        <v>30457.58</v>
       </c>
       <c r="D31">
-        <v>29718.82</v>
+        <v>30250.03</v>
       </c>
       <c r="E31">
-        <v>29810.24</v>
+        <v>30264.66</v>
       </c>
       <c r="F31">
-        <v>40.31499046</v>
+        <v>60.26057367</v>
       </c>
       <c r="G31">
-        <v>1201665.746975677</v>
+        <v>1829681.020571287</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44699.25</v>
+        <v>44704.04166666666</v>
       </c>
       <c r="B32">
-        <v>29790.41</v>
+        <v>30264.66</v>
       </c>
       <c r="C32">
-        <v>30012.6</v>
+        <v>30429.73</v>
       </c>
       <c r="D32">
-        <v>29762.79</v>
+        <v>30169.8</v>
       </c>
       <c r="E32">
-        <v>30012.6</v>
+        <v>30269.44</v>
       </c>
       <c r="F32">
-        <v>69.23242987</v>
+        <v>41.66779646</v>
       </c>
       <c r="G32">
-        <v>2071919.500933779</v>
+        <v>1261918.571617745</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44699.29166666666</v>
+        <v>44704.08333333334</v>
       </c>
       <c r="B33">
-        <v>30005.07</v>
+        <v>30235.79</v>
       </c>
       <c r="C33">
-        <v>30056.29</v>
+        <v>30241.53</v>
       </c>
       <c r="D33">
-        <v>29706.83</v>
+        <v>30135.89</v>
       </c>
       <c r="E33">
-        <v>29718.26</v>
+        <v>30184.62</v>
       </c>
       <c r="F33">
-        <v>55.98963459</v>
+        <v>17.04894028</v>
       </c>
       <c r="G33">
-        <v>1674548.641354153</v>
+        <v>514563.3635951518</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44699.33333333334</v>
+        <v>44704.125</v>
       </c>
       <c r="B34">
-        <v>29718.26</v>
+        <v>30164.82</v>
       </c>
       <c r="C34">
-        <v>29888.51</v>
+        <v>30177.44</v>
       </c>
       <c r="D34">
-        <v>29664.08</v>
+        <v>30012.94</v>
       </c>
       <c r="E34">
-        <v>29884.02</v>
+        <v>30104.98</v>
       </c>
       <c r="F34">
-        <v>90.63760256</v>
+        <v>34.30717578</v>
       </c>
       <c r="G34">
-        <v>2699604.257637416</v>
+        <v>1031615.766506551</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44699.375</v>
+        <v>44704.16666666666</v>
       </c>
       <c r="B35">
-        <v>29889.28</v>
+        <v>30110</v>
       </c>
       <c r="C35">
-        <v>29917.9</v>
+        <v>30181.97</v>
       </c>
       <c r="D35">
-        <v>29715.98</v>
+        <v>30071.59</v>
       </c>
       <c r="E35">
-        <v>29838.79</v>
+        <v>30149.31</v>
       </c>
       <c r="F35">
-        <v>59.08762476</v>
+        <v>29.35368333</v>
       </c>
       <c r="G35">
-        <v>1762080.610206882</v>
+        <v>884075.3473637179</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44699.41666666666</v>
+        <v>44704.20833333334</v>
       </c>
       <c r="B36">
-        <v>29854.83</v>
+        <v>30131.32</v>
       </c>
       <c r="C36">
-        <v>29989.07</v>
+        <v>30214.13</v>
       </c>
       <c r="D36">
-        <v>29731.98</v>
+        <v>30090.68</v>
       </c>
       <c r="E36">
-        <v>29911.87</v>
+        <v>30108.06</v>
       </c>
       <c r="F36">
-        <v>52.5636209</v>
+        <v>24.51956934</v>
       </c>
       <c r="G36">
-        <v>1569324.811607093</v>
+        <v>739591.7108312557</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44699.45833333334</v>
+        <v>44704.25</v>
       </c>
       <c r="B37">
-        <v>29924.64</v>
+        <v>30098.7</v>
       </c>
       <c r="C37">
-        <v>30014.95</v>
+        <v>30294.47</v>
       </c>
       <c r="D37">
-        <v>29868.43</v>
+        <v>30092.93</v>
       </c>
       <c r="E37">
-        <v>29932.54</v>
+        <v>30275.28</v>
       </c>
       <c r="F37">
-        <v>53.15779687</v>
+        <v>13.1877254</v>
       </c>
       <c r="G37">
-        <v>1592392.430163858</v>
+        <v>397757.4674313466</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44699.5</v>
+        <v>44704.29166666666</v>
       </c>
       <c r="B38">
-        <v>29928.34</v>
+        <v>30283.64</v>
       </c>
       <c r="C38">
-        <v>29946.33</v>
+        <v>30614</v>
       </c>
       <c r="D38">
-        <v>29723.88</v>
+        <v>30269.09</v>
       </c>
       <c r="E38">
-        <v>29803.52</v>
+        <v>30464.98</v>
       </c>
       <c r="F38">
-        <v>26.81199743</v>
+        <v>130.42936605</v>
       </c>
       <c r="G38">
-        <v>799111.6824584564</v>
+        <v>3976083.776520646</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44699.54166666666</v>
+        <v>44704.33333333334</v>
       </c>
       <c r="B39">
-        <v>29806.12</v>
+        <v>30469.75</v>
       </c>
       <c r="C39">
-        <v>29879.93</v>
+        <v>30628</v>
       </c>
       <c r="D39">
-        <v>29488.76</v>
+        <v>30395.27</v>
       </c>
       <c r="E39">
-        <v>29504.78</v>
+        <v>30425</v>
       </c>
       <c r="F39">
-        <v>86.44766588</v>
+        <v>65.34470032</v>
       </c>
       <c r="G39">
-        <v>2559238.021306596</v>
+        <v>1993711.585457716</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44699.58333333334</v>
+        <v>44704.375</v>
       </c>
       <c r="B40">
-        <v>29506.02</v>
+        <v>30416.26</v>
       </c>
       <c r="C40">
-        <v>29653.08</v>
+        <v>30481.13</v>
       </c>
       <c r="D40">
-        <v>29235.14</v>
+        <v>30255.3</v>
       </c>
       <c r="E40">
-        <v>29313.26</v>
+        <v>30324.6</v>
       </c>
       <c r="F40">
-        <v>243.68307802</v>
+        <v>79.27136743</v>
       </c>
       <c r="G40">
-        <v>7173037.669940518</v>
+        <v>2407086.149779728</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44699.625</v>
+        <v>44704.41666666666</v>
       </c>
       <c r="B41">
-        <v>29286.28</v>
+        <v>30327.04</v>
       </c>
       <c r="C41">
-        <v>29459.03</v>
+        <v>30474.54</v>
       </c>
       <c r="D41">
-        <v>29030</v>
+        <v>30275.6</v>
       </c>
       <c r="E41">
-        <v>29212.25</v>
+        <v>30426.03</v>
       </c>
       <c r="F41">
-        <v>177.94537291</v>
+        <v>27.27479698</v>
       </c>
       <c r="G41">
-        <v>5201463.663190827</v>
+        <v>828486.4607021346</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44699.66666666666</v>
+        <v>44704.45833333334</v>
       </c>
       <c r="B42">
-        <v>29196.81</v>
+        <v>30417.43</v>
       </c>
       <c r="C42">
-        <v>29199.57</v>
+        <v>30525</v>
       </c>
       <c r="D42">
-        <v>28839.29</v>
+        <v>30382.77</v>
       </c>
       <c r="E42">
-        <v>28949.1</v>
+        <v>30450</v>
       </c>
       <c r="F42">
-        <v>240.68894207</v>
+        <v>39.99874856</v>
       </c>
       <c r="G42">
-        <v>6977817.834325539</v>
+        <v>1218145.091936161</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44699.70833333334</v>
+        <v>44704.5</v>
       </c>
       <c r="B43">
-        <v>28935.83</v>
+        <v>30456.13</v>
       </c>
       <c r="C43">
-        <v>29201.44</v>
+        <v>30598.42</v>
       </c>
       <c r="D43">
-        <v>28694.31</v>
+        <v>30323.09</v>
       </c>
       <c r="E43">
-        <v>29187.7</v>
+        <v>30365.32</v>
       </c>
       <c r="F43">
-        <v>173.12046031</v>
+        <v>41.8195799</v>
       </c>
       <c r="G43">
-        <v>5004261.207482502</v>
+        <v>1273085.258392787</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44699.75</v>
+        <v>44704.54166666666</v>
       </c>
       <c r="B44">
-        <v>29147.83</v>
+        <v>30369.52</v>
       </c>
       <c r="C44">
-        <v>29163.15</v>
+        <v>30600</v>
       </c>
       <c r="D44">
-        <v>28883.4</v>
+        <v>30318.12</v>
       </c>
       <c r="E44">
-        <v>28942.36</v>
+        <v>30360.45</v>
       </c>
       <c r="F44">
-        <v>26.52315227</v>
+        <v>50.36566037</v>
       </c>
       <c r="G44">
-        <v>770340.8932388542</v>
+        <v>1532583.303158008</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44699.79166666666</v>
+        <v>44704.58333333334</v>
       </c>
       <c r="B45">
-        <v>28933.68</v>
+        <v>30355.43</v>
       </c>
       <c r="C45">
-        <v>29232.99</v>
+        <v>30525</v>
       </c>
       <c r="D45">
-        <v>28839.29</v>
+        <v>30135.66</v>
       </c>
       <c r="E45">
-        <v>29189.17</v>
+        <v>30300</v>
       </c>
       <c r="F45">
-        <v>43.61905893</v>
+        <v>232.38787267</v>
       </c>
       <c r="G45">
-        <v>1268787.447722283</v>
+        <v>7055982.007091243</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44699.83333333334</v>
+        <v>44704.625</v>
       </c>
       <c r="B46">
-        <v>29200</v>
+        <v>30289.37</v>
       </c>
       <c r="C46">
-        <v>29493.72</v>
+        <v>30317.17</v>
       </c>
       <c r="D46">
-        <v>29138.43</v>
+        <v>29944.61</v>
       </c>
       <c r="E46">
-        <v>29219.79</v>
+        <v>30229.6</v>
       </c>
       <c r="F46">
-        <v>172.57337791</v>
+        <v>143.75263168</v>
       </c>
       <c r="G46">
-        <v>5060531.262040064</v>
+        <v>4330245.225600583</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44699.875</v>
+        <v>44704.66666666666</v>
       </c>
       <c r="B47">
-        <v>29237.5</v>
+        <v>30232.6</v>
       </c>
       <c r="C47">
-        <v>29257.74</v>
+        <v>30448.79</v>
       </c>
       <c r="D47">
-        <v>28932.36</v>
+        <v>30202.07</v>
       </c>
       <c r="E47">
-        <v>29212.69</v>
+        <v>30336.5</v>
       </c>
       <c r="F47">
-        <v>114.87694925</v>
+        <v>118.4781559</v>
       </c>
       <c r="G47">
-        <v>3338140.404786077</v>
+        <v>3596193.373727583</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44699.91666666666</v>
+        <v>44704.70833333334</v>
       </c>
       <c r="B48">
-        <v>29212.69</v>
+        <v>30348.07</v>
       </c>
       <c r="C48">
-        <v>29303.23</v>
+        <v>30494.16</v>
       </c>
       <c r="D48">
-        <v>29056.78</v>
+        <v>30137.03</v>
       </c>
       <c r="E48">
-        <v>29168.2</v>
+        <v>30218.87</v>
       </c>
       <c r="F48">
-        <v>46.07778716</v>
+        <v>258.19060124</v>
       </c>
       <c r="G48">
-        <v>1346347.470917927</v>
+        <v>7833646.359222614</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44699.95833333334</v>
+        <v>44704.75</v>
       </c>
       <c r="B49">
-        <v>29170.19</v>
+        <v>30218.86</v>
       </c>
       <c r="C49">
-        <v>29356.87</v>
+        <v>30221.29</v>
       </c>
       <c r="D49">
-        <v>28876.7</v>
+        <v>30000.57</v>
       </c>
       <c r="E49">
-        <v>28958.4</v>
+        <v>30070.77</v>
       </c>
       <c r="F49">
-        <v>112.55544949</v>
+        <v>37.04352022</v>
       </c>
       <c r="G49">
-        <v>3276650.737832075</v>
+        <v>1113878.296253971</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44700</v>
+        <v>44704.79166666666</v>
       </c>
       <c r="B50">
-        <v>28950.96</v>
+        <v>30060</v>
       </c>
       <c r="C50">
-        <v>29058.32</v>
+        <v>30131.58</v>
       </c>
       <c r="D50">
-        <v>28615.23</v>
+        <v>29796.43</v>
       </c>
       <c r="E50">
-        <v>28681.26</v>
+        <v>29837.72</v>
       </c>
       <c r="F50">
-        <v>122.93701023</v>
+        <v>52.38952088</v>
       </c>
       <c r="G50">
-        <v>3538897.830041653</v>
+        <v>1571819.375866757</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44700.04166666666</v>
+        <v>44704.83333333334</v>
       </c>
       <c r="B51">
-        <v>28681.15</v>
+        <v>29828.98</v>
       </c>
       <c r="C51">
-        <v>29010.17</v>
+        <v>29828.98</v>
       </c>
       <c r="D51">
-        <v>28670.62</v>
+        <v>29050</v>
       </c>
       <c r="E51">
-        <v>28889.48</v>
+        <v>29050</v>
       </c>
       <c r="F51">
-        <v>54.31519631</v>
+        <v>404.24533629</v>
       </c>
       <c r="G51">
-        <v>1566560.245681236</v>
+        <v>11899912.80804848</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44700.08333333334</v>
+        <v>44704.875</v>
       </c>
       <c r="B52">
-        <v>28873.85</v>
+        <v>29043.83</v>
       </c>
       <c r="C52">
-        <v>29015.09</v>
+        <v>29434.33</v>
       </c>
       <c r="D52">
-        <v>28697.64</v>
+        <v>29010</v>
       </c>
       <c r="E52">
-        <v>28722.06</v>
+        <v>29317.93</v>
       </c>
       <c r="F52">
-        <v>23.04641112</v>
+        <v>84.40550507</v>
       </c>
       <c r="G52">
-        <v>665780.6552354414</v>
+        <v>2467977.825074876</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44700.125</v>
+        <v>44704.91666666666</v>
       </c>
       <c r="B53">
-        <v>28751.98</v>
+        <v>29307.97</v>
       </c>
       <c r="C53">
-        <v>29289.17</v>
+        <v>29465.42</v>
       </c>
       <c r="D53">
-        <v>28656.46</v>
+        <v>29264.92</v>
       </c>
       <c r="E53">
-        <v>29138.34</v>
+        <v>29318.79</v>
       </c>
       <c r="F53">
-        <v>165.07819621</v>
+        <v>48.79502424</v>
       </c>
       <c r="G53">
-        <v>4801433.550380204</v>
+        <v>1432805.432812062</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44700.16666666666</v>
+        <v>44704.95833333334</v>
       </c>
       <c r="B54">
-        <v>29117.9</v>
+        <v>29302.97</v>
       </c>
       <c r="C54">
-        <v>29291.71</v>
+        <v>29305.28</v>
       </c>
       <c r="D54">
-        <v>29043.4</v>
+        <v>29015</v>
       </c>
       <c r="E54">
-        <v>29166.54</v>
+        <v>29189.5</v>
       </c>
       <c r="F54">
-        <v>48.13829711</v>
+        <v>66.59921446</v>
       </c>
       <c r="G54">
-        <v>1404834.106319124</v>
+        <v>1940722.466642258</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44700.20833333334</v>
+        <v>44705</v>
       </c>
       <c r="B55">
-        <v>29170</v>
+        <v>29188.8</v>
       </c>
       <c r="C55">
-        <v>29252.72</v>
+        <v>29188.8</v>
       </c>
       <c r="D55">
-        <v>29046.49</v>
+        <v>28839.29</v>
       </c>
       <c r="E55">
-        <v>29062.16</v>
+        <v>29081.76</v>
       </c>
       <c r="F55">
-        <v>25.44678202</v>
+        <v>117.77397913</v>
       </c>
       <c r="G55">
-        <v>741342.2699815284</v>
+        <v>3412472.948655554</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44700.25</v>
+        <v>44705.04166666666</v>
       </c>
       <c r="B56">
-        <v>29072.38</v>
+        <v>29081.76</v>
       </c>
       <c r="C56">
-        <v>29156.76</v>
+        <v>29232.97</v>
       </c>
       <c r="D56">
-        <v>28993.1</v>
+        <v>29030.59</v>
       </c>
       <c r="E56">
-        <v>29037.05</v>
+        <v>29117.54</v>
       </c>
       <c r="F56">
-        <v>28.58727871</v>
+        <v>27.24649073</v>
       </c>
       <c r="G56">
-        <v>830381.1830744867</v>
+        <v>794855.4628041346</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44700.29166666666</v>
+        <v>44705.08333333334</v>
       </c>
       <c r="B57">
-        <v>29037.12</v>
+        <v>29126.88</v>
       </c>
       <c r="C57">
-        <v>29407.87</v>
+        <v>29221.08</v>
       </c>
       <c r="D57">
-        <v>29037.12</v>
+        <v>29085.15</v>
       </c>
       <c r="E57">
-        <v>29295.22</v>
+        <v>29186.01</v>
       </c>
       <c r="F57">
-        <v>70.99954373</v>
+        <v>22.19730171</v>
       </c>
       <c r="G57">
-        <v>2074436.715320616</v>
+        <v>646729.7352812737</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44700.33333333334</v>
+        <v>44705.125</v>
       </c>
       <c r="B58">
-        <v>29315.12</v>
+        <v>29204.11</v>
       </c>
       <c r="C58">
-        <v>29315.33</v>
+        <v>29275.66</v>
       </c>
       <c r="D58">
-        <v>29064.92</v>
+        <v>29172.83</v>
       </c>
       <c r="E58">
-        <v>29174.83</v>
+        <v>29234.8</v>
       </c>
       <c r="F58">
-        <v>29.0325163</v>
+        <v>44.36246638</v>
       </c>
       <c r="G58">
-        <v>847349.4185222406</v>
+        <v>1296510.978100231</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44700.375</v>
+        <v>44705.16666666666</v>
       </c>
       <c r="B59">
-        <v>29174.83</v>
+        <v>29249.37</v>
       </c>
       <c r="C59">
-        <v>29235.44</v>
+        <v>29303.82</v>
       </c>
       <c r="D59">
-        <v>28943.29</v>
+        <v>29221.95</v>
       </c>
       <c r="E59">
-        <v>28944.92</v>
+        <v>29284.22</v>
       </c>
       <c r="F59">
-        <v>95.65638774999999</v>
+        <v>25.33591515</v>
       </c>
       <c r="G59">
-        <v>2783454.132382166</v>
+        <v>741447.6203575504</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44700.41666666666</v>
+        <v>44705.20833333334</v>
       </c>
       <c r="B60">
-        <v>28933.76</v>
+        <v>29285.5</v>
       </c>
       <c r="C60">
-        <v>29014.52</v>
+        <v>29403.81</v>
       </c>
       <c r="D60">
-        <v>28820</v>
+        <v>29228.79</v>
       </c>
       <c r="E60">
-        <v>28983.56</v>
+        <v>29328.19</v>
       </c>
       <c r="F60">
-        <v>115.6911723</v>
+        <v>50.97847892</v>
       </c>
       <c r="G60">
-        <v>3342315.388340469</v>
+        <v>1496323.756631253</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44700.45833333334</v>
+        <v>44705.25</v>
       </c>
       <c r="B61">
-        <v>28975.06</v>
+        <v>29328.19</v>
       </c>
       <c r="C61">
-        <v>29227.3</v>
+        <v>29401.01</v>
       </c>
       <c r="D61">
-        <v>28908.82</v>
+        <v>29295.22</v>
       </c>
       <c r="E61">
-        <v>29184</v>
+        <v>29330.61</v>
       </c>
       <c r="F61">
-        <v>60.65309126</v>
+        <v>136.31146774</v>
       </c>
       <c r="G61">
-        <v>1766352.466463835</v>
+        <v>4005324.062698661</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44700.5</v>
+        <v>44705.29166666666</v>
       </c>
       <c r="B62">
-        <v>29159.9</v>
+        <v>29335.25</v>
       </c>
       <c r="C62">
-        <v>29510.81</v>
+        <v>29377.6</v>
       </c>
       <c r="D62">
-        <v>29033.3</v>
+        <v>29224.19</v>
       </c>
       <c r="E62">
-        <v>29472.59</v>
+        <v>29315</v>
       </c>
       <c r="F62">
-        <v>138.02646767</v>
+        <v>32.67656165</v>
       </c>
       <c r="G62">
-        <v>4039539.665823502</v>
+        <v>957965.4624269677</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44700.54166666666</v>
+        <v>44705.33333333334</v>
       </c>
       <c r="B63">
-        <v>29472.54</v>
+        <v>29315</v>
       </c>
       <c r="C63">
-        <v>29601</v>
+        <v>29405.38</v>
       </c>
       <c r="D63">
-        <v>29354.8</v>
+        <v>29288.78</v>
       </c>
       <c r="E63">
-        <v>29487.4</v>
+        <v>29380.34</v>
       </c>
       <c r="F63">
-        <v>107.82594676</v>
+        <v>29.41376853</v>
       </c>
       <c r="G63">
-        <v>3179560.815679207</v>
+        <v>863528.6227380754</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44700.58333333334</v>
+        <v>44705.375</v>
       </c>
       <c r="B64">
-        <v>29469.03</v>
+        <v>29368.46</v>
       </c>
       <c r="C64">
-        <v>29738.93</v>
+        <v>29379.24</v>
       </c>
       <c r="D64">
-        <v>29320.82</v>
+        <v>29113.42</v>
       </c>
       <c r="E64">
-        <v>29479.44</v>
+        <v>29113.42</v>
       </c>
       <c r="F64">
-        <v>148.28823029</v>
+        <v>33.09617518</v>
       </c>
       <c r="G64">
-        <v>4388358.842495339</v>
+        <v>969410.6429746472</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44700.625</v>
+        <v>44705.41666666666</v>
       </c>
       <c r="B65">
-        <v>29515.32</v>
+        <v>29138.28</v>
       </c>
       <c r="C65">
-        <v>29865</v>
+        <v>29332.03</v>
       </c>
       <c r="D65">
-        <v>29515.32</v>
+        <v>29092</v>
       </c>
       <c r="E65">
-        <v>29837.62</v>
+        <v>29312.07</v>
       </c>
       <c r="F65">
-        <v>98.75130436000001</v>
+        <v>39.85930828</v>
       </c>
       <c r="G65">
-        <v>2937079.177711905</v>
+        <v>1163402.010625892</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44700.66666666666</v>
+        <v>44705.45833333334</v>
       </c>
       <c r="B66">
-        <v>29857.86</v>
+        <v>29304.07</v>
       </c>
       <c r="C66">
-        <v>30505.14</v>
+        <v>29341.17</v>
       </c>
       <c r="D66">
-        <v>29773.34</v>
+        <v>29233.14</v>
       </c>
       <c r="E66">
-        <v>30340.93</v>
+        <v>29324.43</v>
       </c>
       <c r="F66">
-        <v>488.24867881</v>
+        <v>18.92051214</v>
       </c>
       <c r="G66">
-        <v>14749691.17567847</v>
+        <v>554276.7897888818</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44700.70833333334</v>
+        <v>44705.5</v>
       </c>
       <c r="B67">
-        <v>30365.13</v>
+        <v>29325.73</v>
       </c>
       <c r="C67">
-        <v>30446.52</v>
+        <v>29405.38</v>
       </c>
       <c r="D67">
-        <v>30066.16</v>
+        <v>29218.39</v>
       </c>
       <c r="E67">
-        <v>30105.68</v>
+        <v>29263.2</v>
       </c>
       <c r="F67">
-        <v>345.10876854</v>
+        <v>32.8683864</v>
       </c>
       <c r="G67">
-        <v>10441953.3988747</v>
+        <v>963284.436366917</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44700.75</v>
+        <v>44705.54166666666</v>
       </c>
       <c r="B68">
-        <v>30124.78</v>
+        <v>29259.81</v>
       </c>
       <c r="C68">
-        <v>30241.95</v>
+        <v>29334.93</v>
       </c>
       <c r="D68">
-        <v>29932.25</v>
+        <v>29110.86</v>
       </c>
       <c r="E68">
-        <v>30177.2</v>
+        <v>29229.61</v>
       </c>
       <c r="F68">
-        <v>144.68208394</v>
+        <v>44.18168117</v>
       </c>
       <c r="G68">
-        <v>4347629.42167862</v>
+        <v>1290311.942087343</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44700.79166666666</v>
+        <v>44705.58333333334</v>
       </c>
       <c r="B69">
-        <v>30171.87</v>
+        <v>29236.16</v>
       </c>
       <c r="C69">
-        <v>30322.67</v>
+        <v>29295</v>
       </c>
       <c r="D69">
-        <v>30119</v>
+        <v>28874.07</v>
       </c>
       <c r="E69">
-        <v>30199.24</v>
+        <v>28925.66</v>
       </c>
       <c r="F69">
-        <v>43.15372541</v>
+        <v>100.12647918</v>
       </c>
       <c r="G69">
-        <v>1304553.889505249</v>
+        <v>2909260.596827</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44700.83333333334</v>
+        <v>44705.625</v>
       </c>
       <c r="B70">
-        <v>30179.8</v>
+        <v>28900.65</v>
       </c>
       <c r="C70">
-        <v>30277.41</v>
+        <v>29090.99</v>
       </c>
       <c r="D70">
-        <v>29925.07</v>
+        <v>28632.4</v>
       </c>
       <c r="E70">
-        <v>29925.07</v>
+        <v>29034.4</v>
       </c>
       <c r="F70">
-        <v>51.78559243</v>
+        <v>212.62551813</v>
       </c>
       <c r="G70">
-        <v>1555625.426797563</v>
+        <v>6129107.000461255</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44700.875</v>
+        <v>44705.66666666666</v>
       </c>
       <c r="B71">
-        <v>29925.07</v>
+        <v>29018.21</v>
       </c>
       <c r="C71">
-        <v>30215.73</v>
+        <v>29603.28</v>
       </c>
       <c r="D71">
-        <v>29912.03</v>
+        <v>28946.15</v>
       </c>
       <c r="E71">
-        <v>30203.05</v>
+        <v>29360.53</v>
       </c>
       <c r="F71">
-        <v>78.97104062</v>
+        <v>197.51293642</v>
       </c>
       <c r="G71">
-        <v>2372663.292386356</v>
+        <v>5790521.028884955</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44700.91666666666</v>
+        <v>44705.70833333334</v>
       </c>
       <c r="B72">
-        <v>30226.36</v>
+        <v>29363.67</v>
       </c>
       <c r="C72">
-        <v>30457.6</v>
+        <v>29568.13</v>
       </c>
       <c r="D72">
-        <v>30179.3</v>
+        <v>29201.44</v>
       </c>
       <c r="E72">
-        <v>30226.65</v>
+        <v>29298.44</v>
       </c>
       <c r="F72">
-        <v>68.98616440000001</v>
+        <v>51.61974411</v>
       </c>
       <c r="G72">
-        <v>2089572.170384209</v>
+        <v>1516171.429056314</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44700.95833333334</v>
+        <v>44705.75</v>
       </c>
       <c r="B73">
-        <v>30248.82</v>
+        <v>29298.44</v>
       </c>
       <c r="C73">
-        <v>30248.82</v>
+        <v>29376.1</v>
       </c>
       <c r="D73">
-        <v>30083.65</v>
+        <v>29124.49</v>
       </c>
       <c r="E73">
-        <v>30148.18</v>
+        <v>29316.54</v>
       </c>
       <c r="F73">
-        <v>27.55810813</v>
+        <v>51.16167963</v>
       </c>
       <c r="G73">
-        <v>830845.507065825</v>
+        <v>1495220.898430371</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44701</v>
+        <v>44705.79166666666</v>
       </c>
       <c r="B74">
-        <v>30172.5</v>
+        <v>29318.27</v>
       </c>
       <c r="C74">
-        <v>30383.07</v>
+        <v>29467.52</v>
       </c>
       <c r="D74">
-        <v>30139.24</v>
+        <v>29068.41</v>
       </c>
       <c r="E74">
-        <v>30290.33</v>
+        <v>29155.89</v>
       </c>
       <c r="F74">
-        <v>58.74386108</v>
+        <v>44.94696896</v>
       </c>
       <c r="G74">
-        <v>1777253.490442086</v>
+        <v>1314415.282644171</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44701.04166666666</v>
+        <v>44705.83333333334</v>
       </c>
       <c r="B75">
-        <v>30271.22</v>
+        <v>29141.89</v>
       </c>
       <c r="C75">
-        <v>30321.95</v>
+        <v>29447.75</v>
       </c>
       <c r="D75">
-        <v>30106.53</v>
+        <v>29138.58</v>
       </c>
       <c r="E75">
-        <v>30241.1</v>
+        <v>29362.16</v>
       </c>
       <c r="F75">
-        <v>23.46111883</v>
+        <v>30.74744443</v>
       </c>
       <c r="G75">
-        <v>709222.9150940494</v>
+        <v>901364.8434373026</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44701.08333333334</v>
+        <v>44705.875</v>
       </c>
       <c r="B76">
-        <v>30225.47</v>
+        <v>29371.41</v>
       </c>
       <c r="C76">
-        <v>30725.56</v>
+        <v>29461.89</v>
       </c>
       <c r="D76">
-        <v>30106.25</v>
+        <v>29233.09</v>
       </c>
       <c r="E76">
-        <v>30449.48</v>
+        <v>29439.04</v>
       </c>
       <c r="F76">
-        <v>164.67661508</v>
+        <v>55.10374468</v>
       </c>
       <c r="G76">
-        <v>5023411.139268897</v>
+        <v>1617412.984979987</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44701.125</v>
+        <v>44705.91666666666</v>
       </c>
       <c r="B77">
-        <v>30462.28</v>
+        <v>29451.24</v>
       </c>
       <c r="C77">
-        <v>30483.72</v>
+        <v>29610.74</v>
       </c>
       <c r="D77">
-        <v>30201</v>
+        <v>29410.62</v>
       </c>
       <c r="E77">
-        <v>30302.37</v>
+        <v>29561.58</v>
       </c>
       <c r="F77">
-        <v>31.84853488</v>
+        <v>59.87695521</v>
       </c>
       <c r="G77">
-        <v>964251.675144181</v>
+        <v>1768462.776177844</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44701.16666666666</v>
+        <v>44705.95833333334</v>
       </c>
       <c r="B78">
-        <v>30297.45</v>
+        <v>29578.04</v>
       </c>
       <c r="C78">
-        <v>30317.73</v>
+        <v>29604.12</v>
       </c>
       <c r="D78">
-        <v>30106.82</v>
+        <v>29500</v>
       </c>
       <c r="E78">
-        <v>30147.74</v>
+        <v>29587.98</v>
       </c>
       <c r="F78">
-        <v>46.04654229</v>
+        <v>14.93094528</v>
       </c>
       <c r="G78">
-        <v>1388798.326189712</v>
+        <v>441371.7695512156</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44701.20833333334</v>
+        <v>44706</v>
       </c>
       <c r="B79">
-        <v>30133.58</v>
+        <v>29587.81</v>
       </c>
       <c r="C79">
-        <v>30205.22</v>
+        <v>29810.38</v>
       </c>
       <c r="D79">
-        <v>29979.13</v>
+        <v>29557.98</v>
       </c>
       <c r="E79">
-        <v>30083.2</v>
+        <v>29632.15</v>
       </c>
       <c r="F79">
-        <v>64.96368591</v>
+        <v>134.1352023</v>
       </c>
       <c r="G79">
-        <v>1954714.832854431</v>
+        <v>3979406.66859563</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44701.25</v>
+        <v>44706.04166666666</v>
       </c>
       <c r="B80">
-        <v>30061.8</v>
+        <v>29626.53</v>
       </c>
       <c r="C80">
-        <v>30166.65</v>
+        <v>29662.42</v>
       </c>
       <c r="D80">
-        <v>29997.67</v>
+        <v>29522.57</v>
       </c>
       <c r="E80">
-        <v>30143.91</v>
+        <v>29600.38</v>
       </c>
       <c r="F80">
-        <v>20.60104015</v>
+        <v>21.15827962</v>
       </c>
       <c r="G80">
-        <v>619466.0384754936</v>
+        <v>625624.3261205052</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44701.29166666666</v>
+        <v>44706.08333333334</v>
       </c>
       <c r="B81">
-        <v>30151.4</v>
+        <v>29598.94</v>
       </c>
       <c r="C81">
-        <v>30155.56</v>
+        <v>29767.9</v>
       </c>
       <c r="D81">
-        <v>29834.82</v>
+        <v>29545.42</v>
       </c>
       <c r="E81">
-        <v>29962.37</v>
+        <v>29756.5</v>
       </c>
       <c r="F81">
-        <v>159.07208023</v>
+        <v>12.74220277</v>
       </c>
       <c r="G81">
-        <v>4763730.848959984</v>
+        <v>377874.2486604781</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44701.33333333334</v>
+        <v>44706.125</v>
       </c>
       <c r="B82">
-        <v>29985.65</v>
+        <v>29755.43</v>
       </c>
       <c r="C82">
-        <v>30330.74</v>
+        <v>30126.83</v>
       </c>
       <c r="D82">
-        <v>29943.62</v>
+        <v>29704.02</v>
       </c>
       <c r="E82">
-        <v>30249.66</v>
+        <v>30089.82</v>
       </c>
       <c r="F82">
-        <v>68.39393599</v>
+        <v>191.23067665</v>
       </c>
       <c r="G82">
-        <v>2063637.995511731</v>
+        <v>5733876.052452908</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44701.375</v>
+        <v>44706.16666666666</v>
       </c>
       <c r="B83">
-        <v>30244.14</v>
+        <v>30114.81</v>
       </c>
       <c r="C83">
-        <v>30366.37</v>
+        <v>30189.7</v>
       </c>
       <c r="D83">
-        <v>30125.52</v>
+        <v>30029.31</v>
       </c>
       <c r="E83">
-        <v>30164.43</v>
+        <v>30150.9</v>
       </c>
       <c r="F83">
-        <v>57.00635677</v>
+        <v>31.87488119</v>
       </c>
       <c r="G83">
-        <v>1725008.787070058</v>
+        <v>959855.1389283139</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44701.41666666666</v>
+        <v>44706.20833333334</v>
       </c>
       <c r="B84">
-        <v>30153.5</v>
+        <v>30160</v>
       </c>
       <c r="C84">
-        <v>30366.36</v>
+        <v>30186.41</v>
       </c>
       <c r="D84">
-        <v>30094.37</v>
+        <v>30031.31</v>
       </c>
       <c r="E84">
-        <v>30283.94</v>
+        <v>30062.47</v>
       </c>
       <c r="F84">
-        <v>35.72902033</v>
+        <v>43.25859248</v>
       </c>
       <c r="G84">
-        <v>1079336.338097328</v>
+        <v>1301705.641635359</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44701.45833333334</v>
+        <v>44706.25</v>
       </c>
       <c r="B85">
-        <v>30285.94</v>
+        <v>30048.4</v>
       </c>
       <c r="C85">
-        <v>30402.82</v>
+        <v>30111.26</v>
       </c>
       <c r="D85">
-        <v>30234.69</v>
+        <v>29815.93</v>
       </c>
       <c r="E85">
-        <v>30392.16</v>
+        <v>29844.74</v>
       </c>
       <c r="F85">
-        <v>46.72874749</v>
+        <v>129.32774258</v>
       </c>
       <c r="G85">
-        <v>1416502.831394588</v>
+        <v>3871400.770173454</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44701.5</v>
+        <v>44706.29166666666</v>
       </c>
       <c r="B86">
-        <v>30384.14</v>
+        <v>29828.02</v>
       </c>
       <c r="C86">
-        <v>30509.15</v>
+        <v>29876.8</v>
       </c>
       <c r="D86">
-        <v>30236.13</v>
+        <v>29621.55</v>
       </c>
       <c r="E86">
-        <v>30395.87</v>
+        <v>29772.1</v>
       </c>
       <c r="F86">
-        <v>80.97247308</v>
+        <v>44.4662815</v>
       </c>
       <c r="G86">
-        <v>2462317.607128923</v>
+        <v>1323000.843468977</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44701.54166666666</v>
+        <v>44706.33333333334</v>
       </c>
       <c r="B87">
-        <v>30377.87</v>
+        <v>29767.64</v>
       </c>
       <c r="C87">
-        <v>30418.47</v>
+        <v>29832.08</v>
       </c>
       <c r="D87">
-        <v>30044.41</v>
+        <v>29656.96</v>
       </c>
       <c r="E87">
-        <v>30223.05</v>
+        <v>29674.67</v>
       </c>
       <c r="F87">
-        <v>128.52996482</v>
+        <v>34.31127747</v>
       </c>
       <c r="G87">
-        <v>3877678.66436163</v>
+        <v>1020237.628481884</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44701.58333333334</v>
+        <v>44706.375</v>
       </c>
       <c r="B88">
-        <v>30229.59</v>
+        <v>29677.31</v>
       </c>
       <c r="C88">
-        <v>30388.63</v>
+        <v>29904.1</v>
       </c>
       <c r="D88">
-        <v>30072.65</v>
+        <v>29538.16</v>
       </c>
       <c r="E88">
-        <v>30340.11</v>
+        <v>29781.93</v>
       </c>
       <c r="F88">
-        <v>36.64432377</v>
+        <v>68.60757335</v>
       </c>
       <c r="G88">
-        <v>1108279.76651037</v>
+        <v>2034728.719173695</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44701.625</v>
+        <v>44706.41666666666</v>
       </c>
       <c r="B89">
-        <v>30338.4</v>
+        <v>29788.71</v>
       </c>
       <c r="C89">
-        <v>30338.4</v>
+        <v>29848.69</v>
       </c>
       <c r="D89">
-        <v>29369.93</v>
+        <v>29666.45</v>
       </c>
       <c r="E89">
-        <v>29437.44</v>
+        <v>29794.05</v>
       </c>
       <c r="F89">
-        <v>270.07371795</v>
+        <v>25.47650183</v>
       </c>
       <c r="G89">
-        <v>8025181.579743561</v>
+        <v>757228.8255177689</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44701.66666666666</v>
+        <v>44706.45833333334</v>
       </c>
       <c r="B90">
-        <v>29412.89</v>
+        <v>29794.12</v>
       </c>
       <c r="C90">
-        <v>29447.45</v>
+        <v>29834.45</v>
       </c>
       <c r="D90">
-        <v>29032.06</v>
+        <v>29662.63</v>
       </c>
       <c r="E90">
-        <v>29088.01</v>
+        <v>29701</v>
       </c>
       <c r="F90">
-        <v>274.66198548</v>
+        <v>13.881385</v>
       </c>
       <c r="G90">
-        <v>8029343.955954192</v>
+        <v>412866.8760761778</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44701.70833333334</v>
+        <v>44706.5</v>
       </c>
       <c r="B91">
-        <v>29104.81</v>
+        <v>29690.63</v>
       </c>
       <c r="C91">
-        <v>29110.94</v>
+        <v>29733.11</v>
       </c>
       <c r="D91">
-        <v>28690.13</v>
+        <v>29317.3</v>
       </c>
       <c r="E91">
-        <v>28872.97</v>
+        <v>29382.11</v>
       </c>
       <c r="F91">
-        <v>349.87659965</v>
+        <v>135.18068241</v>
       </c>
       <c r="G91">
-        <v>10108902.25231962</v>
+        <v>3980120.396966701</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44701.75</v>
+        <v>44706.54166666666</v>
       </c>
       <c r="B92">
-        <v>28860.61</v>
+        <v>29380.72</v>
       </c>
       <c r="C92">
-        <v>28992.74</v>
+        <v>29594.82</v>
       </c>
       <c r="D92">
-        <v>28703.18</v>
+        <v>29313.78</v>
       </c>
       <c r="E92">
-        <v>28926.1</v>
+        <v>29535.13</v>
       </c>
       <c r="F92">
-        <v>114.31988717</v>
+        <v>31.56349144</v>
       </c>
       <c r="G92">
-        <v>3297556.26745334</v>
+        <v>929694.2037930971</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44701.79166666666</v>
+        <v>44706.58333333334</v>
       </c>
       <c r="B93">
-        <v>28926.1</v>
+        <v>29527.09</v>
       </c>
       <c r="C93">
-        <v>29054.81</v>
+        <v>29820</v>
       </c>
       <c r="D93">
-        <v>28789.02</v>
+        <v>29455.86</v>
       </c>
       <c r="E93">
-        <v>28972.61</v>
+        <v>29691.17</v>
       </c>
       <c r="F93">
-        <v>41.37581501</v>
+        <v>114.87439557</v>
       </c>
       <c r="G93">
-        <v>1194725.203364217</v>
+        <v>3402113.872820336</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44701.83333333334</v>
+        <v>44706.625</v>
       </c>
       <c r="B94">
-        <v>28972.08</v>
+        <v>29671.41</v>
       </c>
       <c r="C94">
-        <v>29317.3</v>
+        <v>29882.11</v>
       </c>
       <c r="D94">
-        <v>28910.88</v>
+        <v>29634.69</v>
       </c>
       <c r="E94">
-        <v>29253.88</v>
+        <v>29752.91</v>
       </c>
       <c r="F94">
-        <v>185.58378358</v>
+        <v>94.50336903</v>
       </c>
       <c r="G94">
-        <v>5399466.58149706</v>
+        <v>2814977.501595536</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44701.875</v>
+        <v>44706.66666666666</v>
       </c>
       <c r="B95">
-        <v>29265.95</v>
+        <v>29746.31</v>
       </c>
       <c r="C95">
-        <v>29320.82</v>
+        <v>29803.47</v>
       </c>
       <c r="D95">
-        <v>29090.06</v>
+        <v>29568.02</v>
       </c>
       <c r="E95">
-        <v>29101.85</v>
+        <v>29606.58</v>
       </c>
       <c r="F95">
-        <v>44.14783968</v>
+        <v>43.14519455</v>
       </c>
       <c r="G95">
-        <v>1289569.798099862</v>
+        <v>1281214.67603964</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44701.91666666666</v>
+        <v>44706.70833333334</v>
       </c>
       <c r="B96">
-        <v>29100</v>
+        <v>29596.12</v>
       </c>
       <c r="C96">
-        <v>29274.98</v>
+        <v>29675.36</v>
       </c>
       <c r="D96">
-        <v>29100</v>
+        <v>29400</v>
       </c>
       <c r="E96">
-        <v>29146.19</v>
+        <v>29546.96</v>
       </c>
       <c r="F96">
-        <v>19.0776909</v>
+        <v>114.01252565</v>
       </c>
       <c r="G96">
-        <v>557174.0920489474</v>
+        <v>3364888.771922608</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44701.95833333334</v>
+        <v>44706.75</v>
       </c>
       <c r="B97">
-        <v>29156.73</v>
+        <v>29536.41</v>
       </c>
       <c r="C97">
-        <v>29283.42</v>
+        <v>29763.78</v>
       </c>
       <c r="D97">
-        <v>29102.67</v>
+        <v>29518.03</v>
       </c>
       <c r="E97">
-        <v>29131.43</v>
+        <v>29697.21</v>
       </c>
       <c r="F97">
-        <v>34.04238618</v>
+        <v>25.73312685</v>
       </c>
       <c r="G97">
-        <v>993357.6098202703</v>
+        <v>763310.0457116949</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44702</v>
+        <v>44706.79166666666</v>
       </c>
       <c r="B98">
-        <v>29120.18</v>
+        <v>29700.61</v>
       </c>
       <c r="C98">
-        <v>29352.32</v>
+        <v>30009.61</v>
       </c>
       <c r="D98">
-        <v>29120.18</v>
+        <v>29512.51</v>
       </c>
       <c r="E98">
-        <v>29176.7</v>
+        <v>29865.63</v>
       </c>
       <c r="F98">
-        <v>39.33904522</v>
+        <v>166.04797509</v>
       </c>
       <c r="G98">
-        <v>1151590.397269053</v>
+        <v>4956234.664257485</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44702.04166666666</v>
+        <v>44706.83333333334</v>
       </c>
       <c r="B99">
-        <v>29176.7</v>
+        <v>29851</v>
       </c>
       <c r="C99">
-        <v>29321.17</v>
+        <v>29956.25</v>
       </c>
       <c r="D99">
-        <v>29126.48</v>
+        <v>29551.6</v>
       </c>
       <c r="E99">
-        <v>29253.97</v>
+        <v>29563.54</v>
       </c>
       <c r="F99">
-        <v>28.22802043</v>
+        <v>74.54018345</v>
       </c>
       <c r="G99">
-        <v>825910.7319902146</v>
+        <v>2217152.202455649</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44702.08333333334</v>
+        <v>44706.875</v>
       </c>
       <c r="B100">
-        <v>29254.02</v>
+        <v>29572.03</v>
       </c>
       <c r="C100">
-        <v>29271.52</v>
+        <v>29770.61</v>
       </c>
       <c r="D100">
-        <v>28914.7</v>
+        <v>29525.44</v>
       </c>
       <c r="E100">
-        <v>29122.5</v>
+        <v>29765.01</v>
       </c>
       <c r="F100">
-        <v>28.94206503</v>
+        <v>30.14073078</v>
       </c>
       <c r="G100">
-        <v>840593.0182129823</v>
+        <v>893668.758170895</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44702.125</v>
+        <v>44706.91666666666</v>
       </c>
       <c r="B101">
-        <v>29122.51</v>
+        <v>29769.3</v>
       </c>
       <c r="C101">
-        <v>29230.93</v>
+        <v>29812.42</v>
       </c>
       <c r="D101">
-        <v>29047.09</v>
+        <v>29721.59</v>
       </c>
       <c r="E101">
-        <v>29201.31</v>
+        <v>29803.41</v>
       </c>
       <c r="F101">
-        <v>13.11245303</v>
+        <v>19.80769789</v>
       </c>
       <c r="G101">
-        <v>381842.3904857524</v>
+        <v>589542.9524096461</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44702.16666666666</v>
+        <v>44706.95833333334</v>
       </c>
       <c r="B102">
-        <v>29201.31</v>
+        <v>29803.41</v>
       </c>
       <c r="C102">
-        <v>29266.21</v>
+        <v>29859.75</v>
       </c>
       <c r="D102">
-        <v>29093.04</v>
+        <v>29718.28</v>
       </c>
       <c r="E102">
-        <v>29235.66</v>
+        <v>29760.71</v>
       </c>
       <c r="F102">
-        <v>13.26521586</v>
+        <v>24.02964622</v>
       </c>
       <c r="G102">
-        <v>386703.7568436914</v>
+        <v>715109.8405731854</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44702.20833333334</v>
+        <v>44707</v>
       </c>
       <c r="B103">
-        <v>29235.66</v>
+        <v>29761.31</v>
       </c>
       <c r="C103">
-        <v>29248.53</v>
+        <v>29761.31</v>
       </c>
       <c r="D103">
-        <v>29166.83</v>
+        <v>29412.43</v>
       </c>
       <c r="E103">
-        <v>29226.44</v>
+        <v>29510.15</v>
       </c>
       <c r="F103">
-        <v>10.78365048</v>
+        <v>73.39435666</v>
       </c>
       <c r="G103">
-        <v>315059.4317580097</v>
+        <v>2166634.508435424</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44702.25</v>
+        <v>44707.04166666666</v>
       </c>
       <c r="B104">
-        <v>29226.44</v>
+        <v>29511.95</v>
       </c>
       <c r="C104">
-        <v>29291.94</v>
+        <v>29846.17</v>
       </c>
       <c r="D104">
-        <v>29196.38</v>
+        <v>29470</v>
       </c>
       <c r="E104">
-        <v>29250.48</v>
+        <v>29756.69</v>
       </c>
       <c r="F104">
-        <v>14.97442705</v>
+        <v>34.24472038</v>
       </c>
       <c r="G104">
-        <v>437953.2019024055</v>
+        <v>1015958.115503683</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44702.29166666666</v>
+        <v>44707.08333333334</v>
       </c>
       <c r="B105">
-        <v>29250.52</v>
+        <v>29765.84</v>
       </c>
       <c r="C105">
-        <v>29334.89</v>
+        <v>29796.32</v>
       </c>
       <c r="D105">
-        <v>29198.12</v>
+        <v>29632.94</v>
       </c>
       <c r="E105">
-        <v>29330.03</v>
+        <v>29656.09</v>
       </c>
       <c r="F105">
-        <v>20.37544524</v>
+        <v>24.65154506</v>
       </c>
       <c r="G105">
-        <v>596798.8964617894</v>
+        <v>732786.7252736297</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44702.33333333334</v>
+        <v>44707.125</v>
       </c>
       <c r="B106">
-        <v>29338.41</v>
+        <v>29657.85</v>
       </c>
       <c r="C106">
-        <v>29539.55</v>
+        <v>29853.34</v>
       </c>
       <c r="D106">
-        <v>29283.57</v>
+        <v>29657.85</v>
       </c>
       <c r="E106">
-        <v>29387.96</v>
+        <v>29782.05</v>
       </c>
       <c r="F106">
-        <v>60.33322605</v>
+        <v>14.84686897</v>
       </c>
       <c r="G106">
-        <v>1776605.809564431</v>
+        <v>442129.6985411979</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44702.375</v>
+        <v>44707.16666666666</v>
       </c>
       <c r="B107">
-        <v>29380.86</v>
+        <v>29785.84</v>
       </c>
       <c r="C107">
-        <v>29454.12</v>
+        <v>29821.93</v>
       </c>
       <c r="D107">
-        <v>29317.89</v>
+        <v>29645.11</v>
       </c>
       <c r="E107">
-        <v>29331.13</v>
+        <v>29805.34</v>
       </c>
       <c r="F107">
-        <v>18.39731836</v>
+        <v>15.43374704</v>
       </c>
       <c r="G107">
-        <v>540494.8853135196</v>
+        <v>459321.2529617466</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44702.41666666666</v>
+        <v>44707.20833333334</v>
       </c>
       <c r="B108">
-        <v>29334.55</v>
+        <v>29811.5</v>
       </c>
       <c r="C108">
-        <v>29342</v>
+        <v>29842.73</v>
       </c>
       <c r="D108">
-        <v>29204.37</v>
+        <v>29724.02</v>
       </c>
       <c r="E108">
-        <v>29304.13</v>
+        <v>29742.52</v>
       </c>
       <c r="F108">
-        <v>17.99707514</v>
+        <v>18.06951438</v>
       </c>
       <c r="G108">
-        <v>526860.682186564</v>
+        <v>538405.9141033959</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44702.45833333334</v>
+        <v>44707.25</v>
       </c>
       <c r="B109">
-        <v>29310</v>
+        <v>29742.52</v>
       </c>
       <c r="C109">
-        <v>29391.1</v>
+        <v>29816.24</v>
       </c>
       <c r="D109">
-        <v>29176.9</v>
+        <v>29637.28</v>
       </c>
       <c r="E109">
-        <v>29266.04</v>
+        <v>29696.43</v>
       </c>
       <c r="F109">
-        <v>26.90688179</v>
+        <v>46.71273928</v>
       </c>
       <c r="G109">
-        <v>787784.0240496052</v>
+        <v>1386942.887354885</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44702.5</v>
+        <v>44707.29166666666</v>
       </c>
       <c r="B110">
-        <v>29266.12</v>
+        <v>29699.98</v>
       </c>
       <c r="C110">
-        <v>29272.92</v>
+        <v>29720.88</v>
       </c>
       <c r="D110">
-        <v>29109.86</v>
+        <v>29472.49</v>
       </c>
       <c r="E110">
-        <v>29246.48</v>
+        <v>29656.02</v>
       </c>
       <c r="F110">
-        <v>32.10643095</v>
+        <v>50.3147424</v>
       </c>
       <c r="G110">
-        <v>936836.3157575076</v>
+        <v>1487975.080403869</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44702.54166666666</v>
+        <v>44707.33333333334</v>
       </c>
       <c r="B111">
-        <v>29237.93</v>
+        <v>29656.02</v>
       </c>
       <c r="C111">
-        <v>29305.03</v>
+        <v>29717.4</v>
       </c>
       <c r="D111">
-        <v>29158.19</v>
+        <v>29536.37</v>
       </c>
       <c r="E111">
-        <v>29258.52</v>
+        <v>29709.28</v>
       </c>
       <c r="F111">
-        <v>15.29977866</v>
+        <v>72.97156674999999</v>
       </c>
       <c r="G111">
-        <v>447720.4983966953</v>
+        <v>2163157.94042117</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44702.58333333334</v>
+        <v>44707.375</v>
       </c>
       <c r="B112">
-        <v>29234.79</v>
+        <v>29704.21</v>
       </c>
       <c r="C112">
-        <v>29339.33</v>
+        <v>29712</v>
       </c>
       <c r="D112">
-        <v>29199.77</v>
+        <v>28870.45</v>
       </c>
       <c r="E112">
-        <v>29279.73</v>
+        <v>28974.16</v>
       </c>
       <c r="F112">
-        <v>16.0767296</v>
+        <v>286.75606225</v>
       </c>
       <c r="G112">
-        <v>470649.2696390954</v>
+        <v>8356546.73575057</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>44702.625</v>
+        <v>44707.41666666666</v>
       </c>
       <c r="B113">
-        <v>29271.44</v>
+        <v>28974.16</v>
       </c>
       <c r="C113">
-        <v>29439.73</v>
+        <v>29222.47</v>
       </c>
       <c r="D113">
-        <v>29228.06</v>
+        <v>28849.67</v>
       </c>
       <c r="E113">
-        <v>29348.17</v>
+        <v>29163.8</v>
       </c>
       <c r="F113">
-        <v>12.51292505</v>
+        <v>120.43102889</v>
       </c>
       <c r="G113">
-        <v>366835.4586536493</v>
+        <v>3498772.662627026</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>44702.66666666666</v>
+        <v>44707.45833333334</v>
       </c>
       <c r="B114">
-        <v>29372.94</v>
+        <v>29163.33</v>
       </c>
       <c r="C114">
-        <v>29607.39</v>
+        <v>29225.97</v>
       </c>
       <c r="D114">
-        <v>29245.08</v>
+        <v>29093.52</v>
       </c>
       <c r="E114">
-        <v>29521.85</v>
+        <v>29120.67</v>
       </c>
       <c r="F114">
-        <v>64.76105330999999</v>
+        <v>61.02010987</v>
       </c>
       <c r="G114">
-        <v>1907330.641402198</v>
+        <v>1779327.048290465</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>44702.70833333334</v>
+        <v>44707.5</v>
       </c>
       <c r="B115">
-        <v>29508.43</v>
+        <v>29103.9</v>
       </c>
       <c r="C115">
-        <v>29621.01</v>
+        <v>29139.45</v>
       </c>
       <c r="D115">
-        <v>29465.75</v>
+        <v>28895.32</v>
       </c>
       <c r="E115">
-        <v>29527.67</v>
+        <v>28977.15</v>
       </c>
       <c r="F115">
-        <v>15.07986719</v>
+        <v>144.88759362</v>
       </c>
       <c r="G115">
-        <v>445363.4006321675</v>
+        <v>4204490.892470937</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>44702.75</v>
+        <v>44707.54166666666</v>
       </c>
       <c r="B116">
-        <v>29533.37</v>
+        <v>28946.56</v>
       </c>
       <c r="C116">
-        <v>29554.03</v>
+        <v>29102.91</v>
       </c>
       <c r="D116">
-        <v>29354.44</v>
+        <v>28750</v>
       </c>
       <c r="E116">
-        <v>29379.64</v>
+        <v>28898.61</v>
       </c>
       <c r="F116">
-        <v>16.56994252</v>
+        <v>507.56991325</v>
       </c>
       <c r="G116">
-        <v>487366.8557628802</v>
+        <v>14664900.12040206</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>44702.79166666666</v>
+        <v>44707.58333333334</v>
       </c>
       <c r="B117">
-        <v>29392.74</v>
+        <v>28898.61</v>
       </c>
       <c r="C117">
-        <v>29455.56</v>
+        <v>28928.7</v>
       </c>
       <c r="D117">
-        <v>29364.73</v>
+        <v>28003</v>
       </c>
       <c r="E117">
-        <v>29453.76</v>
+        <v>28800.94</v>
       </c>
       <c r="F117">
-        <v>5.19117829</v>
+        <v>501.42821378</v>
       </c>
       <c r="G117">
-        <v>152722.9194999387</v>
+        <v>14284997.8173271</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>44702.83333333334</v>
+        <v>44707.625</v>
       </c>
       <c r="B118">
-        <v>29450.76</v>
+        <v>28783.15</v>
       </c>
       <c r="C118">
-        <v>29543.31</v>
+        <v>29329.07</v>
       </c>
       <c r="D118">
-        <v>29393.95</v>
+        <v>28781.2</v>
       </c>
       <c r="E118">
-        <v>29439.71</v>
+        <v>29223.7</v>
       </c>
       <c r="F118">
-        <v>14.60478947</v>
+        <v>248.17969176</v>
       </c>
       <c r="G118">
-        <v>430525.2050979363</v>
+        <v>7218536.085955583</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>44702.875</v>
+        <v>44707.66666666666</v>
       </c>
       <c r="B119">
-        <v>29441.13</v>
+        <v>29226.96</v>
       </c>
       <c r="C119">
-        <v>29489.26</v>
+        <v>29470.79</v>
       </c>
       <c r="D119">
-        <v>29313.61</v>
+        <v>29197.6</v>
       </c>
       <c r="E119">
-        <v>29387.48</v>
+        <v>29385.39</v>
       </c>
       <c r="F119">
-        <v>13.08161955</v>
+        <v>78.07424333</v>
       </c>
       <c r="G119">
-        <v>384502.2538937555</v>
+        <v>2292042.303133682</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>44702.91666666666</v>
+        <v>44707.70833333334</v>
       </c>
       <c r="B120">
-        <v>29384.56</v>
+        <v>29366.59</v>
       </c>
       <c r="C120">
-        <v>29423.51</v>
+        <v>29738.07</v>
       </c>
       <c r="D120">
-        <v>29311.53</v>
+        <v>29347.31</v>
       </c>
       <c r="E120">
-        <v>29322.83</v>
+        <v>29566.48</v>
       </c>
       <c r="F120">
-        <v>7.80904602</v>
+        <v>188.6636973</v>
       </c>
       <c r="G120">
-        <v>229468.1941082116</v>
+        <v>5577251.308054042</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>44702.95833333334</v>
+        <v>44707.75</v>
       </c>
       <c r="B121">
-        <v>29308.98</v>
+        <v>29552.89</v>
       </c>
       <c r="C121">
-        <v>29377.54</v>
+        <v>29651.87</v>
       </c>
       <c r="D121">
-        <v>29274.02</v>
+        <v>29421.73</v>
       </c>
       <c r="E121">
-        <v>29368.72</v>
+        <v>29626.79</v>
       </c>
       <c r="F121">
-        <v>11.49910736</v>
+        <v>74.29232682</v>
       </c>
       <c r="G121">
-        <v>337209.2106222639</v>
+        <v>2193912.403035894</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>44703</v>
+        <v>44707.79166666666</v>
       </c>
       <c r="B122">
-        <v>29377.53</v>
+        <v>29618.92</v>
       </c>
       <c r="C122">
-        <v>29489.77</v>
+        <v>29632.54</v>
       </c>
       <c r="D122">
-        <v>29368.76</v>
+        <v>29463.4</v>
       </c>
       <c r="E122">
-        <v>29421.05</v>
+        <v>29584.21</v>
       </c>
       <c r="F122">
-        <v>12.51913808</v>
+        <v>103.67617191</v>
       </c>
       <c r="G122">
-        <v>368386.6291105811</v>
+        <v>3064965.12129773</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>44703.04166666666</v>
+        <v>44707.83333333334</v>
       </c>
       <c r="B123">
-        <v>29400.34</v>
+        <v>29591.33</v>
       </c>
       <c r="C123">
-        <v>29468.86</v>
+        <v>29606.73</v>
       </c>
       <c r="D123">
-        <v>29365.56</v>
+        <v>29354.49</v>
       </c>
       <c r="E123">
-        <v>29442.92</v>
+        <v>29366.82</v>
       </c>
       <c r="F123">
-        <v>6.46786204</v>
+        <v>82.77917736000001</v>
       </c>
       <c r="G123">
-        <v>190348.6981063444</v>
+        <v>2436017.986511925</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>44703.08333333334</v>
+        <v>44707.875</v>
       </c>
       <c r="B124">
-        <v>29447.36</v>
+        <v>29353.13</v>
       </c>
       <c r="C124">
-        <v>29507.3</v>
+        <v>29566</v>
       </c>
       <c r="D124">
-        <v>29446.79</v>
+        <v>29248.48</v>
       </c>
       <c r="E124">
-        <v>29478.56</v>
+        <v>29443.54</v>
       </c>
       <c r="F124">
-        <v>6.51034241</v>
+        <v>35.02512163</v>
       </c>
       <c r="G124">
-        <v>191901.8029282077</v>
+        <v>1028224.266771369</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>44703.125</v>
+        <v>44707.91666666666</v>
       </c>
       <c r="B125">
-        <v>29470.54</v>
+        <v>29440.81</v>
       </c>
       <c r="C125">
-        <v>29480.03</v>
+        <v>29656.96</v>
       </c>
       <c r="D125">
-        <v>29332.8</v>
+        <v>29423.83</v>
       </c>
       <c r="E125">
-        <v>29361.53</v>
+        <v>29557.12</v>
       </c>
       <c r="F125">
-        <v>13.18925411</v>
+        <v>38.96219559</v>
       </c>
       <c r="G125">
-        <v>387631.6797955056</v>
+        <v>1152520.890053225</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>44703.16666666666</v>
+        <v>44707.95833333334</v>
       </c>
       <c r="B126">
-        <v>29352.17</v>
+        <v>29551.58</v>
       </c>
       <c r="C126">
-        <v>29456.06</v>
+        <v>29633.39</v>
       </c>
       <c r="D126">
-        <v>29300</v>
+        <v>29464.05</v>
       </c>
       <c r="E126">
-        <v>29319.57</v>
+        <v>29486</v>
       </c>
       <c r="F126">
-        <v>24.80801243</v>
+        <v>37.02284807</v>
       </c>
       <c r="G126">
-        <v>728669.2928218396</v>
+        <v>1092629.754710899</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>44703.20833333334</v>
+        <v>44708</v>
       </c>
       <c r="B127">
-        <v>29319.57</v>
+        <v>29470.89</v>
       </c>
       <c r="C127">
-        <v>29330.23</v>
+        <v>29529.56</v>
       </c>
       <c r="D127">
-        <v>29209.03</v>
+        <v>29158.39</v>
       </c>
       <c r="E127">
-        <v>29253.1</v>
+        <v>29183.06</v>
       </c>
       <c r="F127">
-        <v>28.78509249</v>
+        <v>48.99138393</v>
       </c>
       <c r="G127">
-        <v>842474.289824659</v>
+        <v>1434185.342640251</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>44703.25</v>
+        <v>44708.04166666666</v>
       </c>
       <c r="B128">
-        <v>29260.61</v>
+        <v>29183.39</v>
       </c>
       <c r="C128">
-        <v>29381.04</v>
+        <v>29360.34</v>
       </c>
       <c r="D128">
-        <v>29260.1</v>
+        <v>29005.68</v>
       </c>
       <c r="E128">
-        <v>29338.03</v>
+        <v>29025.27</v>
       </c>
       <c r="F128">
-        <v>14.95332826</v>
+        <v>43.51736576</v>
       </c>
       <c r="G128">
-        <v>438709.8765705662</v>
+        <v>1268600.666356793</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>44703.29166666666</v>
+        <v>44708.08333333334</v>
       </c>
       <c r="B129">
-        <v>29339.73</v>
+        <v>29042.67</v>
       </c>
       <c r="C129">
-        <v>29378.68</v>
+        <v>29097.99</v>
       </c>
       <c r="D129">
-        <v>29315.42</v>
+        <v>28863.52</v>
       </c>
       <c r="E129">
-        <v>29375.5</v>
+        <v>28902.92</v>
       </c>
       <c r="F129">
-        <v>13.66094947</v>
+        <v>125.3812327</v>
       </c>
       <c r="G129">
-        <v>400954.5533438026</v>
+        <v>3631587.43006553</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>44703.33333333334</v>
+        <v>44708.125</v>
       </c>
       <c r="B130">
-        <v>29376.99</v>
+        <v>28934.05</v>
       </c>
       <c r="C130">
-        <v>29419.99</v>
+        <v>29058.91</v>
       </c>
       <c r="D130">
-        <v>29321.76</v>
+        <v>28812.33</v>
       </c>
       <c r="E130">
-        <v>29409.25</v>
+        <v>28967.9</v>
       </c>
       <c r="F130">
-        <v>15.77610204</v>
+        <v>49.83232614</v>
       </c>
       <c r="G130">
-        <v>463366.7269011666</v>
+        <v>1440905.945799295</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>44703.375</v>
+        <v>44708.16666666666</v>
       </c>
       <c r="B131">
-        <v>29399.32</v>
+        <v>28962.84</v>
       </c>
       <c r="C131">
-        <v>29557.49</v>
+        <v>29107.88</v>
       </c>
       <c r="D131">
-        <v>29393.06</v>
+        <v>28936.73</v>
       </c>
       <c r="E131">
-        <v>29526.67</v>
+        <v>28999.66</v>
       </c>
       <c r="F131">
-        <v>43.74179501</v>
+        <v>70.99493088</v>
       </c>
       <c r="G131">
-        <v>1290110.678418876</v>
+        <v>2056934.658066435</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>44703.41666666666</v>
+        <v>44708.20833333334</v>
       </c>
       <c r="B132">
-        <v>29535.27</v>
+        <v>28987.11</v>
       </c>
       <c r="C132">
-        <v>30152.14</v>
+        <v>29077.7</v>
       </c>
       <c r="D132">
-        <v>29495.54</v>
+        <v>28842.75</v>
       </c>
       <c r="E132">
-        <v>30120.8</v>
+        <v>28892.92</v>
       </c>
       <c r="F132">
-        <v>244.42196012</v>
+        <v>21.12508782</v>
       </c>
       <c r="G132">
-        <v>7300035.106888049</v>
+        <v>611117.7144560292</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>44703.45833333334</v>
+        <v>44708.25</v>
       </c>
       <c r="B133">
-        <v>30124.5</v>
+        <v>28892.76</v>
       </c>
       <c r="C133">
-        <v>30275.41</v>
+        <v>29011.16</v>
       </c>
       <c r="D133">
-        <v>30046.31</v>
+        <v>28611.8</v>
       </c>
       <c r="E133">
-        <v>30160.53</v>
+        <v>28775.51</v>
       </c>
       <c r="F133">
-        <v>111.47820727</v>
+        <v>109.90732453</v>
       </c>
       <c r="G133">
-        <v>3363365.52451481</v>
+        <v>3158760.057672303</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>44703.5</v>
+        <v>44708.29166666666</v>
       </c>
       <c r="B134">
-        <v>30142.51</v>
+        <v>28754.68</v>
       </c>
       <c r="C134">
-        <v>30210.08</v>
+        <v>28998.91</v>
       </c>
       <c r="D134">
-        <v>29814.28</v>
+        <v>28604.93</v>
       </c>
       <c r="E134">
-        <v>29854.18</v>
+        <v>28952.66</v>
       </c>
       <c r="F134">
-        <v>254.5113595</v>
+        <v>61.74146991</v>
       </c>
       <c r="G134">
-        <v>7635171.091095019</v>
+        <v>1780026.99021681</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>44703.54166666666</v>
+        <v>44708.33333333334</v>
       </c>
       <c r="B135">
-        <v>29880.2</v>
+        <v>28958.65</v>
       </c>
       <c r="C135">
-        <v>30185.44</v>
+        <v>29199.55</v>
       </c>
       <c r="D135">
-        <v>29879.85</v>
+        <v>28877.56</v>
       </c>
       <c r="E135">
-        <v>30123.79</v>
+        <v>28956.52</v>
       </c>
       <c r="F135">
-        <v>47.61004173</v>
+        <v>183.91437953</v>
       </c>
       <c r="G135">
-        <v>1430471.290847914</v>
+        <v>5342859.997455855</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>44703.58333333334</v>
+        <v>44708.375</v>
       </c>
       <c r="B136">
-        <v>30126.08</v>
+        <v>28955.87</v>
       </c>
       <c r="C136">
-        <v>30126.53</v>
+        <v>29100</v>
       </c>
       <c r="D136">
-        <v>29923.48</v>
+        <v>28742.56</v>
       </c>
       <c r="E136">
-        <v>30019.41</v>
+        <v>28908.39</v>
       </c>
       <c r="F136">
-        <v>12.17771649</v>
+        <v>101.79461988</v>
       </c>
       <c r="G136">
-        <v>365607.432699659</v>
+        <v>2951001.159434883</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>44703.625</v>
+        <v>44708.41666666666</v>
       </c>
       <c r="B137">
-        <v>30031.72</v>
+        <v>28913.6</v>
       </c>
       <c r="C137">
-        <v>30111</v>
+        <v>29052.21</v>
       </c>
       <c r="D137">
-        <v>29886.65</v>
+        <v>28859.36</v>
       </c>
       <c r="E137">
-        <v>29932.75</v>
+        <v>29015.52</v>
       </c>
       <c r="F137">
-        <v>33.07640954</v>
+        <v>35.34710066</v>
       </c>
       <c r="G137">
-        <v>991609.4120124429</v>
+        <v>1023574.42549678</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>44703.66666666666</v>
+        <v>44708.45833333334</v>
       </c>
       <c r="B138">
-        <v>29919.13</v>
+        <v>29001.58</v>
       </c>
       <c r="C138">
-        <v>29946.97</v>
+        <v>29021.38</v>
       </c>
       <c r="D138">
-        <v>29642.73</v>
+        <v>28739.11</v>
       </c>
       <c r="E138">
-        <v>29817.94</v>
+        <v>28793.48</v>
       </c>
       <c r="F138">
-        <v>106.6930581</v>
+        <v>75.11083461</v>
       </c>
       <c r="G138">
-        <v>3173467.514472336</v>
+        <v>2168323.047400344</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>44703.70833333334</v>
+        <v>44708.5</v>
       </c>
       <c r="B139">
-        <v>29805</v>
+        <v>28781.98</v>
       </c>
       <c r="C139">
-        <v>29932.48</v>
+        <v>29012.47</v>
       </c>
       <c r="D139">
-        <v>29723.09</v>
+        <v>28769.79</v>
       </c>
       <c r="E139">
-        <v>29909.95</v>
+        <v>28870.46</v>
       </c>
       <c r="F139">
-        <v>13.93841686</v>
+        <v>63.43375228</v>
       </c>
       <c r="G139">
-        <v>415806.5647384176</v>
+        <v>1832895.300374757</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>44703.75</v>
+        <v>44708.54166666666</v>
       </c>
       <c r="B140">
-        <v>29903.86</v>
+        <v>28862</v>
       </c>
       <c r="C140">
-        <v>30144.91</v>
+        <v>29289.17</v>
       </c>
       <c r="D140">
-        <v>29858.04</v>
+        <v>28792.64</v>
       </c>
       <c r="E140">
-        <v>29905.16</v>
+        <v>29234.63</v>
       </c>
       <c r="F140">
-        <v>93.95444329</v>
+        <v>159.16782356</v>
       </c>
       <c r="G140">
-        <v>2819753.840173764</v>
+        <v>4632661.635053235</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>44703.79166666666</v>
+        <v>44708.58333333334</v>
       </c>
       <c r="B141">
-        <v>29892.87</v>
+        <v>29217.8</v>
       </c>
       <c r="C141">
-        <v>30012.68</v>
+        <v>29359.28</v>
       </c>
       <c r="D141">
-        <v>29816.09</v>
+        <v>29103.31</v>
       </c>
       <c r="E141">
-        <v>30005.58</v>
+        <v>29309.35</v>
       </c>
       <c r="F141">
-        <v>18.79890139</v>
+        <v>70.42579683</v>
       </c>
       <c r="G141">
-        <v>563092.2683964941</v>
+        <v>2058751.176683703</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>44703.83333333334</v>
+        <v>44708.625</v>
       </c>
       <c r="B142">
-        <v>30005.58</v>
+        <v>29294.31</v>
       </c>
       <c r="C142">
-        <v>30050.15</v>
+        <v>29314.73</v>
       </c>
       <c r="D142">
-        <v>29879</v>
+        <v>28703.24</v>
       </c>
       <c r="E142">
-        <v>29902.45</v>
+        <v>28763.85</v>
       </c>
       <c r="F142">
-        <v>13.75887267</v>
+        <v>140.34942441</v>
       </c>
       <c r="G142">
-        <v>412121.7325560024</v>
+        <v>4063231.829838413</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>44703.875</v>
+        <v>44708.66666666666</v>
       </c>
       <c r="B143">
-        <v>29895.87</v>
+        <v>28758.99</v>
       </c>
       <c r="C143">
-        <v>30065.05</v>
+        <v>28923.7</v>
       </c>
       <c r="D143">
-        <v>29878.48</v>
+        <v>28615.23</v>
       </c>
       <c r="E143">
-        <v>29914.02</v>
+        <v>28822.43</v>
       </c>
       <c r="F143">
-        <v>36.43520227</v>
+        <v>107.80386849</v>
       </c>
       <c r="G143">
-        <v>1092646.688448868</v>
+        <v>3097767.35137662</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>44703.91666666666</v>
+        <v>44708.70833333334</v>
       </c>
       <c r="B144">
-        <v>29912.83</v>
+        <v>28812.37</v>
       </c>
       <c r="C144">
-        <v>30054.88</v>
+        <v>28896.25</v>
       </c>
       <c r="D144">
-        <v>29878.74</v>
+        <v>28630</v>
       </c>
       <c r="E144">
-        <v>29983.82</v>
+        <v>28718.31</v>
       </c>
       <c r="F144">
-        <v>17.40335748</v>
+        <v>31.42733718</v>
       </c>
       <c r="G144">
-        <v>521629.9324532564</v>
+        <v>903544.5406542552</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>44703.95833333334</v>
+        <v>44708.75</v>
       </c>
       <c r="B145">
-        <v>29997.71</v>
+        <v>28701.31</v>
       </c>
       <c r="C145">
-        <v>30453.94</v>
+        <v>28832.61</v>
       </c>
       <c r="D145">
-        <v>29997.71</v>
+        <v>28300</v>
       </c>
       <c r="E145">
-        <v>30256.14</v>
+        <v>28333.83</v>
       </c>
       <c r="F145">
-        <v>86.4829211</v>
+        <v>168.80058708</v>
       </c>
       <c r="G145">
-        <v>2618481.199876099</v>
+        <v>4798456.421584465</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>44704</v>
+        <v>44708.79166666666</v>
       </c>
       <c r="B146">
-        <v>30270.04</v>
+        <v>28351.9</v>
       </c>
       <c r="C146">
-        <v>30457.58</v>
+        <v>28465.21</v>
       </c>
       <c r="D146">
-        <v>30250.03</v>
+        <v>28253.57</v>
       </c>
       <c r="E146">
-        <v>30264.66</v>
+        <v>28446.24</v>
       </c>
       <c r="F146">
-        <v>60.26057367</v>
+        <v>134.83330049</v>
       </c>
       <c r="G146">
-        <v>1829681.020571287</v>
+        <v>3827213.351174935</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>44704.04166666666</v>
+        <v>44708.83333333334</v>
       </c>
       <c r="B147">
-        <v>30264.66</v>
+        <v>28436.99</v>
       </c>
       <c r="C147">
-        <v>30429.73</v>
+        <v>29016.32</v>
       </c>
       <c r="D147">
-        <v>30169.8</v>
+        <v>28393.27</v>
       </c>
       <c r="E147">
-        <v>30269.44</v>
+        <v>28855.34</v>
       </c>
       <c r="F147">
-        <v>41.66779646</v>
+        <v>181.79656813</v>
       </c>
       <c r="G147">
-        <v>1261918.571617745</v>
+        <v>5232859.141842214</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>44704.08333333334</v>
+        <v>44708.875</v>
       </c>
       <c r="B148">
-        <v>30235.79</v>
+        <v>28813.62</v>
       </c>
       <c r="C148">
-        <v>30241.53</v>
+        <v>28969.64</v>
       </c>
       <c r="D148">
-        <v>30135.89</v>
+        <v>28715.67</v>
       </c>
       <c r="E148">
-        <v>30184.62</v>
+        <v>28732.38</v>
       </c>
       <c r="F148">
-        <v>17.04894028</v>
+        <v>46.08557005</v>
       </c>
       <c r="G148">
-        <v>514563.3635951518</v>
+        <v>1328103.781819334</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>44704.125</v>
+        <v>44708.91666666666</v>
       </c>
       <c r="B149">
-        <v>30164.82</v>
+        <v>28732.37</v>
       </c>
       <c r="C149">
-        <v>30177.44</v>
+        <v>28816.61</v>
       </c>
       <c r="D149">
-        <v>30012.94</v>
+        <v>28659.9</v>
       </c>
       <c r="E149">
-        <v>30104.98</v>
+        <v>28695.92</v>
       </c>
       <c r="F149">
-        <v>34.30717578</v>
+        <v>23.12679341</v>
       </c>
       <c r="G149">
-        <v>1031615.766506551</v>
+        <v>664604.443133663</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>44704.16666666666</v>
+        <v>44708.95833333334</v>
       </c>
       <c r="B150">
-        <v>30110</v>
+        <v>28693.32</v>
       </c>
       <c r="C150">
-        <v>30181.97</v>
+        <v>28886.66</v>
       </c>
       <c r="D150">
-        <v>30071.59</v>
+        <v>28609.87</v>
       </c>
       <c r="E150">
-        <v>30149.31</v>
+        <v>28801.39</v>
       </c>
       <c r="F150">
-        <v>29.35368333</v>
+        <v>36.40471978</v>
       </c>
       <c r="G150">
-        <v>884075.3473637179</v>
+        <v>1047292.19910791</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>44704.20833333334</v>
+        <v>44709</v>
       </c>
       <c r="B151">
-        <v>30131.32</v>
+        <v>28832.78</v>
       </c>
       <c r="C151">
-        <v>30214.13</v>
+        <v>28832.78</v>
       </c>
       <c r="D151">
-        <v>30090.68</v>
+        <v>28482</v>
       </c>
       <c r="E151">
-        <v>30108.06</v>
+        <v>28589.48</v>
       </c>
       <c r="F151">
-        <v>24.51956934</v>
+        <v>67.61976797</v>
       </c>
       <c r="G151">
-        <v>739591.7108312557</v>
+        <v>1935878.570754899</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>44704.25</v>
+        <v>44709.04166666666</v>
       </c>
       <c r="B152">
-        <v>30098.7</v>
+        <v>28606.08</v>
       </c>
       <c r="C152">
-        <v>30294.47</v>
+        <v>28797.47</v>
       </c>
       <c r="D152">
-        <v>30092.93</v>
+        <v>28532.6</v>
       </c>
       <c r="E152">
-        <v>30275.28</v>
+        <v>28781.72</v>
       </c>
       <c r="F152">
-        <v>13.1877254</v>
+        <v>20.03492632</v>
       </c>
       <c r="G152">
-        <v>397757.4674313466</v>
+        <v>574537.4240505543</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>44704.29166666666</v>
+        <v>44709.08333333334</v>
       </c>
       <c r="B153">
-        <v>30283.64</v>
+        <v>28779.92</v>
       </c>
       <c r="C153">
-        <v>30614</v>
+        <v>28802.24</v>
       </c>
       <c r="D153">
-        <v>30269.09</v>
+        <v>28498.73</v>
       </c>
       <c r="E153">
-        <v>30464.98</v>
+        <v>28585.43</v>
       </c>
       <c r="F153">
-        <v>130.42936605</v>
+        <v>66.37070657</v>
       </c>
       <c r="G153">
-        <v>3976083.776520646</v>
+        <v>1895550.157963096</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>44704.33333333334</v>
+        <v>44709.125</v>
       </c>
       <c r="B154">
-        <v>30469.75</v>
+        <v>28597.32</v>
       </c>
       <c r="C154">
-        <v>30628</v>
+        <v>28712.33</v>
       </c>
       <c r="D154">
-        <v>30395.27</v>
+        <v>28565.87</v>
       </c>
       <c r="E154">
-        <v>30425</v>
+        <v>28660.32</v>
       </c>
       <c r="F154">
-        <v>65.34470032</v>
+        <v>19.90971094</v>
       </c>
       <c r="G154">
-        <v>1993711.585457716</v>
+        <v>570296.2703833462</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>44704.375</v>
+        <v>44709.16666666666</v>
       </c>
       <c r="B155">
-        <v>30416.26</v>
+        <v>28639.21</v>
       </c>
       <c r="C155">
-        <v>30481.13</v>
+        <v>28822.06</v>
       </c>
       <c r="D155">
-        <v>30255.3</v>
+        <v>28604.17</v>
       </c>
       <c r="E155">
-        <v>30324.6</v>
+        <v>28803.39</v>
       </c>
       <c r="F155">
-        <v>79.27136743</v>
+        <v>17.39263866</v>
       </c>
       <c r="G155">
-        <v>2407086.149779728</v>
+        <v>499553.641027345</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>44704.41666666666</v>
+        <v>44709.20833333334</v>
       </c>
       <c r="B156">
-        <v>30327.04</v>
+        <v>28760.72</v>
       </c>
       <c r="C156">
-        <v>30474.54</v>
+        <v>28856.6</v>
       </c>
       <c r="D156">
-        <v>30275.6</v>
+        <v>28733.49</v>
       </c>
       <c r="E156">
-        <v>30426.03</v>
+        <v>28812.47</v>
       </c>
       <c r="F156">
-        <v>27.27479698</v>
+        <v>16.74469907</v>
       </c>
       <c r="G156">
-        <v>828486.4607021346</v>
+        <v>482229.2068582268</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>44704.45833333334</v>
+        <v>44709.25</v>
       </c>
       <c r="B157">
-        <v>30417.43</v>
+        <v>28812.47</v>
       </c>
       <c r="C157">
-        <v>30525</v>
+        <v>28926.65</v>
       </c>
       <c r="D157">
-        <v>30382.77</v>
+        <v>28754.94</v>
       </c>
       <c r="E157">
-        <v>30450</v>
+        <v>28855.97</v>
       </c>
       <c r="F157">
-        <v>39.99874856</v>
+        <v>36.46188117</v>
       </c>
       <c r="G157">
-        <v>1218145.091936161</v>
+        <v>1051437.380076346</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>44704.5</v>
+        <v>44709.29166666666</v>
       </c>
       <c r="B158">
-        <v>30456.13</v>
+        <v>28846.72</v>
       </c>
       <c r="C158">
-        <v>30598.42</v>
+        <v>28892.56</v>
       </c>
       <c r="D158">
-        <v>30323.09</v>
+        <v>28809.52</v>
       </c>
       <c r="E158">
-        <v>30365.32</v>
+        <v>28846.75</v>
       </c>
       <c r="F158">
-        <v>41.8195799</v>
+        <v>13.30608718</v>
       </c>
       <c r="G158">
-        <v>1273085.258392787</v>
+        <v>383723.5201983632</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>44704.54166666666</v>
+        <v>44709.33333333334</v>
       </c>
       <c r="B159">
-        <v>30369.52</v>
+        <v>28862.39</v>
       </c>
       <c r="C159">
-        <v>30600</v>
+        <v>28895.3</v>
       </c>
       <c r="D159">
-        <v>30318.12</v>
+        <v>28795.53</v>
       </c>
       <c r="E159">
-        <v>30360.45</v>
+        <v>28864.42</v>
       </c>
       <c r="F159">
-        <v>50.36566037</v>
+        <v>12.77957198</v>
       </c>
       <c r="G159">
-        <v>1532583.303158008</v>
+        <v>368417.3014993192</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>44704.58333333334</v>
+        <v>44709.375</v>
       </c>
       <c r="B160">
-        <v>30355.43</v>
+        <v>28867.08</v>
       </c>
       <c r="C160">
-        <v>30525</v>
+        <v>28897.2</v>
       </c>
       <c r="D160">
-        <v>30135.66</v>
+        <v>28753.29</v>
       </c>
       <c r="E160">
-        <v>30300</v>
+        <v>28820.4</v>
       </c>
       <c r="F160">
-        <v>232.38787267</v>
+        <v>15.81584524</v>
       </c>
       <c r="G160">
-        <v>7055982.007091243</v>
+        <v>455987.5205140434</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>44704.625</v>
+        <v>44709.41666666666</v>
       </c>
       <c r="B161">
-        <v>30289.37</v>
+        <v>28807.26</v>
       </c>
       <c r="C161">
-        <v>30317.17</v>
+        <v>28866.79</v>
       </c>
       <c r="D161">
-        <v>29944.61</v>
+        <v>28746.19</v>
       </c>
       <c r="E161">
-        <v>30229.6</v>
+        <v>28787.66</v>
       </c>
       <c r="F161">
-        <v>143.75263168</v>
+        <v>16.67178195</v>
       </c>
       <c r="G161">
-        <v>4330245.225600583</v>
+        <v>480293.3535541349</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>44704.66666666666</v>
+        <v>44709.45833333334</v>
       </c>
       <c r="B162">
-        <v>30232.6</v>
+        <v>28776.74</v>
       </c>
       <c r="C162">
-        <v>30385.37</v>
+        <v>28833.47</v>
       </c>
       <c r="D162">
-        <v>30202.07</v>
+        <v>28741.89</v>
       </c>
       <c r="E162">
-        <v>30313.69</v>
+        <v>28799.37</v>
       </c>
       <c r="F162">
-        <v>39.85363271</v>
+        <v>85.70317754</v>
       </c>
       <c r="G162">
-        <v>1208168.107062585</v>
+        <v>2465165.132205592</v>
       </c>
     </row>
   </sheetData>
@@ -4169,3705 +4169,3705 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44698</v>
+        <v>44702.79166666666</v>
       </c>
       <c r="B2">
-        <v>2030.99</v>
+        <v>1974.09</v>
       </c>
       <c r="C2">
-        <v>2033.58</v>
+        <v>1982.52</v>
       </c>
       <c r="D2">
-        <v>2015.64</v>
+        <v>1974.09</v>
       </c>
       <c r="E2">
-        <v>2020.84</v>
+        <v>1982.36</v>
       </c>
       <c r="F2">
-        <v>304.79886491</v>
+        <v>72.29641332999999</v>
       </c>
       <c r="G2">
-        <v>618064.4831303729</v>
+        <v>143022.9165599269</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44698.04166666666</v>
+        <v>44702.83333333334</v>
       </c>
       <c r="B3">
-        <v>2021.27</v>
+        <v>1982.45</v>
       </c>
       <c r="C3">
-        <v>2050.23</v>
+        <v>1987.03</v>
       </c>
       <c r="D3">
-        <v>2016.88</v>
+        <v>1974.21</v>
       </c>
       <c r="E3">
-        <v>2045.57</v>
+        <v>1978.98</v>
       </c>
       <c r="F3">
-        <v>910.00828838</v>
+        <v>111.65015663</v>
       </c>
       <c r="G3">
-        <v>1855032.675495462</v>
+        <v>220941.6729015645</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44698.08333333334</v>
+        <v>44702.875</v>
       </c>
       <c r="B4">
-        <v>2047.5</v>
+        <v>1979.65</v>
       </c>
       <c r="C4">
-        <v>2048.18</v>
+        <v>1982.98</v>
       </c>
       <c r="D4">
-        <v>2023.12</v>
+        <v>1970.57</v>
       </c>
       <c r="E4">
-        <v>2036.14</v>
+        <v>1974.46</v>
       </c>
       <c r="F4">
-        <v>442.50648837</v>
+        <v>51.78331008</v>
       </c>
       <c r="G4">
-        <v>899670.2984593677</v>
+        <v>102292.711205826</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44698.125</v>
+        <v>44702.91666666666</v>
       </c>
       <c r="B5">
-        <v>2037.44</v>
+        <v>1973.36</v>
       </c>
       <c r="C5">
-        <v>2046.03</v>
+        <v>1976.05</v>
       </c>
       <c r="D5">
-        <v>2029.54</v>
+        <v>1964.85</v>
       </c>
       <c r="E5">
-        <v>2041.95</v>
+        <v>1966.13</v>
       </c>
       <c r="F5">
-        <v>156.02516409</v>
+        <v>143.51495387</v>
       </c>
       <c r="G5">
-        <v>317845.3052194175</v>
+        <v>282962.2714723306</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44698.16666666666</v>
+        <v>44702.95833333334</v>
       </c>
       <c r="B6">
-        <v>2044.1</v>
+        <v>1964.75</v>
       </c>
       <c r="C6">
-        <v>2077.76</v>
+        <v>1971.82</v>
       </c>
       <c r="D6">
-        <v>2040.95</v>
+        <v>1963.36</v>
       </c>
       <c r="E6">
-        <v>2071.74</v>
+        <v>1971.82</v>
       </c>
       <c r="F6">
-        <v>862.5853249100001</v>
+        <v>88.81330672999999</v>
       </c>
       <c r="G6">
-        <v>1777370.822379742</v>
+        <v>174788.1946633495</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44698.20833333334</v>
+        <v>44703</v>
       </c>
       <c r="B7">
-        <v>2071.16</v>
+        <v>1971.93</v>
       </c>
       <c r="C7">
-        <v>2081.93</v>
+        <v>1978.4</v>
       </c>
       <c r="D7">
-        <v>2062.31</v>
+        <v>1970.55</v>
       </c>
       <c r="E7">
-        <v>2074.1</v>
+        <v>1973.24</v>
       </c>
       <c r="F7">
-        <v>617.05896067</v>
+        <v>130.03985187</v>
       </c>
       <c r="G7">
-        <v>1279362.533269263</v>
+        <v>256688.313364636</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44698.25</v>
+        <v>44703.04166666666</v>
       </c>
       <c r="B8">
-        <v>2075</v>
+        <v>1974.05</v>
       </c>
       <c r="C8">
-        <v>2080.14</v>
+        <v>1978.11</v>
       </c>
       <c r="D8">
-        <v>2064.97</v>
+        <v>1970</v>
       </c>
       <c r="E8">
-        <v>2078.71</v>
+        <v>1975.9</v>
       </c>
       <c r="F8">
-        <v>297.68678322</v>
+        <v>117.51317623</v>
       </c>
       <c r="G8">
-        <v>616464.0545610186</v>
+        <v>231991.7560280049</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44698.29166666666</v>
+        <v>44703.08333333334</v>
       </c>
       <c r="B9">
-        <v>2078.31</v>
+        <v>1975.89</v>
       </c>
       <c r="C9">
-        <v>2091.68</v>
+        <v>1981.59</v>
       </c>
       <c r="D9">
-        <v>2070</v>
+        <v>1974.61</v>
       </c>
       <c r="E9">
-        <v>2085.77</v>
+        <v>1978.51</v>
       </c>
       <c r="F9">
-        <v>261.49374167</v>
+        <v>234.2454424</v>
       </c>
       <c r="G9">
-        <v>543514.0863025862</v>
+        <v>462960.8720221877</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44698.33333333334</v>
+        <v>44703.125</v>
       </c>
       <c r="B10">
-        <v>2088.45</v>
+        <v>1977.58</v>
       </c>
       <c r="C10">
-        <v>2089.65</v>
+        <v>1977.87</v>
       </c>
       <c r="D10">
-        <v>2066.48</v>
+        <v>1969.51</v>
       </c>
       <c r="E10">
-        <v>2068.99</v>
+        <v>1973.44</v>
       </c>
       <c r="F10">
-        <v>518.61304767</v>
+        <v>110.10641025</v>
       </c>
       <c r="G10">
-        <v>1075716.120582085</v>
+        <v>217231.2679768536</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44698.375</v>
+        <v>44703.16666666666</v>
       </c>
       <c r="B11">
-        <v>2069.73</v>
+        <v>1971.58</v>
       </c>
       <c r="C11">
-        <v>2095.58</v>
+        <v>1978.22</v>
       </c>
       <c r="D11">
-        <v>2066.91</v>
+        <v>1970.06</v>
       </c>
       <c r="E11">
-        <v>2083.51</v>
+        <v>1972.62</v>
       </c>
       <c r="F11">
-        <v>1132.89057119</v>
+        <v>200.40248393</v>
       </c>
       <c r="G11">
-        <v>2362404.560223727</v>
+        <v>395806.9940190702</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44698.41666666666</v>
+        <v>44703.20833333334</v>
       </c>
       <c r="B12">
-        <v>2082.83</v>
+        <v>1971.39</v>
       </c>
       <c r="C12">
-        <v>2095.84</v>
+        <v>1973.03</v>
       </c>
       <c r="D12">
-        <v>2082.67</v>
+        <v>1964.29</v>
       </c>
       <c r="E12">
-        <v>2087.76</v>
+        <v>1964.29</v>
       </c>
       <c r="F12">
-        <v>636.78622478</v>
+        <v>132.87200948</v>
       </c>
       <c r="G12">
-        <v>1330078.029508494</v>
+        <v>261428.0785720306</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44698.45833333334</v>
+        <v>44703.25</v>
       </c>
       <c r="B13">
-        <v>2088.09</v>
+        <v>1964.06</v>
       </c>
       <c r="C13">
-        <v>2089.44</v>
+        <v>1972.85</v>
       </c>
       <c r="D13">
-        <v>2078.59</v>
+        <v>1964.06</v>
       </c>
       <c r="E13">
-        <v>2081.62</v>
+        <v>1969.91</v>
       </c>
       <c r="F13">
-        <v>777.3107537</v>
+        <v>112.95589048</v>
       </c>
       <c r="G13">
-        <v>1619213.027175921</v>
+        <v>222467.1744066133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44698.5</v>
+        <v>44703.29166666666</v>
       </c>
       <c r="B14">
-        <v>2080.2</v>
+        <v>1969.91</v>
       </c>
       <c r="C14">
-        <v>2089.13</v>
+        <v>1973.87</v>
       </c>
       <c r="D14">
-        <v>2074.66</v>
+        <v>1969.69</v>
       </c>
       <c r="E14">
-        <v>2077.8</v>
+        <v>1972.88</v>
       </c>
       <c r="F14">
-        <v>733.7341241</v>
+        <v>63.09160492</v>
       </c>
       <c r="G14">
-        <v>1525862.162801715</v>
+        <v>124400.5610006896</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44698.54166666666</v>
+        <v>44703.33333333334</v>
       </c>
       <c r="B15">
-        <v>2077.52</v>
+        <v>1972.3</v>
       </c>
       <c r="C15">
-        <v>2101.23</v>
+        <v>1975.56</v>
       </c>
       <c r="D15">
-        <v>2075.84</v>
+        <v>1968.24</v>
       </c>
       <c r="E15">
-        <v>2097.32</v>
+        <v>1973.99</v>
       </c>
       <c r="F15">
-        <v>605.75849644</v>
+        <v>115.32587213</v>
       </c>
       <c r="G15">
-        <v>1267253.092476491</v>
+        <v>227374.8429297717</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44698.58333333334</v>
+        <v>44703.375</v>
       </c>
       <c r="B16">
-        <v>2098.99</v>
+        <v>1973.99</v>
       </c>
       <c r="C16">
-        <v>2120.94</v>
+        <v>1983.3</v>
       </c>
       <c r="D16">
-        <v>2075.93</v>
+        <v>1971.36</v>
       </c>
       <c r="E16">
-        <v>2098.63</v>
+        <v>1982.61</v>
       </c>
       <c r="F16">
-        <v>727.40760253</v>
+        <v>110.36116523</v>
       </c>
       <c r="G16">
-        <v>1527745.331476057</v>
+        <v>218374.1194099364</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44698.625</v>
+        <v>44703.41666666666</v>
       </c>
       <c r="B17">
-        <v>2094.58</v>
+        <v>1982.36</v>
       </c>
       <c r="C17">
-        <v>2098.51</v>
+        <v>2033.49</v>
       </c>
       <c r="D17">
-        <v>2048.34</v>
+        <v>1982.09</v>
       </c>
       <c r="E17">
-        <v>2053.97</v>
+        <v>2026.72</v>
       </c>
       <c r="F17">
-        <v>743.31818199</v>
+        <v>466.11981732</v>
       </c>
       <c r="G17">
-        <v>1540327.615060692</v>
+        <v>935247.9546330835</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44698.66666666666</v>
+        <v>44703.45833333334</v>
       </c>
       <c r="B18">
-        <v>2052.05</v>
+        <v>2028.03</v>
       </c>
       <c r="C18">
-        <v>2066.1</v>
+        <v>2034.53</v>
       </c>
       <c r="D18">
-        <v>2043.42</v>
+        <v>2022.83</v>
       </c>
       <c r="E18">
-        <v>2058.89</v>
+        <v>2025.33</v>
       </c>
       <c r="F18">
-        <v>338.68306937</v>
+        <v>242.24036636</v>
       </c>
       <c r="G18">
-        <v>696112.5787906928</v>
+        <v>491206.4519225357</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44698.70833333334</v>
+        <v>44703.5</v>
       </c>
       <c r="B19">
-        <v>2059.04</v>
+        <v>2026.33</v>
       </c>
       <c r="C19">
-        <v>2060.79</v>
+        <v>2032.25</v>
       </c>
       <c r="D19">
-        <v>2035.21</v>
+        <v>2010.81</v>
       </c>
       <c r="E19">
-        <v>2058.16</v>
+        <v>2015.01</v>
       </c>
       <c r="F19">
-        <v>458.99407433</v>
+        <v>259.0405432</v>
       </c>
       <c r="G19">
-        <v>938648.8079236661</v>
+        <v>523090.9607522863</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44698.75</v>
+        <v>44703.54166666666</v>
       </c>
       <c r="B20">
-        <v>2056.93</v>
+        <v>2015.27</v>
       </c>
       <c r="C20">
-        <v>2067.39</v>
+        <v>2030</v>
       </c>
       <c r="D20">
-        <v>2053</v>
+        <v>2015.27</v>
       </c>
       <c r="E20">
-        <v>2058.97</v>
+        <v>2024.33</v>
       </c>
       <c r="F20">
-        <v>444.13068777</v>
+        <v>233.53106254</v>
       </c>
       <c r="G20">
-        <v>915273.244027149</v>
+        <v>472428.5645920543</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44698.79166666666</v>
+        <v>44703.58333333334</v>
       </c>
       <c r="B21">
-        <v>2055.47</v>
+        <v>2023.45</v>
       </c>
       <c r="C21">
-        <v>2066.26</v>
+        <v>2024.24</v>
       </c>
       <c r="D21">
-        <v>2006</v>
+        <v>2015.53</v>
       </c>
       <c r="E21">
-        <v>2027.43</v>
+        <v>2020.25</v>
       </c>
       <c r="F21">
-        <v>1680.16236697</v>
+        <v>80.36639134000001</v>
       </c>
       <c r="G21">
-        <v>3401987.040535405</v>
+        <v>162328.1668803959</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44698.83333333334</v>
+        <v>44703.625</v>
       </c>
       <c r="B22">
-        <v>2024.98</v>
+        <v>2018.78</v>
       </c>
       <c r="C22">
-        <v>2063.59</v>
+        <v>2024.92</v>
       </c>
       <c r="D22">
-        <v>2023.79</v>
+        <v>2013.38</v>
       </c>
       <c r="E22">
-        <v>2042.98</v>
+        <v>2015.72</v>
       </c>
       <c r="F22">
-        <v>879.42810532</v>
+        <v>178.34535064</v>
       </c>
       <c r="G22">
-        <v>1797109.893831618</v>
+        <v>360198.4933182234</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44698.875</v>
+        <v>44703.66666666666</v>
       </c>
       <c r="B23">
-        <v>2042.92</v>
+        <v>2015.72</v>
       </c>
       <c r="C23">
-        <v>2062.22</v>
+        <v>2016.83</v>
       </c>
       <c r="D23">
-        <v>2039.57</v>
+        <v>1988.86</v>
       </c>
       <c r="E23">
-        <v>2052.24</v>
+        <v>2002.83</v>
       </c>
       <c r="F23">
-        <v>437.13483813</v>
+        <v>211.36038687</v>
       </c>
       <c r="G23">
-        <v>897503.3866564776</v>
+        <v>422837.6299711582</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44698.91666666666</v>
+        <v>44703.70833333334</v>
       </c>
       <c r="B24">
-        <v>2050.87</v>
+        <v>2002.52</v>
       </c>
       <c r="C24">
-        <v>2089.16</v>
+        <v>2010.6</v>
       </c>
       <c r="D24">
-        <v>2049.07</v>
+        <v>1990.62</v>
       </c>
       <c r="E24">
-        <v>2084.77</v>
+        <v>2008.05</v>
       </c>
       <c r="F24">
-        <v>445.6069053</v>
+        <v>460.85726062</v>
       </c>
       <c r="G24">
-        <v>926186.2597420334</v>
+        <v>924046.7829873316</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44698.95833333334</v>
+        <v>44703.75</v>
       </c>
       <c r="B25">
-        <v>2090.18</v>
+        <v>2007.65</v>
       </c>
       <c r="C25">
-        <v>2094.43</v>
+        <v>2020.54</v>
       </c>
       <c r="D25">
-        <v>2070.15</v>
+        <v>2002.39</v>
       </c>
       <c r="E25">
-        <v>2081.06</v>
+        <v>2004.57</v>
       </c>
       <c r="F25">
-        <v>603.92391123</v>
+        <v>1650.18870641</v>
       </c>
       <c r="G25">
-        <v>1258110.465946404</v>
+        <v>3312112.320384369</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44699</v>
+        <v>44703.79166666666</v>
       </c>
       <c r="B26">
-        <v>2084.47</v>
+        <v>2003.64</v>
       </c>
       <c r="C26">
-        <v>2101.27</v>
+        <v>2014.22</v>
       </c>
       <c r="D26">
-        <v>2084.47</v>
+        <v>2000.94</v>
       </c>
       <c r="E26">
-        <v>2089.36</v>
+        <v>2012.23</v>
       </c>
       <c r="F26">
-        <v>723.01467546</v>
+        <v>1203.4763095</v>
       </c>
       <c r="G26">
-        <v>1512357.814333669</v>
+        <v>2413059.707930889</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44699.04166666666</v>
+        <v>44703.83333333334</v>
       </c>
       <c r="B27">
-        <v>2089.57</v>
+        <v>2011.62</v>
       </c>
       <c r="C27">
-        <v>2108.09</v>
+        <v>2015.54</v>
       </c>
       <c r="D27">
-        <v>2086.75</v>
+        <v>2003.66</v>
       </c>
       <c r="E27">
-        <v>2089.88</v>
+        <v>2005.57</v>
       </c>
       <c r="F27">
-        <v>589.8024442</v>
+        <v>92.25980810999999</v>
       </c>
       <c r="G27">
-        <v>1237787.636314973</v>
+        <v>185464.4767806378</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44699.08333333334</v>
+        <v>44703.875</v>
       </c>
       <c r="B28">
-        <v>2091.6</v>
+        <v>2005.57</v>
       </c>
       <c r="C28">
-        <v>2091.6</v>
+        <v>2015.25</v>
       </c>
       <c r="D28">
-        <v>2063.63</v>
+        <v>2004.72</v>
       </c>
       <c r="E28">
-        <v>2066.33</v>
+        <v>2005.8</v>
       </c>
       <c r="F28">
-        <v>251.07098188</v>
+        <v>110.05111886</v>
       </c>
       <c r="G28">
-        <v>520951.0288197837</v>
+        <v>221304.3819034978</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44699.125</v>
+        <v>44703.91666666666</v>
       </c>
       <c r="B29">
-        <v>2064.57</v>
+        <v>2005.81</v>
       </c>
       <c r="C29">
-        <v>2070.58</v>
+        <v>2016.99</v>
       </c>
       <c r="D29">
-        <v>2058.8</v>
+        <v>2003.67</v>
       </c>
       <c r="E29">
-        <v>2070.37</v>
+        <v>2015.76</v>
       </c>
       <c r="F29">
-        <v>69.88549227</v>
+        <v>117.13253143</v>
       </c>
       <c r="G29">
-        <v>144297.5908039759</v>
+        <v>235424.1745624785</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44699.16666666666</v>
+        <v>44703.95833333334</v>
       </c>
       <c r="B30">
-        <v>2071.41</v>
+        <v>2015.87</v>
       </c>
       <c r="C30">
-        <v>2071.41</v>
+        <v>2047.38</v>
       </c>
       <c r="D30">
-        <v>2031.15</v>
+        <v>2015.87</v>
       </c>
       <c r="E30">
-        <v>2037.89</v>
+        <v>2033.94</v>
       </c>
       <c r="F30">
-        <v>193.64547542</v>
+        <v>307.3581627</v>
       </c>
       <c r="G30">
-        <v>396335.2347341629</v>
+        <v>625491.2919051154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44699.20833333334</v>
+        <v>44704</v>
       </c>
       <c r="B31">
-        <v>2033.49</v>
+        <v>2034.45</v>
       </c>
       <c r="C31">
-        <v>2043.6</v>
+        <v>2053.71</v>
       </c>
       <c r="D31">
-        <v>2028.57</v>
+        <v>2034.45</v>
       </c>
       <c r="E31">
-        <v>2028.57</v>
+        <v>2040.72</v>
       </c>
       <c r="F31">
-        <v>185.22977054</v>
+        <v>226.38612734</v>
       </c>
       <c r="G31">
-        <v>377305.0950905905</v>
+        <v>463072.9586154526</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44699.25</v>
+        <v>44704.04166666666</v>
       </c>
       <c r="B32">
-        <v>2031.15</v>
+        <v>2039.93</v>
       </c>
       <c r="C32">
-        <v>2046.7</v>
+        <v>2054.8</v>
       </c>
       <c r="D32">
-        <v>2029.3</v>
+        <v>2035.28</v>
       </c>
       <c r="E32">
-        <v>2046.42</v>
+        <v>2041.09</v>
       </c>
       <c r="F32">
-        <v>418.19778562</v>
+        <v>211.0844308</v>
       </c>
       <c r="G32">
-        <v>852986.283718601</v>
+        <v>430937.6212129339</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44699.29166666666</v>
+        <v>44704.08333333334</v>
       </c>
       <c r="B33">
-        <v>2045.5</v>
+        <v>2040.49</v>
       </c>
       <c r="C33">
-        <v>2049.84</v>
+        <v>2040.49</v>
       </c>
       <c r="D33">
-        <v>2018.38</v>
+        <v>2028.99</v>
       </c>
       <c r="E33">
-        <v>2018.86</v>
+        <v>2032.14</v>
       </c>
       <c r="F33">
-        <v>135.71957039</v>
+        <v>265.88069395</v>
       </c>
       <c r="G33">
-        <v>276533.9415392264</v>
+        <v>540416.1694487606</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44699.33333333334</v>
+        <v>44704.125</v>
       </c>
       <c r="B34">
-        <v>2018.97</v>
+        <v>2031.21</v>
       </c>
       <c r="C34">
-        <v>2037.86</v>
+        <v>2032.24</v>
       </c>
       <c r="D34">
-        <v>2017.15</v>
+        <v>2017.38</v>
       </c>
       <c r="E34">
-        <v>2036.06</v>
+        <v>2026.65</v>
       </c>
       <c r="F34">
-        <v>365.52433442</v>
+        <v>239.56641057</v>
       </c>
       <c r="G34">
-        <v>741472.4268281684</v>
+        <v>484947.1747201666</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44699.375</v>
+        <v>44704.16666666666</v>
       </c>
       <c r="B35">
-        <v>2035.86</v>
+        <v>2026.64</v>
       </c>
       <c r="C35">
-        <v>2038.86</v>
+        <v>2032.64</v>
       </c>
       <c r="D35">
-        <v>2022.89</v>
+        <v>2024.82</v>
       </c>
       <c r="E35">
-        <v>2031.8</v>
+        <v>2029.52</v>
       </c>
       <c r="F35">
-        <v>148.8315281</v>
+        <v>90.98976098999999</v>
       </c>
       <c r="G35">
-        <v>302198.5309912298</v>
+        <v>184591.3408272998</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44699.41666666666</v>
+        <v>44704.20833333334</v>
       </c>
       <c r="B36">
-        <v>2033.81</v>
+        <v>2028.17</v>
       </c>
       <c r="C36">
-        <v>2036.69</v>
+        <v>2035.72</v>
       </c>
       <c r="D36">
-        <v>2019.82</v>
+        <v>2024.78</v>
       </c>
       <c r="E36">
-        <v>2032.53</v>
+        <v>2026.39</v>
       </c>
       <c r="F36">
-        <v>145.31089602</v>
+        <v>289.11603254</v>
       </c>
       <c r="G36">
-        <v>295015.7350894478</v>
+        <v>587393.076552904</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44699.45833333334</v>
+        <v>44704.25</v>
       </c>
       <c r="B37">
-        <v>2033.83</v>
+        <v>2026.39</v>
       </c>
       <c r="C37">
-        <v>2047.31</v>
+        <v>2042.85</v>
       </c>
       <c r="D37">
-        <v>2033.83</v>
+        <v>2024.53</v>
       </c>
       <c r="E37">
-        <v>2038.99</v>
+        <v>2041.09</v>
       </c>
       <c r="F37">
-        <v>438.50239626</v>
+        <v>164.27900908</v>
       </c>
       <c r="G37">
-        <v>893618.8824572028</v>
+        <v>334137.8354793978</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44699.5</v>
+        <v>44704.29166666666</v>
       </c>
       <c r="B38">
-        <v>2039.42</v>
+        <v>2041.04</v>
       </c>
       <c r="C38">
-        <v>2040.59</v>
+        <v>2059.39</v>
       </c>
       <c r="D38">
-        <v>2022.3</v>
+        <v>2037.52</v>
       </c>
       <c r="E38">
-        <v>2029.15</v>
+        <v>2056.05</v>
       </c>
       <c r="F38">
-        <v>154.94688199</v>
+        <v>673.16480629</v>
       </c>
       <c r="G38">
-        <v>314119.5779021858</v>
+        <v>1377581.932872094</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44699.54166666666</v>
+        <v>44704.33333333334</v>
       </c>
       <c r="B39">
-        <v>2029.98</v>
+        <v>2056.1</v>
       </c>
       <c r="C39">
-        <v>2033.02</v>
+        <v>2078.94</v>
       </c>
       <c r="D39">
-        <v>1990</v>
+        <v>2047.49</v>
       </c>
       <c r="E39">
-        <v>1995.05</v>
+        <v>2064.98</v>
       </c>
       <c r="F39">
-        <v>686.47018412</v>
+        <v>732.5664458799999</v>
       </c>
       <c r="G39">
-        <v>1380087.675636152</v>
+        <v>1509623.87649903</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44699.58333333334</v>
+        <v>44704.375</v>
       </c>
       <c r="B40">
-        <v>1994.29</v>
+        <v>2065.39</v>
       </c>
       <c r="C40">
-        <v>2002.15</v>
+        <v>2071.64</v>
       </c>
       <c r="D40">
-        <v>1980</v>
+        <v>2050</v>
       </c>
       <c r="E40">
-        <v>1984.06</v>
+        <v>2054.12</v>
       </c>
       <c r="F40">
-        <v>1306.2824885</v>
+        <v>375.71708528</v>
       </c>
       <c r="G40">
-        <v>2599446.403966006</v>
+        <v>772974.6799828726</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44699.625</v>
+        <v>44704.41666666666</v>
       </c>
       <c r="B41">
-        <v>1985.38</v>
+        <v>2054.25</v>
       </c>
       <c r="C41">
-        <v>1997.16</v>
+        <v>2068.99</v>
       </c>
       <c r="D41">
-        <v>1963.46</v>
+        <v>2050.47</v>
       </c>
       <c r="E41">
-        <v>1974.28</v>
+        <v>2065.76</v>
       </c>
       <c r="F41">
-        <v>1030.73366685</v>
+        <v>213.31278176</v>
       </c>
       <c r="G41">
-        <v>2039343.030712796</v>
+        <v>439125.033134501</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44699.66666666666</v>
+        <v>44704.45833333334</v>
       </c>
       <c r="B42">
-        <v>1973.07</v>
+        <v>2066.47</v>
       </c>
       <c r="C42">
-        <v>1974.56</v>
+        <v>2074.22</v>
       </c>
       <c r="D42">
-        <v>1940.63</v>
+        <v>2063.61</v>
       </c>
       <c r="E42">
-        <v>1950.98</v>
+        <v>2071.97</v>
       </c>
       <c r="F42">
-        <v>2867.90837218</v>
+        <v>267.72022753</v>
       </c>
       <c r="G42">
-        <v>5613089.736777773</v>
+        <v>553728.4002776247</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44699.70833333334</v>
+        <v>44704.5</v>
       </c>
       <c r="B43">
-        <v>1953.01</v>
+        <v>2071.16</v>
       </c>
       <c r="C43">
-        <v>1976.48</v>
+        <v>2083.4</v>
       </c>
       <c r="D43">
-        <v>1933.95</v>
+        <v>2064.48</v>
       </c>
       <c r="E43">
-        <v>1974.26</v>
+        <v>2067.05</v>
       </c>
       <c r="F43">
-        <v>570.37033159</v>
+        <v>272.21856496</v>
       </c>
       <c r="G43">
-        <v>1113220.559359131</v>
+        <v>563793.2250948694</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44699.75</v>
+        <v>44704.54166666666</v>
       </c>
       <c r="B44">
-        <v>1974.62</v>
+        <v>2067.82</v>
       </c>
       <c r="C44">
-        <v>1974.62</v>
+        <v>2085</v>
       </c>
       <c r="D44">
-        <v>1952.86</v>
+        <v>2061.81</v>
       </c>
       <c r="E44">
-        <v>1956.06</v>
+        <v>2063.71</v>
       </c>
       <c r="F44">
-        <v>273.98736577</v>
+        <v>1698.68797129</v>
       </c>
       <c r="G44">
-        <v>537912.7235301737</v>
+        <v>3532018.333014741</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44699.79166666666</v>
+        <v>44704.58333333334</v>
       </c>
       <c r="B45">
-        <v>1955.87</v>
+        <v>2064.21</v>
       </c>
       <c r="C45">
-        <v>1970.95</v>
+        <v>2076.39</v>
       </c>
       <c r="D45">
-        <v>1947.37</v>
+        <v>2043.12</v>
       </c>
       <c r="E45">
-        <v>1967.63</v>
+        <v>2055.61</v>
       </c>
       <c r="F45">
-        <v>422.02766852</v>
+        <v>390.17073174</v>
       </c>
       <c r="G45">
-        <v>826816.1847343812</v>
+        <v>805724.5827611514</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44699.83333333334</v>
+        <v>44704.625</v>
       </c>
       <c r="B46">
-        <v>1969.8</v>
+        <v>2055.38</v>
       </c>
       <c r="C46">
-        <v>1991.85</v>
+        <v>2064.36</v>
       </c>
       <c r="D46">
-        <v>1967.42</v>
+        <v>2035.62</v>
       </c>
       <c r="E46">
-        <v>1979.09</v>
+        <v>2055.76</v>
       </c>
       <c r="F46">
-        <v>620.6002991399999</v>
+        <v>571.28387962</v>
       </c>
       <c r="G46">
-        <v>1227458.642782113</v>
+        <v>1170307.086414912</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44699.875</v>
+        <v>44704.66666666666</v>
       </c>
       <c r="B47">
-        <v>1979.05</v>
+        <v>2057.03</v>
       </c>
       <c r="C47">
-        <v>1979.05</v>
+        <v>2073.28</v>
       </c>
       <c r="D47">
-        <v>1943.8</v>
+        <v>2054</v>
       </c>
       <c r="E47">
-        <v>1964.94</v>
+        <v>2065</v>
       </c>
       <c r="F47">
-        <v>1288.23639983</v>
+        <v>285.78871544</v>
       </c>
       <c r="G47">
-        <v>2524796.450894242</v>
+        <v>590857.339612317</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44699.91666666666</v>
+        <v>44704.70833333334</v>
       </c>
       <c r="B48">
-        <v>1964.94</v>
+        <v>2063.92</v>
       </c>
       <c r="C48">
-        <v>1972.26</v>
+        <v>2076.43</v>
       </c>
       <c r="D48">
-        <v>1951.64</v>
+        <v>2050.84</v>
       </c>
       <c r="E48">
-        <v>1961.14</v>
+        <v>2055.84</v>
       </c>
       <c r="F48">
-        <v>115.53535756</v>
+        <v>205.15140632</v>
       </c>
       <c r="G48">
-        <v>226607.5542337506</v>
+        <v>423817.3723047004</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44699.95833333334</v>
+        <v>44704.75</v>
       </c>
       <c r="B49">
-        <v>1961.67</v>
+        <v>2056.61</v>
       </c>
       <c r="C49">
-        <v>1971.02</v>
+        <v>2057.14</v>
       </c>
       <c r="D49">
-        <v>1939.71</v>
+        <v>2043.73</v>
       </c>
       <c r="E49">
-        <v>1945.19</v>
+        <v>2048.61</v>
       </c>
       <c r="F49">
-        <v>416.75823766</v>
+        <v>281.47051633</v>
       </c>
       <c r="G49">
-        <v>815768.4252815979</v>
+        <v>576511.4885418321</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44700</v>
+        <v>44704.79166666666</v>
       </c>
       <c r="B50">
-        <v>1946.07</v>
+        <v>2048.59</v>
       </c>
       <c r="C50">
-        <v>1956.79</v>
+        <v>2056.24</v>
       </c>
       <c r="D50">
-        <v>1906.73</v>
+        <v>2024.81</v>
       </c>
       <c r="E50">
-        <v>1911.22</v>
+        <v>2029.77</v>
       </c>
       <c r="F50">
-        <v>465.85025186</v>
+        <v>190.2884641</v>
       </c>
       <c r="G50">
-        <v>895615.9816091338</v>
+        <v>388539.9419729743</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44700.04166666666</v>
+        <v>44704.83333333334</v>
       </c>
       <c r="B51">
-        <v>1912.77</v>
+        <v>2029.87</v>
       </c>
       <c r="C51">
-        <v>1943.18</v>
+        <v>2029.87</v>
       </c>
       <c r="D51">
-        <v>1906.38</v>
+        <v>1975.47</v>
       </c>
       <c r="E51">
-        <v>1930.25</v>
+        <v>1977.76</v>
       </c>
       <c r="F51">
-        <v>341.53595245</v>
+        <v>4926.64152052</v>
       </c>
       <c r="G51">
-        <v>658320.0422779907</v>
+        <v>9795984.338610943</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44700.08333333334</v>
+        <v>44704.875</v>
       </c>
       <c r="B52">
-        <v>1928.95</v>
+        <v>1976.91</v>
       </c>
       <c r="C52">
-        <v>1943.01</v>
+        <v>2001.6</v>
       </c>
       <c r="D52">
-        <v>1902</v>
+        <v>1974.13</v>
       </c>
       <c r="E52">
-        <v>1907.31</v>
+        <v>1997.71</v>
       </c>
       <c r="F52">
-        <v>149.02898378</v>
+        <v>394.81204113</v>
       </c>
       <c r="G52">
-        <v>287434.2145737859</v>
+        <v>785932.9777116658</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44700.125</v>
+        <v>44704.91666666666</v>
       </c>
       <c r="B53">
-        <v>1908.54</v>
+        <v>1996.9</v>
       </c>
       <c r="C53">
-        <v>1951.25</v>
+        <v>2002.07</v>
       </c>
       <c r="D53">
-        <v>1901.17</v>
+        <v>1991.6</v>
       </c>
       <c r="E53">
-        <v>1943.1</v>
+        <v>1992.32</v>
       </c>
       <c r="F53">
-        <v>542.41341929</v>
+        <v>115.58539335</v>
       </c>
       <c r="G53">
-        <v>1039836.886926745</v>
+        <v>230854.5132585929</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44700.16666666666</v>
+        <v>44704.95833333334</v>
       </c>
       <c r="B54">
-        <v>1943.1</v>
+        <v>1990.97</v>
       </c>
       <c r="C54">
-        <v>1965.88</v>
+        <v>1990.97</v>
       </c>
       <c r="D54">
-        <v>1940.98</v>
+        <v>1956.77</v>
       </c>
       <c r="E54">
-        <v>1951.9</v>
+        <v>1977.08</v>
       </c>
       <c r="F54">
-        <v>468.58801894</v>
+        <v>216.38955418</v>
       </c>
       <c r="G54">
-        <v>915983.0007038327</v>
+        <v>427512.7429299384</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44700.20833333334</v>
+        <v>44705</v>
       </c>
       <c r="B55">
-        <v>1952.72</v>
+        <v>1975.91</v>
       </c>
       <c r="C55">
-        <v>1965.37</v>
+        <v>1975.91</v>
       </c>
       <c r="D55">
-        <v>1944.89</v>
+        <v>1956.04</v>
       </c>
       <c r="E55">
-        <v>1946.26</v>
+        <v>1971.35</v>
       </c>
       <c r="F55">
-        <v>156.05321667</v>
+        <v>96.36293261</v>
       </c>
       <c r="G55">
-        <v>304979.8343581801</v>
+        <v>189829.8104065385</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44700.25</v>
+        <v>44705.04166666666</v>
       </c>
       <c r="B56">
-        <v>1946.76</v>
+        <v>1972.87</v>
       </c>
       <c r="C56">
-        <v>1954.48</v>
+        <v>1985.71</v>
       </c>
       <c r="D56">
-        <v>1941.91</v>
+        <v>1967.89</v>
       </c>
       <c r="E56">
-        <v>1944.84</v>
+        <v>1979.01</v>
       </c>
       <c r="F56">
-        <v>297.55332162</v>
+        <v>72.43994114</v>
       </c>
       <c r="G56">
-        <v>578804.3222167889</v>
+        <v>143360.8507541773</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44700.29166666666</v>
+        <v>44705.08333333334</v>
       </c>
       <c r="B57">
-        <v>1946.77</v>
+        <v>1979.1</v>
       </c>
       <c r="C57">
-        <v>1970.39</v>
+        <v>1986.45</v>
       </c>
       <c r="D57">
-        <v>1944.8</v>
+        <v>1973.68</v>
       </c>
       <c r="E57">
-        <v>1963.89</v>
+        <v>1983.87</v>
       </c>
       <c r="F57">
-        <v>219.93802728</v>
+        <v>145.15886615</v>
       </c>
       <c r="G57">
-        <v>430838.4905701445</v>
+        <v>287520.5789557622</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44700.33333333334</v>
+        <v>44705.125</v>
       </c>
       <c r="B58">
-        <v>1964.7</v>
+        <v>1985.05</v>
       </c>
       <c r="C58">
-        <v>1966.9</v>
+        <v>1988.04</v>
       </c>
       <c r="D58">
-        <v>1936.41</v>
+        <v>1980.13</v>
       </c>
       <c r="E58">
-        <v>1950.95</v>
+        <v>1983.46</v>
       </c>
       <c r="F58">
-        <v>580.0181972300001</v>
+        <v>118.94042725</v>
       </c>
       <c r="G58">
-        <v>1131976.079174027</v>
+        <v>235905.546492192</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44700.375</v>
+        <v>44705.16666666666</v>
       </c>
       <c r="B59">
-        <v>1951.14</v>
+        <v>1983.58</v>
       </c>
       <c r="C59">
-        <v>1955.98</v>
+        <v>1989.31</v>
       </c>
       <c r="D59">
-        <v>1930.25</v>
+        <v>1981.77</v>
       </c>
       <c r="E59">
-        <v>1930.25</v>
+        <v>1985.61</v>
       </c>
       <c r="F59">
-        <v>512.01431424</v>
+        <v>77.01366992</v>
       </c>
       <c r="G59">
-        <v>994581.2116409192</v>
+        <v>152971.6085162816</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44700.41666666666</v>
+        <v>44705.20833333334</v>
       </c>
       <c r="B60">
-        <v>1930.01</v>
+        <v>1986.79</v>
       </c>
       <c r="C60">
-        <v>1937.29</v>
+        <v>1991.58</v>
       </c>
       <c r="D60">
-        <v>1912.26</v>
+        <v>1981.68</v>
       </c>
       <c r="E60">
-        <v>1925.25</v>
+        <v>1985.67</v>
       </c>
       <c r="F60">
-        <v>390.04072299</v>
+        <v>171.33846013</v>
       </c>
       <c r="G60">
-        <v>751102.5379809455</v>
+        <v>340518.1311766713</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44700.45833333334</v>
+        <v>44705.25</v>
       </c>
       <c r="B61">
-        <v>1926.8</v>
+        <v>1985.92</v>
       </c>
       <c r="C61">
-        <v>1943.05</v>
+        <v>1987.5</v>
       </c>
       <c r="D61">
-        <v>1918.11</v>
+        <v>1978.17</v>
       </c>
       <c r="E61">
-        <v>1938.37</v>
+        <v>1980.95</v>
       </c>
       <c r="F61">
-        <v>527.92506757</v>
+        <v>159.38486541</v>
       </c>
       <c r="G61">
-        <v>1019192.940745787</v>
+        <v>315833.8971810859</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44700.5</v>
+        <v>44705.29166666666</v>
       </c>
       <c r="B62">
-        <v>1938.21</v>
+        <v>1981.15</v>
       </c>
       <c r="C62">
-        <v>1966.59</v>
+        <v>1985.92</v>
       </c>
       <c r="D62">
-        <v>1929.04</v>
+        <v>1973.17</v>
       </c>
       <c r="E62">
-        <v>1964.14</v>
+        <v>1978.41</v>
       </c>
       <c r="F62">
-        <v>1022.07764357</v>
+        <v>288.45250643</v>
       </c>
       <c r="G62">
-        <v>1984291.455225789</v>
+        <v>571785.8962475002</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44700.54166666666</v>
+        <v>44705.33333333334</v>
       </c>
       <c r="B63">
-        <v>1964.64</v>
+        <v>1978.41</v>
       </c>
       <c r="C63">
-        <v>1964.64</v>
+        <v>1985.11</v>
       </c>
       <c r="D63">
-        <v>1948.17</v>
+        <v>1973.12</v>
       </c>
       <c r="E63">
-        <v>1951.02</v>
+        <v>1982.77</v>
       </c>
       <c r="F63">
-        <v>530.41670973</v>
+        <v>518.67879457</v>
       </c>
       <c r="G63">
-        <v>1037226.52355112</v>
+        <v>1026161.383255775</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44700.58333333334</v>
+        <v>44705.375</v>
       </c>
       <c r="B64">
-        <v>1952.42</v>
+        <v>1982.52</v>
       </c>
       <c r="C64">
-        <v>1987.85</v>
+        <v>1982.57</v>
       </c>
       <c r="D64">
-        <v>1941.62</v>
+        <v>1959.77</v>
       </c>
       <c r="E64">
-        <v>1958.33</v>
+        <v>1961.26</v>
       </c>
       <c r="F64">
-        <v>1431.36821572</v>
+        <v>151.31799764</v>
       </c>
       <c r="G64">
-        <v>2815397.477420014</v>
+        <v>298368.6122451582</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44700.625</v>
+        <v>44705.41666666666</v>
       </c>
       <c r="B65">
-        <v>1958.08</v>
+        <v>1962.84</v>
       </c>
       <c r="C65">
-        <v>1986.31</v>
+        <v>1972.01</v>
       </c>
       <c r="D65">
-        <v>1958.08</v>
+        <v>1948.7</v>
       </c>
       <c r="E65">
-        <v>1977.49</v>
+        <v>1969.97</v>
       </c>
       <c r="F65">
-        <v>645.17614912</v>
+        <v>192.98912033</v>
       </c>
       <c r="G65">
-        <v>1273126.31335716</v>
+        <v>377874.7464342655</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44700.66666666666</v>
+        <v>44705.45833333334</v>
       </c>
       <c r="B66">
-        <v>1979.05</v>
+        <v>1969.88</v>
       </c>
       <c r="C66">
-        <v>2037.78</v>
+        <v>1974.69</v>
       </c>
       <c r="D66">
-        <v>1972.96</v>
+        <v>1966.91</v>
       </c>
       <c r="E66">
-        <v>2020.94</v>
+        <v>1974.69</v>
       </c>
       <c r="F66">
-        <v>1343.63721829</v>
+        <v>129.70753286</v>
       </c>
       <c r="G66">
-        <v>2702961.017836087</v>
+        <v>255710.4647634472</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44700.70833333334</v>
+        <v>44705.5</v>
       </c>
       <c r="B67">
-        <v>2022.28</v>
+        <v>1974.6</v>
       </c>
       <c r="C67">
-        <v>2026.27</v>
+        <v>1982.81</v>
       </c>
       <c r="D67">
-        <v>2005.77</v>
+        <v>1958.8</v>
       </c>
       <c r="E67">
-        <v>2009.34</v>
+        <v>1963.71</v>
       </c>
       <c r="F67">
-        <v>1272.46339363</v>
+        <v>484.36820106</v>
       </c>
       <c r="G67">
-        <v>2565578.531726799</v>
+        <v>952011.124865988</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44700.75</v>
+        <v>44705.54166666666</v>
       </c>
       <c r="B68">
-        <v>2011.36</v>
+        <v>1963.57</v>
       </c>
       <c r="C68">
-        <v>2016.03</v>
+        <v>1967.99</v>
       </c>
       <c r="D68">
-        <v>1993.34</v>
+        <v>1951.93</v>
       </c>
       <c r="E68">
-        <v>2014.08</v>
+        <v>1963.26</v>
       </c>
       <c r="F68">
-        <v>566.82859488</v>
+        <v>200.84300631</v>
       </c>
       <c r="G68">
-        <v>1136077.113796502</v>
+        <v>394018.1948498654</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44700.79166666666</v>
+        <v>44705.58333333334</v>
       </c>
       <c r="B69">
-        <v>2014.54</v>
+        <v>1964.57</v>
       </c>
       <c r="C69">
-        <v>2017.82</v>
+        <v>1965.83</v>
       </c>
       <c r="D69">
-        <v>2004.27</v>
+        <v>1924.15</v>
       </c>
       <c r="E69">
-        <v>2012.48</v>
+        <v>1927.08</v>
       </c>
       <c r="F69">
-        <v>677.87650311</v>
+        <v>474.64399324</v>
       </c>
       <c r="G69">
-        <v>1364336.337102883</v>
+        <v>924824.3558196685</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44700.83333333334</v>
+        <v>44705.625</v>
       </c>
       <c r="B70">
-        <v>2013</v>
+        <v>1924.37</v>
       </c>
       <c r="C70">
-        <v>2017.3</v>
+        <v>1940.21</v>
       </c>
       <c r="D70">
-        <v>1988.57</v>
+        <v>1910.8</v>
       </c>
       <c r="E70">
-        <v>1990.62</v>
+        <v>1934.52</v>
       </c>
       <c r="F70">
-        <v>538.18490492</v>
+        <v>444.44733017</v>
       </c>
       <c r="G70">
-        <v>1075066.365948329</v>
+        <v>855418.7602357975</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44700.875</v>
+        <v>44705.66666666666</v>
       </c>
       <c r="B71">
-        <v>1990.5</v>
+        <v>1932.6</v>
       </c>
       <c r="C71">
-        <v>2014.18</v>
+        <v>1972.92</v>
       </c>
       <c r="D71">
-        <v>1988.9</v>
+        <v>1929.22</v>
       </c>
       <c r="E71">
-        <v>2012.82</v>
+        <v>1963.27</v>
       </c>
       <c r="F71">
-        <v>448.05377998</v>
+        <v>1121.46089862</v>
       </c>
       <c r="G71">
-        <v>896396.3166874158</v>
+        <v>2192092.264731682</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44700.91666666666</v>
+        <v>44705.70833333334</v>
       </c>
       <c r="B72">
-        <v>2014.07</v>
+        <v>1961.42</v>
       </c>
       <c r="C72">
-        <v>2025.41</v>
+        <v>1975.57</v>
       </c>
       <c r="D72">
-        <v>2010</v>
+        <v>1948.79</v>
       </c>
       <c r="E72">
-        <v>2011.92</v>
+        <v>1957.13</v>
       </c>
       <c r="F72">
-        <v>222.61253238</v>
+        <v>412.40320961</v>
       </c>
       <c r="G72">
-        <v>448642.1179753043</v>
+        <v>809449.8142367849</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44700.95833333334</v>
+        <v>44705.75</v>
       </c>
       <c r="B73">
-        <v>2011.91</v>
+        <v>1955.94</v>
       </c>
       <c r="C73">
-        <v>2012.65</v>
+        <v>1959.84</v>
       </c>
       <c r="D73">
-        <v>1998.14</v>
+        <v>1934.59</v>
       </c>
       <c r="E73">
-        <v>2004.7</v>
+        <v>1958.41</v>
       </c>
       <c r="F73">
-        <v>258.85898445</v>
+        <v>219.01028761</v>
       </c>
       <c r="G73">
-        <v>519577.3893324323</v>
+        <v>425875.7861773183</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44701</v>
+        <v>44705.79166666666</v>
       </c>
       <c r="B74">
-        <v>2008.23</v>
+        <v>1957.94</v>
       </c>
       <c r="C74">
-        <v>2024.4</v>
+        <v>1969.99</v>
       </c>
       <c r="D74">
-        <v>2005.87</v>
+        <v>1939.53</v>
       </c>
       <c r="E74">
-        <v>2017.85</v>
+        <v>1943.59</v>
       </c>
       <c r="F74">
-        <v>416.81816038</v>
+        <v>337.39726983</v>
       </c>
       <c r="G74">
-        <v>838872.2634212635</v>
+        <v>660312.3559297472</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44701.04166666666</v>
+        <v>44705.83333333334</v>
       </c>
       <c r="B75">
-        <v>2018.14</v>
+        <v>1941.56</v>
       </c>
       <c r="C75">
-        <v>2018.56</v>
+        <v>1968.2</v>
       </c>
       <c r="D75">
-        <v>2004.57</v>
+        <v>1941.52</v>
       </c>
       <c r="E75">
-        <v>2014.4</v>
+        <v>1959.87</v>
       </c>
       <c r="F75">
-        <v>152.31537164</v>
+        <v>212.3322303</v>
       </c>
       <c r="G75">
-        <v>306493.2311401747</v>
+        <v>415690.904398246</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44701.08333333334</v>
+        <v>44705.875</v>
       </c>
       <c r="B76">
-        <v>2012.97</v>
+        <v>1960.49</v>
       </c>
       <c r="C76">
-        <v>2050.58</v>
+        <v>1971.97</v>
       </c>
       <c r="D76">
-        <v>2002.36</v>
+        <v>1950.99</v>
       </c>
       <c r="E76">
-        <v>2034.02</v>
+        <v>1968.04</v>
       </c>
       <c r="F76">
-        <v>464.06862102</v>
+        <v>155.42047479</v>
       </c>
       <c r="G76">
-        <v>943996.2613967914</v>
+        <v>304868.3181804283</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44701.125</v>
+        <v>44705.91666666666</v>
       </c>
       <c r="B77">
-        <v>2034.02</v>
+        <v>1969.02</v>
       </c>
       <c r="C77">
-        <v>2035.86</v>
+        <v>1983.47</v>
       </c>
       <c r="D77">
-        <v>2015.21</v>
+        <v>1968.58</v>
       </c>
       <c r="E77">
-        <v>2027.66</v>
+        <v>1982.52</v>
       </c>
       <c r="F77">
-        <v>372.846523</v>
+        <v>519.31459774</v>
       </c>
       <c r="G77">
-        <v>753503.122566979</v>
+        <v>1024970.198730378</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44701.16666666666</v>
+        <v>44705.95833333334</v>
       </c>
       <c r="B78">
-        <v>2027.22</v>
+        <v>1982.52</v>
       </c>
       <c r="C78">
-        <v>2030.19</v>
+        <v>1986.57</v>
       </c>
       <c r="D78">
-        <v>2018.43</v>
+        <v>1977.37</v>
       </c>
       <c r="E78">
-        <v>2021.89</v>
+        <v>1981.67</v>
       </c>
       <c r="F78">
-        <v>88.87748495</v>
+        <v>85.64636867999999</v>
       </c>
       <c r="G78">
-        <v>179716.2371486316</v>
+        <v>169759.9045655717</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44701.20833333334</v>
+        <v>44706</v>
       </c>
       <c r="B79">
-        <v>2021.22</v>
+        <v>1982.49</v>
       </c>
       <c r="C79">
-        <v>2032.25</v>
+        <v>1989.51</v>
       </c>
       <c r="D79">
-        <v>2011.23</v>
+        <v>1973.98</v>
       </c>
       <c r="E79">
-        <v>2018.09</v>
+        <v>1978.13</v>
       </c>
       <c r="F79">
-        <v>273.1778403</v>
+        <v>382.92806318</v>
       </c>
       <c r="G79">
-        <v>552498.6373333425</v>
+        <v>759039.742057292</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44701.25</v>
+        <v>44706.04166666666</v>
       </c>
       <c r="B80">
-        <v>2016.62</v>
+        <v>1976.38</v>
       </c>
       <c r="C80">
-        <v>2026.14</v>
+        <v>1982.65</v>
       </c>
       <c r="D80">
-        <v>2012.66</v>
+        <v>1970.23</v>
       </c>
       <c r="E80">
-        <v>2025.27</v>
+        <v>1973.27</v>
       </c>
       <c r="F80">
-        <v>85.89465692</v>
+        <v>117.74056478</v>
       </c>
       <c r="G80">
-        <v>173293.0020783859</v>
+        <v>232573.0897750081</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44701.29166666666</v>
+        <v>44706.08333333334</v>
       </c>
       <c r="B81">
-        <v>2023.96</v>
+        <v>1972.15</v>
       </c>
       <c r="C81">
-        <v>2026.29</v>
+        <v>1986.04</v>
       </c>
       <c r="D81">
-        <v>2000.07</v>
+        <v>1968.34</v>
       </c>
       <c r="E81">
-        <v>2013.43</v>
+        <v>1986.04</v>
       </c>
       <c r="F81">
-        <v>250.51397909</v>
+        <v>116.62671306</v>
       </c>
       <c r="G81">
-        <v>502746.5922805439</v>
+        <v>230563.5834457862</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44701.33333333334</v>
+        <v>44706.125</v>
       </c>
       <c r="B82">
-        <v>2011.87</v>
+        <v>1985.28</v>
       </c>
       <c r="C82">
-        <v>2031.14</v>
+        <v>2016.64</v>
       </c>
       <c r="D82">
-        <v>2008.39</v>
+        <v>1977.79</v>
       </c>
       <c r="E82">
-        <v>2024.68</v>
+        <v>2012.18</v>
       </c>
       <c r="F82">
-        <v>360.94234894</v>
+        <v>382.48154352</v>
       </c>
       <c r="G82">
-        <v>729487.7517126547</v>
+        <v>764213.6597695216</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44701.375</v>
+        <v>44706.16666666666</v>
       </c>
       <c r="B83">
-        <v>2024.22</v>
+        <v>2014.15</v>
       </c>
       <c r="C83">
-        <v>2035.27</v>
+        <v>2019.63</v>
       </c>
       <c r="D83">
-        <v>2019.67</v>
+        <v>2006.47</v>
       </c>
       <c r="E83">
-        <v>2026.5</v>
+        <v>2011</v>
       </c>
       <c r="F83">
-        <v>297.44144498</v>
+        <v>131.73412015</v>
       </c>
       <c r="G83">
-        <v>603466.1995427525</v>
+        <v>265230.6590855705</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44701.41666666666</v>
+        <v>44706.20833333334</v>
       </c>
       <c r="B84">
-        <v>2025.5</v>
+        <v>2012.55</v>
       </c>
       <c r="C84">
-        <v>2042.21</v>
+        <v>2012.55</v>
       </c>
       <c r="D84">
-        <v>2021.27</v>
+        <v>2000.14</v>
       </c>
       <c r="E84">
-        <v>2037.5</v>
+        <v>2002.27</v>
       </c>
       <c r="F84">
-        <v>150.27078152</v>
+        <v>117.61937203</v>
       </c>
       <c r="G84">
-        <v>305389.3607508992</v>
+        <v>235759.7224419565</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44701.45833333334</v>
+        <v>44706.25</v>
       </c>
       <c r="B85">
-        <v>2038.85</v>
+        <v>2003.05</v>
       </c>
       <c r="C85">
-        <v>2046.23</v>
+        <v>2010.05</v>
       </c>
       <c r="D85">
-        <v>2034.04</v>
+        <v>1983.93</v>
       </c>
       <c r="E85">
-        <v>2046.23</v>
+        <v>1984.96</v>
       </c>
       <c r="F85">
-        <v>638.7747263700001</v>
+        <v>73.39272877000001</v>
       </c>
       <c r="G85">
-        <v>1302762.366636501</v>
+        <v>146544.2788306855</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44701.5</v>
+        <v>44706.29166666666</v>
       </c>
       <c r="B86">
-        <v>2046.07</v>
+        <v>1985.32</v>
       </c>
       <c r="C86">
-        <v>2062.65</v>
+        <v>1987.11</v>
       </c>
       <c r="D86">
-        <v>2036.6</v>
+        <v>1971.39</v>
       </c>
       <c r="E86">
-        <v>2052.23</v>
+        <v>1981.91</v>
       </c>
       <c r="F86">
-        <v>299.61832853</v>
+        <v>82.20087887</v>
       </c>
       <c r="G86">
-        <v>614495.3754329581</v>
+        <v>162697.2265129159</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44701.54166666666</v>
+        <v>44706.33333333334</v>
       </c>
       <c r="B87">
-        <v>2052.02</v>
+        <v>1982.3</v>
       </c>
       <c r="C87">
-        <v>2055.61</v>
+        <v>1984.42</v>
       </c>
       <c r="D87">
-        <v>2022.4</v>
+        <v>1972.83</v>
       </c>
       <c r="E87">
-        <v>2035.39</v>
+        <v>1973.71</v>
       </c>
       <c r="F87">
-        <v>232.83949732</v>
+        <v>434.61519086</v>
       </c>
       <c r="G87">
-        <v>474464.2472007642</v>
+        <v>859610.4510677954</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44701.58333333334</v>
+        <v>44706.375</v>
       </c>
       <c r="B88">
-        <v>2037.65</v>
+        <v>1975.23</v>
       </c>
       <c r="C88">
-        <v>2052.16</v>
+        <v>1979.05</v>
       </c>
       <c r="D88">
-        <v>2028.1</v>
+        <v>1959.51</v>
       </c>
       <c r="E88">
-        <v>2043.94</v>
+        <v>1974.26</v>
       </c>
       <c r="F88">
-        <v>1445.19498049</v>
+        <v>312.95653853</v>
       </c>
       <c r="G88">
-        <v>2948554.263461674</v>
+        <v>616118.8607766757</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44701.625</v>
+        <v>44706.41666666666</v>
       </c>
       <c r="B89">
-        <v>2042.68</v>
+        <v>1974.16</v>
       </c>
       <c r="C89">
-        <v>2042.68</v>
+        <v>1978.78</v>
       </c>
       <c r="D89">
-        <v>1979.4</v>
+        <v>1963.02</v>
       </c>
       <c r="E89">
-        <v>1983.82</v>
+        <v>1972.91</v>
       </c>
       <c r="F89">
-        <v>572.44458299</v>
+        <v>195.67974324</v>
       </c>
       <c r="G89">
-        <v>1150218.701122094</v>
+        <v>385466.2404781287</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44701.66666666666</v>
+        <v>44706.45833333334</v>
       </c>
       <c r="B90">
-        <v>1982.35</v>
+        <v>1973.56</v>
       </c>
       <c r="C90">
-        <v>1984.45</v>
+        <v>1976.39</v>
       </c>
       <c r="D90">
-        <v>1949.82</v>
+        <v>1960</v>
       </c>
       <c r="E90">
-        <v>1958.18</v>
+        <v>1961.51</v>
       </c>
       <c r="F90">
-        <v>895.2704553900001</v>
+        <v>176.31726589</v>
       </c>
       <c r="G90">
-        <v>1757731.659691359</v>
+        <v>346839.1444683618</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44701.70833333334</v>
+        <v>44706.5</v>
       </c>
       <c r="B91">
-        <v>1958.85</v>
+        <v>1960.44</v>
       </c>
       <c r="C91">
-        <v>1960.19</v>
+        <v>1964.33</v>
       </c>
       <c r="D91">
-        <v>1921.06</v>
+        <v>1940.3</v>
       </c>
       <c r="E91">
-        <v>1932.47</v>
+        <v>1941.65</v>
       </c>
       <c r="F91">
-        <v>1030.28383961</v>
+        <v>168.49158815</v>
       </c>
       <c r="G91">
-        <v>1993064.058534965</v>
+        <v>328289.6447664417</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44701.75</v>
+        <v>44706.54166666666</v>
       </c>
       <c r="B92">
-        <v>1931.8</v>
+        <v>1940.96</v>
       </c>
       <c r="C92">
-        <v>1941.56</v>
+        <v>1957.03</v>
       </c>
       <c r="D92">
-        <v>1923.19</v>
+        <v>1932.03</v>
       </c>
       <c r="E92">
-        <v>1935.98</v>
+        <v>1955.76</v>
       </c>
       <c r="F92">
-        <v>495.27146597</v>
+        <v>342.64154657</v>
       </c>
       <c r="G92">
-        <v>957543.9221975759</v>
+        <v>666015.1575521983</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44701.79166666666</v>
+        <v>44706.58333333334</v>
       </c>
       <c r="B93">
-        <v>1935.56</v>
+        <v>1955.13</v>
       </c>
       <c r="C93">
-        <v>1944.98</v>
+        <v>1982.03</v>
       </c>
       <c r="D93">
-        <v>1920.93</v>
+        <v>1949.11</v>
       </c>
       <c r="E93">
-        <v>1938.64</v>
+        <v>1971.38</v>
       </c>
       <c r="F93">
-        <v>597.67040597</v>
+        <v>1003.6726587</v>
       </c>
       <c r="G93">
-        <v>1153542.741481123</v>
+        <v>1967374.24447674</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44701.83333333334</v>
+        <v>44706.625</v>
       </c>
       <c r="B94">
-        <v>1937.95</v>
+        <v>1970.32</v>
       </c>
       <c r="C94">
-        <v>1969.79</v>
+        <v>1982.23</v>
       </c>
       <c r="D94">
-        <v>1934.51</v>
+        <v>1961.7</v>
       </c>
       <c r="E94">
-        <v>1966.23</v>
+        <v>1969.06</v>
       </c>
       <c r="F94">
-        <v>826.72257319</v>
+        <v>269.06155716</v>
       </c>
       <c r="G94">
-        <v>1611985.177450224</v>
+        <v>530951.1405547496</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44701.875</v>
+        <v>44706.66666666666</v>
       </c>
       <c r="B95">
-        <v>1966.62</v>
+        <v>1969.05</v>
       </c>
       <c r="C95">
-        <v>1973.02</v>
+        <v>1973.88</v>
       </c>
       <c r="D95">
-        <v>1956.15</v>
+        <v>1954.18</v>
       </c>
       <c r="E95">
-        <v>1957.77</v>
+        <v>1963.11</v>
       </c>
       <c r="F95">
-        <v>282.84804114</v>
+        <v>374.52905092</v>
       </c>
       <c r="G95">
-        <v>555398.1539745829</v>
+        <v>735178.6546622242</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44701.91666666666</v>
+        <v>44706.70833333334</v>
       </c>
       <c r="B96">
-        <v>1957.47</v>
+        <v>1961.1</v>
       </c>
       <c r="C96">
-        <v>1970.93</v>
+        <v>1964.53</v>
       </c>
       <c r="D96">
-        <v>1957.4</v>
+        <v>1942.55</v>
       </c>
       <c r="E96">
-        <v>1958.84</v>
+        <v>1953.14</v>
       </c>
       <c r="F96">
-        <v>231.31939877</v>
+        <v>660.7020940899999</v>
       </c>
       <c r="G96">
-        <v>453954.7555157941</v>
+        <v>1286616.007389247</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44701.95833333334</v>
+        <v>44706.75</v>
       </c>
       <c r="B97">
-        <v>1958.15</v>
+        <v>1951.93</v>
       </c>
       <c r="C97">
-        <v>1968.73</v>
+        <v>1964.99</v>
       </c>
       <c r="D97">
-        <v>1949.95</v>
+        <v>1951.59</v>
       </c>
       <c r="E97">
-        <v>1951.15</v>
+        <v>1962.1</v>
       </c>
       <c r="F97">
-        <v>253.5790424</v>
+        <v>140.61771437</v>
       </c>
       <c r="G97">
-        <v>496118.8809536112</v>
+        <v>274943.6093486267</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44702</v>
+        <v>44706.79166666666</v>
       </c>
       <c r="B98">
-        <v>1952.75</v>
+        <v>1961.01</v>
       </c>
       <c r="C98">
-        <v>1975.94</v>
+        <v>1980.71</v>
       </c>
       <c r="D98">
-        <v>1951.76</v>
+        <v>1948.45</v>
       </c>
       <c r="E98">
-        <v>1957.09</v>
+        <v>1973.57</v>
       </c>
       <c r="F98">
-        <v>254.23311698</v>
+        <v>444.73020637</v>
       </c>
       <c r="G98">
-        <v>499242.5659726636</v>
+        <v>876200.2178777436</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44702.04166666666</v>
+        <v>44706.83333333334</v>
       </c>
       <c r="B99">
-        <v>1956.99</v>
+        <v>1973.57</v>
       </c>
       <c r="C99">
-        <v>1972.33</v>
+        <v>1978.03</v>
       </c>
       <c r="D99">
-        <v>1954.6</v>
+        <v>1948.17</v>
       </c>
       <c r="E99">
-        <v>1962.12</v>
+        <v>1949.26</v>
       </c>
       <c r="F99">
-        <v>235.30515163</v>
+        <v>503.98909447</v>
       </c>
       <c r="G99">
-        <v>462137.5691122691</v>
+        <v>988275.6109150368</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44702.08333333334</v>
+        <v>44706.875</v>
       </c>
       <c r="B100">
-        <v>1962.12</v>
+        <v>1948.2</v>
       </c>
       <c r="C100">
-        <v>1963.37</v>
+        <v>1961.04</v>
       </c>
       <c r="D100">
-        <v>1935.26</v>
+        <v>1946.91</v>
       </c>
       <c r="E100">
-        <v>1948.7</v>
+        <v>1958.71</v>
       </c>
       <c r="F100">
-        <v>129.05432449</v>
+        <v>212.60917488</v>
       </c>
       <c r="G100">
-        <v>251492.7534458456</v>
+        <v>415507.1354481902</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44702.125</v>
+        <v>44706.91666666666</v>
       </c>
       <c r="B101">
-        <v>1952.33</v>
+        <v>1958.34</v>
       </c>
       <c r="C101">
-        <v>1960.88</v>
+        <v>1967.6</v>
       </c>
       <c r="D101">
-        <v>1941.91</v>
+        <v>1949.97</v>
       </c>
       <c r="E101">
-        <v>1956.85</v>
+        <v>1966.26</v>
       </c>
       <c r="F101">
-        <v>81.16274389</v>
+        <v>1506.98566504</v>
       </c>
       <c r="G101">
-        <v>158413.0770210586</v>
+        <v>2944557.762209178</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44702.16666666666</v>
+        <v>44706.95833333334</v>
       </c>
       <c r="B102">
-        <v>1958.02</v>
+        <v>1966.41</v>
       </c>
       <c r="C102">
-        <v>1967.55</v>
+        <v>1970.2</v>
       </c>
       <c r="D102">
-        <v>1948.08</v>
+        <v>1957.65</v>
       </c>
       <c r="E102">
-        <v>1966.45</v>
+        <v>1963.69</v>
       </c>
       <c r="F102">
-        <v>129.03552998</v>
+        <v>78.87571354000001</v>
       </c>
       <c r="G102">
-        <v>252408.8709611666</v>
+        <v>154813.5877435891</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44702.20833333334</v>
+        <v>44707</v>
       </c>
       <c r="B103">
-        <v>1967.8</v>
+        <v>1963.69</v>
       </c>
       <c r="C103">
-        <v>1968.04</v>
+        <v>1963.7</v>
       </c>
       <c r="D103">
-        <v>1959.64</v>
+        <v>1938.44</v>
       </c>
       <c r="E103">
-        <v>1963.43</v>
+        <v>1941.5</v>
       </c>
       <c r="F103">
-        <v>125.40215272</v>
+        <v>276.8533261</v>
       </c>
       <c r="G103">
-        <v>246242.1377553329</v>
+        <v>540094.5932337755</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44702.25</v>
+        <v>44707.04166666666</v>
       </c>
       <c r="B104">
-        <v>1963.43</v>
+        <v>1941.11</v>
       </c>
       <c r="C104">
-        <v>1967.69</v>
+        <v>1964.06</v>
       </c>
       <c r="D104">
-        <v>1960.22</v>
+        <v>1939.65</v>
       </c>
       <c r="E104">
-        <v>1965.56</v>
+        <v>1957.09</v>
       </c>
       <c r="F104">
-        <v>86.01218587</v>
+        <v>221.38855814</v>
       </c>
       <c r="G104">
-        <v>168913.5820877846</v>
+        <v>432946.2309086305</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44702.29166666666</v>
+        <v>44707.08333333334</v>
       </c>
       <c r="B105">
-        <v>1966.37</v>
+        <v>1958.05</v>
       </c>
       <c r="C105">
-        <v>1971.89</v>
+        <v>1958.5</v>
       </c>
       <c r="D105">
-        <v>1960.58</v>
+        <v>1941.45</v>
       </c>
       <c r="E105">
-        <v>1970.14</v>
+        <v>1942.66</v>
       </c>
       <c r="F105">
-        <v>100.38089291</v>
+        <v>189.6904205</v>
       </c>
       <c r="G105">
-        <v>197304.1189843776</v>
+        <v>369926.380162682</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44702.33333333334</v>
+        <v>44707.125</v>
       </c>
       <c r="B106">
-        <v>1970.14</v>
+        <v>1941.95</v>
       </c>
       <c r="C106">
-        <v>1984.3</v>
+        <v>1955.24</v>
       </c>
       <c r="D106">
-        <v>1962.6</v>
+        <v>1941.71</v>
       </c>
       <c r="E106">
-        <v>1976.61</v>
+        <v>1949.85</v>
       </c>
       <c r="F106">
-        <v>217.10329021</v>
+        <v>165.98359268</v>
       </c>
       <c r="G106">
-        <v>428753.0662494088</v>
+        <v>323573.7587067301</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44702.375</v>
+        <v>44707.16666666666</v>
       </c>
       <c r="B107">
-        <v>1976.43</v>
+        <v>1950.54</v>
       </c>
       <c r="C107">
-        <v>1985.71</v>
+        <v>1951.26</v>
       </c>
       <c r="D107">
-        <v>1974.35</v>
+        <v>1931</v>
       </c>
       <c r="E107">
-        <v>1975.16</v>
+        <v>1946.29</v>
       </c>
       <c r="F107">
-        <v>146.96934754</v>
+        <v>355.12677728</v>
       </c>
       <c r="G107">
-        <v>291054.7124358286</v>
+        <v>689078.7729944467</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44702.41666666666</v>
+        <v>44707.20833333334</v>
       </c>
       <c r="B108">
-        <v>1976.25</v>
+        <v>1946.16</v>
       </c>
       <c r="C108">
-        <v>1976.41</v>
+        <v>1949.39</v>
       </c>
       <c r="D108">
-        <v>1965.05</v>
+        <v>1934.53</v>
       </c>
       <c r="E108">
-        <v>1970.59</v>
+        <v>1936.93</v>
       </c>
       <c r="F108">
-        <v>82.90955243000001</v>
+        <v>414.64322582</v>
       </c>
       <c r="G108">
-        <v>163414.1639624661</v>
+        <v>806550.2968888386</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44702.45833333334</v>
+        <v>44707.25</v>
       </c>
       <c r="B109">
-        <v>1972.4</v>
+        <v>1936.49</v>
       </c>
       <c r="C109">
-        <v>1976.89</v>
+        <v>1943.68</v>
       </c>
       <c r="D109">
-        <v>1963.33</v>
+        <v>1919.61</v>
       </c>
       <c r="E109">
-        <v>1968.24</v>
+        <v>1923.04</v>
       </c>
       <c r="F109">
-        <v>196.4381369</v>
+        <v>122.57199643</v>
       </c>
       <c r="G109">
-        <v>386575.5237916286</v>
+        <v>236398.5814210828</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44702.5</v>
+        <v>44707.29166666666</v>
       </c>
       <c r="B110">
-        <v>1968.83</v>
+        <v>1922.48</v>
       </c>
       <c r="C110">
-        <v>1970.39</v>
+        <v>1925.77</v>
       </c>
       <c r="D110">
-        <v>1954.18</v>
+        <v>1907.67</v>
       </c>
       <c r="E110">
-        <v>1967.92</v>
+        <v>1921.87</v>
       </c>
       <c r="F110">
-        <v>258.96724392</v>
+        <v>354.85778039</v>
       </c>
       <c r="G110">
-        <v>508431.8930300507</v>
+        <v>679612.9902244085</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44702.54166666666</v>
+        <v>44707.33333333334</v>
       </c>
       <c r="B111">
-        <v>1967.42</v>
+        <v>1921.64</v>
       </c>
       <c r="C111">
-        <v>1972.58</v>
+        <v>1926.33</v>
       </c>
       <c r="D111">
-        <v>1959.82</v>
+        <v>1909.3</v>
       </c>
       <c r="E111">
-        <v>1967.99</v>
+        <v>1924.97</v>
       </c>
       <c r="F111">
-        <v>93.6988589</v>
+        <v>312.01463872</v>
       </c>
       <c r="G111">
-        <v>184310.8273556512</v>
+        <v>598585.2181794087</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44702.58333333334</v>
+        <v>44707.375</v>
       </c>
       <c r="B112">
-        <v>1968.22</v>
+        <v>1924.97</v>
       </c>
       <c r="C112">
-        <v>1974.75</v>
+        <v>1925.25</v>
       </c>
       <c r="D112">
-        <v>1962.7</v>
+        <v>1813.45</v>
       </c>
       <c r="E112">
-        <v>1967.46</v>
+        <v>1832.26</v>
       </c>
       <c r="F112">
-        <v>144.60461046</v>
+        <v>4001.81946408</v>
       </c>
       <c r="G112">
-        <v>284875.2867288069</v>
+        <v>7401663.003257451</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>44702.625</v>
+        <v>44707.41666666666</v>
       </c>
       <c r="B113">
-        <v>1967.12</v>
+        <v>1831.07</v>
       </c>
       <c r="C113">
-        <v>1981.07</v>
+        <v>1848</v>
       </c>
       <c r="D113">
-        <v>1956.89</v>
+        <v>1820</v>
       </c>
       <c r="E113">
-        <v>1975.47</v>
+        <v>1837.18</v>
       </c>
       <c r="F113">
-        <v>377.26213555</v>
+        <v>2446.04737836</v>
       </c>
       <c r="G113">
-        <v>741548.9292563637</v>
+        <v>4482516.397424725</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>44702.66666666666</v>
+        <v>44707.45833333334</v>
       </c>
       <c r="B114">
-        <v>1975.47</v>
+        <v>1836</v>
       </c>
       <c r="C114">
-        <v>1981.13</v>
+        <v>1842.37</v>
       </c>
       <c r="D114">
-        <v>1960.59</v>
+        <v>1829.94</v>
       </c>
       <c r="E114">
-        <v>1978.4</v>
+        <v>1829.94</v>
       </c>
       <c r="F114">
-        <v>379.68401077</v>
+        <v>1194.50603106</v>
       </c>
       <c r="G114">
-        <v>750107.3234513502</v>
+        <v>2194180.417692596</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>44702.70833333334</v>
+        <v>44707.5</v>
       </c>
       <c r="B115">
-        <v>1978.4</v>
+        <v>1828.46</v>
       </c>
       <c r="C115">
-        <v>1988.23</v>
+        <v>1832.46</v>
       </c>
       <c r="D115">
-        <v>1974.62</v>
+        <v>1790.77</v>
       </c>
       <c r="E115">
-        <v>1979.06</v>
+        <v>1814.77</v>
       </c>
       <c r="F115">
-        <v>107.75179585</v>
+        <v>1449.26599597</v>
       </c>
       <c r="G115">
-        <v>213341.6794574321</v>
+        <v>2621572.67902903</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>44702.75</v>
+        <v>44707.54166666666</v>
       </c>
       <c r="B116">
-        <v>1979.31</v>
+        <v>1814.31</v>
       </c>
       <c r="C116">
-        <v>1983.18</v>
+        <v>1827.71</v>
       </c>
       <c r="D116">
-        <v>1970.79</v>
+        <v>1793.88</v>
       </c>
       <c r="E116">
-        <v>1974.09</v>
+        <v>1810</v>
       </c>
       <c r="F116">
-        <v>305.24163912</v>
+        <v>600.03823224</v>
       </c>
       <c r="G116">
-        <v>602810.3607721979</v>
+        <v>1085550.795129082</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>44702.79166666666</v>
+        <v>44707.58333333334</v>
       </c>
       <c r="B117">
-        <v>1974.09</v>
+        <v>1809.56</v>
       </c>
       <c r="C117">
-        <v>1982.52</v>
+        <v>1817.98</v>
       </c>
       <c r="D117">
-        <v>1974.09</v>
+        <v>1735</v>
       </c>
       <c r="E117">
-        <v>1982.36</v>
+        <v>1809.32</v>
       </c>
       <c r="F117">
-        <v>72.29641332999999</v>
+        <v>2295.24206554</v>
       </c>
       <c r="G117">
-        <v>143022.9165599269</v>
+        <v>4074958.774784643</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>44702.83333333334</v>
+        <v>44707.625</v>
       </c>
       <c r="B118">
-        <v>1982.45</v>
+        <v>1810.93</v>
       </c>
       <c r="C118">
-        <v>1987.03</v>
+        <v>1858</v>
       </c>
       <c r="D118">
-        <v>1974.21</v>
+        <v>1809.2</v>
       </c>
       <c r="E118">
-        <v>1978.98</v>
+        <v>1852.25</v>
       </c>
       <c r="F118">
-        <v>111.65015663</v>
+        <v>1311.01280979</v>
       </c>
       <c r="G118">
-        <v>220941.6729015645</v>
+        <v>2413211.900982016</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>44702.875</v>
+        <v>44707.66666666666</v>
       </c>
       <c r="B119">
-        <v>1979.65</v>
+        <v>1852.03</v>
       </c>
       <c r="C119">
-        <v>1982.98</v>
+        <v>1874.42</v>
       </c>
       <c r="D119">
-        <v>1970.57</v>
+        <v>1846.97</v>
       </c>
       <c r="E119">
-        <v>1974.46</v>
+        <v>1860.43</v>
       </c>
       <c r="F119">
-        <v>51.78331008</v>
+        <v>674.95993494</v>
       </c>
       <c r="G119">
-        <v>102292.711205826</v>
+        <v>1254721.824795086</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>44702.91666666666</v>
+        <v>44707.70833333334</v>
       </c>
       <c r="B120">
-        <v>1973.36</v>
+        <v>1860.43</v>
       </c>
       <c r="C120">
-        <v>1976.05</v>
+        <v>1905.93</v>
       </c>
       <c r="D120">
-        <v>1964.85</v>
+        <v>1859.74</v>
       </c>
       <c r="E120">
-        <v>1966.13</v>
+        <v>1881.71</v>
       </c>
       <c r="F120">
-        <v>143.51495387</v>
+        <v>1344.6997407</v>
       </c>
       <c r="G120">
-        <v>282962.2714723306</v>
+        <v>2533310.68995479</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>44702.95833333334</v>
+        <v>44707.75</v>
       </c>
       <c r="B121">
-        <v>1964.75</v>
+        <v>1881.66</v>
       </c>
       <c r="C121">
-        <v>1971.82</v>
+        <v>1886.4</v>
       </c>
       <c r="D121">
-        <v>1963.36</v>
+        <v>1866.57</v>
       </c>
       <c r="E121">
-        <v>1971.82</v>
+        <v>1875.76</v>
       </c>
       <c r="F121">
-        <v>88.81330672999999</v>
+        <v>616.23796856</v>
       </c>
       <c r="G121">
-        <v>174788.1946633495</v>
+        <v>1153773.529754064</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>44703</v>
+        <v>44707.79166666666</v>
       </c>
       <c r="B122">
-        <v>1971.93</v>
+        <v>1873.22</v>
       </c>
       <c r="C122">
-        <v>1978.4</v>
+        <v>1875.76</v>
       </c>
       <c r="D122">
-        <v>1970.55</v>
+        <v>1855.98</v>
       </c>
       <c r="E122">
-        <v>1973.24</v>
+        <v>1861.19</v>
       </c>
       <c r="F122">
-        <v>130.03985187</v>
+        <v>416.86927021</v>
       </c>
       <c r="G122">
-        <v>256688.313364636</v>
+        <v>776983.1523071454</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>44703.04166666666</v>
+        <v>44707.83333333334</v>
       </c>
       <c r="B123">
-        <v>1974.05</v>
+        <v>1860.84</v>
       </c>
       <c r="C123">
-        <v>1978.11</v>
+        <v>1860.93</v>
       </c>
       <c r="D123">
-        <v>1970</v>
+        <v>1825</v>
       </c>
       <c r="E123">
-        <v>1975.9</v>
+        <v>1825.97</v>
       </c>
       <c r="F123">
-        <v>117.51317623</v>
+        <v>493.21253797</v>
       </c>
       <c r="G123">
-        <v>231991.7560280049</v>
+        <v>906767.2423630744</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>44703.08333333334</v>
+        <v>44707.875</v>
       </c>
       <c r="B124">
-        <v>1975.89</v>
+        <v>1824.01</v>
       </c>
       <c r="C124">
-        <v>1981.59</v>
+        <v>1833.51</v>
       </c>
       <c r="D124">
-        <v>1974.61</v>
+        <v>1809.94</v>
       </c>
       <c r="E124">
-        <v>1978.51</v>
+        <v>1826.61</v>
       </c>
       <c r="F124">
-        <v>234.2454424</v>
+        <v>414.46958303</v>
       </c>
       <c r="G124">
-        <v>462960.8720221877</v>
+        <v>755200.538379474</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>44703.125</v>
+        <v>44707.91666666666</v>
       </c>
       <c r="B125">
-        <v>1977.58</v>
+        <v>1825.28</v>
       </c>
       <c r="C125">
-        <v>1977.87</v>
+        <v>1845.06</v>
       </c>
       <c r="D125">
-        <v>1969.51</v>
+        <v>1825.28</v>
       </c>
       <c r="E125">
-        <v>1973.44</v>
+        <v>1832.47</v>
       </c>
       <c r="F125">
-        <v>110.10641025</v>
+        <v>303.29449736</v>
       </c>
       <c r="G125">
-        <v>217231.2679768536</v>
+        <v>556670.9446913095</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>44703.16666666666</v>
+        <v>44707.95833333334</v>
       </c>
       <c r="B126">
-        <v>1971.58</v>
+        <v>1830.76</v>
       </c>
       <c r="C126">
-        <v>1978.22</v>
+        <v>1843.25</v>
       </c>
       <c r="D126">
-        <v>1970.06</v>
+        <v>1816.74</v>
       </c>
       <c r="E126">
-        <v>1972.62</v>
+        <v>1819</v>
       </c>
       <c r="F126">
-        <v>200.40248393</v>
+        <v>236.78011385</v>
       </c>
       <c r="G126">
-        <v>395806.9940190702</v>
+        <v>432956.1395346316</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>44703.20833333334</v>
+        <v>44708</v>
       </c>
       <c r="B127">
-        <v>1971.39</v>
+        <v>1818.64</v>
       </c>
       <c r="C127">
-        <v>1973.03</v>
+        <v>1826.57</v>
       </c>
       <c r="D127">
-        <v>1964.29</v>
+        <v>1787.72</v>
       </c>
       <c r="E127">
-        <v>1964.29</v>
+        <v>1791.38</v>
       </c>
       <c r="F127">
-        <v>132.87200948</v>
+        <v>450.29765844</v>
       </c>
       <c r="G127">
-        <v>261428.0785720306</v>
+        <v>814627.4507123583</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>44703.25</v>
+        <v>44708.04166666666</v>
       </c>
       <c r="B128">
-        <v>1964.06</v>
+        <v>1789.97</v>
       </c>
       <c r="C128">
-        <v>1972.85</v>
+        <v>1806.13</v>
       </c>
       <c r="D128">
-        <v>1964.06</v>
+        <v>1770</v>
       </c>
       <c r="E128">
-        <v>1969.91</v>
+        <v>1771.05</v>
       </c>
       <c r="F128">
-        <v>112.95589048</v>
+        <v>325.45396896</v>
       </c>
       <c r="G128">
-        <v>222467.1744066133</v>
+        <v>582078.5334581872</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>44703.29166666666</v>
+        <v>44708.08333333334</v>
       </c>
       <c r="B129">
-        <v>1969.91</v>
+        <v>1770.6</v>
       </c>
       <c r="C129">
-        <v>1973.87</v>
+        <v>1777.62</v>
       </c>
       <c r="D129">
-        <v>1969.69</v>
+        <v>1735</v>
       </c>
       <c r="E129">
-        <v>1972.88</v>
+        <v>1735.08</v>
       </c>
       <c r="F129">
-        <v>63.09160492</v>
+        <v>586.89658702</v>
       </c>
       <c r="G129">
-        <v>124400.5610006896</v>
+        <v>1029370.855914167</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>44703.33333333334</v>
+        <v>44708.125</v>
       </c>
       <c r="B130">
-        <v>1972.3</v>
+        <v>1737.77</v>
       </c>
       <c r="C130">
-        <v>1975.56</v>
+        <v>1766.23</v>
       </c>
       <c r="D130">
-        <v>1968.24</v>
+        <v>1722.22</v>
       </c>
       <c r="E130">
-        <v>1973.99</v>
+        <v>1751.69</v>
       </c>
       <c r="F130">
-        <v>115.32587213</v>
+        <v>869.0122433400001</v>
       </c>
       <c r="G130">
-        <v>227374.8429297717</v>
+        <v>1513710.554525332</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>44703.375</v>
+        <v>44708.16666666666</v>
       </c>
       <c r="B131">
-        <v>1973.99</v>
+        <v>1750.67</v>
       </c>
       <c r="C131">
-        <v>1983.3</v>
+        <v>1778</v>
       </c>
       <c r="D131">
-        <v>1971.36</v>
+        <v>1749.47</v>
       </c>
       <c r="E131">
-        <v>1982.61</v>
+        <v>1768.14</v>
       </c>
       <c r="F131">
-        <v>110.36116523</v>
+        <v>545.25469499</v>
       </c>
       <c r="G131">
-        <v>218374.1194099364</v>
+        <v>961899.6458859664</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>44703.41666666666</v>
+        <v>44708.20833333334</v>
       </c>
       <c r="B132">
-        <v>1982.36</v>
+        <v>1766.91</v>
       </c>
       <c r="C132">
-        <v>2033.49</v>
+        <v>1775.2</v>
       </c>
       <c r="D132">
-        <v>1982.09</v>
+        <v>1740.33</v>
       </c>
       <c r="E132">
-        <v>2026.72</v>
+        <v>1742.09</v>
       </c>
       <c r="F132">
-        <v>466.11981732</v>
+        <v>297.71933015</v>
       </c>
       <c r="G132">
-        <v>935247.9546330835</v>
+        <v>523291.4642224938</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>44703.45833333334</v>
+        <v>44708.25</v>
       </c>
       <c r="B133">
-        <v>2028.03</v>
+        <v>1741.92</v>
       </c>
       <c r="C133">
-        <v>2034.53</v>
+        <v>1756.62</v>
       </c>
       <c r="D133">
-        <v>2022.83</v>
+        <v>1711.54</v>
       </c>
       <c r="E133">
-        <v>2025.33</v>
+        <v>1733.56</v>
       </c>
       <c r="F133">
-        <v>242.24036636</v>
+        <v>862.5942016400001</v>
       </c>
       <c r="G133">
-        <v>491206.4519225357</v>
+        <v>1497261.893689595</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>44703.5</v>
+        <v>44708.29166666666</v>
       </c>
       <c r="B134">
-        <v>2026.33</v>
+        <v>1733.65</v>
       </c>
       <c r="C134">
-        <v>2032.25</v>
+        <v>1775</v>
       </c>
       <c r="D134">
-        <v>2010.81</v>
+        <v>1720.85</v>
       </c>
       <c r="E134">
-        <v>2015.01</v>
+        <v>1768.88</v>
       </c>
       <c r="F134">
-        <v>259.0405432</v>
+        <v>911.91843728</v>
       </c>
       <c r="G134">
-        <v>523090.9607522863</v>
+        <v>1594874.364229875</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>44703.54166666666</v>
+        <v>44708.33333333334</v>
       </c>
       <c r="B135">
-        <v>2015.27</v>
+        <v>1770.08</v>
       </c>
       <c r="C135">
-        <v>2030</v>
+        <v>1796.62</v>
       </c>
       <c r="D135">
-        <v>2015.27</v>
+        <v>1761.47</v>
       </c>
       <c r="E135">
-        <v>2024.33</v>
+        <v>1761.47</v>
       </c>
       <c r="F135">
-        <v>233.53106254</v>
+        <v>1369.43771145</v>
       </c>
       <c r="G135">
-        <v>472428.5645920543</v>
+        <v>2429052.560211811</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>44703.58333333334</v>
+        <v>44708.375</v>
       </c>
       <c r="B136">
-        <v>2023.45</v>
+        <v>1762.37</v>
       </c>
       <c r="C136">
-        <v>2024.24</v>
+        <v>1789.7</v>
       </c>
       <c r="D136">
-        <v>2015.53</v>
+        <v>1750</v>
       </c>
       <c r="E136">
-        <v>2020.25</v>
+        <v>1762.59</v>
       </c>
       <c r="F136">
-        <v>80.36639134000001</v>
+        <v>1366.97420904</v>
       </c>
       <c r="G136">
-        <v>162328.1668803959</v>
+        <v>2419589.44181346</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>44703.625</v>
+        <v>44708.41666666666</v>
       </c>
       <c r="B137">
-        <v>2018.78</v>
+        <v>1764.9</v>
       </c>
       <c r="C137">
-        <v>2024.92</v>
+        <v>1784.37</v>
       </c>
       <c r="D137">
-        <v>2013.38</v>
+        <v>1759.93</v>
       </c>
       <c r="E137">
-        <v>2015.72</v>
+        <v>1784.01</v>
       </c>
       <c r="F137">
-        <v>178.34535064</v>
+        <v>1055.15045842</v>
       </c>
       <c r="G137">
-        <v>360198.4933182234</v>
+        <v>1872069.478522748</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>44703.66666666666</v>
+        <v>44708.45833333334</v>
       </c>
       <c r="B138">
-        <v>2015.72</v>
+        <v>1781.38</v>
       </c>
       <c r="C138">
-        <v>2016.83</v>
+        <v>1786.28</v>
       </c>
       <c r="D138">
-        <v>1988.86</v>
+        <v>1755.03</v>
       </c>
       <c r="E138">
-        <v>2002.83</v>
+        <v>1755.46</v>
       </c>
       <c r="F138">
-        <v>211.36038687</v>
+        <v>544.47526565</v>
       </c>
       <c r="G138">
-        <v>422837.6299711582</v>
+        <v>963881.1888230961</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>44703.70833333334</v>
+        <v>44708.5</v>
       </c>
       <c r="B139">
-        <v>2002.52</v>
+        <v>1758.32</v>
       </c>
       <c r="C139">
-        <v>2010.6</v>
+        <v>1786.87</v>
       </c>
       <c r="D139">
-        <v>1990.62</v>
+        <v>1753.82</v>
       </c>
       <c r="E139">
-        <v>2008.05</v>
+        <v>1769.29</v>
       </c>
       <c r="F139">
-        <v>460.85726062</v>
+        <v>800.38436142</v>
       </c>
       <c r="G139">
-        <v>924046.7829873316</v>
+        <v>1416954.575372691</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>44703.75</v>
+        <v>44708.54166666666</v>
       </c>
       <c r="B140">
-        <v>2007.65</v>
+        <v>1768.71</v>
       </c>
       <c r="C140">
-        <v>2020.54</v>
+        <v>1819.49</v>
       </c>
       <c r="D140">
-        <v>2002.39</v>
+        <v>1762.14</v>
       </c>
       <c r="E140">
-        <v>2004.57</v>
+        <v>1811.86</v>
       </c>
       <c r="F140">
-        <v>1650.18870641</v>
+        <v>1497.95611745</v>
       </c>
       <c r="G140">
-        <v>3312112.320384369</v>
+        <v>2703416.639904987</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>44703.79166666666</v>
+        <v>44708.58333333334</v>
       </c>
       <c r="B141">
-        <v>2003.64</v>
+        <v>1811.1</v>
       </c>
       <c r="C141">
-        <v>2014.22</v>
+        <v>1819.09</v>
       </c>
       <c r="D141">
-        <v>2000.94</v>
+        <v>1793.57</v>
       </c>
       <c r="E141">
-        <v>2012.23</v>
+        <v>1812.16</v>
       </c>
       <c r="F141">
-        <v>1203.4763095</v>
+        <v>735.54175885</v>
       </c>
       <c r="G141">
-        <v>2413059.707930889</v>
+        <v>1326695.755921223</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>44703.83333333334</v>
+        <v>44708.625</v>
       </c>
       <c r="B142">
-        <v>2011.62</v>
+        <v>1814.32</v>
       </c>
       <c r="C142">
-        <v>2015.54</v>
+        <v>1815.03</v>
       </c>
       <c r="D142">
-        <v>2003.66</v>
+        <v>1761.24</v>
       </c>
       <c r="E142">
-        <v>2005.57</v>
+        <v>1765.63</v>
       </c>
       <c r="F142">
-        <v>92.25980810999999</v>
+        <v>1474.31854694</v>
       </c>
       <c r="G142">
-        <v>185464.4767806378</v>
+        <v>2638327.176063568</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>44703.875</v>
+        <v>44708.66666666666</v>
       </c>
       <c r="B143">
-        <v>2005.57</v>
+        <v>1767.38</v>
       </c>
       <c r="C143">
-        <v>2015.25</v>
+        <v>1776.64</v>
       </c>
       <c r="D143">
-        <v>2004.72</v>
+        <v>1754.57</v>
       </c>
       <c r="E143">
-        <v>2005.8</v>
+        <v>1761.21</v>
       </c>
       <c r="F143">
-        <v>110.05111886</v>
+        <v>2203.61989046</v>
       </c>
       <c r="G143">
-        <v>221304.3819034978</v>
+        <v>3894929.707575491</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>44703.91666666666</v>
+        <v>44708.70833333334</v>
       </c>
       <c r="B144">
-        <v>2005.81</v>
+        <v>1761.21</v>
       </c>
       <c r="C144">
-        <v>2016.99</v>
+        <v>1771.38</v>
       </c>
       <c r="D144">
-        <v>2003.67</v>
+        <v>1736.95</v>
       </c>
       <c r="E144">
-        <v>2015.76</v>
+        <v>1744.84</v>
       </c>
       <c r="F144">
-        <v>117.13253143</v>
+        <v>1484.71801027</v>
       </c>
       <c r="G144">
-        <v>235424.1745624785</v>
+        <v>2607488.208350705</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>44703.95833333334</v>
+        <v>44708.75</v>
       </c>
       <c r="B145">
-        <v>2015.87</v>
+        <v>1743.74</v>
       </c>
       <c r="C145">
-        <v>2047.38</v>
+        <v>1756.48</v>
       </c>
       <c r="D145">
-        <v>2015.87</v>
+        <v>1723.51</v>
       </c>
       <c r="E145">
-        <v>2033.94</v>
+        <v>1729.54</v>
       </c>
       <c r="F145">
-        <v>307.3581627</v>
+        <v>769.5390319099999</v>
       </c>
       <c r="G145">
-        <v>625491.2919051154</v>
+        <v>1336262.906650944</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>44704</v>
+        <v>44708.79166666666</v>
       </c>
       <c r="B146">
-        <v>2034.45</v>
+        <v>1728.61</v>
       </c>
       <c r="C146">
-        <v>2053.71</v>
+        <v>1734</v>
       </c>
       <c r="D146">
-        <v>2034.45</v>
+        <v>1713.58</v>
       </c>
       <c r="E146">
-        <v>2040.72</v>
+        <v>1726.1</v>
       </c>
       <c r="F146">
-        <v>226.38612734</v>
+        <v>654.5210051400001</v>
       </c>
       <c r="G146">
-        <v>463072.9586154526</v>
+        <v>1129464.317749031</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>44704.04166666666</v>
+        <v>44708.83333333334</v>
       </c>
       <c r="B147">
-        <v>2039.93</v>
+        <v>1725.93</v>
       </c>
       <c r="C147">
-        <v>2054.8</v>
+        <v>1766.14</v>
       </c>
       <c r="D147">
-        <v>2035.28</v>
+        <v>1718.69</v>
       </c>
       <c r="E147">
-        <v>2041.09</v>
+        <v>1752.13</v>
       </c>
       <c r="F147">
-        <v>211.0844308</v>
+        <v>983.84610103</v>
       </c>
       <c r="G147">
-        <v>430937.6212129339</v>
+        <v>1709727.034369144</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>44704.08333333334</v>
+        <v>44708.875</v>
       </c>
       <c r="B148">
-        <v>2040.49</v>
+        <v>1750.23</v>
       </c>
       <c r="C148">
-        <v>2040.49</v>
+        <v>1770.61</v>
       </c>
       <c r="D148">
-        <v>2028.99</v>
+        <v>1741.01</v>
       </c>
       <c r="E148">
-        <v>2032.14</v>
+        <v>1742.34</v>
       </c>
       <c r="F148">
-        <v>265.88069395</v>
+        <v>1028.69449929</v>
       </c>
       <c r="G148">
-        <v>540416.1694487606</v>
+        <v>1806966.679741909</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>44704.125</v>
+        <v>44708.91666666666</v>
       </c>
       <c r="B149">
-        <v>2031.21</v>
+        <v>1744.42</v>
       </c>
       <c r="C149">
-        <v>2032.24</v>
+        <v>1751.08</v>
       </c>
       <c r="D149">
-        <v>2017.38</v>
+        <v>1729.84</v>
       </c>
       <c r="E149">
-        <v>2026.65</v>
+        <v>1734.45</v>
       </c>
       <c r="F149">
-        <v>239.56641057</v>
+        <v>410.52680115</v>
       </c>
       <c r="G149">
-        <v>484947.1747201666</v>
+        <v>716816.435945629</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>44704.16666666666</v>
+        <v>44708.95833333334</v>
       </c>
       <c r="B150">
-        <v>2026.64</v>
+        <v>1730.3</v>
       </c>
       <c r="C150">
-        <v>2032.64</v>
+        <v>1753.74</v>
       </c>
       <c r="D150">
-        <v>2024.82</v>
+        <v>1724.42</v>
       </c>
       <c r="E150">
-        <v>2029.52</v>
+        <v>1739.7</v>
       </c>
       <c r="F150">
-        <v>90.98976098999999</v>
+        <v>2584.10475445</v>
       </c>
       <c r="G150">
-        <v>184591.3408272998</v>
+        <v>4505744.165338672</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>44704.20833333334</v>
+        <v>44709</v>
       </c>
       <c r="B151">
-        <v>2028.17</v>
+        <v>1740.1</v>
       </c>
       <c r="C151">
-        <v>2035.72</v>
+        <v>1742.68</v>
       </c>
       <c r="D151">
-        <v>2024.78</v>
+        <v>1700.81</v>
       </c>
       <c r="E151">
-        <v>2026.39</v>
+        <v>1722.9</v>
       </c>
       <c r="F151">
-        <v>289.11603254</v>
+        <v>3082.58783699</v>
       </c>
       <c r="G151">
-        <v>587393.076552904</v>
+        <v>5311772.929192444</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>44704.25</v>
+        <v>44709.04166666666</v>
       </c>
       <c r="B152">
-        <v>2026.39</v>
+        <v>1728.25</v>
       </c>
       <c r="C152">
-        <v>2042.85</v>
+        <v>1746.94</v>
       </c>
       <c r="D152">
-        <v>2024.53</v>
+        <v>1721.27</v>
       </c>
       <c r="E152">
-        <v>2041.09</v>
+        <v>1745.75</v>
       </c>
       <c r="F152">
-        <v>164.27900908</v>
+        <v>229.79795818</v>
       </c>
       <c r="G152">
-        <v>334137.8354793978</v>
+        <v>399128.4586147028</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>44704.29166666666</v>
+        <v>44709.08333333334</v>
       </c>
       <c r="B153">
-        <v>2041.04</v>
+        <v>1745.83</v>
       </c>
       <c r="C153">
-        <v>2059.39</v>
+        <v>1749.69</v>
       </c>
       <c r="D153">
-        <v>2037.52</v>
+        <v>1724.81</v>
       </c>
       <c r="E153">
-        <v>2056.05</v>
+        <v>1726.98</v>
       </c>
       <c r="F153">
-        <v>673.16480629</v>
+        <v>393.93157905</v>
       </c>
       <c r="G153">
-        <v>1377581.932872094</v>
+        <v>683680.3970370743</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>44704.33333333334</v>
+        <v>44709.125</v>
       </c>
       <c r="B154">
-        <v>2056.1</v>
+        <v>1729.16</v>
       </c>
       <c r="C154">
-        <v>2078.94</v>
+        <v>1740.01</v>
       </c>
       <c r="D154">
-        <v>2047.49</v>
+        <v>1719.97</v>
       </c>
       <c r="E154">
-        <v>2064.98</v>
+        <v>1727.13</v>
       </c>
       <c r="F154">
-        <v>732.5664458799999</v>
+        <v>240.25991723</v>
       </c>
       <c r="G154">
-        <v>1509623.87649903</v>
+        <v>416074.3146680568</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>44704.375</v>
+        <v>44709.16666666666</v>
       </c>
       <c r="B155">
-        <v>2065.39</v>
+        <v>1727.06</v>
       </c>
       <c r="C155">
-        <v>2071.64</v>
+        <v>1765.44</v>
       </c>
       <c r="D155">
-        <v>2050</v>
+        <v>1720.63</v>
       </c>
       <c r="E155">
-        <v>2054.12</v>
+        <v>1763.07</v>
       </c>
       <c r="F155">
-        <v>375.71708528</v>
+        <v>671.34142778</v>
       </c>
       <c r="G155">
-        <v>772974.6799828726</v>
+        <v>1171280.9924531</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>44704.41666666666</v>
+        <v>44709.20833333334</v>
       </c>
       <c r="B156">
-        <v>2054.25</v>
+        <v>1764.1</v>
       </c>
       <c r="C156">
-        <v>2068.99</v>
+        <v>1765.24</v>
       </c>
       <c r="D156">
-        <v>2050.47</v>
+        <v>1752.49</v>
       </c>
       <c r="E156">
-        <v>2065.76</v>
+        <v>1759.96</v>
       </c>
       <c r="F156">
-        <v>213.31278176</v>
+        <v>393.96925634</v>
       </c>
       <c r="G156">
-        <v>439125.033134501</v>
+        <v>693083.0062700459</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>44704.45833333334</v>
+        <v>44709.25</v>
       </c>
       <c r="B157">
-        <v>2066.47</v>
+        <v>1760.87</v>
       </c>
       <c r="C157">
-        <v>2074.22</v>
+        <v>1782</v>
       </c>
       <c r="D157">
-        <v>2063.61</v>
+        <v>1752.7</v>
       </c>
       <c r="E157">
-        <v>2071.97</v>
+        <v>1769.12</v>
       </c>
       <c r="F157">
-        <v>267.72022753</v>
+        <v>789.4496228199999</v>
       </c>
       <c r="G157">
-        <v>553728.4002776247</v>
+        <v>1394671.041109807</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>44704.5</v>
+        <v>44709.29166666666</v>
       </c>
       <c r="B158">
-        <v>2071.16</v>
+        <v>1769.19</v>
       </c>
       <c r="C158">
-        <v>2083.4</v>
+        <v>1772.2</v>
       </c>
       <c r="D158">
-        <v>2064.48</v>
+        <v>1763.34</v>
       </c>
       <c r="E158">
-        <v>2067.05</v>
+        <v>1763.64</v>
       </c>
       <c r="F158">
-        <v>272.21856496</v>
+        <v>396.20336082</v>
       </c>
       <c r="G158">
-        <v>563793.2250948694</v>
+        <v>699977.9485973523</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>44704.54166666666</v>
+        <v>44709.33333333334</v>
       </c>
       <c r="B159">
-        <v>2067.82</v>
+        <v>1764.61</v>
       </c>
       <c r="C159">
-        <v>2085</v>
+        <v>1766.8</v>
       </c>
       <c r="D159">
-        <v>2061.81</v>
+        <v>1756.64</v>
       </c>
       <c r="E159">
-        <v>2063.71</v>
+        <v>1763.4</v>
       </c>
       <c r="F159">
-        <v>1698.68797129</v>
+        <v>398.32752129</v>
       </c>
       <c r="G159">
-        <v>3532018.333014741</v>
+        <v>701514.8372396431</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>44704.58333333334</v>
+        <v>44709.375</v>
       </c>
       <c r="B160">
-        <v>2064.21</v>
+        <v>1763.4</v>
       </c>
       <c r="C160">
-        <v>2076.39</v>
+        <v>1768.91</v>
       </c>
       <c r="D160">
-        <v>2043.12</v>
+        <v>1747</v>
       </c>
       <c r="E160">
-        <v>2055.61</v>
+        <v>1758.6</v>
       </c>
       <c r="F160">
-        <v>390.17073174</v>
+        <v>534.53363947</v>
       </c>
       <c r="G160">
-        <v>805724.5827611514</v>
+        <v>941141.0159399032</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>44704.625</v>
+        <v>44709.41666666666</v>
       </c>
       <c r="B161">
-        <v>2055.38</v>
+        <v>1760.19</v>
       </c>
       <c r="C161">
-        <v>2064.36</v>
+        <v>1763.37</v>
       </c>
       <c r="D161">
-        <v>2035.62</v>
+        <v>1750</v>
       </c>
       <c r="E161">
-        <v>2055.76</v>
+        <v>1756.72</v>
       </c>
       <c r="F161">
-        <v>571.28387962</v>
+        <v>417.51600911</v>
       </c>
       <c r="G161">
-        <v>1170307.086414912</v>
+        <v>733140.3756527713</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>44704.66666666666</v>
+        <v>44709.45833333334</v>
       </c>
       <c r="B162">
-        <v>2057.03</v>
+        <v>1755.89</v>
       </c>
       <c r="C162">
-        <v>2066.71</v>
+        <v>1762.57</v>
       </c>
       <c r="D162">
-        <v>2054</v>
+        <v>1748.68</v>
       </c>
       <c r="E162">
-        <v>2064.47</v>
+        <v>1759.9</v>
       </c>
       <c r="F162">
-        <v>25.51300468</v>
+        <v>246.0513562</v>
       </c>
       <c r="G162">
-        <v>52629.9920531376</v>
+        <v>432026.172940157</v>
       </c>
     </row>
   </sheetData>
